--- a/Documents/External/Residual_Anomalies_CommLib_Android_JaiVis-20161118-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_CommLib_Android_JaiVis-20161118-01V01.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27715"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="689" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="689" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
   <si>
     <t>1.1</t>
   </si>
@@ -354,9 +354,6 @@
     <t>JaiVis-20161118-01V01</t>
   </si>
   <si>
-    <t>2016-NOV-18</t>
-  </si>
-  <si>
     <t>Jaime Visser</t>
   </si>
   <si>
@@ -401,48 +398,56 @@
     <t>Document creation, and new release</t>
   </si>
   <si>
+    <t>COM-191</t>
+  </si>
+  <si>
+    <t>Cannot related failed requests to original requests in case of queueing</t>
+  </si>
+  <si>
+    <t>COM-83</t>
+  </si>
+  <si>
+    <t>Small legal issue, format of copyright notice in code is incorrect</t>
+  </si>
+  <si>
+    <t>COM-13</t>
+  </si>
+  <si>
+    <t>SampleApp does not switch from local to remote requests (and vice versa)</t>
+  </si>
+  <si>
+    <t>COM-7</t>
+  </si>
+  <si>
+    <t>Register Protocol Addresses Request Android</t>
+  </si>
+  <si>
+    <t>COM-5</t>
+  </si>
+  <si>
+    <t>Push notification languages are not updated when locale changes</t>
+  </si>
+  <si>
+    <t>COM-4</t>
+  </si>
+  <si>
+    <t>Connect screen shows devices that actually are not present on the local network</t>
+  </si>
+  <si>
+    <t>Document creation, and update for release 2.0.0</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Document creation, and update for release </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;release id&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Conclusion: The build </t>
+      <t>Conclusion: The build can be released becaus</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;can/cannot&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> be released because </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;reason&gt;</t>
+      <t>e there are no major anomalies</t>
     </r>
     <r>
       <rPr>
@@ -454,47 +459,26 @@
     </r>
   </si>
   <si>
-    <t>COM-191</t>
-  </si>
-  <si>
-    <t>Cannot related failed requests to original requests in case of queueing</t>
-  </si>
-  <si>
-    <t>COM-83</t>
-  </si>
-  <si>
-    <t>Small legal issue, format of copyright notice in code is incorrect</t>
-  </si>
-  <si>
-    <t>COM-13</t>
-  </si>
-  <si>
-    <t>SampleApp does not switch from local to remote requests (and vice versa)</t>
-  </si>
-  <si>
-    <t>COM-7</t>
-  </si>
-  <si>
-    <t>Register Protocol Addresses Request Android</t>
-  </si>
-  <si>
-    <t>COM-5</t>
-  </si>
-  <si>
-    <t>Push notification languages are not updated when locale changes</t>
-  </si>
-  <si>
-    <t>COM-4</t>
-  </si>
-  <si>
-    <t>Connect screen shows devices that actually are not present on the local network</t>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>2016-Dec-01</t>
+  </si>
+  <si>
+    <t>Update after review comment</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>2016-DEC-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,12 +751,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -830,7 +808,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1085,6 +1063,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1093,7 +1084,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1374,6 +1365,10 @@
     <xf numFmtId="0" fontId="37" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2306,8 +2301,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:F7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="B6:F7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:F8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="B6:F8"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Version"/>
     <tableColumn id="2" name="Date" dataDxfId="1"/>
@@ -2612,7 +2607,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2631,7 +2626,7 @@
         <v>43</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2696,7 +2691,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
@@ -2748,17 +2743,17 @@
         <v>13</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="105"/>
       <c r="F13" s="28" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2766,7 +2761,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="D14" s="105"/>
       <c r="E14" s="105"/>
@@ -2862,7 +2857,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="6"/>
       <c r="E1" s="6"/>
@@ -2897,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="112" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="113"/>
       <c r="F6" s="114"/>
@@ -2910,7 +2905,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="115" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="115"/>
       <c r="F7" s="115"/>
@@ -3080,7 +3075,7 @@
   <dimension ref="B1:N179"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3096,7 +3091,7 @@
   <sheetData>
     <row r="1" spans="2:14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3182,16 +3177,16 @@
         <v>45</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F7" s="89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -3202,12 +3197,22 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
+    <row r="8" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="B8" s="135" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="136" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="135" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="135" t="s">
+        <v>91</v>
+      </c>
       <c r="G8" s="100"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -5819,7 +5824,7 @@
   <sheetData>
     <row r="1" spans="2:37" s="34" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="35"/>
       <c r="E1" s="36"/>
@@ -6137,8 +6142,8 @@
   </sheetPr>
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6850,7 +6855,7 @@
   <sheetData>
     <row r="1" spans="2:4" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6898,7 +6903,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="37"/>
     </row>
@@ -6907,7 +6912,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="39"/>
     </row>
@@ -6918,7 +6923,7 @@
     </row>
     <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -6951,8 +6956,8 @@
   </sheetPr>
   <dimension ref="B1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7663,7 +7668,7 @@
   <sheetData>
     <row r="1" spans="2:34" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:34" ht="35" customHeight="1" x14ac:dyDescent="0.15">
@@ -7687,10 +7692,10 @@
     </row>
     <row r="4" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="94" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>52</v>
@@ -7703,10 +7708,10 @@
     </row>
     <row r="5" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="94" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>52</v>
@@ -7719,10 +7724,10 @@
     </row>
     <row r="6" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="94" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6" s="69" t="s">
         <v>51</v>
@@ -7735,10 +7740,10 @@
     </row>
     <row r="7" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="94" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D7" s="69" t="s">
         <v>51</v>
@@ -7751,10 +7756,10 @@
     </row>
     <row r="8" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="94" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>51</v>
@@ -7767,10 +7772,10 @@
     </row>
     <row r="9" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="94" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C9" s="95" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D9" s="69" t="s">
         <v>51</v>
@@ -7915,52 +7920,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <View_x0020_CRM xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_CRM>
-    <View_x0020_Qua xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Qua>
-    <Document_x0020_author xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
-      <UserInfo>
-        <DisplayName>Jacobs, Frans</DisplayName>
-        <AccountId>1</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Document_x0020_author>
-    <Document_x0020_type xmlns="5db227b6-3c56-4158-ad71-bd648583e357">Template</Document_x0020_type>
-    <View_x0020_Eng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_Eng>
-    <View_x0020_Production xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</View_x0020_Production>
-    <Relevant_x0020_to_x0020_ISO_x0020_13485 xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Relevant_x0020_to_x0020_ISO_x0020_13485>
-    <PInS_x0020_department xmlns="5db227b6-3c56-4158-ad71-bd648583e357">140 Software</PInS_x0020_department>
-    <Doc_x0020_nr. xmlns="5db227b6-3c56-4158-ad71-bd648583e357">BMS-REA-719</Doc_x0020_nr.>
-    <DLCPolicyLabelLock xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a" xsi:nil="true"/>
-    <Linked_x0020_to_x0020_PQRS xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</Linked_x0020_to_x0020_PQRS>
-    <Safety_x0020_relevant xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Safety_x0020_relevant>
-    <Approver xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
-      <UserInfo>
-        <DisplayName>Jacobs, Frans</DisplayName>
-        <AccountId>1</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Approver>
-    <Reviewers xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Reviewers>
-    <Process xmlns="5db227b6-3c56-4158-ad71-bd648583e357">04 Realisation</Process>
-    <View_x0020_PL xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_PL>
-    <View_x0020_Mng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Mng>
-    <DLCPolicyLabelClientValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">{_UIVersionString}
-{_ModerationStatus}</DLCPolicyLabelClientValue>
-    <DLCPolicyLabelValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">1.0
-Approved</DLCPolicyLabelValue>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="02 Departmental document" ma:contentTypeID="0x0101001E9AF57F6A6FB1498E6BAB1704371DB9020048B3E13A56EC2B4880B8E17388254DB6" ma:contentTypeVersion="42" ma:contentTypeDescription="A document under departmental control" ma:contentTypeScope="" ma:versionID="28e15f56482d8af7e67347cbef2a0996">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5db227b6-3c56-4158-ad71-bd648583e357" xmlns:ns3="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa83b77159cc0e9c22a0bfa7b50ba950" ns2:_="" ns3:_="">
     <xsd:import namespace="5db227b6-3c56-4158-ad71-bd648583e357"/>
@@ -8350,7 +8309,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <p:Policy xmlns:p="office.server.policy" id="" local="true">
   <p:Name>02 Departmental document</p:Name>
@@ -8372,7 +8331,7 @@
 </p:Policy>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8381,24 +8340,53 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1320B1-D764-4C81-9B48-5F60482C3805}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5db227b6-3c56-4158-ad71-bd648583e357"/>
-    <ds:schemaRef ds:uri="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <View_x0020_CRM xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_CRM>
+    <View_x0020_Qua xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Qua>
+    <Document_x0020_author xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
+      <UserInfo>
+        <DisplayName>Jacobs, Frans</DisplayName>
+        <AccountId>1</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Document_x0020_author>
+    <Document_x0020_type xmlns="5db227b6-3c56-4158-ad71-bd648583e357">Template</Document_x0020_type>
+    <View_x0020_Eng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_Eng>
+    <View_x0020_Production xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</View_x0020_Production>
+    <Relevant_x0020_to_x0020_ISO_x0020_13485 xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Relevant_x0020_to_x0020_ISO_x0020_13485>
+    <PInS_x0020_department xmlns="5db227b6-3c56-4158-ad71-bd648583e357">140 Software</PInS_x0020_department>
+    <Doc_x0020_nr. xmlns="5db227b6-3c56-4158-ad71-bd648583e357">BMS-REA-719</Doc_x0020_nr.>
+    <DLCPolicyLabelLock xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a" xsi:nil="true"/>
+    <Linked_x0020_to_x0020_PQRS xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</Linked_x0020_to_x0020_PQRS>
+    <Safety_x0020_relevant xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Safety_x0020_relevant>
+    <Approver xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
+      <UserInfo>
+        <DisplayName>Jacobs, Frans</DisplayName>
+        <AccountId>1</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Approver>
+    <Reviewers xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Reviewers>
+    <Process xmlns="5db227b6-3c56-4158-ad71-bd648583e357">04 Realisation</Process>
+    <View_x0020_PL xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_PL>
+    <View_x0020_Mng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Mng>
+    <DLCPolicyLabelClientValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">{_UIVersionString}
+{_ModerationStatus}</DLCPolicyLabelClientValue>
+    <DLCPolicyLabelValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">1.0
+Approved</DLCPolicyLabelValue>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3331877D-A973-4A26-8E19-E1DD744074D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8417,7 +8405,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E0ECFB5-0E65-4944-A2C3-A12752EA8F83}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="office.server.policy"/>
@@ -8425,10 +8413,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F20991C-9C75-4A23-AD56-83877EA734AB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1320B1-D764-4C81-9B48-5F60482C3805}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5db227b6-3c56-4158-ad71-bd648583e357"/>
+    <ds:schemaRef ds:uri="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/External/Residual_Anomalies_CommLib_Android_JaiVis-20161118-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_CommLib_Android_JaiVis-20161118-01V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="689" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="689" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -1298,6 +1298,10 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1365,10 +1369,6 @@
     <xf numFmtId="0" fontId="37" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2657,11 +2657,11 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2727,10 +2727,10 @@
       <c r="C12" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="104"/>
+      <c r="E12" s="106"/>
       <c r="F12" s="28" t="s">
         <v>16</v>
       </c>
@@ -2745,10 +2745,10 @@
       <c r="C13" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="105"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="28" t="s">
         <v>17</v>
       </c>
@@ -2763,8 +2763,8 @@
       <c r="C14" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
       <c r="F14" s="28" t="s">
         <v>18</v>
       </c>
@@ -2891,11 +2891,11 @@
       <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="D6" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="113"/>
-      <c r="F6" s="114"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="116"/>
     </row>
     <row r="7" spans="2:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
@@ -2904,11 +2904,11 @@
       <c r="C7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
     </row>
     <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31" t="s">
@@ -2960,27 +2960,27 @@
       <c r="D12" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="116" t="s">
+      <c r="E12" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="116"/>
+      <c r="F12" s="118"/>
     </row>
     <row r="13" spans="2:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="31"/>
       <c r="D13" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="107"/>
+      <c r="F13" s="109"/>
     </row>
     <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="32"/>
       <c r="C14" s="30"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="109"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="111"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
@@ -2993,8 +2993,8 @@
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="111"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="113"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
@@ -3198,19 +3198,19 @@
       <c r="N7" s="17"/>
     </row>
     <row r="8" spans="2:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="136" t="s">
+      <c r="D8" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="135" t="s">
+      <c r="E8" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="135" t="s">
+      <c r="F8" s="103" t="s">
         <v>91</v>
       </c>
       <c r="G8" s="100"/>
@@ -5914,19 +5914,19 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:37" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
     </row>
     <row r="5" spans="2:37" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="45"/>
@@ -5945,29 +5945,29 @@
       <c r="B6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="129"/>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B7" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="130"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
       <c r="M7" s="51"/>
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
@@ -5978,15 +5978,15 @@
       <c r="B8" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="133"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="135"/>
       <c r="M8" s="51"/>
       <c r="N8" s="51"/>
       <c r="O8" s="51"/>
@@ -5997,15 +5997,15 @@
       <c r="B9" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="124"/>
       <c r="M9" s="51"/>
       <c r="N9" s="51"/>
       <c r="O9" s="51"/>
@@ -6030,15 +6030,15 @@
       <c r="B11" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="121"/>
     </row>
     <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="64"/>
@@ -6142,8 +6142,8 @@
   </sheetPr>
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6860,11 +6860,11 @@
     </row>
     <row r="2" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="37"/>
@@ -6956,8 +6956,8 @@
   </sheetPr>
   <dimension ref="B1:AH29"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7690,14 +7690,14 @@
       <c r="AG3" s="34"/>
       <c r="AH3" s="34"/>
     </row>
-    <row r="4" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:34" ht="16" x14ac:dyDescent="0.15">
       <c r="B4" s="94" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="84" t="s">
         <v>52</v>
       </c>
       <c r="AD4" s="34"/>
@@ -7706,14 +7706,14 @@
       <c r="AG4" s="34"/>
       <c r="AH4" s="34"/>
     </row>
-    <row r="5" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:34" ht="16" x14ac:dyDescent="0.15">
       <c r="B5" s="94" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="84" t="s">
         <v>52</v>
       </c>
       <c r="AD5" s="34"/>

--- a/Documents/External/Residual_Anomalies_CommLib_Android_JaiVis-20161118-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_CommLib_Android_JaiVis-20161118-01V01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/310228256/dev/dicomm-android/Documents/External/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_users\Gaal_CoCo-s\components\CommLib\Android\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="689" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="689" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -56,9 +56,6 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -67,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>1.1</t>
   </si>
@@ -236,9 +233,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>draft</t>
-  </si>
-  <si>
     <t>0.1</t>
   </si>
   <si>
@@ -354,9 +348,6 @@
     <t>JaiVis-20161118-01V01</t>
   </si>
   <si>
-    <t>2016-NOV-18</t>
-  </si>
-  <si>
     <t>Jaime Visser</t>
   </si>
   <si>
@@ -401,48 +392,56 @@
     <t>Document creation, and new release</t>
   </si>
   <si>
+    <t>COM-191</t>
+  </si>
+  <si>
+    <t>Cannot related failed requests to original requests in case of queueing</t>
+  </si>
+  <si>
+    <t>COM-83</t>
+  </si>
+  <si>
+    <t>Small legal issue, format of copyright notice in code is incorrect</t>
+  </si>
+  <si>
+    <t>COM-13</t>
+  </si>
+  <si>
+    <t>SampleApp does not switch from local to remote requests (and vice versa)</t>
+  </si>
+  <si>
+    <t>COM-7</t>
+  </si>
+  <si>
+    <t>Register Protocol Addresses Request Android</t>
+  </si>
+  <si>
+    <t>COM-5</t>
+  </si>
+  <si>
+    <t>Push notification languages are not updated when locale changes</t>
+  </si>
+  <si>
+    <t>COM-4</t>
+  </si>
+  <si>
+    <t>Connect screen shows devices that actually are not present on the local network</t>
+  </si>
+  <si>
+    <t>Document creation, and update for release 2.0.0</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Document creation, and update for release </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;release id&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Conclusion: The build </t>
+      <t>Conclusion: The build can be released becaus</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;can/cannot&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> be released because </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;reason&gt;</t>
+      <t>e there are no major anomalies</t>
     </r>
     <r>
       <rPr>
@@ -454,47 +453,44 @@
     </r>
   </si>
   <si>
-    <t>COM-191</t>
-  </si>
-  <si>
-    <t>Cannot related failed requests to original requests in case of queueing</t>
-  </si>
-  <si>
-    <t>COM-83</t>
-  </si>
-  <si>
-    <t>Small legal issue, format of copyright notice in code is incorrect</t>
-  </si>
-  <si>
-    <t>COM-13</t>
-  </si>
-  <si>
-    <t>SampleApp does not switch from local to remote requests (and vice versa)</t>
-  </si>
-  <si>
-    <t>COM-7</t>
-  </si>
-  <si>
-    <t>Register Protocol Addresses Request Android</t>
-  </si>
-  <si>
-    <t>COM-5</t>
-  </si>
-  <si>
-    <t>Push notification languages are not updated when locale changes</t>
-  </si>
-  <si>
-    <t>COM-4</t>
-  </si>
-  <si>
-    <t>Connect screen shows devices that actually are not present on the local network</t>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>2016-Dec-01</t>
+  </si>
+  <si>
+    <t>Update after review comment</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>2016-DEC-01</t>
+  </si>
+  <si>
+    <t>2016-Dec-13</t>
+  </si>
+  <si>
+    <t>Erik Gaal</t>
+  </si>
+  <si>
+    <t>Updated version, status and history</t>
+  </si>
+  <si>
+    <t>Ready for approval</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>approved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,12 +763,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -830,7 +820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1085,6 +1075,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1093,7 +1096,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1307,6 +1310,10 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1374,6 +1381,14 @@
     <xf numFmtId="0" fontId="37" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2306,8 +2321,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:F7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="B6:F7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:F9" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="B6:F9"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Version"/>
     <tableColumn id="2" name="Date" dataDxfId="1"/>
@@ -2606,53 +2621,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" style="6" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="50.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="D2" s="4"/>
       <c r="E2" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="F4" s="6"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
@@ -2661,15 +2676,15 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
+    <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>22</v>
       </c>
@@ -2685,23 +2700,23 @@
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>63</v>
       </c>
       <c r="D8" s="101" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2709,7 +2724,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -2717,7 +2732,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -2725,64 +2740,64 @@
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="104"/>
+      <c r="E12" s="106"/>
       <c r="F12" s="28" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="105"/>
+        <v>91</v>
+      </c>
+      <c r="D13" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="107"/>
       <c r="F13" s="28" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
+      <c r="C14" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
       <c r="F14" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>34</v>
@@ -2797,7 +2812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -2805,7 +2820,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2824,7 +2839,7 @@
     <hyperlink ref="E8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="1.2598425196850394" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="72" fitToHeight="100" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="100" orientation="landscape" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
     <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.1&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
@@ -2840,7 +2855,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F31"/>
@@ -2849,73 +2864,73 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="2:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C2" s="4"/>
       <c r="D2" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="113"/>
-      <c r="F6" s="114"/>
-    </row>
-    <row r="7" spans="2:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="115"/>
+      <c r="F6" s="116"/>
+    </row>
+    <row r="7" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="115" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-    </row>
-    <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+    </row>
+    <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
@@ -2923,7 +2938,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="52" t="s">
         <v>6</v>
@@ -2932,30 +2947,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="32"/>
       <c r="C9" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="32"/>
       <c r="C10" s="30"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
       <c r="C11" s="30"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>19</v>
       </c>
@@ -2965,83 +2980,83 @@
       <c r="D12" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="116" t="s">
+      <c r="E12" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="116"/>
-    </row>
-    <row r="13" spans="2:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="118"/>
+    </row>
+    <row r="13" spans="2:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="31"/>
       <c r="D13" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="107"/>
-    </row>
-    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F13" s="109"/>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="30"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="109"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="110"/>
+      <c r="F14" s="111"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="10"/>
       <c r="D15" s="18"/>
       <c r="E15" s="54"/>
       <c r="F15" s="55"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="111"/>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="112"/>
+      <c r="F16" s="113"/>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
     </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
     </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="3"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="3"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="3"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="3"/>
       <c r="C31" s="5"/>
@@ -3074,29 +3089,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:N179"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3104,7 +3119,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="21"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -3112,7 +3127,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="2:14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B3" s="21"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3120,7 +3135,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
@@ -3137,7 +3152,7 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -3152,7 +3167,7 @@
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="90" t="s">
         <v>31</v>
       </c>
@@ -3177,21 +3192,21 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="2:14" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B7" s="88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F7" s="89" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -3202,12 +3217,22 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
+    <row r="8" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="103" t="s">
+        <v>90</v>
+      </c>
       <c r="G8" s="100"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -3217,12 +3242,22 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
+    <row r="9" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="137" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="139" t="s">
+        <v>95</v>
+      </c>
       <c r="G9" s="100"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -3232,7 +3267,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="97"/>
       <c r="C10" s="98"/>
       <c r="D10" s="98"/>
@@ -3247,7 +3282,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="96"/>
       <c r="C11" s="96"/>
       <c r="D11" s="96"/>
@@ -3262,7 +3297,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="96"/>
       <c r="C12" s="96"/>
       <c r="D12" s="96"/>
@@ -3277,7 +3312,7 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
       <c r="D13" s="96"/>
@@ -3292,7 +3327,7 @@
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -3307,7 +3342,7 @@
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -3322,7 +3357,7 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -3337,7 +3372,7 @@
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -3352,7 +3387,7 @@
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -3367,7 +3402,7 @@
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -3382,7 +3417,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -3397,7 +3432,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -3412,7 +3447,7 @@
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -3427,7 +3462,7 @@
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -3442,7 +3477,7 @@
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -3457,7 +3492,7 @@
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -3472,7 +3507,7 @@
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -3487,7 +3522,7 @@
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -3502,7 +3537,7 @@
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -3517,7 +3552,7 @@
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -3532,7 +3567,7 @@
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -3547,7 +3582,7 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -3562,7 +3597,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -3577,7 +3612,7 @@
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -3592,7 +3627,7 @@
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -3607,7 +3642,7 @@
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -3622,7 +3657,7 @@
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -3637,7 +3672,7 @@
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -3652,7 +3687,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -3667,7 +3702,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -3682,7 +3717,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -3697,7 +3732,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -3712,7 +3747,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -3727,7 +3762,7 @@
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -3742,7 +3777,7 @@
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -3757,7 +3792,7 @@
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -3772,7 +3807,7 @@
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -3787,7 +3822,7 @@
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -3802,7 +3837,7 @@
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -3817,7 +3852,7 @@
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -3832,7 +3867,7 @@
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -3847,7 +3882,7 @@
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -3862,7 +3897,7 @@
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -3877,7 +3912,7 @@
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -3892,7 +3927,7 @@
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -3907,7 +3942,7 @@
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -3922,7 +3957,7 @@
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -3937,7 +3972,7 @@
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
@@ -3952,7 +3987,7 @@
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -3967,7 +4002,7 @@
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -3982,7 +4017,7 @@
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -3997,7 +4032,7 @@
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -4012,7 +4047,7 @@
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -4027,7 +4062,7 @@
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -4042,7 +4077,7 @@
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -4057,7 +4092,7 @@
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -4072,7 +4107,7 @@
       <c r="M65" s="17"/>
       <c r="N65" s="17"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
@@ -4087,7 +4122,7 @@
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -4102,7 +4137,7 @@
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
@@ -4117,7 +4152,7 @@
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
@@ -4132,7 +4167,7 @@
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -4147,7 +4182,7 @@
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -4162,7 +4197,7 @@
       <c r="M71" s="17"/>
       <c r="N71" s="17"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -4177,7 +4212,7 @@
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -4192,7 +4227,7 @@
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -4207,7 +4242,7 @@
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -4222,7 +4257,7 @@
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -4237,7 +4272,7 @@
       <c r="M76" s="17"/>
       <c r="N76" s="17"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
@@ -4252,7 +4287,7 @@
       <c r="M77" s="17"/>
       <c r="N77" s="17"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
@@ -4267,7 +4302,7 @@
       <c r="M78" s="17"/>
       <c r="N78" s="17"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
@@ -4282,7 +4317,7 @@
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
@@ -4297,7 +4332,7 @@
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -4312,7 +4347,7 @@
       <c r="M81" s="17"/>
       <c r="N81" s="17"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
@@ -4327,7 +4362,7 @@
       <c r="M82" s="17"/>
       <c r="N82" s="17"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -4342,7 +4377,7 @@
       <c r="M83" s="17"/>
       <c r="N83" s="17"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -4357,7 +4392,7 @@
       <c r="M84" s="17"/>
       <c r="N84" s="17"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
@@ -4372,7 +4407,7 @@
       <c r="M85" s="17"/>
       <c r="N85" s="17"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
@@ -4387,7 +4422,7 @@
       <c r="M86" s="17"/>
       <c r="N86" s="17"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
@@ -4402,7 +4437,7 @@
       <c r="M87" s="17"/>
       <c r="N87" s="17"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
@@ -4417,7 +4452,7 @@
       <c r="M88" s="17"/>
       <c r="N88" s="17"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -4432,7 +4467,7 @@
       <c r="M89" s="17"/>
       <c r="N89" s="17"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
@@ -4447,7 +4482,7 @@
       <c r="M90" s="17"/>
       <c r="N90" s="17"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
@@ -4462,7 +4497,7 @@
       <c r="M91" s="17"/>
       <c r="N91" s="17"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
@@ -4477,7 +4512,7 @@
       <c r="M92" s="17"/>
       <c r="N92" s="17"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -4492,7 +4527,7 @@
       <c r="M93" s="17"/>
       <c r="N93" s="17"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
@@ -4507,7 +4542,7 @@
       <c r="M94" s="17"/>
       <c r="N94" s="17"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -4522,7 +4557,7 @@
       <c r="M95" s="17"/>
       <c r="N95" s="17"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
@@ -4537,7 +4572,7 @@
       <c r="M96" s="17"/>
       <c r="N96" s="17"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
@@ -4552,7 +4587,7 @@
       <c r="M97" s="17"/>
       <c r="N97" s="17"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
@@ -4567,7 +4602,7 @@
       <c r="M98" s="17"/>
       <c r="N98" s="17"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -4582,7 +4617,7 @@
       <c r="M99" s="17"/>
       <c r="N99" s="17"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
@@ -4597,7 +4632,7 @@
       <c r="M100" s="17"/>
       <c r="N100" s="17"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
@@ -4612,7 +4647,7 @@
       <c r="M101" s="17"/>
       <c r="N101" s="17"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -4627,7 +4662,7 @@
       <c r="M102" s="17"/>
       <c r="N102" s="17"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -4642,7 +4677,7 @@
       <c r="M103" s="17"/>
       <c r="N103" s="17"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -4657,7 +4692,7 @@
       <c r="M104" s="17"/>
       <c r="N104" s="17"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
@@ -4672,7 +4707,7 @@
       <c r="M105" s="17"/>
       <c r="N105" s="17"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
@@ -4687,7 +4722,7 @@
       <c r="M106" s="17"/>
       <c r="N106" s="17"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -4702,7 +4737,7 @@
       <c r="M107" s="17"/>
       <c r="N107" s="17"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -4717,7 +4752,7 @@
       <c r="M108" s="17"/>
       <c r="N108" s="17"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -4732,7 +4767,7 @@
       <c r="M109" s="17"/>
       <c r="N109" s="17"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
@@ -4747,7 +4782,7 @@
       <c r="M110" s="17"/>
       <c r="N110" s="17"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
@@ -4762,7 +4797,7 @@
       <c r="M111" s="17"/>
       <c r="N111" s="17"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
@@ -4777,7 +4812,7 @@
       <c r="M112" s="17"/>
       <c r="N112" s="17"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -4792,7 +4827,7 @@
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
@@ -4807,7 +4842,7 @@
       <c r="M114" s="17"/>
       <c r="N114" s="17"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
@@ -4822,7 +4857,7 @@
       <c r="M115" s="17"/>
       <c r="N115" s="17"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
@@ -4837,7 +4872,7 @@
       <c r="M116" s="17"/>
       <c r="N116" s="17"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
@@ -4852,7 +4887,7 @@
       <c r="M117" s="17"/>
       <c r="N117" s="17"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
@@ -4867,7 +4902,7 @@
       <c r="M118" s="17"/>
       <c r="N118" s="17"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
@@ -4882,7 +4917,7 @@
       <c r="M119" s="17"/>
       <c r="N119" s="17"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
@@ -4897,7 +4932,7 @@
       <c r="M120" s="17"/>
       <c r="N120" s="17"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
@@ -4912,7 +4947,7 @@
       <c r="M121" s="17"/>
       <c r="N121" s="17"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
@@ -4927,7 +4962,7 @@
       <c r="M122" s="17"/>
       <c r="N122" s="17"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -4942,7 +4977,7 @@
       <c r="M123" s="17"/>
       <c r="N123" s="17"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
@@ -4957,7 +4992,7 @@
       <c r="M124" s="17"/>
       <c r="N124" s="17"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
@@ -4972,7 +5007,7 @@
       <c r="M125" s="17"/>
       <c r="N125" s="17"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
@@ -4987,7 +5022,7 @@
       <c r="M126" s="17"/>
       <c r="N126" s="17"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
@@ -5002,7 +5037,7 @@
       <c r="M127" s="17"/>
       <c r="N127" s="17"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17"/>
@@ -5017,7 +5052,7 @@
       <c r="M128" s="17"/>
       <c r="N128" s="17"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
@@ -5032,7 +5067,7 @@
       <c r="M129" s="17"/>
       <c r="N129" s="17"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
@@ -5047,7 +5082,7 @@
       <c r="M130" s="17"/>
       <c r="N130" s="17"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
@@ -5062,7 +5097,7 @@
       <c r="M131" s="17"/>
       <c r="N131" s="17"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
@@ -5077,7 +5112,7 @@
       <c r="M132" s="17"/>
       <c r="N132" s="17"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
@@ -5092,7 +5127,7 @@
       <c r="M133" s="17"/>
       <c r="N133" s="17"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
       <c r="D134" s="17"/>
@@ -5107,7 +5142,7 @@
       <c r="M134" s="17"/>
       <c r="N134" s="17"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
       <c r="D135" s="17"/>
@@ -5122,7 +5157,7 @@
       <c r="M135" s="17"/>
       <c r="N135" s="17"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
@@ -5137,7 +5172,7 @@
       <c r="M136" s="17"/>
       <c r="N136" s="17"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
@@ -5152,7 +5187,7 @@
       <c r="M137" s="17"/>
       <c r="N137" s="17"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
       <c r="D138" s="17"/>
@@ -5167,7 +5202,7 @@
       <c r="M138" s="17"/>
       <c r="N138" s="17"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
       <c r="D139" s="17"/>
@@ -5182,7 +5217,7 @@
       <c r="M139" s="17"/>
       <c r="N139" s="17"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
       <c r="D140" s="17"/>
@@ -5197,7 +5232,7 @@
       <c r="M140" s="17"/>
       <c r="N140" s="17"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
       <c r="D141" s="17"/>
@@ -5212,7 +5247,7 @@
       <c r="M141" s="17"/>
       <c r="N141" s="17"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
@@ -5227,7 +5262,7 @@
       <c r="M142" s="17"/>
       <c r="N142" s="17"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
@@ -5242,7 +5277,7 @@
       <c r="M143" s="17"/>
       <c r="N143" s="17"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
       <c r="D144" s="17"/>
@@ -5257,7 +5292,7 @@
       <c r="M144" s="17"/>
       <c r="N144" s="17"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
@@ -5272,7 +5307,7 @@
       <c r="M145" s="17"/>
       <c r="N145" s="17"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
       <c r="D146" s="17"/>
@@ -5287,7 +5322,7 @@
       <c r="M146" s="17"/>
       <c r="N146" s="17"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
       <c r="D147" s="17"/>
@@ -5302,7 +5337,7 @@
       <c r="M147" s="17"/>
       <c r="N147" s="17"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
       <c r="D148" s="17"/>
@@ -5317,7 +5352,7 @@
       <c r="M148" s="17"/>
       <c r="N148" s="17"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
@@ -5332,7 +5367,7 @@
       <c r="M149" s="17"/>
       <c r="N149" s="17"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
@@ -5347,7 +5382,7 @@
       <c r="M150" s="17"/>
       <c r="N150" s="17"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
@@ -5362,7 +5397,7 @@
       <c r="M151" s="17"/>
       <c r="N151" s="17"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
       <c r="D152" s="17"/>
@@ -5377,7 +5412,7 @@
       <c r="M152" s="17"/>
       <c r="N152" s="17"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
       <c r="D153" s="17"/>
@@ -5392,7 +5427,7 @@
       <c r="M153" s="17"/>
       <c r="N153" s="17"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
@@ -5407,7 +5442,7 @@
       <c r="M154" s="17"/>
       <c r="N154" s="17"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
       <c r="D155" s="17"/>
@@ -5422,7 +5457,7 @@
       <c r="M155" s="17"/>
       <c r="N155" s="17"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
@@ -5437,7 +5472,7 @@
       <c r="M156" s="17"/>
       <c r="N156" s="17"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
@@ -5452,7 +5487,7 @@
       <c r="M157" s="17"/>
       <c r="N157" s="17"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
       <c r="D158" s="17"/>
@@ -5467,7 +5502,7 @@
       <c r="M158" s="17"/>
       <c r="N158" s="17"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
@@ -5482,7 +5517,7 @@
       <c r="M159" s="17"/>
       <c r="N159" s="17"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
       <c r="D160" s="17"/>
@@ -5497,7 +5532,7 @@
       <c r="M160" s="17"/>
       <c r="N160" s="17"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
       <c r="D161" s="17"/>
@@ -5512,7 +5547,7 @@
       <c r="M161" s="17"/>
       <c r="N161" s="17"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
       <c r="D162" s="17"/>
@@ -5527,7 +5562,7 @@
       <c r="M162" s="17"/>
       <c r="N162" s="17"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
       <c r="D163" s="17"/>
@@ -5542,7 +5577,7 @@
       <c r="M163" s="17"/>
       <c r="N163" s="17"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
       <c r="D164" s="17"/>
@@ -5557,7 +5592,7 @@
       <c r="M164" s="17"/>
       <c r="N164" s="17"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
       <c r="D165" s="17"/>
@@ -5572,7 +5607,7 @@
       <c r="M165" s="17"/>
       <c r="N165" s="17"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
       <c r="D166" s="17"/>
@@ -5587,7 +5622,7 @@
       <c r="M166" s="17"/>
       <c r="N166" s="17"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
       <c r="D167" s="17"/>
@@ -5602,7 +5637,7 @@
       <c r="M167" s="17"/>
       <c r="N167" s="17"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
       <c r="D168" s="17"/>
@@ -5617,7 +5652,7 @@
       <c r="M168" s="17"/>
       <c r="N168" s="17"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
       <c r="D169" s="17"/>
@@ -5632,7 +5667,7 @@
       <c r="M169" s="17"/>
       <c r="N169" s="17"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
       <c r="D170" s="17"/>
@@ -5647,7 +5682,7 @@
       <c r="M170" s="17"/>
       <c r="N170" s="17"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
@@ -5662,7 +5697,7 @@
       <c r="M171" s="17"/>
       <c r="N171" s="17"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
@@ -5677,7 +5712,7 @@
       <c r="M172" s="17"/>
       <c r="N172" s="17"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
@@ -5692,7 +5727,7 @@
       <c r="M173" s="17"/>
       <c r="N173" s="17"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
       <c r="D174" s="17"/>
@@ -5707,7 +5742,7 @@
       <c r="M174" s="17"/>
       <c r="N174" s="17"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
       <c r="D175" s="17"/>
@@ -5722,7 +5757,7 @@
       <c r="M175" s="17"/>
       <c r="N175" s="17"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
       <c r="D176" s="17"/>
@@ -5737,7 +5772,7 @@
       <c r="M176" s="17"/>
       <c r="N176" s="17"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
       <c r="D177" s="17"/>
@@ -5752,7 +5787,7 @@
       <c r="M177" s="17"/>
       <c r="N177" s="17"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
       <c r="D178" s="17"/>
@@ -5767,7 +5802,7 @@
       <c r="M178" s="17"/>
       <c r="N178" s="17"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
       <c r="D179" s="17"/>
@@ -5786,7 +5821,7 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
-  <pageSetup paperSize="9" scale="91" fitToHeight="100" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
     <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.2&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
@@ -5811,15 +5846,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="6" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="6" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" s="34" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:37" s="34" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="35"/>
       <c r="E1" s="36"/>
@@ -5856,7 +5891,7 @@
       <c r="AJ1" s="36"/>
       <c r="AK1" s="36"/>
     </row>
-    <row r="2" spans="2:37" s="34" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:37" s="34" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="21"/>
       <c r="D2" s="35"/>
       <c r="E2" s="36"/>
@@ -5893,7 +5928,7 @@
       <c r="AJ2" s="36"/>
       <c r="AK2" s="36"/>
     </row>
-    <row r="3" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>37</v>
       </c>
@@ -5908,22 +5943,22 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="2:37" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="123" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-    </row>
-    <row r="5" spans="2:37" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:37" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+    </row>
+    <row r="5" spans="2:37" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="45"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
@@ -5936,83 +5971,83 @@
       <c r="K5" s="46"/>
       <c r="L5" s="46"/>
     </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="127"/>
-    </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="129"/>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B7" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="128" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="130"/>
+        <v>47</v>
+      </c>
+      <c r="C7" s="130" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
       <c r="M7" s="51"/>
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="51"/>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B8" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="131" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="133"/>
+        <v>48</v>
+      </c>
+      <c r="C8" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="135"/>
       <c r="M8" s="51"/>
       <c r="N8" s="51"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B9" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="120" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+        <v>49</v>
+      </c>
+      <c r="C9" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="124"/>
       <c r="M9" s="51"/>
       <c r="N9" s="51"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B10" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="71"/>
       <c r="E10" s="71"/>
@@ -6021,39 +6056,39 @@
       <c r="H10" s="71"/>
       <c r="I10" s="72"/>
     </row>
-    <row r="11" spans="2:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="117" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
-    </row>
-    <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="121"/>
+    </row>
+    <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C12" s="64"/>
     </row>
-    <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C13" s="64"/>
     </row>
-    <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C14" s="64"/>
     </row>
-    <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C15" s="64"/>
     </row>
-    <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C16" s="64"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="50"/>
     </row>
-    <row r="22" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="40"/>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
@@ -6066,7 +6101,7 @@
       <c r="K22" s="41"/>
       <c r="L22" s="41"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="42"/>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
@@ -6079,7 +6114,7 @@
       <c r="K23" s="43"/>
       <c r="L23" s="43"/>
     </row>
-    <row r="25" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="40"/>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
@@ -6092,7 +6127,7 @@
       <c r="K25" s="41"/>
       <c r="L25" s="41"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="44"/>
       <c r="C26" s="41"/>
       <c r="D26" s="41"/>
@@ -6132,793 +6167,793 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:D11"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="35" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="34" customWidth="1"/>
-    <col min="8" max="26" width="3.33203125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="34" customWidth="1"/>
+    <col min="8" max="26" width="3.28515625" style="34" customWidth="1"/>
     <col min="27" max="27" width="10" style="34" customWidth="1"/>
-    <col min="28" max="237" width="8.83203125" style="34"/>
-    <col min="238" max="238" width="1.5" style="34" customWidth="1"/>
-    <col min="239" max="239" width="1.33203125" style="34" customWidth="1"/>
+    <col min="28" max="237" width="8.85546875" style="34"/>
+    <col min="238" max="238" width="1.42578125" style="34" customWidth="1"/>
+    <col min="239" max="239" width="1.28515625" style="34" customWidth="1"/>
     <col min="240" max="240" width="42" style="34" customWidth="1"/>
-    <col min="241" max="241" width="5.5" style="34" customWidth="1"/>
+    <col min="241" max="241" width="5.42578125" style="34" customWidth="1"/>
     <col min="242" max="243" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="244" max="244" width="2.6640625" style="34" customWidth="1"/>
-    <col min="245" max="280" width="3.33203125" style="34" customWidth="1"/>
-    <col min="281" max="281" width="1.6640625" style="34" customWidth="1"/>
-    <col min="282" max="282" width="25.6640625" style="34" customWidth="1"/>
-    <col min="283" max="283" width="31.33203125" style="34" customWidth="1"/>
-    <col min="284" max="493" width="8.83203125" style="34"/>
-    <col min="494" max="494" width="1.5" style="34" customWidth="1"/>
-    <col min="495" max="495" width="1.33203125" style="34" customWidth="1"/>
+    <col min="244" max="244" width="2.7109375" style="34" customWidth="1"/>
+    <col min="245" max="280" width="3.28515625" style="34" customWidth="1"/>
+    <col min="281" max="281" width="1.7109375" style="34" customWidth="1"/>
+    <col min="282" max="282" width="25.7109375" style="34" customWidth="1"/>
+    <col min="283" max="283" width="31.28515625" style="34" customWidth="1"/>
+    <col min="284" max="493" width="8.85546875" style="34"/>
+    <col min="494" max="494" width="1.42578125" style="34" customWidth="1"/>
+    <col min="495" max="495" width="1.28515625" style="34" customWidth="1"/>
     <col min="496" max="496" width="42" style="34" customWidth="1"/>
-    <col min="497" max="497" width="5.5" style="34" customWidth="1"/>
+    <col min="497" max="497" width="5.42578125" style="34" customWidth="1"/>
     <col min="498" max="499" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="500" max="500" width="2.6640625" style="34" customWidth="1"/>
-    <col min="501" max="536" width="3.33203125" style="34" customWidth="1"/>
-    <col min="537" max="537" width="1.6640625" style="34" customWidth="1"/>
-    <col min="538" max="538" width="25.6640625" style="34" customWidth="1"/>
-    <col min="539" max="539" width="31.33203125" style="34" customWidth="1"/>
-    <col min="540" max="749" width="8.83203125" style="34"/>
-    <col min="750" max="750" width="1.5" style="34" customWidth="1"/>
-    <col min="751" max="751" width="1.33203125" style="34" customWidth="1"/>
+    <col min="500" max="500" width="2.7109375" style="34" customWidth="1"/>
+    <col min="501" max="536" width="3.28515625" style="34" customWidth="1"/>
+    <col min="537" max="537" width="1.7109375" style="34" customWidth="1"/>
+    <col min="538" max="538" width="25.7109375" style="34" customWidth="1"/>
+    <col min="539" max="539" width="31.28515625" style="34" customWidth="1"/>
+    <col min="540" max="749" width="8.85546875" style="34"/>
+    <col min="750" max="750" width="1.42578125" style="34" customWidth="1"/>
+    <col min="751" max="751" width="1.28515625" style="34" customWidth="1"/>
     <col min="752" max="752" width="42" style="34" customWidth="1"/>
-    <col min="753" max="753" width="5.5" style="34" customWidth="1"/>
+    <col min="753" max="753" width="5.42578125" style="34" customWidth="1"/>
     <col min="754" max="755" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="756" max="756" width="2.6640625" style="34" customWidth="1"/>
-    <col min="757" max="792" width="3.33203125" style="34" customWidth="1"/>
-    <col min="793" max="793" width="1.6640625" style="34" customWidth="1"/>
-    <col min="794" max="794" width="25.6640625" style="34" customWidth="1"/>
-    <col min="795" max="795" width="31.33203125" style="34" customWidth="1"/>
-    <col min="796" max="1005" width="8.83203125" style="34"/>
-    <col min="1006" max="1006" width="1.5" style="34" customWidth="1"/>
-    <col min="1007" max="1007" width="1.33203125" style="34" customWidth="1"/>
+    <col min="756" max="756" width="2.7109375" style="34" customWidth="1"/>
+    <col min="757" max="792" width="3.28515625" style="34" customWidth="1"/>
+    <col min="793" max="793" width="1.7109375" style="34" customWidth="1"/>
+    <col min="794" max="794" width="25.7109375" style="34" customWidth="1"/>
+    <col min="795" max="795" width="31.28515625" style="34" customWidth="1"/>
+    <col min="796" max="1005" width="8.85546875" style="34"/>
+    <col min="1006" max="1006" width="1.42578125" style="34" customWidth="1"/>
+    <col min="1007" max="1007" width="1.28515625" style="34" customWidth="1"/>
     <col min="1008" max="1008" width="42" style="34" customWidth="1"/>
-    <col min="1009" max="1009" width="5.5" style="34" customWidth="1"/>
+    <col min="1009" max="1009" width="5.42578125" style="34" customWidth="1"/>
     <col min="1010" max="1011" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1012" max="1012" width="2.6640625" style="34" customWidth="1"/>
-    <col min="1013" max="1048" width="3.33203125" style="34" customWidth="1"/>
-    <col min="1049" max="1049" width="1.6640625" style="34" customWidth="1"/>
-    <col min="1050" max="1050" width="25.6640625" style="34" customWidth="1"/>
-    <col min="1051" max="1051" width="31.33203125" style="34" customWidth="1"/>
-    <col min="1052" max="1261" width="8.83203125" style="34"/>
-    <col min="1262" max="1262" width="1.5" style="34" customWidth="1"/>
-    <col min="1263" max="1263" width="1.33203125" style="34" customWidth="1"/>
+    <col min="1012" max="1012" width="2.7109375" style="34" customWidth="1"/>
+    <col min="1013" max="1048" width="3.28515625" style="34" customWidth="1"/>
+    <col min="1049" max="1049" width="1.7109375" style="34" customWidth="1"/>
+    <col min="1050" max="1050" width="25.7109375" style="34" customWidth="1"/>
+    <col min="1051" max="1051" width="31.28515625" style="34" customWidth="1"/>
+    <col min="1052" max="1261" width="8.85546875" style="34"/>
+    <col min="1262" max="1262" width="1.42578125" style="34" customWidth="1"/>
+    <col min="1263" max="1263" width="1.28515625" style="34" customWidth="1"/>
     <col min="1264" max="1264" width="42" style="34" customWidth="1"/>
-    <col min="1265" max="1265" width="5.5" style="34" customWidth="1"/>
+    <col min="1265" max="1265" width="5.42578125" style="34" customWidth="1"/>
     <col min="1266" max="1267" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1268" max="1268" width="2.6640625" style="34" customWidth="1"/>
-    <col min="1269" max="1304" width="3.33203125" style="34" customWidth="1"/>
-    <col min="1305" max="1305" width="1.6640625" style="34" customWidth="1"/>
-    <col min="1306" max="1306" width="25.6640625" style="34" customWidth="1"/>
-    <col min="1307" max="1307" width="31.33203125" style="34" customWidth="1"/>
-    <col min="1308" max="1517" width="8.83203125" style="34"/>
-    <col min="1518" max="1518" width="1.5" style="34" customWidth="1"/>
-    <col min="1519" max="1519" width="1.33203125" style="34" customWidth="1"/>
+    <col min="1268" max="1268" width="2.7109375" style="34" customWidth="1"/>
+    <col min="1269" max="1304" width="3.28515625" style="34" customWidth="1"/>
+    <col min="1305" max="1305" width="1.7109375" style="34" customWidth="1"/>
+    <col min="1306" max="1306" width="25.7109375" style="34" customWidth="1"/>
+    <col min="1307" max="1307" width="31.28515625" style="34" customWidth="1"/>
+    <col min="1308" max="1517" width="8.85546875" style="34"/>
+    <col min="1518" max="1518" width="1.42578125" style="34" customWidth="1"/>
+    <col min="1519" max="1519" width="1.28515625" style="34" customWidth="1"/>
     <col min="1520" max="1520" width="42" style="34" customWidth="1"/>
-    <col min="1521" max="1521" width="5.5" style="34" customWidth="1"/>
+    <col min="1521" max="1521" width="5.42578125" style="34" customWidth="1"/>
     <col min="1522" max="1523" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1524" max="1524" width="2.6640625" style="34" customWidth="1"/>
-    <col min="1525" max="1560" width="3.33203125" style="34" customWidth="1"/>
-    <col min="1561" max="1561" width="1.6640625" style="34" customWidth="1"/>
-    <col min="1562" max="1562" width="25.6640625" style="34" customWidth="1"/>
-    <col min="1563" max="1563" width="31.33203125" style="34" customWidth="1"/>
-    <col min="1564" max="1773" width="8.83203125" style="34"/>
-    <col min="1774" max="1774" width="1.5" style="34" customWidth="1"/>
-    <col min="1775" max="1775" width="1.33203125" style="34" customWidth="1"/>
+    <col min="1524" max="1524" width="2.7109375" style="34" customWidth="1"/>
+    <col min="1525" max="1560" width="3.28515625" style="34" customWidth="1"/>
+    <col min="1561" max="1561" width="1.7109375" style="34" customWidth="1"/>
+    <col min="1562" max="1562" width="25.7109375" style="34" customWidth="1"/>
+    <col min="1563" max="1563" width="31.28515625" style="34" customWidth="1"/>
+    <col min="1564" max="1773" width="8.85546875" style="34"/>
+    <col min="1774" max="1774" width="1.42578125" style="34" customWidth="1"/>
+    <col min="1775" max="1775" width="1.28515625" style="34" customWidth="1"/>
     <col min="1776" max="1776" width="42" style="34" customWidth="1"/>
-    <col min="1777" max="1777" width="5.5" style="34" customWidth="1"/>
+    <col min="1777" max="1777" width="5.42578125" style="34" customWidth="1"/>
     <col min="1778" max="1779" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1780" max="1780" width="2.6640625" style="34" customWidth="1"/>
-    <col min="1781" max="1816" width="3.33203125" style="34" customWidth="1"/>
-    <col min="1817" max="1817" width="1.6640625" style="34" customWidth="1"/>
-    <col min="1818" max="1818" width="25.6640625" style="34" customWidth="1"/>
-    <col min="1819" max="1819" width="31.33203125" style="34" customWidth="1"/>
-    <col min="1820" max="2029" width="8.83203125" style="34"/>
-    <col min="2030" max="2030" width="1.5" style="34" customWidth="1"/>
-    <col min="2031" max="2031" width="1.33203125" style="34" customWidth="1"/>
+    <col min="1780" max="1780" width="2.7109375" style="34" customWidth="1"/>
+    <col min="1781" max="1816" width="3.28515625" style="34" customWidth="1"/>
+    <col min="1817" max="1817" width="1.7109375" style="34" customWidth="1"/>
+    <col min="1818" max="1818" width="25.7109375" style="34" customWidth="1"/>
+    <col min="1819" max="1819" width="31.28515625" style="34" customWidth="1"/>
+    <col min="1820" max="2029" width="8.85546875" style="34"/>
+    <col min="2030" max="2030" width="1.42578125" style="34" customWidth="1"/>
+    <col min="2031" max="2031" width="1.28515625" style="34" customWidth="1"/>
     <col min="2032" max="2032" width="42" style="34" customWidth="1"/>
-    <col min="2033" max="2033" width="5.5" style="34" customWidth="1"/>
+    <col min="2033" max="2033" width="5.42578125" style="34" customWidth="1"/>
     <col min="2034" max="2035" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2036" max="2036" width="2.6640625" style="34" customWidth="1"/>
-    <col min="2037" max="2072" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2073" max="2073" width="1.6640625" style="34" customWidth="1"/>
-    <col min="2074" max="2074" width="25.6640625" style="34" customWidth="1"/>
-    <col min="2075" max="2075" width="31.33203125" style="34" customWidth="1"/>
-    <col min="2076" max="2285" width="8.83203125" style="34"/>
-    <col min="2286" max="2286" width="1.5" style="34" customWidth="1"/>
-    <col min="2287" max="2287" width="1.33203125" style="34" customWidth="1"/>
+    <col min="2036" max="2036" width="2.7109375" style="34" customWidth="1"/>
+    <col min="2037" max="2072" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2073" max="2073" width="1.7109375" style="34" customWidth="1"/>
+    <col min="2074" max="2074" width="25.7109375" style="34" customWidth="1"/>
+    <col min="2075" max="2075" width="31.28515625" style="34" customWidth="1"/>
+    <col min="2076" max="2285" width="8.85546875" style="34"/>
+    <col min="2286" max="2286" width="1.42578125" style="34" customWidth="1"/>
+    <col min="2287" max="2287" width="1.28515625" style="34" customWidth="1"/>
     <col min="2288" max="2288" width="42" style="34" customWidth="1"/>
-    <col min="2289" max="2289" width="5.5" style="34" customWidth="1"/>
+    <col min="2289" max="2289" width="5.42578125" style="34" customWidth="1"/>
     <col min="2290" max="2291" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2292" max="2292" width="2.6640625" style="34" customWidth="1"/>
-    <col min="2293" max="2328" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2329" max="2329" width="1.6640625" style="34" customWidth="1"/>
-    <col min="2330" max="2330" width="25.6640625" style="34" customWidth="1"/>
-    <col min="2331" max="2331" width="31.33203125" style="34" customWidth="1"/>
-    <col min="2332" max="2541" width="8.83203125" style="34"/>
-    <col min="2542" max="2542" width="1.5" style="34" customWidth="1"/>
-    <col min="2543" max="2543" width="1.33203125" style="34" customWidth="1"/>
+    <col min="2292" max="2292" width="2.7109375" style="34" customWidth="1"/>
+    <col min="2293" max="2328" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2329" max="2329" width="1.7109375" style="34" customWidth="1"/>
+    <col min="2330" max="2330" width="25.7109375" style="34" customWidth="1"/>
+    <col min="2331" max="2331" width="31.28515625" style="34" customWidth="1"/>
+    <col min="2332" max="2541" width="8.85546875" style="34"/>
+    <col min="2542" max="2542" width="1.42578125" style="34" customWidth="1"/>
+    <col min="2543" max="2543" width="1.28515625" style="34" customWidth="1"/>
     <col min="2544" max="2544" width="42" style="34" customWidth="1"/>
-    <col min="2545" max="2545" width="5.5" style="34" customWidth="1"/>
+    <col min="2545" max="2545" width="5.42578125" style="34" customWidth="1"/>
     <col min="2546" max="2547" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2548" max="2548" width="2.6640625" style="34" customWidth="1"/>
-    <col min="2549" max="2584" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2585" max="2585" width="1.6640625" style="34" customWidth="1"/>
-    <col min="2586" max="2586" width="25.6640625" style="34" customWidth="1"/>
-    <col min="2587" max="2587" width="31.33203125" style="34" customWidth="1"/>
-    <col min="2588" max="2797" width="8.83203125" style="34"/>
-    <col min="2798" max="2798" width="1.5" style="34" customWidth="1"/>
-    <col min="2799" max="2799" width="1.33203125" style="34" customWidth="1"/>
+    <col min="2548" max="2548" width="2.7109375" style="34" customWidth="1"/>
+    <col min="2549" max="2584" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2585" max="2585" width="1.7109375" style="34" customWidth="1"/>
+    <col min="2586" max="2586" width="25.7109375" style="34" customWidth="1"/>
+    <col min="2587" max="2587" width="31.28515625" style="34" customWidth="1"/>
+    <col min="2588" max="2797" width="8.85546875" style="34"/>
+    <col min="2798" max="2798" width="1.42578125" style="34" customWidth="1"/>
+    <col min="2799" max="2799" width="1.28515625" style="34" customWidth="1"/>
     <col min="2800" max="2800" width="42" style="34" customWidth="1"/>
-    <col min="2801" max="2801" width="5.5" style="34" customWidth="1"/>
+    <col min="2801" max="2801" width="5.42578125" style="34" customWidth="1"/>
     <col min="2802" max="2803" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2804" max="2804" width="2.6640625" style="34" customWidth="1"/>
-    <col min="2805" max="2840" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2841" max="2841" width="1.6640625" style="34" customWidth="1"/>
-    <col min="2842" max="2842" width="25.6640625" style="34" customWidth="1"/>
-    <col min="2843" max="2843" width="31.33203125" style="34" customWidth="1"/>
-    <col min="2844" max="3053" width="8.83203125" style="34"/>
-    <col min="3054" max="3054" width="1.5" style="34" customWidth="1"/>
-    <col min="3055" max="3055" width="1.33203125" style="34" customWidth="1"/>
+    <col min="2804" max="2804" width="2.7109375" style="34" customWidth="1"/>
+    <col min="2805" max="2840" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2841" max="2841" width="1.7109375" style="34" customWidth="1"/>
+    <col min="2842" max="2842" width="25.7109375" style="34" customWidth="1"/>
+    <col min="2843" max="2843" width="31.28515625" style="34" customWidth="1"/>
+    <col min="2844" max="3053" width="8.85546875" style="34"/>
+    <col min="3054" max="3054" width="1.42578125" style="34" customWidth="1"/>
+    <col min="3055" max="3055" width="1.28515625" style="34" customWidth="1"/>
     <col min="3056" max="3056" width="42" style="34" customWidth="1"/>
-    <col min="3057" max="3057" width="5.5" style="34" customWidth="1"/>
+    <col min="3057" max="3057" width="5.42578125" style="34" customWidth="1"/>
     <col min="3058" max="3059" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3060" max="3060" width="2.6640625" style="34" customWidth="1"/>
-    <col min="3061" max="3096" width="3.33203125" style="34" customWidth="1"/>
-    <col min="3097" max="3097" width="1.6640625" style="34" customWidth="1"/>
-    <col min="3098" max="3098" width="25.6640625" style="34" customWidth="1"/>
-    <col min="3099" max="3099" width="31.33203125" style="34" customWidth="1"/>
-    <col min="3100" max="3309" width="8.83203125" style="34"/>
-    <col min="3310" max="3310" width="1.5" style="34" customWidth="1"/>
-    <col min="3311" max="3311" width="1.33203125" style="34" customWidth="1"/>
+    <col min="3060" max="3060" width="2.7109375" style="34" customWidth="1"/>
+    <col min="3061" max="3096" width="3.28515625" style="34" customWidth="1"/>
+    <col min="3097" max="3097" width="1.7109375" style="34" customWidth="1"/>
+    <col min="3098" max="3098" width="25.7109375" style="34" customWidth="1"/>
+    <col min="3099" max="3099" width="31.28515625" style="34" customWidth="1"/>
+    <col min="3100" max="3309" width="8.85546875" style="34"/>
+    <col min="3310" max="3310" width="1.42578125" style="34" customWidth="1"/>
+    <col min="3311" max="3311" width="1.28515625" style="34" customWidth="1"/>
     <col min="3312" max="3312" width="42" style="34" customWidth="1"/>
-    <col min="3313" max="3313" width="5.5" style="34" customWidth="1"/>
+    <col min="3313" max="3313" width="5.42578125" style="34" customWidth="1"/>
     <col min="3314" max="3315" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3316" max="3316" width="2.6640625" style="34" customWidth="1"/>
-    <col min="3317" max="3352" width="3.33203125" style="34" customWidth="1"/>
-    <col min="3353" max="3353" width="1.6640625" style="34" customWidth="1"/>
-    <col min="3354" max="3354" width="25.6640625" style="34" customWidth="1"/>
-    <col min="3355" max="3355" width="31.33203125" style="34" customWidth="1"/>
-    <col min="3356" max="3565" width="8.83203125" style="34"/>
-    <col min="3566" max="3566" width="1.5" style="34" customWidth="1"/>
-    <col min="3567" max="3567" width="1.33203125" style="34" customWidth="1"/>
+    <col min="3316" max="3316" width="2.7109375" style="34" customWidth="1"/>
+    <col min="3317" max="3352" width="3.28515625" style="34" customWidth="1"/>
+    <col min="3353" max="3353" width="1.7109375" style="34" customWidth="1"/>
+    <col min="3354" max="3354" width="25.7109375" style="34" customWidth="1"/>
+    <col min="3355" max="3355" width="31.28515625" style="34" customWidth="1"/>
+    <col min="3356" max="3565" width="8.85546875" style="34"/>
+    <col min="3566" max="3566" width="1.42578125" style="34" customWidth="1"/>
+    <col min="3567" max="3567" width="1.28515625" style="34" customWidth="1"/>
     <col min="3568" max="3568" width="42" style="34" customWidth="1"/>
-    <col min="3569" max="3569" width="5.5" style="34" customWidth="1"/>
+    <col min="3569" max="3569" width="5.42578125" style="34" customWidth="1"/>
     <col min="3570" max="3571" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3572" max="3572" width="2.6640625" style="34" customWidth="1"/>
-    <col min="3573" max="3608" width="3.33203125" style="34" customWidth="1"/>
-    <col min="3609" max="3609" width="1.6640625" style="34" customWidth="1"/>
-    <col min="3610" max="3610" width="25.6640625" style="34" customWidth="1"/>
-    <col min="3611" max="3611" width="31.33203125" style="34" customWidth="1"/>
-    <col min="3612" max="3821" width="8.83203125" style="34"/>
-    <col min="3822" max="3822" width="1.5" style="34" customWidth="1"/>
-    <col min="3823" max="3823" width="1.33203125" style="34" customWidth="1"/>
+    <col min="3572" max="3572" width="2.7109375" style="34" customWidth="1"/>
+    <col min="3573" max="3608" width="3.28515625" style="34" customWidth="1"/>
+    <col min="3609" max="3609" width="1.7109375" style="34" customWidth="1"/>
+    <col min="3610" max="3610" width="25.7109375" style="34" customWidth="1"/>
+    <col min="3611" max="3611" width="31.28515625" style="34" customWidth="1"/>
+    <col min="3612" max="3821" width="8.85546875" style="34"/>
+    <col min="3822" max="3822" width="1.42578125" style="34" customWidth="1"/>
+    <col min="3823" max="3823" width="1.28515625" style="34" customWidth="1"/>
     <col min="3824" max="3824" width="42" style="34" customWidth="1"/>
-    <col min="3825" max="3825" width="5.5" style="34" customWidth="1"/>
+    <col min="3825" max="3825" width="5.42578125" style="34" customWidth="1"/>
     <col min="3826" max="3827" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3828" max="3828" width="2.6640625" style="34" customWidth="1"/>
-    <col min="3829" max="3864" width="3.33203125" style="34" customWidth="1"/>
-    <col min="3865" max="3865" width="1.6640625" style="34" customWidth="1"/>
-    <col min="3866" max="3866" width="25.6640625" style="34" customWidth="1"/>
-    <col min="3867" max="3867" width="31.33203125" style="34" customWidth="1"/>
-    <col min="3868" max="4077" width="8.83203125" style="34"/>
-    <col min="4078" max="4078" width="1.5" style="34" customWidth="1"/>
-    <col min="4079" max="4079" width="1.33203125" style="34" customWidth="1"/>
+    <col min="3828" max="3828" width="2.7109375" style="34" customWidth="1"/>
+    <col min="3829" max="3864" width="3.28515625" style="34" customWidth="1"/>
+    <col min="3865" max="3865" width="1.7109375" style="34" customWidth="1"/>
+    <col min="3866" max="3866" width="25.7109375" style="34" customWidth="1"/>
+    <col min="3867" max="3867" width="31.28515625" style="34" customWidth="1"/>
+    <col min="3868" max="4077" width="8.85546875" style="34"/>
+    <col min="4078" max="4078" width="1.42578125" style="34" customWidth="1"/>
+    <col min="4079" max="4079" width="1.28515625" style="34" customWidth="1"/>
     <col min="4080" max="4080" width="42" style="34" customWidth="1"/>
-    <col min="4081" max="4081" width="5.5" style="34" customWidth="1"/>
+    <col min="4081" max="4081" width="5.42578125" style="34" customWidth="1"/>
     <col min="4082" max="4083" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4084" max="4084" width="2.6640625" style="34" customWidth="1"/>
-    <col min="4085" max="4120" width="3.33203125" style="34" customWidth="1"/>
-    <col min="4121" max="4121" width="1.6640625" style="34" customWidth="1"/>
-    <col min="4122" max="4122" width="25.6640625" style="34" customWidth="1"/>
-    <col min="4123" max="4123" width="31.33203125" style="34" customWidth="1"/>
-    <col min="4124" max="4333" width="8.83203125" style="34"/>
-    <col min="4334" max="4334" width="1.5" style="34" customWidth="1"/>
-    <col min="4335" max="4335" width="1.33203125" style="34" customWidth="1"/>
+    <col min="4084" max="4084" width="2.7109375" style="34" customWidth="1"/>
+    <col min="4085" max="4120" width="3.28515625" style="34" customWidth="1"/>
+    <col min="4121" max="4121" width="1.7109375" style="34" customWidth="1"/>
+    <col min="4122" max="4122" width="25.7109375" style="34" customWidth="1"/>
+    <col min="4123" max="4123" width="31.28515625" style="34" customWidth="1"/>
+    <col min="4124" max="4333" width="8.85546875" style="34"/>
+    <col min="4334" max="4334" width="1.42578125" style="34" customWidth="1"/>
+    <col min="4335" max="4335" width="1.28515625" style="34" customWidth="1"/>
     <col min="4336" max="4336" width="42" style="34" customWidth="1"/>
-    <col min="4337" max="4337" width="5.5" style="34" customWidth="1"/>
+    <col min="4337" max="4337" width="5.42578125" style="34" customWidth="1"/>
     <col min="4338" max="4339" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4340" max="4340" width="2.6640625" style="34" customWidth="1"/>
-    <col min="4341" max="4376" width="3.33203125" style="34" customWidth="1"/>
-    <col min="4377" max="4377" width="1.6640625" style="34" customWidth="1"/>
-    <col min="4378" max="4378" width="25.6640625" style="34" customWidth="1"/>
-    <col min="4379" max="4379" width="31.33203125" style="34" customWidth="1"/>
-    <col min="4380" max="4589" width="8.83203125" style="34"/>
-    <col min="4590" max="4590" width="1.5" style="34" customWidth="1"/>
-    <col min="4591" max="4591" width="1.33203125" style="34" customWidth="1"/>
+    <col min="4340" max="4340" width="2.7109375" style="34" customWidth="1"/>
+    <col min="4341" max="4376" width="3.28515625" style="34" customWidth="1"/>
+    <col min="4377" max="4377" width="1.7109375" style="34" customWidth="1"/>
+    <col min="4378" max="4378" width="25.7109375" style="34" customWidth="1"/>
+    <col min="4379" max="4379" width="31.28515625" style="34" customWidth="1"/>
+    <col min="4380" max="4589" width="8.85546875" style="34"/>
+    <col min="4590" max="4590" width="1.42578125" style="34" customWidth="1"/>
+    <col min="4591" max="4591" width="1.28515625" style="34" customWidth="1"/>
     <col min="4592" max="4592" width="42" style="34" customWidth="1"/>
-    <col min="4593" max="4593" width="5.5" style="34" customWidth="1"/>
+    <col min="4593" max="4593" width="5.42578125" style="34" customWidth="1"/>
     <col min="4594" max="4595" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4596" max="4596" width="2.6640625" style="34" customWidth="1"/>
-    <col min="4597" max="4632" width="3.33203125" style="34" customWidth="1"/>
-    <col min="4633" max="4633" width="1.6640625" style="34" customWidth="1"/>
-    <col min="4634" max="4634" width="25.6640625" style="34" customWidth="1"/>
-    <col min="4635" max="4635" width="31.33203125" style="34" customWidth="1"/>
-    <col min="4636" max="4845" width="8.83203125" style="34"/>
-    <col min="4846" max="4846" width="1.5" style="34" customWidth="1"/>
-    <col min="4847" max="4847" width="1.33203125" style="34" customWidth="1"/>
+    <col min="4596" max="4596" width="2.7109375" style="34" customWidth="1"/>
+    <col min="4597" max="4632" width="3.28515625" style="34" customWidth="1"/>
+    <col min="4633" max="4633" width="1.7109375" style="34" customWidth="1"/>
+    <col min="4634" max="4634" width="25.7109375" style="34" customWidth="1"/>
+    <col min="4635" max="4635" width="31.28515625" style="34" customWidth="1"/>
+    <col min="4636" max="4845" width="8.85546875" style="34"/>
+    <col min="4846" max="4846" width="1.42578125" style="34" customWidth="1"/>
+    <col min="4847" max="4847" width="1.28515625" style="34" customWidth="1"/>
     <col min="4848" max="4848" width="42" style="34" customWidth="1"/>
-    <col min="4849" max="4849" width="5.5" style="34" customWidth="1"/>
+    <col min="4849" max="4849" width="5.42578125" style="34" customWidth="1"/>
     <col min="4850" max="4851" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4852" max="4852" width="2.6640625" style="34" customWidth="1"/>
-    <col min="4853" max="4888" width="3.33203125" style="34" customWidth="1"/>
-    <col min="4889" max="4889" width="1.6640625" style="34" customWidth="1"/>
-    <col min="4890" max="4890" width="25.6640625" style="34" customWidth="1"/>
-    <col min="4891" max="4891" width="31.33203125" style="34" customWidth="1"/>
-    <col min="4892" max="5101" width="8.83203125" style="34"/>
-    <col min="5102" max="5102" width="1.5" style="34" customWidth="1"/>
-    <col min="5103" max="5103" width="1.33203125" style="34" customWidth="1"/>
+    <col min="4852" max="4852" width="2.7109375" style="34" customWidth="1"/>
+    <col min="4853" max="4888" width="3.28515625" style="34" customWidth="1"/>
+    <col min="4889" max="4889" width="1.7109375" style="34" customWidth="1"/>
+    <col min="4890" max="4890" width="25.7109375" style="34" customWidth="1"/>
+    <col min="4891" max="4891" width="31.28515625" style="34" customWidth="1"/>
+    <col min="4892" max="5101" width="8.85546875" style="34"/>
+    <col min="5102" max="5102" width="1.42578125" style="34" customWidth="1"/>
+    <col min="5103" max="5103" width="1.28515625" style="34" customWidth="1"/>
     <col min="5104" max="5104" width="42" style="34" customWidth="1"/>
-    <col min="5105" max="5105" width="5.5" style="34" customWidth="1"/>
+    <col min="5105" max="5105" width="5.42578125" style="34" customWidth="1"/>
     <col min="5106" max="5107" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5108" max="5108" width="2.6640625" style="34" customWidth="1"/>
-    <col min="5109" max="5144" width="3.33203125" style="34" customWidth="1"/>
-    <col min="5145" max="5145" width="1.6640625" style="34" customWidth="1"/>
-    <col min="5146" max="5146" width="25.6640625" style="34" customWidth="1"/>
-    <col min="5147" max="5147" width="31.33203125" style="34" customWidth="1"/>
-    <col min="5148" max="5357" width="8.83203125" style="34"/>
-    <col min="5358" max="5358" width="1.5" style="34" customWidth="1"/>
-    <col min="5359" max="5359" width="1.33203125" style="34" customWidth="1"/>
+    <col min="5108" max="5108" width="2.7109375" style="34" customWidth="1"/>
+    <col min="5109" max="5144" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5145" max="5145" width="1.7109375" style="34" customWidth="1"/>
+    <col min="5146" max="5146" width="25.7109375" style="34" customWidth="1"/>
+    <col min="5147" max="5147" width="31.28515625" style="34" customWidth="1"/>
+    <col min="5148" max="5357" width="8.85546875" style="34"/>
+    <col min="5358" max="5358" width="1.42578125" style="34" customWidth="1"/>
+    <col min="5359" max="5359" width="1.28515625" style="34" customWidth="1"/>
     <col min="5360" max="5360" width="42" style="34" customWidth="1"/>
-    <col min="5361" max="5361" width="5.5" style="34" customWidth="1"/>
+    <col min="5361" max="5361" width="5.42578125" style="34" customWidth="1"/>
     <col min="5362" max="5363" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5364" max="5364" width="2.6640625" style="34" customWidth="1"/>
-    <col min="5365" max="5400" width="3.33203125" style="34" customWidth="1"/>
-    <col min="5401" max="5401" width="1.6640625" style="34" customWidth="1"/>
-    <col min="5402" max="5402" width="25.6640625" style="34" customWidth="1"/>
-    <col min="5403" max="5403" width="31.33203125" style="34" customWidth="1"/>
-    <col min="5404" max="5613" width="8.83203125" style="34"/>
-    <col min="5614" max="5614" width="1.5" style="34" customWidth="1"/>
-    <col min="5615" max="5615" width="1.33203125" style="34" customWidth="1"/>
+    <col min="5364" max="5364" width="2.7109375" style="34" customWidth="1"/>
+    <col min="5365" max="5400" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5401" max="5401" width="1.7109375" style="34" customWidth="1"/>
+    <col min="5402" max="5402" width="25.7109375" style="34" customWidth="1"/>
+    <col min="5403" max="5403" width="31.28515625" style="34" customWidth="1"/>
+    <col min="5404" max="5613" width="8.85546875" style="34"/>
+    <col min="5614" max="5614" width="1.42578125" style="34" customWidth="1"/>
+    <col min="5615" max="5615" width="1.28515625" style="34" customWidth="1"/>
     <col min="5616" max="5616" width="42" style="34" customWidth="1"/>
-    <col min="5617" max="5617" width="5.5" style="34" customWidth="1"/>
+    <col min="5617" max="5617" width="5.42578125" style="34" customWidth="1"/>
     <col min="5618" max="5619" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5620" max="5620" width="2.6640625" style="34" customWidth="1"/>
-    <col min="5621" max="5656" width="3.33203125" style="34" customWidth="1"/>
-    <col min="5657" max="5657" width="1.6640625" style="34" customWidth="1"/>
-    <col min="5658" max="5658" width="25.6640625" style="34" customWidth="1"/>
-    <col min="5659" max="5659" width="31.33203125" style="34" customWidth="1"/>
-    <col min="5660" max="5869" width="8.83203125" style="34"/>
-    <col min="5870" max="5870" width="1.5" style="34" customWidth="1"/>
-    <col min="5871" max="5871" width="1.33203125" style="34" customWidth="1"/>
+    <col min="5620" max="5620" width="2.7109375" style="34" customWidth="1"/>
+    <col min="5621" max="5656" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5657" max="5657" width="1.7109375" style="34" customWidth="1"/>
+    <col min="5658" max="5658" width="25.7109375" style="34" customWidth="1"/>
+    <col min="5659" max="5659" width="31.28515625" style="34" customWidth="1"/>
+    <col min="5660" max="5869" width="8.85546875" style="34"/>
+    <col min="5870" max="5870" width="1.42578125" style="34" customWidth="1"/>
+    <col min="5871" max="5871" width="1.28515625" style="34" customWidth="1"/>
     <col min="5872" max="5872" width="42" style="34" customWidth="1"/>
-    <col min="5873" max="5873" width="5.5" style="34" customWidth="1"/>
+    <col min="5873" max="5873" width="5.42578125" style="34" customWidth="1"/>
     <col min="5874" max="5875" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5876" max="5876" width="2.6640625" style="34" customWidth="1"/>
-    <col min="5877" max="5912" width="3.33203125" style="34" customWidth="1"/>
-    <col min="5913" max="5913" width="1.6640625" style="34" customWidth="1"/>
-    <col min="5914" max="5914" width="25.6640625" style="34" customWidth="1"/>
-    <col min="5915" max="5915" width="31.33203125" style="34" customWidth="1"/>
-    <col min="5916" max="6125" width="8.83203125" style="34"/>
-    <col min="6126" max="6126" width="1.5" style="34" customWidth="1"/>
-    <col min="6127" max="6127" width="1.33203125" style="34" customWidth="1"/>
+    <col min="5876" max="5876" width="2.7109375" style="34" customWidth="1"/>
+    <col min="5877" max="5912" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5913" max="5913" width="1.7109375" style="34" customWidth="1"/>
+    <col min="5914" max="5914" width="25.7109375" style="34" customWidth="1"/>
+    <col min="5915" max="5915" width="31.28515625" style="34" customWidth="1"/>
+    <col min="5916" max="6125" width="8.85546875" style="34"/>
+    <col min="6126" max="6126" width="1.42578125" style="34" customWidth="1"/>
+    <col min="6127" max="6127" width="1.28515625" style="34" customWidth="1"/>
     <col min="6128" max="6128" width="42" style="34" customWidth="1"/>
-    <col min="6129" max="6129" width="5.5" style="34" customWidth="1"/>
+    <col min="6129" max="6129" width="5.42578125" style="34" customWidth="1"/>
     <col min="6130" max="6131" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6132" max="6132" width="2.6640625" style="34" customWidth="1"/>
-    <col min="6133" max="6168" width="3.33203125" style="34" customWidth="1"/>
-    <col min="6169" max="6169" width="1.6640625" style="34" customWidth="1"/>
-    <col min="6170" max="6170" width="25.6640625" style="34" customWidth="1"/>
-    <col min="6171" max="6171" width="31.33203125" style="34" customWidth="1"/>
-    <col min="6172" max="6381" width="8.83203125" style="34"/>
-    <col min="6382" max="6382" width="1.5" style="34" customWidth="1"/>
-    <col min="6383" max="6383" width="1.33203125" style="34" customWidth="1"/>
+    <col min="6132" max="6132" width="2.7109375" style="34" customWidth="1"/>
+    <col min="6133" max="6168" width="3.28515625" style="34" customWidth="1"/>
+    <col min="6169" max="6169" width="1.7109375" style="34" customWidth="1"/>
+    <col min="6170" max="6170" width="25.7109375" style="34" customWidth="1"/>
+    <col min="6171" max="6171" width="31.28515625" style="34" customWidth="1"/>
+    <col min="6172" max="6381" width="8.85546875" style="34"/>
+    <col min="6382" max="6382" width="1.42578125" style="34" customWidth="1"/>
+    <col min="6383" max="6383" width="1.28515625" style="34" customWidth="1"/>
     <col min="6384" max="6384" width="42" style="34" customWidth="1"/>
-    <col min="6385" max="6385" width="5.5" style="34" customWidth="1"/>
+    <col min="6385" max="6385" width="5.42578125" style="34" customWidth="1"/>
     <col min="6386" max="6387" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6388" max="6388" width="2.6640625" style="34" customWidth="1"/>
-    <col min="6389" max="6424" width="3.33203125" style="34" customWidth="1"/>
-    <col min="6425" max="6425" width="1.6640625" style="34" customWidth="1"/>
-    <col min="6426" max="6426" width="25.6640625" style="34" customWidth="1"/>
-    <col min="6427" max="6427" width="31.33203125" style="34" customWidth="1"/>
-    <col min="6428" max="6637" width="8.83203125" style="34"/>
-    <col min="6638" max="6638" width="1.5" style="34" customWidth="1"/>
-    <col min="6639" max="6639" width="1.33203125" style="34" customWidth="1"/>
+    <col min="6388" max="6388" width="2.7109375" style="34" customWidth="1"/>
+    <col min="6389" max="6424" width="3.28515625" style="34" customWidth="1"/>
+    <col min="6425" max="6425" width="1.7109375" style="34" customWidth="1"/>
+    <col min="6426" max="6426" width="25.7109375" style="34" customWidth="1"/>
+    <col min="6427" max="6427" width="31.28515625" style="34" customWidth="1"/>
+    <col min="6428" max="6637" width="8.85546875" style="34"/>
+    <col min="6638" max="6638" width="1.42578125" style="34" customWidth="1"/>
+    <col min="6639" max="6639" width="1.28515625" style="34" customWidth="1"/>
     <col min="6640" max="6640" width="42" style="34" customWidth="1"/>
-    <col min="6641" max="6641" width="5.5" style="34" customWidth="1"/>
+    <col min="6641" max="6641" width="5.42578125" style="34" customWidth="1"/>
     <col min="6642" max="6643" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6644" max="6644" width="2.6640625" style="34" customWidth="1"/>
-    <col min="6645" max="6680" width="3.33203125" style="34" customWidth="1"/>
-    <col min="6681" max="6681" width="1.6640625" style="34" customWidth="1"/>
-    <col min="6682" max="6682" width="25.6640625" style="34" customWidth="1"/>
-    <col min="6683" max="6683" width="31.33203125" style="34" customWidth="1"/>
-    <col min="6684" max="6893" width="8.83203125" style="34"/>
-    <col min="6894" max="6894" width="1.5" style="34" customWidth="1"/>
-    <col min="6895" max="6895" width="1.33203125" style="34" customWidth="1"/>
+    <col min="6644" max="6644" width="2.7109375" style="34" customWidth="1"/>
+    <col min="6645" max="6680" width="3.28515625" style="34" customWidth="1"/>
+    <col min="6681" max="6681" width="1.7109375" style="34" customWidth="1"/>
+    <col min="6682" max="6682" width="25.7109375" style="34" customWidth="1"/>
+    <col min="6683" max="6683" width="31.28515625" style="34" customWidth="1"/>
+    <col min="6684" max="6893" width="8.85546875" style="34"/>
+    <col min="6894" max="6894" width="1.42578125" style="34" customWidth="1"/>
+    <col min="6895" max="6895" width="1.28515625" style="34" customWidth="1"/>
     <col min="6896" max="6896" width="42" style="34" customWidth="1"/>
-    <col min="6897" max="6897" width="5.5" style="34" customWidth="1"/>
+    <col min="6897" max="6897" width="5.42578125" style="34" customWidth="1"/>
     <col min="6898" max="6899" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6900" max="6900" width="2.6640625" style="34" customWidth="1"/>
-    <col min="6901" max="6936" width="3.33203125" style="34" customWidth="1"/>
-    <col min="6937" max="6937" width="1.6640625" style="34" customWidth="1"/>
-    <col min="6938" max="6938" width="25.6640625" style="34" customWidth="1"/>
-    <col min="6939" max="6939" width="31.33203125" style="34" customWidth="1"/>
-    <col min="6940" max="7149" width="8.83203125" style="34"/>
-    <col min="7150" max="7150" width="1.5" style="34" customWidth="1"/>
-    <col min="7151" max="7151" width="1.33203125" style="34" customWidth="1"/>
+    <col min="6900" max="6900" width="2.7109375" style="34" customWidth="1"/>
+    <col min="6901" max="6936" width="3.28515625" style="34" customWidth="1"/>
+    <col min="6937" max="6937" width="1.7109375" style="34" customWidth="1"/>
+    <col min="6938" max="6938" width="25.7109375" style="34" customWidth="1"/>
+    <col min="6939" max="6939" width="31.28515625" style="34" customWidth="1"/>
+    <col min="6940" max="7149" width="8.85546875" style="34"/>
+    <col min="7150" max="7150" width="1.42578125" style="34" customWidth="1"/>
+    <col min="7151" max="7151" width="1.28515625" style="34" customWidth="1"/>
     <col min="7152" max="7152" width="42" style="34" customWidth="1"/>
-    <col min="7153" max="7153" width="5.5" style="34" customWidth="1"/>
+    <col min="7153" max="7153" width="5.42578125" style="34" customWidth="1"/>
     <col min="7154" max="7155" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7156" max="7156" width="2.6640625" style="34" customWidth="1"/>
-    <col min="7157" max="7192" width="3.33203125" style="34" customWidth="1"/>
-    <col min="7193" max="7193" width="1.6640625" style="34" customWidth="1"/>
-    <col min="7194" max="7194" width="25.6640625" style="34" customWidth="1"/>
-    <col min="7195" max="7195" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7196" max="7405" width="8.83203125" style="34"/>
-    <col min="7406" max="7406" width="1.5" style="34" customWidth="1"/>
-    <col min="7407" max="7407" width="1.33203125" style="34" customWidth="1"/>
+    <col min="7156" max="7156" width="2.7109375" style="34" customWidth="1"/>
+    <col min="7157" max="7192" width="3.28515625" style="34" customWidth="1"/>
+    <col min="7193" max="7193" width="1.7109375" style="34" customWidth="1"/>
+    <col min="7194" max="7194" width="25.7109375" style="34" customWidth="1"/>
+    <col min="7195" max="7195" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7196" max="7405" width="8.85546875" style="34"/>
+    <col min="7406" max="7406" width="1.42578125" style="34" customWidth="1"/>
+    <col min="7407" max="7407" width="1.28515625" style="34" customWidth="1"/>
     <col min="7408" max="7408" width="42" style="34" customWidth="1"/>
-    <col min="7409" max="7409" width="5.5" style="34" customWidth="1"/>
+    <col min="7409" max="7409" width="5.42578125" style="34" customWidth="1"/>
     <col min="7410" max="7411" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7412" max="7412" width="2.6640625" style="34" customWidth="1"/>
-    <col min="7413" max="7448" width="3.33203125" style="34" customWidth="1"/>
-    <col min="7449" max="7449" width="1.6640625" style="34" customWidth="1"/>
-    <col min="7450" max="7450" width="25.6640625" style="34" customWidth="1"/>
-    <col min="7451" max="7451" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7452" max="7661" width="8.83203125" style="34"/>
-    <col min="7662" max="7662" width="1.5" style="34" customWidth="1"/>
-    <col min="7663" max="7663" width="1.33203125" style="34" customWidth="1"/>
+    <col min="7412" max="7412" width="2.7109375" style="34" customWidth="1"/>
+    <col min="7413" max="7448" width="3.28515625" style="34" customWidth="1"/>
+    <col min="7449" max="7449" width="1.7109375" style="34" customWidth="1"/>
+    <col min="7450" max="7450" width="25.7109375" style="34" customWidth="1"/>
+    <col min="7451" max="7451" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7452" max="7661" width="8.85546875" style="34"/>
+    <col min="7662" max="7662" width="1.42578125" style="34" customWidth="1"/>
+    <col min="7663" max="7663" width="1.28515625" style="34" customWidth="1"/>
     <col min="7664" max="7664" width="42" style="34" customWidth="1"/>
-    <col min="7665" max="7665" width="5.5" style="34" customWidth="1"/>
+    <col min="7665" max="7665" width="5.42578125" style="34" customWidth="1"/>
     <col min="7666" max="7667" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7668" max="7668" width="2.6640625" style="34" customWidth="1"/>
-    <col min="7669" max="7704" width="3.33203125" style="34" customWidth="1"/>
-    <col min="7705" max="7705" width="1.6640625" style="34" customWidth="1"/>
-    <col min="7706" max="7706" width="25.6640625" style="34" customWidth="1"/>
-    <col min="7707" max="7707" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7708" max="7917" width="8.83203125" style="34"/>
-    <col min="7918" max="7918" width="1.5" style="34" customWidth="1"/>
-    <col min="7919" max="7919" width="1.33203125" style="34" customWidth="1"/>
+    <col min="7668" max="7668" width="2.7109375" style="34" customWidth="1"/>
+    <col min="7669" max="7704" width="3.28515625" style="34" customWidth="1"/>
+    <col min="7705" max="7705" width="1.7109375" style="34" customWidth="1"/>
+    <col min="7706" max="7706" width="25.7109375" style="34" customWidth="1"/>
+    <col min="7707" max="7707" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7708" max="7917" width="8.85546875" style="34"/>
+    <col min="7918" max="7918" width="1.42578125" style="34" customWidth="1"/>
+    <col min="7919" max="7919" width="1.28515625" style="34" customWidth="1"/>
     <col min="7920" max="7920" width="42" style="34" customWidth="1"/>
-    <col min="7921" max="7921" width="5.5" style="34" customWidth="1"/>
+    <col min="7921" max="7921" width="5.42578125" style="34" customWidth="1"/>
     <col min="7922" max="7923" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7924" max="7924" width="2.6640625" style="34" customWidth="1"/>
-    <col min="7925" max="7960" width="3.33203125" style="34" customWidth="1"/>
-    <col min="7961" max="7961" width="1.6640625" style="34" customWidth="1"/>
-    <col min="7962" max="7962" width="25.6640625" style="34" customWidth="1"/>
-    <col min="7963" max="7963" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7964" max="8173" width="8.83203125" style="34"/>
-    <col min="8174" max="8174" width="1.5" style="34" customWidth="1"/>
-    <col min="8175" max="8175" width="1.33203125" style="34" customWidth="1"/>
+    <col min="7924" max="7924" width="2.7109375" style="34" customWidth="1"/>
+    <col min="7925" max="7960" width="3.28515625" style="34" customWidth="1"/>
+    <col min="7961" max="7961" width="1.7109375" style="34" customWidth="1"/>
+    <col min="7962" max="7962" width="25.7109375" style="34" customWidth="1"/>
+    <col min="7963" max="7963" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7964" max="8173" width="8.85546875" style="34"/>
+    <col min="8174" max="8174" width="1.42578125" style="34" customWidth="1"/>
+    <col min="8175" max="8175" width="1.28515625" style="34" customWidth="1"/>
     <col min="8176" max="8176" width="42" style="34" customWidth="1"/>
-    <col min="8177" max="8177" width="5.5" style="34" customWidth="1"/>
+    <col min="8177" max="8177" width="5.42578125" style="34" customWidth="1"/>
     <col min="8178" max="8179" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8180" max="8180" width="2.6640625" style="34" customWidth="1"/>
-    <col min="8181" max="8216" width="3.33203125" style="34" customWidth="1"/>
-    <col min="8217" max="8217" width="1.6640625" style="34" customWidth="1"/>
-    <col min="8218" max="8218" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8219" max="8219" width="31.33203125" style="34" customWidth="1"/>
-    <col min="8220" max="8429" width="8.83203125" style="34"/>
-    <col min="8430" max="8430" width="1.5" style="34" customWidth="1"/>
-    <col min="8431" max="8431" width="1.33203125" style="34" customWidth="1"/>
+    <col min="8180" max="8180" width="2.7109375" style="34" customWidth="1"/>
+    <col min="8181" max="8216" width="3.28515625" style="34" customWidth="1"/>
+    <col min="8217" max="8217" width="1.7109375" style="34" customWidth="1"/>
+    <col min="8218" max="8218" width="25.7109375" style="34" customWidth="1"/>
+    <col min="8219" max="8219" width="31.28515625" style="34" customWidth="1"/>
+    <col min="8220" max="8429" width="8.85546875" style="34"/>
+    <col min="8430" max="8430" width="1.42578125" style="34" customWidth="1"/>
+    <col min="8431" max="8431" width="1.28515625" style="34" customWidth="1"/>
     <col min="8432" max="8432" width="42" style="34" customWidth="1"/>
-    <col min="8433" max="8433" width="5.5" style="34" customWidth="1"/>
+    <col min="8433" max="8433" width="5.42578125" style="34" customWidth="1"/>
     <col min="8434" max="8435" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8436" max="8436" width="2.6640625" style="34" customWidth="1"/>
-    <col min="8437" max="8472" width="3.33203125" style="34" customWidth="1"/>
-    <col min="8473" max="8473" width="1.6640625" style="34" customWidth="1"/>
-    <col min="8474" max="8474" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8475" max="8475" width="31.33203125" style="34" customWidth="1"/>
-    <col min="8476" max="8685" width="8.83203125" style="34"/>
-    <col min="8686" max="8686" width="1.5" style="34" customWidth="1"/>
-    <col min="8687" max="8687" width="1.33203125" style="34" customWidth="1"/>
+    <col min="8436" max="8436" width="2.7109375" style="34" customWidth="1"/>
+    <col min="8437" max="8472" width="3.28515625" style="34" customWidth="1"/>
+    <col min="8473" max="8473" width="1.7109375" style="34" customWidth="1"/>
+    <col min="8474" max="8474" width="25.7109375" style="34" customWidth="1"/>
+    <col min="8475" max="8475" width="31.28515625" style="34" customWidth="1"/>
+    <col min="8476" max="8685" width="8.85546875" style="34"/>
+    <col min="8686" max="8686" width="1.42578125" style="34" customWidth="1"/>
+    <col min="8687" max="8687" width="1.28515625" style="34" customWidth="1"/>
     <col min="8688" max="8688" width="42" style="34" customWidth="1"/>
-    <col min="8689" max="8689" width="5.5" style="34" customWidth="1"/>
+    <col min="8689" max="8689" width="5.42578125" style="34" customWidth="1"/>
     <col min="8690" max="8691" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8692" max="8692" width="2.6640625" style="34" customWidth="1"/>
-    <col min="8693" max="8728" width="3.33203125" style="34" customWidth="1"/>
-    <col min="8729" max="8729" width="1.6640625" style="34" customWidth="1"/>
-    <col min="8730" max="8730" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8731" max="8731" width="31.33203125" style="34" customWidth="1"/>
-    <col min="8732" max="8941" width="8.83203125" style="34"/>
-    <col min="8942" max="8942" width="1.5" style="34" customWidth="1"/>
-    <col min="8943" max="8943" width="1.33203125" style="34" customWidth="1"/>
+    <col min="8692" max="8692" width="2.7109375" style="34" customWidth="1"/>
+    <col min="8693" max="8728" width="3.28515625" style="34" customWidth="1"/>
+    <col min="8729" max="8729" width="1.7109375" style="34" customWidth="1"/>
+    <col min="8730" max="8730" width="25.7109375" style="34" customWidth="1"/>
+    <col min="8731" max="8731" width="31.28515625" style="34" customWidth="1"/>
+    <col min="8732" max="8941" width="8.85546875" style="34"/>
+    <col min="8942" max="8942" width="1.42578125" style="34" customWidth="1"/>
+    <col min="8943" max="8943" width="1.28515625" style="34" customWidth="1"/>
     <col min="8944" max="8944" width="42" style="34" customWidth="1"/>
-    <col min="8945" max="8945" width="5.5" style="34" customWidth="1"/>
+    <col min="8945" max="8945" width="5.42578125" style="34" customWidth="1"/>
     <col min="8946" max="8947" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8948" max="8948" width="2.6640625" style="34" customWidth="1"/>
-    <col min="8949" max="8984" width="3.33203125" style="34" customWidth="1"/>
-    <col min="8985" max="8985" width="1.6640625" style="34" customWidth="1"/>
-    <col min="8986" max="8986" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8987" max="8987" width="31.33203125" style="34" customWidth="1"/>
-    <col min="8988" max="9197" width="8.83203125" style="34"/>
-    <col min="9198" max="9198" width="1.5" style="34" customWidth="1"/>
-    <col min="9199" max="9199" width="1.33203125" style="34" customWidth="1"/>
+    <col min="8948" max="8948" width="2.7109375" style="34" customWidth="1"/>
+    <col min="8949" max="8984" width="3.28515625" style="34" customWidth="1"/>
+    <col min="8985" max="8985" width="1.7109375" style="34" customWidth="1"/>
+    <col min="8986" max="8986" width="25.7109375" style="34" customWidth="1"/>
+    <col min="8987" max="8987" width="31.28515625" style="34" customWidth="1"/>
+    <col min="8988" max="9197" width="8.85546875" style="34"/>
+    <col min="9198" max="9198" width="1.42578125" style="34" customWidth="1"/>
+    <col min="9199" max="9199" width="1.28515625" style="34" customWidth="1"/>
     <col min="9200" max="9200" width="42" style="34" customWidth="1"/>
-    <col min="9201" max="9201" width="5.5" style="34" customWidth="1"/>
+    <col min="9201" max="9201" width="5.42578125" style="34" customWidth="1"/>
     <col min="9202" max="9203" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9204" max="9204" width="2.6640625" style="34" customWidth="1"/>
-    <col min="9205" max="9240" width="3.33203125" style="34" customWidth="1"/>
-    <col min="9241" max="9241" width="1.6640625" style="34" customWidth="1"/>
-    <col min="9242" max="9242" width="25.6640625" style="34" customWidth="1"/>
-    <col min="9243" max="9243" width="31.33203125" style="34" customWidth="1"/>
-    <col min="9244" max="9453" width="8.83203125" style="34"/>
-    <col min="9454" max="9454" width="1.5" style="34" customWidth="1"/>
-    <col min="9455" max="9455" width="1.33203125" style="34" customWidth="1"/>
+    <col min="9204" max="9204" width="2.7109375" style="34" customWidth="1"/>
+    <col min="9205" max="9240" width="3.28515625" style="34" customWidth="1"/>
+    <col min="9241" max="9241" width="1.7109375" style="34" customWidth="1"/>
+    <col min="9242" max="9242" width="25.7109375" style="34" customWidth="1"/>
+    <col min="9243" max="9243" width="31.28515625" style="34" customWidth="1"/>
+    <col min="9244" max="9453" width="8.85546875" style="34"/>
+    <col min="9454" max="9454" width="1.42578125" style="34" customWidth="1"/>
+    <col min="9455" max="9455" width="1.28515625" style="34" customWidth="1"/>
     <col min="9456" max="9456" width="42" style="34" customWidth="1"/>
-    <col min="9457" max="9457" width="5.5" style="34" customWidth="1"/>
+    <col min="9457" max="9457" width="5.42578125" style="34" customWidth="1"/>
     <col min="9458" max="9459" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9460" max="9460" width="2.6640625" style="34" customWidth="1"/>
-    <col min="9461" max="9496" width="3.33203125" style="34" customWidth="1"/>
-    <col min="9497" max="9497" width="1.6640625" style="34" customWidth="1"/>
-    <col min="9498" max="9498" width="25.6640625" style="34" customWidth="1"/>
-    <col min="9499" max="9499" width="31.33203125" style="34" customWidth="1"/>
-    <col min="9500" max="9709" width="8.83203125" style="34"/>
-    <col min="9710" max="9710" width="1.5" style="34" customWidth="1"/>
-    <col min="9711" max="9711" width="1.33203125" style="34" customWidth="1"/>
+    <col min="9460" max="9460" width="2.7109375" style="34" customWidth="1"/>
+    <col min="9461" max="9496" width="3.28515625" style="34" customWidth="1"/>
+    <col min="9497" max="9497" width="1.7109375" style="34" customWidth="1"/>
+    <col min="9498" max="9498" width="25.7109375" style="34" customWidth="1"/>
+    <col min="9499" max="9499" width="31.28515625" style="34" customWidth="1"/>
+    <col min="9500" max="9709" width="8.85546875" style="34"/>
+    <col min="9710" max="9710" width="1.42578125" style="34" customWidth="1"/>
+    <col min="9711" max="9711" width="1.28515625" style="34" customWidth="1"/>
     <col min="9712" max="9712" width="42" style="34" customWidth="1"/>
-    <col min="9713" max="9713" width="5.5" style="34" customWidth="1"/>
+    <col min="9713" max="9713" width="5.42578125" style="34" customWidth="1"/>
     <col min="9714" max="9715" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9716" max="9716" width="2.6640625" style="34" customWidth="1"/>
-    <col min="9717" max="9752" width="3.33203125" style="34" customWidth="1"/>
-    <col min="9753" max="9753" width="1.6640625" style="34" customWidth="1"/>
-    <col min="9754" max="9754" width="25.6640625" style="34" customWidth="1"/>
-    <col min="9755" max="9755" width="31.33203125" style="34" customWidth="1"/>
-    <col min="9756" max="9965" width="8.83203125" style="34"/>
-    <col min="9966" max="9966" width="1.5" style="34" customWidth="1"/>
-    <col min="9967" max="9967" width="1.33203125" style="34" customWidth="1"/>
+    <col min="9716" max="9716" width="2.7109375" style="34" customWidth="1"/>
+    <col min="9717" max="9752" width="3.28515625" style="34" customWidth="1"/>
+    <col min="9753" max="9753" width="1.7109375" style="34" customWidth="1"/>
+    <col min="9754" max="9754" width="25.7109375" style="34" customWidth="1"/>
+    <col min="9755" max="9755" width="31.28515625" style="34" customWidth="1"/>
+    <col min="9756" max="9965" width="8.85546875" style="34"/>
+    <col min="9966" max="9966" width="1.42578125" style="34" customWidth="1"/>
+    <col min="9967" max="9967" width="1.28515625" style="34" customWidth="1"/>
     <col min="9968" max="9968" width="42" style="34" customWidth="1"/>
-    <col min="9969" max="9969" width="5.5" style="34" customWidth="1"/>
+    <col min="9969" max="9969" width="5.42578125" style="34" customWidth="1"/>
     <col min="9970" max="9971" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9972" max="9972" width="2.6640625" style="34" customWidth="1"/>
-    <col min="9973" max="10008" width="3.33203125" style="34" customWidth="1"/>
-    <col min="10009" max="10009" width="1.6640625" style="34" customWidth="1"/>
-    <col min="10010" max="10010" width="25.6640625" style="34" customWidth="1"/>
-    <col min="10011" max="10011" width="31.33203125" style="34" customWidth="1"/>
-    <col min="10012" max="10221" width="8.83203125" style="34"/>
-    <col min="10222" max="10222" width="1.5" style="34" customWidth="1"/>
-    <col min="10223" max="10223" width="1.33203125" style="34" customWidth="1"/>
+    <col min="9972" max="9972" width="2.7109375" style="34" customWidth="1"/>
+    <col min="9973" max="10008" width="3.28515625" style="34" customWidth="1"/>
+    <col min="10009" max="10009" width="1.7109375" style="34" customWidth="1"/>
+    <col min="10010" max="10010" width="25.7109375" style="34" customWidth="1"/>
+    <col min="10011" max="10011" width="31.28515625" style="34" customWidth="1"/>
+    <col min="10012" max="10221" width="8.85546875" style="34"/>
+    <col min="10222" max="10222" width="1.42578125" style="34" customWidth="1"/>
+    <col min="10223" max="10223" width="1.28515625" style="34" customWidth="1"/>
     <col min="10224" max="10224" width="42" style="34" customWidth="1"/>
-    <col min="10225" max="10225" width="5.5" style="34" customWidth="1"/>
+    <col min="10225" max="10225" width="5.42578125" style="34" customWidth="1"/>
     <col min="10226" max="10227" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10228" max="10228" width="2.6640625" style="34" customWidth="1"/>
-    <col min="10229" max="10264" width="3.33203125" style="34" customWidth="1"/>
-    <col min="10265" max="10265" width="1.6640625" style="34" customWidth="1"/>
-    <col min="10266" max="10266" width="25.6640625" style="34" customWidth="1"/>
-    <col min="10267" max="10267" width="31.33203125" style="34" customWidth="1"/>
-    <col min="10268" max="10477" width="8.83203125" style="34"/>
-    <col min="10478" max="10478" width="1.5" style="34" customWidth="1"/>
-    <col min="10479" max="10479" width="1.33203125" style="34" customWidth="1"/>
+    <col min="10228" max="10228" width="2.7109375" style="34" customWidth="1"/>
+    <col min="10229" max="10264" width="3.28515625" style="34" customWidth="1"/>
+    <col min="10265" max="10265" width="1.7109375" style="34" customWidth="1"/>
+    <col min="10266" max="10266" width="25.7109375" style="34" customWidth="1"/>
+    <col min="10267" max="10267" width="31.28515625" style="34" customWidth="1"/>
+    <col min="10268" max="10477" width="8.85546875" style="34"/>
+    <col min="10478" max="10478" width="1.42578125" style="34" customWidth="1"/>
+    <col min="10479" max="10479" width="1.28515625" style="34" customWidth="1"/>
     <col min="10480" max="10480" width="42" style="34" customWidth="1"/>
-    <col min="10481" max="10481" width="5.5" style="34" customWidth="1"/>
+    <col min="10481" max="10481" width="5.42578125" style="34" customWidth="1"/>
     <col min="10482" max="10483" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10484" max="10484" width="2.6640625" style="34" customWidth="1"/>
-    <col min="10485" max="10520" width="3.33203125" style="34" customWidth="1"/>
-    <col min="10521" max="10521" width="1.6640625" style="34" customWidth="1"/>
-    <col min="10522" max="10522" width="25.6640625" style="34" customWidth="1"/>
-    <col min="10523" max="10523" width="31.33203125" style="34" customWidth="1"/>
-    <col min="10524" max="10733" width="8.83203125" style="34"/>
-    <col min="10734" max="10734" width="1.5" style="34" customWidth="1"/>
-    <col min="10735" max="10735" width="1.33203125" style="34" customWidth="1"/>
+    <col min="10484" max="10484" width="2.7109375" style="34" customWidth="1"/>
+    <col min="10485" max="10520" width="3.28515625" style="34" customWidth="1"/>
+    <col min="10521" max="10521" width="1.7109375" style="34" customWidth="1"/>
+    <col min="10522" max="10522" width="25.7109375" style="34" customWidth="1"/>
+    <col min="10523" max="10523" width="31.28515625" style="34" customWidth="1"/>
+    <col min="10524" max="10733" width="8.85546875" style="34"/>
+    <col min="10734" max="10734" width="1.42578125" style="34" customWidth="1"/>
+    <col min="10735" max="10735" width="1.28515625" style="34" customWidth="1"/>
     <col min="10736" max="10736" width="42" style="34" customWidth="1"/>
-    <col min="10737" max="10737" width="5.5" style="34" customWidth="1"/>
+    <col min="10737" max="10737" width="5.42578125" style="34" customWidth="1"/>
     <col min="10738" max="10739" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10740" max="10740" width="2.6640625" style="34" customWidth="1"/>
-    <col min="10741" max="10776" width="3.33203125" style="34" customWidth="1"/>
-    <col min="10777" max="10777" width="1.6640625" style="34" customWidth="1"/>
-    <col min="10778" max="10778" width="25.6640625" style="34" customWidth="1"/>
-    <col min="10779" max="10779" width="31.33203125" style="34" customWidth="1"/>
-    <col min="10780" max="10989" width="8.83203125" style="34"/>
-    <col min="10990" max="10990" width="1.5" style="34" customWidth="1"/>
-    <col min="10991" max="10991" width="1.33203125" style="34" customWidth="1"/>
+    <col min="10740" max="10740" width="2.7109375" style="34" customWidth="1"/>
+    <col min="10741" max="10776" width="3.28515625" style="34" customWidth="1"/>
+    <col min="10777" max="10777" width="1.7109375" style="34" customWidth="1"/>
+    <col min="10778" max="10778" width="25.7109375" style="34" customWidth="1"/>
+    <col min="10779" max="10779" width="31.28515625" style="34" customWidth="1"/>
+    <col min="10780" max="10989" width="8.85546875" style="34"/>
+    <col min="10990" max="10990" width="1.42578125" style="34" customWidth="1"/>
+    <col min="10991" max="10991" width="1.28515625" style="34" customWidth="1"/>
     <col min="10992" max="10992" width="42" style="34" customWidth="1"/>
-    <col min="10993" max="10993" width="5.5" style="34" customWidth="1"/>
+    <col min="10993" max="10993" width="5.42578125" style="34" customWidth="1"/>
     <col min="10994" max="10995" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10996" max="10996" width="2.6640625" style="34" customWidth="1"/>
-    <col min="10997" max="11032" width="3.33203125" style="34" customWidth="1"/>
-    <col min="11033" max="11033" width="1.6640625" style="34" customWidth="1"/>
-    <col min="11034" max="11034" width="25.6640625" style="34" customWidth="1"/>
-    <col min="11035" max="11035" width="31.33203125" style="34" customWidth="1"/>
-    <col min="11036" max="11245" width="8.83203125" style="34"/>
-    <col min="11246" max="11246" width="1.5" style="34" customWidth="1"/>
-    <col min="11247" max="11247" width="1.33203125" style="34" customWidth="1"/>
+    <col min="10996" max="10996" width="2.7109375" style="34" customWidth="1"/>
+    <col min="10997" max="11032" width="3.28515625" style="34" customWidth="1"/>
+    <col min="11033" max="11033" width="1.7109375" style="34" customWidth="1"/>
+    <col min="11034" max="11034" width="25.7109375" style="34" customWidth="1"/>
+    <col min="11035" max="11035" width="31.28515625" style="34" customWidth="1"/>
+    <col min="11036" max="11245" width="8.85546875" style="34"/>
+    <col min="11246" max="11246" width="1.42578125" style="34" customWidth="1"/>
+    <col min="11247" max="11247" width="1.28515625" style="34" customWidth="1"/>
     <col min="11248" max="11248" width="42" style="34" customWidth="1"/>
-    <col min="11249" max="11249" width="5.5" style="34" customWidth="1"/>
+    <col min="11249" max="11249" width="5.42578125" style="34" customWidth="1"/>
     <col min="11250" max="11251" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11252" max="11252" width="2.6640625" style="34" customWidth="1"/>
-    <col min="11253" max="11288" width="3.33203125" style="34" customWidth="1"/>
-    <col min="11289" max="11289" width="1.6640625" style="34" customWidth="1"/>
-    <col min="11290" max="11290" width="25.6640625" style="34" customWidth="1"/>
-    <col min="11291" max="11291" width="31.33203125" style="34" customWidth="1"/>
-    <col min="11292" max="11501" width="8.83203125" style="34"/>
-    <col min="11502" max="11502" width="1.5" style="34" customWidth="1"/>
-    <col min="11503" max="11503" width="1.33203125" style="34" customWidth="1"/>
+    <col min="11252" max="11252" width="2.7109375" style="34" customWidth="1"/>
+    <col min="11253" max="11288" width="3.28515625" style="34" customWidth="1"/>
+    <col min="11289" max="11289" width="1.7109375" style="34" customWidth="1"/>
+    <col min="11290" max="11290" width="25.7109375" style="34" customWidth="1"/>
+    <col min="11291" max="11291" width="31.28515625" style="34" customWidth="1"/>
+    <col min="11292" max="11501" width="8.85546875" style="34"/>
+    <col min="11502" max="11502" width="1.42578125" style="34" customWidth="1"/>
+    <col min="11503" max="11503" width="1.28515625" style="34" customWidth="1"/>
     <col min="11504" max="11504" width="42" style="34" customWidth="1"/>
-    <col min="11505" max="11505" width="5.5" style="34" customWidth="1"/>
+    <col min="11505" max="11505" width="5.42578125" style="34" customWidth="1"/>
     <col min="11506" max="11507" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11508" max="11508" width="2.6640625" style="34" customWidth="1"/>
-    <col min="11509" max="11544" width="3.33203125" style="34" customWidth="1"/>
-    <col min="11545" max="11545" width="1.6640625" style="34" customWidth="1"/>
-    <col min="11546" max="11546" width="25.6640625" style="34" customWidth="1"/>
-    <col min="11547" max="11547" width="31.33203125" style="34" customWidth="1"/>
-    <col min="11548" max="11757" width="8.83203125" style="34"/>
-    <col min="11758" max="11758" width="1.5" style="34" customWidth="1"/>
-    <col min="11759" max="11759" width="1.33203125" style="34" customWidth="1"/>
+    <col min="11508" max="11508" width="2.7109375" style="34" customWidth="1"/>
+    <col min="11509" max="11544" width="3.28515625" style="34" customWidth="1"/>
+    <col min="11545" max="11545" width="1.7109375" style="34" customWidth="1"/>
+    <col min="11546" max="11546" width="25.7109375" style="34" customWidth="1"/>
+    <col min="11547" max="11547" width="31.28515625" style="34" customWidth="1"/>
+    <col min="11548" max="11757" width="8.85546875" style="34"/>
+    <col min="11758" max="11758" width="1.42578125" style="34" customWidth="1"/>
+    <col min="11759" max="11759" width="1.28515625" style="34" customWidth="1"/>
     <col min="11760" max="11760" width="42" style="34" customWidth="1"/>
-    <col min="11761" max="11761" width="5.5" style="34" customWidth="1"/>
+    <col min="11761" max="11761" width="5.42578125" style="34" customWidth="1"/>
     <col min="11762" max="11763" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11764" max="11764" width="2.6640625" style="34" customWidth="1"/>
-    <col min="11765" max="11800" width="3.33203125" style="34" customWidth="1"/>
-    <col min="11801" max="11801" width="1.6640625" style="34" customWidth="1"/>
-    <col min="11802" max="11802" width="25.6640625" style="34" customWidth="1"/>
-    <col min="11803" max="11803" width="31.33203125" style="34" customWidth="1"/>
-    <col min="11804" max="12013" width="8.83203125" style="34"/>
-    <col min="12014" max="12014" width="1.5" style="34" customWidth="1"/>
-    <col min="12015" max="12015" width="1.33203125" style="34" customWidth="1"/>
+    <col min="11764" max="11764" width="2.7109375" style="34" customWidth="1"/>
+    <col min="11765" max="11800" width="3.28515625" style="34" customWidth="1"/>
+    <col min="11801" max="11801" width="1.7109375" style="34" customWidth="1"/>
+    <col min="11802" max="11802" width="25.7109375" style="34" customWidth="1"/>
+    <col min="11803" max="11803" width="31.28515625" style="34" customWidth="1"/>
+    <col min="11804" max="12013" width="8.85546875" style="34"/>
+    <col min="12014" max="12014" width="1.42578125" style="34" customWidth="1"/>
+    <col min="12015" max="12015" width="1.28515625" style="34" customWidth="1"/>
     <col min="12016" max="12016" width="42" style="34" customWidth="1"/>
-    <col min="12017" max="12017" width="5.5" style="34" customWidth="1"/>
+    <col min="12017" max="12017" width="5.42578125" style="34" customWidth="1"/>
     <col min="12018" max="12019" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12020" max="12020" width="2.6640625" style="34" customWidth="1"/>
-    <col min="12021" max="12056" width="3.33203125" style="34" customWidth="1"/>
-    <col min="12057" max="12057" width="1.6640625" style="34" customWidth="1"/>
-    <col min="12058" max="12058" width="25.6640625" style="34" customWidth="1"/>
-    <col min="12059" max="12059" width="31.33203125" style="34" customWidth="1"/>
-    <col min="12060" max="12269" width="8.83203125" style="34"/>
-    <col min="12270" max="12270" width="1.5" style="34" customWidth="1"/>
-    <col min="12271" max="12271" width="1.33203125" style="34" customWidth="1"/>
+    <col min="12020" max="12020" width="2.7109375" style="34" customWidth="1"/>
+    <col min="12021" max="12056" width="3.28515625" style="34" customWidth="1"/>
+    <col min="12057" max="12057" width="1.7109375" style="34" customWidth="1"/>
+    <col min="12058" max="12058" width="25.7109375" style="34" customWidth="1"/>
+    <col min="12059" max="12059" width="31.28515625" style="34" customWidth="1"/>
+    <col min="12060" max="12269" width="8.85546875" style="34"/>
+    <col min="12270" max="12270" width="1.42578125" style="34" customWidth="1"/>
+    <col min="12271" max="12271" width="1.28515625" style="34" customWidth="1"/>
     <col min="12272" max="12272" width="42" style="34" customWidth="1"/>
-    <col min="12273" max="12273" width="5.5" style="34" customWidth="1"/>
+    <col min="12273" max="12273" width="5.42578125" style="34" customWidth="1"/>
     <col min="12274" max="12275" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12276" max="12276" width="2.6640625" style="34" customWidth="1"/>
-    <col min="12277" max="12312" width="3.33203125" style="34" customWidth="1"/>
-    <col min="12313" max="12313" width="1.6640625" style="34" customWidth="1"/>
-    <col min="12314" max="12314" width="25.6640625" style="34" customWidth="1"/>
-    <col min="12315" max="12315" width="31.33203125" style="34" customWidth="1"/>
-    <col min="12316" max="12525" width="8.83203125" style="34"/>
-    <col min="12526" max="12526" width="1.5" style="34" customWidth="1"/>
-    <col min="12527" max="12527" width="1.33203125" style="34" customWidth="1"/>
+    <col min="12276" max="12276" width="2.7109375" style="34" customWidth="1"/>
+    <col min="12277" max="12312" width="3.28515625" style="34" customWidth="1"/>
+    <col min="12313" max="12313" width="1.7109375" style="34" customWidth="1"/>
+    <col min="12314" max="12314" width="25.7109375" style="34" customWidth="1"/>
+    <col min="12315" max="12315" width="31.28515625" style="34" customWidth="1"/>
+    <col min="12316" max="12525" width="8.85546875" style="34"/>
+    <col min="12526" max="12526" width="1.42578125" style="34" customWidth="1"/>
+    <col min="12527" max="12527" width="1.28515625" style="34" customWidth="1"/>
     <col min="12528" max="12528" width="42" style="34" customWidth="1"/>
-    <col min="12529" max="12529" width="5.5" style="34" customWidth="1"/>
+    <col min="12529" max="12529" width="5.42578125" style="34" customWidth="1"/>
     <col min="12530" max="12531" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12532" max="12532" width="2.6640625" style="34" customWidth="1"/>
-    <col min="12533" max="12568" width="3.33203125" style="34" customWidth="1"/>
-    <col min="12569" max="12569" width="1.6640625" style="34" customWidth="1"/>
-    <col min="12570" max="12570" width="25.6640625" style="34" customWidth="1"/>
-    <col min="12571" max="12571" width="31.33203125" style="34" customWidth="1"/>
-    <col min="12572" max="12781" width="8.83203125" style="34"/>
-    <col min="12782" max="12782" width="1.5" style="34" customWidth="1"/>
-    <col min="12783" max="12783" width="1.33203125" style="34" customWidth="1"/>
+    <col min="12532" max="12532" width="2.7109375" style="34" customWidth="1"/>
+    <col min="12533" max="12568" width="3.28515625" style="34" customWidth="1"/>
+    <col min="12569" max="12569" width="1.7109375" style="34" customWidth="1"/>
+    <col min="12570" max="12570" width="25.7109375" style="34" customWidth="1"/>
+    <col min="12571" max="12571" width="31.28515625" style="34" customWidth="1"/>
+    <col min="12572" max="12781" width="8.85546875" style="34"/>
+    <col min="12782" max="12782" width="1.42578125" style="34" customWidth="1"/>
+    <col min="12783" max="12783" width="1.28515625" style="34" customWidth="1"/>
     <col min="12784" max="12784" width="42" style="34" customWidth="1"/>
-    <col min="12785" max="12785" width="5.5" style="34" customWidth="1"/>
+    <col min="12785" max="12785" width="5.42578125" style="34" customWidth="1"/>
     <col min="12786" max="12787" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12788" max="12788" width="2.6640625" style="34" customWidth="1"/>
-    <col min="12789" max="12824" width="3.33203125" style="34" customWidth="1"/>
-    <col min="12825" max="12825" width="1.6640625" style="34" customWidth="1"/>
-    <col min="12826" max="12826" width="25.6640625" style="34" customWidth="1"/>
-    <col min="12827" max="12827" width="31.33203125" style="34" customWidth="1"/>
-    <col min="12828" max="13037" width="8.83203125" style="34"/>
-    <col min="13038" max="13038" width="1.5" style="34" customWidth="1"/>
-    <col min="13039" max="13039" width="1.33203125" style="34" customWidth="1"/>
+    <col min="12788" max="12788" width="2.7109375" style="34" customWidth="1"/>
+    <col min="12789" max="12824" width="3.28515625" style="34" customWidth="1"/>
+    <col min="12825" max="12825" width="1.7109375" style="34" customWidth="1"/>
+    <col min="12826" max="12826" width="25.7109375" style="34" customWidth="1"/>
+    <col min="12827" max="12827" width="31.28515625" style="34" customWidth="1"/>
+    <col min="12828" max="13037" width="8.85546875" style="34"/>
+    <col min="13038" max="13038" width="1.42578125" style="34" customWidth="1"/>
+    <col min="13039" max="13039" width="1.28515625" style="34" customWidth="1"/>
     <col min="13040" max="13040" width="42" style="34" customWidth="1"/>
-    <col min="13041" max="13041" width="5.5" style="34" customWidth="1"/>
+    <col min="13041" max="13041" width="5.42578125" style="34" customWidth="1"/>
     <col min="13042" max="13043" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13044" max="13044" width="2.6640625" style="34" customWidth="1"/>
-    <col min="13045" max="13080" width="3.33203125" style="34" customWidth="1"/>
-    <col min="13081" max="13081" width="1.6640625" style="34" customWidth="1"/>
-    <col min="13082" max="13082" width="25.6640625" style="34" customWidth="1"/>
-    <col min="13083" max="13083" width="31.33203125" style="34" customWidth="1"/>
-    <col min="13084" max="13293" width="8.83203125" style="34"/>
-    <col min="13294" max="13294" width="1.5" style="34" customWidth="1"/>
-    <col min="13295" max="13295" width="1.33203125" style="34" customWidth="1"/>
+    <col min="13044" max="13044" width="2.7109375" style="34" customWidth="1"/>
+    <col min="13045" max="13080" width="3.28515625" style="34" customWidth="1"/>
+    <col min="13081" max="13081" width="1.7109375" style="34" customWidth="1"/>
+    <col min="13082" max="13082" width="25.7109375" style="34" customWidth="1"/>
+    <col min="13083" max="13083" width="31.28515625" style="34" customWidth="1"/>
+    <col min="13084" max="13293" width="8.85546875" style="34"/>
+    <col min="13294" max="13294" width="1.42578125" style="34" customWidth="1"/>
+    <col min="13295" max="13295" width="1.28515625" style="34" customWidth="1"/>
     <col min="13296" max="13296" width="42" style="34" customWidth="1"/>
-    <col min="13297" max="13297" width="5.5" style="34" customWidth="1"/>
+    <col min="13297" max="13297" width="5.42578125" style="34" customWidth="1"/>
     <col min="13298" max="13299" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13300" max="13300" width="2.6640625" style="34" customWidth="1"/>
-    <col min="13301" max="13336" width="3.33203125" style="34" customWidth="1"/>
-    <col min="13337" max="13337" width="1.6640625" style="34" customWidth="1"/>
-    <col min="13338" max="13338" width="25.6640625" style="34" customWidth="1"/>
-    <col min="13339" max="13339" width="31.33203125" style="34" customWidth="1"/>
-    <col min="13340" max="13549" width="8.83203125" style="34"/>
-    <col min="13550" max="13550" width="1.5" style="34" customWidth="1"/>
-    <col min="13551" max="13551" width="1.33203125" style="34" customWidth="1"/>
+    <col min="13300" max="13300" width="2.7109375" style="34" customWidth="1"/>
+    <col min="13301" max="13336" width="3.28515625" style="34" customWidth="1"/>
+    <col min="13337" max="13337" width="1.7109375" style="34" customWidth="1"/>
+    <col min="13338" max="13338" width="25.7109375" style="34" customWidth="1"/>
+    <col min="13339" max="13339" width="31.28515625" style="34" customWidth="1"/>
+    <col min="13340" max="13549" width="8.85546875" style="34"/>
+    <col min="13550" max="13550" width="1.42578125" style="34" customWidth="1"/>
+    <col min="13551" max="13551" width="1.28515625" style="34" customWidth="1"/>
     <col min="13552" max="13552" width="42" style="34" customWidth="1"/>
-    <col min="13553" max="13553" width="5.5" style="34" customWidth="1"/>
+    <col min="13553" max="13553" width="5.42578125" style="34" customWidth="1"/>
     <col min="13554" max="13555" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13556" max="13556" width="2.6640625" style="34" customWidth="1"/>
-    <col min="13557" max="13592" width="3.33203125" style="34" customWidth="1"/>
-    <col min="13593" max="13593" width="1.6640625" style="34" customWidth="1"/>
-    <col min="13594" max="13594" width="25.6640625" style="34" customWidth="1"/>
-    <col min="13595" max="13595" width="31.33203125" style="34" customWidth="1"/>
-    <col min="13596" max="13805" width="8.83203125" style="34"/>
-    <col min="13806" max="13806" width="1.5" style="34" customWidth="1"/>
-    <col min="13807" max="13807" width="1.33203125" style="34" customWidth="1"/>
+    <col min="13556" max="13556" width="2.7109375" style="34" customWidth="1"/>
+    <col min="13557" max="13592" width="3.28515625" style="34" customWidth="1"/>
+    <col min="13593" max="13593" width="1.7109375" style="34" customWidth="1"/>
+    <col min="13594" max="13594" width="25.7109375" style="34" customWidth="1"/>
+    <col min="13595" max="13595" width="31.28515625" style="34" customWidth="1"/>
+    <col min="13596" max="13805" width="8.85546875" style="34"/>
+    <col min="13806" max="13806" width="1.42578125" style="34" customWidth="1"/>
+    <col min="13807" max="13807" width="1.28515625" style="34" customWidth="1"/>
     <col min="13808" max="13808" width="42" style="34" customWidth="1"/>
-    <col min="13809" max="13809" width="5.5" style="34" customWidth="1"/>
+    <col min="13809" max="13809" width="5.42578125" style="34" customWidth="1"/>
     <col min="13810" max="13811" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13812" max="13812" width="2.6640625" style="34" customWidth="1"/>
-    <col min="13813" max="13848" width="3.33203125" style="34" customWidth="1"/>
-    <col min="13849" max="13849" width="1.6640625" style="34" customWidth="1"/>
-    <col min="13850" max="13850" width="25.6640625" style="34" customWidth="1"/>
-    <col min="13851" max="13851" width="31.33203125" style="34" customWidth="1"/>
-    <col min="13852" max="14061" width="8.83203125" style="34"/>
-    <col min="14062" max="14062" width="1.5" style="34" customWidth="1"/>
-    <col min="14063" max="14063" width="1.33203125" style="34" customWidth="1"/>
+    <col min="13812" max="13812" width="2.7109375" style="34" customWidth="1"/>
+    <col min="13813" max="13848" width="3.28515625" style="34" customWidth="1"/>
+    <col min="13849" max="13849" width="1.7109375" style="34" customWidth="1"/>
+    <col min="13850" max="13850" width="25.7109375" style="34" customWidth="1"/>
+    <col min="13851" max="13851" width="31.28515625" style="34" customWidth="1"/>
+    <col min="13852" max="14061" width="8.85546875" style="34"/>
+    <col min="14062" max="14062" width="1.42578125" style="34" customWidth="1"/>
+    <col min="14063" max="14063" width="1.28515625" style="34" customWidth="1"/>
     <col min="14064" max="14064" width="42" style="34" customWidth="1"/>
-    <col min="14065" max="14065" width="5.5" style="34" customWidth="1"/>
+    <col min="14065" max="14065" width="5.42578125" style="34" customWidth="1"/>
     <col min="14066" max="14067" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14068" max="14068" width="2.6640625" style="34" customWidth="1"/>
-    <col min="14069" max="14104" width="3.33203125" style="34" customWidth="1"/>
-    <col min="14105" max="14105" width="1.6640625" style="34" customWidth="1"/>
-    <col min="14106" max="14106" width="25.6640625" style="34" customWidth="1"/>
-    <col min="14107" max="14107" width="31.33203125" style="34" customWidth="1"/>
-    <col min="14108" max="14317" width="8.83203125" style="34"/>
-    <col min="14318" max="14318" width="1.5" style="34" customWidth="1"/>
-    <col min="14319" max="14319" width="1.33203125" style="34" customWidth="1"/>
+    <col min="14068" max="14068" width="2.7109375" style="34" customWidth="1"/>
+    <col min="14069" max="14104" width="3.28515625" style="34" customWidth="1"/>
+    <col min="14105" max="14105" width="1.7109375" style="34" customWidth="1"/>
+    <col min="14106" max="14106" width="25.7109375" style="34" customWidth="1"/>
+    <col min="14107" max="14107" width="31.28515625" style="34" customWidth="1"/>
+    <col min="14108" max="14317" width="8.85546875" style="34"/>
+    <col min="14318" max="14318" width="1.42578125" style="34" customWidth="1"/>
+    <col min="14319" max="14319" width="1.28515625" style="34" customWidth="1"/>
     <col min="14320" max="14320" width="42" style="34" customWidth="1"/>
-    <col min="14321" max="14321" width="5.5" style="34" customWidth="1"/>
+    <col min="14321" max="14321" width="5.42578125" style="34" customWidth="1"/>
     <col min="14322" max="14323" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14324" max="14324" width="2.6640625" style="34" customWidth="1"/>
-    <col min="14325" max="14360" width="3.33203125" style="34" customWidth="1"/>
-    <col min="14361" max="14361" width="1.6640625" style="34" customWidth="1"/>
-    <col min="14362" max="14362" width="25.6640625" style="34" customWidth="1"/>
-    <col min="14363" max="14363" width="31.33203125" style="34" customWidth="1"/>
-    <col min="14364" max="14573" width="8.83203125" style="34"/>
-    <col min="14574" max="14574" width="1.5" style="34" customWidth="1"/>
-    <col min="14575" max="14575" width="1.33203125" style="34" customWidth="1"/>
+    <col min="14324" max="14324" width="2.7109375" style="34" customWidth="1"/>
+    <col min="14325" max="14360" width="3.28515625" style="34" customWidth="1"/>
+    <col min="14361" max="14361" width="1.7109375" style="34" customWidth="1"/>
+    <col min="14362" max="14362" width="25.7109375" style="34" customWidth="1"/>
+    <col min="14363" max="14363" width="31.28515625" style="34" customWidth="1"/>
+    <col min="14364" max="14573" width="8.85546875" style="34"/>
+    <col min="14574" max="14574" width="1.42578125" style="34" customWidth="1"/>
+    <col min="14575" max="14575" width="1.28515625" style="34" customWidth="1"/>
     <col min="14576" max="14576" width="42" style="34" customWidth="1"/>
-    <col min="14577" max="14577" width="5.5" style="34" customWidth="1"/>
+    <col min="14577" max="14577" width="5.42578125" style="34" customWidth="1"/>
     <col min="14578" max="14579" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14580" max="14580" width="2.6640625" style="34" customWidth="1"/>
-    <col min="14581" max="14616" width="3.33203125" style="34" customWidth="1"/>
-    <col min="14617" max="14617" width="1.6640625" style="34" customWidth="1"/>
-    <col min="14618" max="14618" width="25.6640625" style="34" customWidth="1"/>
-    <col min="14619" max="14619" width="31.33203125" style="34" customWidth="1"/>
-    <col min="14620" max="14829" width="8.83203125" style="34"/>
-    <col min="14830" max="14830" width="1.5" style="34" customWidth="1"/>
-    <col min="14831" max="14831" width="1.33203125" style="34" customWidth="1"/>
+    <col min="14580" max="14580" width="2.7109375" style="34" customWidth="1"/>
+    <col min="14581" max="14616" width="3.28515625" style="34" customWidth="1"/>
+    <col min="14617" max="14617" width="1.7109375" style="34" customWidth="1"/>
+    <col min="14618" max="14618" width="25.7109375" style="34" customWidth="1"/>
+    <col min="14619" max="14619" width="31.28515625" style="34" customWidth="1"/>
+    <col min="14620" max="14829" width="8.85546875" style="34"/>
+    <col min="14830" max="14830" width="1.42578125" style="34" customWidth="1"/>
+    <col min="14831" max="14831" width="1.28515625" style="34" customWidth="1"/>
     <col min="14832" max="14832" width="42" style="34" customWidth="1"/>
-    <col min="14833" max="14833" width="5.5" style="34" customWidth="1"/>
+    <col min="14833" max="14833" width="5.42578125" style="34" customWidth="1"/>
     <col min="14834" max="14835" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14836" max="14836" width="2.6640625" style="34" customWidth="1"/>
-    <col min="14837" max="14872" width="3.33203125" style="34" customWidth="1"/>
-    <col min="14873" max="14873" width="1.6640625" style="34" customWidth="1"/>
-    <col min="14874" max="14874" width="25.6640625" style="34" customWidth="1"/>
-    <col min="14875" max="14875" width="31.33203125" style="34" customWidth="1"/>
-    <col min="14876" max="15085" width="8.83203125" style="34"/>
-    <col min="15086" max="15086" width="1.5" style="34" customWidth="1"/>
-    <col min="15087" max="15087" width="1.33203125" style="34" customWidth="1"/>
+    <col min="14836" max="14836" width="2.7109375" style="34" customWidth="1"/>
+    <col min="14837" max="14872" width="3.28515625" style="34" customWidth="1"/>
+    <col min="14873" max="14873" width="1.7109375" style="34" customWidth="1"/>
+    <col min="14874" max="14874" width="25.7109375" style="34" customWidth="1"/>
+    <col min="14875" max="14875" width="31.28515625" style="34" customWidth="1"/>
+    <col min="14876" max="15085" width="8.85546875" style="34"/>
+    <col min="15086" max="15086" width="1.42578125" style="34" customWidth="1"/>
+    <col min="15087" max="15087" width="1.28515625" style="34" customWidth="1"/>
     <col min="15088" max="15088" width="42" style="34" customWidth="1"/>
-    <col min="15089" max="15089" width="5.5" style="34" customWidth="1"/>
+    <col min="15089" max="15089" width="5.42578125" style="34" customWidth="1"/>
     <col min="15090" max="15091" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15092" max="15092" width="2.6640625" style="34" customWidth="1"/>
-    <col min="15093" max="15128" width="3.33203125" style="34" customWidth="1"/>
-    <col min="15129" max="15129" width="1.6640625" style="34" customWidth="1"/>
-    <col min="15130" max="15130" width="25.6640625" style="34" customWidth="1"/>
-    <col min="15131" max="15131" width="31.33203125" style="34" customWidth="1"/>
-    <col min="15132" max="15341" width="8.83203125" style="34"/>
-    <col min="15342" max="15342" width="1.5" style="34" customWidth="1"/>
-    <col min="15343" max="15343" width="1.33203125" style="34" customWidth="1"/>
+    <col min="15092" max="15092" width="2.7109375" style="34" customWidth="1"/>
+    <col min="15093" max="15128" width="3.28515625" style="34" customWidth="1"/>
+    <col min="15129" max="15129" width="1.7109375" style="34" customWidth="1"/>
+    <col min="15130" max="15130" width="25.7109375" style="34" customWidth="1"/>
+    <col min="15131" max="15131" width="31.28515625" style="34" customWidth="1"/>
+    <col min="15132" max="15341" width="8.85546875" style="34"/>
+    <col min="15342" max="15342" width="1.42578125" style="34" customWidth="1"/>
+    <col min="15343" max="15343" width="1.28515625" style="34" customWidth="1"/>
     <col min="15344" max="15344" width="42" style="34" customWidth="1"/>
-    <col min="15345" max="15345" width="5.5" style="34" customWidth="1"/>
+    <col min="15345" max="15345" width="5.42578125" style="34" customWidth="1"/>
     <col min="15346" max="15347" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15348" max="15348" width="2.6640625" style="34" customWidth="1"/>
-    <col min="15349" max="15384" width="3.33203125" style="34" customWidth="1"/>
-    <col min="15385" max="15385" width="1.6640625" style="34" customWidth="1"/>
-    <col min="15386" max="15386" width="25.6640625" style="34" customWidth="1"/>
-    <col min="15387" max="15387" width="31.33203125" style="34" customWidth="1"/>
-    <col min="15388" max="15597" width="8.83203125" style="34"/>
-    <col min="15598" max="15598" width="1.5" style="34" customWidth="1"/>
-    <col min="15599" max="15599" width="1.33203125" style="34" customWidth="1"/>
+    <col min="15348" max="15348" width="2.7109375" style="34" customWidth="1"/>
+    <col min="15349" max="15384" width="3.28515625" style="34" customWidth="1"/>
+    <col min="15385" max="15385" width="1.7109375" style="34" customWidth="1"/>
+    <col min="15386" max="15386" width="25.7109375" style="34" customWidth="1"/>
+    <col min="15387" max="15387" width="31.28515625" style="34" customWidth="1"/>
+    <col min="15388" max="15597" width="8.85546875" style="34"/>
+    <col min="15598" max="15598" width="1.42578125" style="34" customWidth="1"/>
+    <col min="15599" max="15599" width="1.28515625" style="34" customWidth="1"/>
     <col min="15600" max="15600" width="42" style="34" customWidth="1"/>
-    <col min="15601" max="15601" width="5.5" style="34" customWidth="1"/>
+    <col min="15601" max="15601" width="5.42578125" style="34" customWidth="1"/>
     <col min="15602" max="15603" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15604" max="15604" width="2.6640625" style="34" customWidth="1"/>
-    <col min="15605" max="15640" width="3.33203125" style="34" customWidth="1"/>
-    <col min="15641" max="15641" width="1.6640625" style="34" customWidth="1"/>
-    <col min="15642" max="15642" width="25.6640625" style="34" customWidth="1"/>
-    <col min="15643" max="15643" width="31.33203125" style="34" customWidth="1"/>
-    <col min="15644" max="15853" width="8.83203125" style="34"/>
-    <col min="15854" max="15854" width="1.5" style="34" customWidth="1"/>
-    <col min="15855" max="15855" width="1.33203125" style="34" customWidth="1"/>
+    <col min="15604" max="15604" width="2.7109375" style="34" customWidth="1"/>
+    <col min="15605" max="15640" width="3.28515625" style="34" customWidth="1"/>
+    <col min="15641" max="15641" width="1.7109375" style="34" customWidth="1"/>
+    <col min="15642" max="15642" width="25.7109375" style="34" customWidth="1"/>
+    <col min="15643" max="15643" width="31.28515625" style="34" customWidth="1"/>
+    <col min="15644" max="15853" width="8.85546875" style="34"/>
+    <col min="15854" max="15854" width="1.42578125" style="34" customWidth="1"/>
+    <col min="15855" max="15855" width="1.28515625" style="34" customWidth="1"/>
     <col min="15856" max="15856" width="42" style="34" customWidth="1"/>
-    <col min="15857" max="15857" width="5.5" style="34" customWidth="1"/>
+    <col min="15857" max="15857" width="5.42578125" style="34" customWidth="1"/>
     <col min="15858" max="15859" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15860" max="15860" width="2.6640625" style="34" customWidth="1"/>
-    <col min="15861" max="15896" width="3.33203125" style="34" customWidth="1"/>
-    <col min="15897" max="15897" width="1.6640625" style="34" customWidth="1"/>
-    <col min="15898" max="15898" width="25.6640625" style="34" customWidth="1"/>
-    <col min="15899" max="15899" width="31.33203125" style="34" customWidth="1"/>
-    <col min="15900" max="16109" width="8.83203125" style="34"/>
-    <col min="16110" max="16110" width="1.5" style="34" customWidth="1"/>
-    <col min="16111" max="16111" width="1.33203125" style="34" customWidth="1"/>
+    <col min="15860" max="15860" width="2.7109375" style="34" customWidth="1"/>
+    <col min="15861" max="15896" width="3.28515625" style="34" customWidth="1"/>
+    <col min="15897" max="15897" width="1.7109375" style="34" customWidth="1"/>
+    <col min="15898" max="15898" width="25.7109375" style="34" customWidth="1"/>
+    <col min="15899" max="15899" width="31.28515625" style="34" customWidth="1"/>
+    <col min="15900" max="16109" width="8.85546875" style="34"/>
+    <col min="16110" max="16110" width="1.42578125" style="34" customWidth="1"/>
+    <col min="16111" max="16111" width="1.28515625" style="34" customWidth="1"/>
     <col min="16112" max="16112" width="42" style="34" customWidth="1"/>
-    <col min="16113" max="16113" width="5.5" style="34" customWidth="1"/>
+    <col min="16113" max="16113" width="5.42578125" style="34" customWidth="1"/>
     <col min="16114" max="16115" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="16116" max="16116" width="2.6640625" style="34" customWidth="1"/>
-    <col min="16117" max="16152" width="3.33203125" style="34" customWidth="1"/>
-    <col min="16153" max="16153" width="1.6640625" style="34" customWidth="1"/>
-    <col min="16154" max="16154" width="25.6640625" style="34" customWidth="1"/>
-    <col min="16155" max="16155" width="31.33203125" style="34" customWidth="1"/>
-    <col min="16156" max="16384" width="8.83203125" style="34"/>
+    <col min="16116" max="16116" width="2.7109375" style="34" customWidth="1"/>
+    <col min="16117" max="16152" width="3.28515625" style="34" customWidth="1"/>
+    <col min="16153" max="16153" width="1.7109375" style="34" customWidth="1"/>
+    <col min="16154" max="16154" width="25.7109375" style="34" customWidth="1"/>
+    <col min="16155" max="16155" width="31.28515625" style="34" customWidth="1"/>
+    <col min="16156" max="16384" width="8.85546875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="134" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
     </row>
-    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="76">
         <v>0</v>
       </c>
       <c r="D5" s="37"/>
     </row>
-    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="78">
         <v>0</v>
       </c>
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="80">
         <v>0</v>
       </c>
       <c r="D7" s="37"/>
     </row>
-    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="82">
+        <v>4</v>
+      </c>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="82">
-        <v>0</v>
-      </c>
-      <c r="D8" s="37"/>
-    </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="83" t="s">
-        <v>52</v>
-      </c>
       <c r="C9" s="84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="39"/>
     </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="66"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
     </row>
-    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -6946,738 +6981,738 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="34" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="68.5" style="35" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="68.42578125" style="35" customWidth="1"/>
     <col min="4" max="4" width="8" style="36" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="36" customWidth="1"/>
-    <col min="6" max="24" width="3.33203125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="36" customWidth="1"/>
+    <col min="6" max="24" width="3.28515625" style="36" customWidth="1"/>
     <col min="25" max="25" width="10" style="36" customWidth="1"/>
-    <col min="26" max="34" width="8.83203125" style="36"/>
-    <col min="35" max="235" width="8.83203125" style="34"/>
-    <col min="236" max="236" width="1.5" style="34" customWidth="1"/>
-    <col min="237" max="237" width="1.33203125" style="34" customWidth="1"/>
+    <col min="26" max="34" width="8.85546875" style="36"/>
+    <col min="35" max="235" width="8.85546875" style="34"/>
+    <col min="236" max="236" width="1.42578125" style="34" customWidth="1"/>
+    <col min="237" max="237" width="1.28515625" style="34" customWidth="1"/>
     <col min="238" max="238" width="42" style="34" customWidth="1"/>
-    <col min="239" max="239" width="5.5" style="34" customWidth="1"/>
+    <col min="239" max="239" width="5.42578125" style="34" customWidth="1"/>
     <col min="240" max="241" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="242" max="242" width="2.6640625" style="34" customWidth="1"/>
-    <col min="243" max="278" width="3.33203125" style="34" customWidth="1"/>
-    <col min="279" max="279" width="1.6640625" style="34" customWidth="1"/>
-    <col min="280" max="280" width="25.6640625" style="34" customWidth="1"/>
-    <col min="281" max="281" width="31.33203125" style="34" customWidth="1"/>
-    <col min="282" max="491" width="8.83203125" style="34"/>
-    <col min="492" max="492" width="1.5" style="34" customWidth="1"/>
-    <col min="493" max="493" width="1.33203125" style="34" customWidth="1"/>
+    <col min="242" max="242" width="2.7109375" style="34" customWidth="1"/>
+    <col min="243" max="278" width="3.28515625" style="34" customWidth="1"/>
+    <col min="279" max="279" width="1.7109375" style="34" customWidth="1"/>
+    <col min="280" max="280" width="25.7109375" style="34" customWidth="1"/>
+    <col min="281" max="281" width="31.28515625" style="34" customWidth="1"/>
+    <col min="282" max="491" width="8.85546875" style="34"/>
+    <col min="492" max="492" width="1.42578125" style="34" customWidth="1"/>
+    <col min="493" max="493" width="1.28515625" style="34" customWidth="1"/>
     <col min="494" max="494" width="42" style="34" customWidth="1"/>
-    <col min="495" max="495" width="5.5" style="34" customWidth="1"/>
+    <col min="495" max="495" width="5.42578125" style="34" customWidth="1"/>
     <col min="496" max="497" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="498" max="498" width="2.6640625" style="34" customWidth="1"/>
-    <col min="499" max="534" width="3.33203125" style="34" customWidth="1"/>
-    <col min="535" max="535" width="1.6640625" style="34" customWidth="1"/>
-    <col min="536" max="536" width="25.6640625" style="34" customWidth="1"/>
-    <col min="537" max="537" width="31.33203125" style="34" customWidth="1"/>
-    <col min="538" max="747" width="8.83203125" style="34"/>
-    <col min="748" max="748" width="1.5" style="34" customWidth="1"/>
-    <col min="749" max="749" width="1.33203125" style="34" customWidth="1"/>
+    <col min="498" max="498" width="2.7109375" style="34" customWidth="1"/>
+    <col min="499" max="534" width="3.28515625" style="34" customWidth="1"/>
+    <col min="535" max="535" width="1.7109375" style="34" customWidth="1"/>
+    <col min="536" max="536" width="25.7109375" style="34" customWidth="1"/>
+    <col min="537" max="537" width="31.28515625" style="34" customWidth="1"/>
+    <col min="538" max="747" width="8.85546875" style="34"/>
+    <col min="748" max="748" width="1.42578125" style="34" customWidth="1"/>
+    <col min="749" max="749" width="1.28515625" style="34" customWidth="1"/>
     <col min="750" max="750" width="42" style="34" customWidth="1"/>
-    <col min="751" max="751" width="5.5" style="34" customWidth="1"/>
+    <col min="751" max="751" width="5.42578125" style="34" customWidth="1"/>
     <col min="752" max="753" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="754" max="754" width="2.6640625" style="34" customWidth="1"/>
-    <col min="755" max="790" width="3.33203125" style="34" customWidth="1"/>
-    <col min="791" max="791" width="1.6640625" style="34" customWidth="1"/>
-    <col min="792" max="792" width="25.6640625" style="34" customWidth="1"/>
-    <col min="793" max="793" width="31.33203125" style="34" customWidth="1"/>
-    <col min="794" max="1003" width="8.83203125" style="34"/>
-    <col min="1004" max="1004" width="1.5" style="34" customWidth="1"/>
-    <col min="1005" max="1005" width="1.33203125" style="34" customWidth="1"/>
+    <col min="754" max="754" width="2.7109375" style="34" customWidth="1"/>
+    <col min="755" max="790" width="3.28515625" style="34" customWidth="1"/>
+    <col min="791" max="791" width="1.7109375" style="34" customWidth="1"/>
+    <col min="792" max="792" width="25.7109375" style="34" customWidth="1"/>
+    <col min="793" max="793" width="31.28515625" style="34" customWidth="1"/>
+    <col min="794" max="1003" width="8.85546875" style="34"/>
+    <col min="1004" max="1004" width="1.42578125" style="34" customWidth="1"/>
+    <col min="1005" max="1005" width="1.28515625" style="34" customWidth="1"/>
     <col min="1006" max="1006" width="42" style="34" customWidth="1"/>
-    <col min="1007" max="1007" width="5.5" style="34" customWidth="1"/>
+    <col min="1007" max="1007" width="5.42578125" style="34" customWidth="1"/>
     <col min="1008" max="1009" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1010" max="1010" width="2.6640625" style="34" customWidth="1"/>
-    <col min="1011" max="1046" width="3.33203125" style="34" customWidth="1"/>
-    <col min="1047" max="1047" width="1.6640625" style="34" customWidth="1"/>
-    <col min="1048" max="1048" width="25.6640625" style="34" customWidth="1"/>
-    <col min="1049" max="1049" width="31.33203125" style="34" customWidth="1"/>
-    <col min="1050" max="1259" width="8.83203125" style="34"/>
-    <col min="1260" max="1260" width="1.5" style="34" customWidth="1"/>
-    <col min="1261" max="1261" width="1.33203125" style="34" customWidth="1"/>
+    <col min="1010" max="1010" width="2.7109375" style="34" customWidth="1"/>
+    <col min="1011" max="1046" width="3.28515625" style="34" customWidth="1"/>
+    <col min="1047" max="1047" width="1.7109375" style="34" customWidth="1"/>
+    <col min="1048" max="1048" width="25.7109375" style="34" customWidth="1"/>
+    <col min="1049" max="1049" width="31.28515625" style="34" customWidth="1"/>
+    <col min="1050" max="1259" width="8.85546875" style="34"/>
+    <col min="1260" max="1260" width="1.42578125" style="34" customWidth="1"/>
+    <col min="1261" max="1261" width="1.28515625" style="34" customWidth="1"/>
     <col min="1262" max="1262" width="42" style="34" customWidth="1"/>
-    <col min="1263" max="1263" width="5.5" style="34" customWidth="1"/>
+    <col min="1263" max="1263" width="5.42578125" style="34" customWidth="1"/>
     <col min="1264" max="1265" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1266" max="1266" width="2.6640625" style="34" customWidth="1"/>
-    <col min="1267" max="1302" width="3.33203125" style="34" customWidth="1"/>
-    <col min="1303" max="1303" width="1.6640625" style="34" customWidth="1"/>
-    <col min="1304" max="1304" width="25.6640625" style="34" customWidth="1"/>
-    <col min="1305" max="1305" width="31.33203125" style="34" customWidth="1"/>
-    <col min="1306" max="1515" width="8.83203125" style="34"/>
-    <col min="1516" max="1516" width="1.5" style="34" customWidth="1"/>
-    <col min="1517" max="1517" width="1.33203125" style="34" customWidth="1"/>
+    <col min="1266" max="1266" width="2.7109375" style="34" customWidth="1"/>
+    <col min="1267" max="1302" width="3.28515625" style="34" customWidth="1"/>
+    <col min="1303" max="1303" width="1.7109375" style="34" customWidth="1"/>
+    <col min="1304" max="1304" width="25.7109375" style="34" customWidth="1"/>
+    <col min="1305" max="1305" width="31.28515625" style="34" customWidth="1"/>
+    <col min="1306" max="1515" width="8.85546875" style="34"/>
+    <col min="1516" max="1516" width="1.42578125" style="34" customWidth="1"/>
+    <col min="1517" max="1517" width="1.28515625" style="34" customWidth="1"/>
     <col min="1518" max="1518" width="42" style="34" customWidth="1"/>
-    <col min="1519" max="1519" width="5.5" style="34" customWidth="1"/>
+    <col min="1519" max="1519" width="5.42578125" style="34" customWidth="1"/>
     <col min="1520" max="1521" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1522" max="1522" width="2.6640625" style="34" customWidth="1"/>
-    <col min="1523" max="1558" width="3.33203125" style="34" customWidth="1"/>
-    <col min="1559" max="1559" width="1.6640625" style="34" customWidth="1"/>
-    <col min="1560" max="1560" width="25.6640625" style="34" customWidth="1"/>
-    <col min="1561" max="1561" width="31.33203125" style="34" customWidth="1"/>
-    <col min="1562" max="1771" width="8.83203125" style="34"/>
-    <col min="1772" max="1772" width="1.5" style="34" customWidth="1"/>
-    <col min="1773" max="1773" width="1.33203125" style="34" customWidth="1"/>
+    <col min="1522" max="1522" width="2.7109375" style="34" customWidth="1"/>
+    <col min="1523" max="1558" width="3.28515625" style="34" customWidth="1"/>
+    <col min="1559" max="1559" width="1.7109375" style="34" customWidth="1"/>
+    <col min="1560" max="1560" width="25.7109375" style="34" customWidth="1"/>
+    <col min="1561" max="1561" width="31.28515625" style="34" customWidth="1"/>
+    <col min="1562" max="1771" width="8.85546875" style="34"/>
+    <col min="1772" max="1772" width="1.42578125" style="34" customWidth="1"/>
+    <col min="1773" max="1773" width="1.28515625" style="34" customWidth="1"/>
     <col min="1774" max="1774" width="42" style="34" customWidth="1"/>
-    <col min="1775" max="1775" width="5.5" style="34" customWidth="1"/>
+    <col min="1775" max="1775" width="5.42578125" style="34" customWidth="1"/>
     <col min="1776" max="1777" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1778" max="1778" width="2.6640625" style="34" customWidth="1"/>
-    <col min="1779" max="1814" width="3.33203125" style="34" customWidth="1"/>
-    <col min="1815" max="1815" width="1.6640625" style="34" customWidth="1"/>
-    <col min="1816" max="1816" width="25.6640625" style="34" customWidth="1"/>
-    <col min="1817" max="1817" width="31.33203125" style="34" customWidth="1"/>
-    <col min="1818" max="2027" width="8.83203125" style="34"/>
-    <col min="2028" max="2028" width="1.5" style="34" customWidth="1"/>
-    <col min="2029" max="2029" width="1.33203125" style="34" customWidth="1"/>
+    <col min="1778" max="1778" width="2.7109375" style="34" customWidth="1"/>
+    <col min="1779" max="1814" width="3.28515625" style="34" customWidth="1"/>
+    <col min="1815" max="1815" width="1.7109375" style="34" customWidth="1"/>
+    <col min="1816" max="1816" width="25.7109375" style="34" customWidth="1"/>
+    <col min="1817" max="1817" width="31.28515625" style="34" customWidth="1"/>
+    <col min="1818" max="2027" width="8.85546875" style="34"/>
+    <col min="2028" max="2028" width="1.42578125" style="34" customWidth="1"/>
+    <col min="2029" max="2029" width="1.28515625" style="34" customWidth="1"/>
     <col min="2030" max="2030" width="42" style="34" customWidth="1"/>
-    <col min="2031" max="2031" width="5.5" style="34" customWidth="1"/>
+    <col min="2031" max="2031" width="5.42578125" style="34" customWidth="1"/>
     <col min="2032" max="2033" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2034" max="2034" width="2.6640625" style="34" customWidth="1"/>
-    <col min="2035" max="2070" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2071" max="2071" width="1.6640625" style="34" customWidth="1"/>
-    <col min="2072" max="2072" width="25.6640625" style="34" customWidth="1"/>
-    <col min="2073" max="2073" width="31.33203125" style="34" customWidth="1"/>
-    <col min="2074" max="2283" width="8.83203125" style="34"/>
-    <col min="2284" max="2284" width="1.5" style="34" customWidth="1"/>
-    <col min="2285" max="2285" width="1.33203125" style="34" customWidth="1"/>
+    <col min="2034" max="2034" width="2.7109375" style="34" customWidth="1"/>
+    <col min="2035" max="2070" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2071" max="2071" width="1.7109375" style="34" customWidth="1"/>
+    <col min="2072" max="2072" width="25.7109375" style="34" customWidth="1"/>
+    <col min="2073" max="2073" width="31.28515625" style="34" customWidth="1"/>
+    <col min="2074" max="2283" width="8.85546875" style="34"/>
+    <col min="2284" max="2284" width="1.42578125" style="34" customWidth="1"/>
+    <col min="2285" max="2285" width="1.28515625" style="34" customWidth="1"/>
     <col min="2286" max="2286" width="42" style="34" customWidth="1"/>
-    <col min="2287" max="2287" width="5.5" style="34" customWidth="1"/>
+    <col min="2287" max="2287" width="5.42578125" style="34" customWidth="1"/>
     <col min="2288" max="2289" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2290" max="2290" width="2.6640625" style="34" customWidth="1"/>
-    <col min="2291" max="2326" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2327" max="2327" width="1.6640625" style="34" customWidth="1"/>
-    <col min="2328" max="2328" width="25.6640625" style="34" customWidth="1"/>
-    <col min="2329" max="2329" width="31.33203125" style="34" customWidth="1"/>
-    <col min="2330" max="2539" width="8.83203125" style="34"/>
-    <col min="2540" max="2540" width="1.5" style="34" customWidth="1"/>
-    <col min="2541" max="2541" width="1.33203125" style="34" customWidth="1"/>
+    <col min="2290" max="2290" width="2.7109375" style="34" customWidth="1"/>
+    <col min="2291" max="2326" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2327" max="2327" width="1.7109375" style="34" customWidth="1"/>
+    <col min="2328" max="2328" width="25.7109375" style="34" customWidth="1"/>
+    <col min="2329" max="2329" width="31.28515625" style="34" customWidth="1"/>
+    <col min="2330" max="2539" width="8.85546875" style="34"/>
+    <col min="2540" max="2540" width="1.42578125" style="34" customWidth="1"/>
+    <col min="2541" max="2541" width="1.28515625" style="34" customWidth="1"/>
     <col min="2542" max="2542" width="42" style="34" customWidth="1"/>
-    <col min="2543" max="2543" width="5.5" style="34" customWidth="1"/>
+    <col min="2543" max="2543" width="5.42578125" style="34" customWidth="1"/>
     <col min="2544" max="2545" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2546" max="2546" width="2.6640625" style="34" customWidth="1"/>
-    <col min="2547" max="2582" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2583" max="2583" width="1.6640625" style="34" customWidth="1"/>
-    <col min="2584" max="2584" width="25.6640625" style="34" customWidth="1"/>
-    <col min="2585" max="2585" width="31.33203125" style="34" customWidth="1"/>
-    <col min="2586" max="2795" width="8.83203125" style="34"/>
-    <col min="2796" max="2796" width="1.5" style="34" customWidth="1"/>
-    <col min="2797" max="2797" width="1.33203125" style="34" customWidth="1"/>
+    <col min="2546" max="2546" width="2.7109375" style="34" customWidth="1"/>
+    <col min="2547" max="2582" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2583" max="2583" width="1.7109375" style="34" customWidth="1"/>
+    <col min="2584" max="2584" width="25.7109375" style="34" customWidth="1"/>
+    <col min="2585" max="2585" width="31.28515625" style="34" customWidth="1"/>
+    <col min="2586" max="2795" width="8.85546875" style="34"/>
+    <col min="2796" max="2796" width="1.42578125" style="34" customWidth="1"/>
+    <col min="2797" max="2797" width="1.28515625" style="34" customWidth="1"/>
     <col min="2798" max="2798" width="42" style="34" customWidth="1"/>
-    <col min="2799" max="2799" width="5.5" style="34" customWidth="1"/>
+    <col min="2799" max="2799" width="5.42578125" style="34" customWidth="1"/>
     <col min="2800" max="2801" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2802" max="2802" width="2.6640625" style="34" customWidth="1"/>
-    <col min="2803" max="2838" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2839" max="2839" width="1.6640625" style="34" customWidth="1"/>
-    <col min="2840" max="2840" width="25.6640625" style="34" customWidth="1"/>
-    <col min="2841" max="2841" width="31.33203125" style="34" customWidth="1"/>
-    <col min="2842" max="3051" width="8.83203125" style="34"/>
-    <col min="3052" max="3052" width="1.5" style="34" customWidth="1"/>
-    <col min="3053" max="3053" width="1.33203125" style="34" customWidth="1"/>
+    <col min="2802" max="2802" width="2.7109375" style="34" customWidth="1"/>
+    <col min="2803" max="2838" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2839" max="2839" width="1.7109375" style="34" customWidth="1"/>
+    <col min="2840" max="2840" width="25.7109375" style="34" customWidth="1"/>
+    <col min="2841" max="2841" width="31.28515625" style="34" customWidth="1"/>
+    <col min="2842" max="3051" width="8.85546875" style="34"/>
+    <col min="3052" max="3052" width="1.42578125" style="34" customWidth="1"/>
+    <col min="3053" max="3053" width="1.28515625" style="34" customWidth="1"/>
     <col min="3054" max="3054" width="42" style="34" customWidth="1"/>
-    <col min="3055" max="3055" width="5.5" style="34" customWidth="1"/>
+    <col min="3055" max="3055" width="5.42578125" style="34" customWidth="1"/>
     <col min="3056" max="3057" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3058" max="3058" width="2.6640625" style="34" customWidth="1"/>
-    <col min="3059" max="3094" width="3.33203125" style="34" customWidth="1"/>
-    <col min="3095" max="3095" width="1.6640625" style="34" customWidth="1"/>
-    <col min="3096" max="3096" width="25.6640625" style="34" customWidth="1"/>
-    <col min="3097" max="3097" width="31.33203125" style="34" customWidth="1"/>
-    <col min="3098" max="3307" width="8.83203125" style="34"/>
-    <col min="3308" max="3308" width="1.5" style="34" customWidth="1"/>
-    <col min="3309" max="3309" width="1.33203125" style="34" customWidth="1"/>
+    <col min="3058" max="3058" width="2.7109375" style="34" customWidth="1"/>
+    <col min="3059" max="3094" width="3.28515625" style="34" customWidth="1"/>
+    <col min="3095" max="3095" width="1.7109375" style="34" customWidth="1"/>
+    <col min="3096" max="3096" width="25.7109375" style="34" customWidth="1"/>
+    <col min="3097" max="3097" width="31.28515625" style="34" customWidth="1"/>
+    <col min="3098" max="3307" width="8.85546875" style="34"/>
+    <col min="3308" max="3308" width="1.42578125" style="34" customWidth="1"/>
+    <col min="3309" max="3309" width="1.28515625" style="34" customWidth="1"/>
     <col min="3310" max="3310" width="42" style="34" customWidth="1"/>
-    <col min="3311" max="3311" width="5.5" style="34" customWidth="1"/>
+    <col min="3311" max="3311" width="5.42578125" style="34" customWidth="1"/>
     <col min="3312" max="3313" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3314" max="3314" width="2.6640625" style="34" customWidth="1"/>
-    <col min="3315" max="3350" width="3.33203125" style="34" customWidth="1"/>
-    <col min="3351" max="3351" width="1.6640625" style="34" customWidth="1"/>
-    <col min="3352" max="3352" width="25.6640625" style="34" customWidth="1"/>
-    <col min="3353" max="3353" width="31.33203125" style="34" customWidth="1"/>
-    <col min="3354" max="3563" width="8.83203125" style="34"/>
-    <col min="3564" max="3564" width="1.5" style="34" customWidth="1"/>
-    <col min="3565" max="3565" width="1.33203125" style="34" customWidth="1"/>
+    <col min="3314" max="3314" width="2.7109375" style="34" customWidth="1"/>
+    <col min="3315" max="3350" width="3.28515625" style="34" customWidth="1"/>
+    <col min="3351" max="3351" width="1.7109375" style="34" customWidth="1"/>
+    <col min="3352" max="3352" width="25.7109375" style="34" customWidth="1"/>
+    <col min="3353" max="3353" width="31.28515625" style="34" customWidth="1"/>
+    <col min="3354" max="3563" width="8.85546875" style="34"/>
+    <col min="3564" max="3564" width="1.42578125" style="34" customWidth="1"/>
+    <col min="3565" max="3565" width="1.28515625" style="34" customWidth="1"/>
     <col min="3566" max="3566" width="42" style="34" customWidth="1"/>
-    <col min="3567" max="3567" width="5.5" style="34" customWidth="1"/>
+    <col min="3567" max="3567" width="5.42578125" style="34" customWidth="1"/>
     <col min="3568" max="3569" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3570" max="3570" width="2.6640625" style="34" customWidth="1"/>
-    <col min="3571" max="3606" width="3.33203125" style="34" customWidth="1"/>
-    <col min="3607" max="3607" width="1.6640625" style="34" customWidth="1"/>
-    <col min="3608" max="3608" width="25.6640625" style="34" customWidth="1"/>
-    <col min="3609" max="3609" width="31.33203125" style="34" customWidth="1"/>
-    <col min="3610" max="3819" width="8.83203125" style="34"/>
-    <col min="3820" max="3820" width="1.5" style="34" customWidth="1"/>
-    <col min="3821" max="3821" width="1.33203125" style="34" customWidth="1"/>
+    <col min="3570" max="3570" width="2.7109375" style="34" customWidth="1"/>
+    <col min="3571" max="3606" width="3.28515625" style="34" customWidth="1"/>
+    <col min="3607" max="3607" width="1.7109375" style="34" customWidth="1"/>
+    <col min="3608" max="3608" width="25.7109375" style="34" customWidth="1"/>
+    <col min="3609" max="3609" width="31.28515625" style="34" customWidth="1"/>
+    <col min="3610" max="3819" width="8.85546875" style="34"/>
+    <col min="3820" max="3820" width="1.42578125" style="34" customWidth="1"/>
+    <col min="3821" max="3821" width="1.28515625" style="34" customWidth="1"/>
     <col min="3822" max="3822" width="42" style="34" customWidth="1"/>
-    <col min="3823" max="3823" width="5.5" style="34" customWidth="1"/>
+    <col min="3823" max="3823" width="5.42578125" style="34" customWidth="1"/>
     <col min="3824" max="3825" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3826" max="3826" width="2.6640625" style="34" customWidth="1"/>
-    <col min="3827" max="3862" width="3.33203125" style="34" customWidth="1"/>
-    <col min="3863" max="3863" width="1.6640625" style="34" customWidth="1"/>
-    <col min="3864" max="3864" width="25.6640625" style="34" customWidth="1"/>
-    <col min="3865" max="3865" width="31.33203125" style="34" customWidth="1"/>
-    <col min="3866" max="4075" width="8.83203125" style="34"/>
-    <col min="4076" max="4076" width="1.5" style="34" customWidth="1"/>
-    <col min="4077" max="4077" width="1.33203125" style="34" customWidth="1"/>
+    <col min="3826" max="3826" width="2.7109375" style="34" customWidth="1"/>
+    <col min="3827" max="3862" width="3.28515625" style="34" customWidth="1"/>
+    <col min="3863" max="3863" width="1.7109375" style="34" customWidth="1"/>
+    <col min="3864" max="3864" width="25.7109375" style="34" customWidth="1"/>
+    <col min="3865" max="3865" width="31.28515625" style="34" customWidth="1"/>
+    <col min="3866" max="4075" width="8.85546875" style="34"/>
+    <col min="4076" max="4076" width="1.42578125" style="34" customWidth="1"/>
+    <col min="4077" max="4077" width="1.28515625" style="34" customWidth="1"/>
     <col min="4078" max="4078" width="42" style="34" customWidth="1"/>
-    <col min="4079" max="4079" width="5.5" style="34" customWidth="1"/>
+    <col min="4079" max="4079" width="5.42578125" style="34" customWidth="1"/>
     <col min="4080" max="4081" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4082" max="4082" width="2.6640625" style="34" customWidth="1"/>
-    <col min="4083" max="4118" width="3.33203125" style="34" customWidth="1"/>
-    <col min="4119" max="4119" width="1.6640625" style="34" customWidth="1"/>
-    <col min="4120" max="4120" width="25.6640625" style="34" customWidth="1"/>
-    <col min="4121" max="4121" width="31.33203125" style="34" customWidth="1"/>
-    <col min="4122" max="4331" width="8.83203125" style="34"/>
-    <col min="4332" max="4332" width="1.5" style="34" customWidth="1"/>
-    <col min="4333" max="4333" width="1.33203125" style="34" customWidth="1"/>
+    <col min="4082" max="4082" width="2.7109375" style="34" customWidth="1"/>
+    <col min="4083" max="4118" width="3.28515625" style="34" customWidth="1"/>
+    <col min="4119" max="4119" width="1.7109375" style="34" customWidth="1"/>
+    <col min="4120" max="4120" width="25.7109375" style="34" customWidth="1"/>
+    <col min="4121" max="4121" width="31.28515625" style="34" customWidth="1"/>
+    <col min="4122" max="4331" width="8.85546875" style="34"/>
+    <col min="4332" max="4332" width="1.42578125" style="34" customWidth="1"/>
+    <col min="4333" max="4333" width="1.28515625" style="34" customWidth="1"/>
     <col min="4334" max="4334" width="42" style="34" customWidth="1"/>
-    <col min="4335" max="4335" width="5.5" style="34" customWidth="1"/>
+    <col min="4335" max="4335" width="5.42578125" style="34" customWidth="1"/>
     <col min="4336" max="4337" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4338" max="4338" width="2.6640625" style="34" customWidth="1"/>
-    <col min="4339" max="4374" width="3.33203125" style="34" customWidth="1"/>
-    <col min="4375" max="4375" width="1.6640625" style="34" customWidth="1"/>
-    <col min="4376" max="4376" width="25.6640625" style="34" customWidth="1"/>
-    <col min="4377" max="4377" width="31.33203125" style="34" customWidth="1"/>
-    <col min="4378" max="4587" width="8.83203125" style="34"/>
-    <col min="4588" max="4588" width="1.5" style="34" customWidth="1"/>
-    <col min="4589" max="4589" width="1.33203125" style="34" customWidth="1"/>
+    <col min="4338" max="4338" width="2.7109375" style="34" customWidth="1"/>
+    <col min="4339" max="4374" width="3.28515625" style="34" customWidth="1"/>
+    <col min="4375" max="4375" width="1.7109375" style="34" customWidth="1"/>
+    <col min="4376" max="4376" width="25.7109375" style="34" customWidth="1"/>
+    <col min="4377" max="4377" width="31.28515625" style="34" customWidth="1"/>
+    <col min="4378" max="4587" width="8.85546875" style="34"/>
+    <col min="4588" max="4588" width="1.42578125" style="34" customWidth="1"/>
+    <col min="4589" max="4589" width="1.28515625" style="34" customWidth="1"/>
     <col min="4590" max="4590" width="42" style="34" customWidth="1"/>
-    <col min="4591" max="4591" width="5.5" style="34" customWidth="1"/>
+    <col min="4591" max="4591" width="5.42578125" style="34" customWidth="1"/>
     <col min="4592" max="4593" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4594" max="4594" width="2.6640625" style="34" customWidth="1"/>
-    <col min="4595" max="4630" width="3.33203125" style="34" customWidth="1"/>
-    <col min="4631" max="4631" width="1.6640625" style="34" customWidth="1"/>
-    <col min="4632" max="4632" width="25.6640625" style="34" customWidth="1"/>
-    <col min="4633" max="4633" width="31.33203125" style="34" customWidth="1"/>
-    <col min="4634" max="4843" width="8.83203125" style="34"/>
-    <col min="4844" max="4844" width="1.5" style="34" customWidth="1"/>
-    <col min="4845" max="4845" width="1.33203125" style="34" customWidth="1"/>
+    <col min="4594" max="4594" width="2.7109375" style="34" customWidth="1"/>
+    <col min="4595" max="4630" width="3.28515625" style="34" customWidth="1"/>
+    <col min="4631" max="4631" width="1.7109375" style="34" customWidth="1"/>
+    <col min="4632" max="4632" width="25.7109375" style="34" customWidth="1"/>
+    <col min="4633" max="4633" width="31.28515625" style="34" customWidth="1"/>
+    <col min="4634" max="4843" width="8.85546875" style="34"/>
+    <col min="4844" max="4844" width="1.42578125" style="34" customWidth="1"/>
+    <col min="4845" max="4845" width="1.28515625" style="34" customWidth="1"/>
     <col min="4846" max="4846" width="42" style="34" customWidth="1"/>
-    <col min="4847" max="4847" width="5.5" style="34" customWidth="1"/>
+    <col min="4847" max="4847" width="5.42578125" style="34" customWidth="1"/>
     <col min="4848" max="4849" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4850" max="4850" width="2.6640625" style="34" customWidth="1"/>
-    <col min="4851" max="4886" width="3.33203125" style="34" customWidth="1"/>
-    <col min="4887" max="4887" width="1.6640625" style="34" customWidth="1"/>
-    <col min="4888" max="4888" width="25.6640625" style="34" customWidth="1"/>
-    <col min="4889" max="4889" width="31.33203125" style="34" customWidth="1"/>
-    <col min="4890" max="5099" width="8.83203125" style="34"/>
-    <col min="5100" max="5100" width="1.5" style="34" customWidth="1"/>
-    <col min="5101" max="5101" width="1.33203125" style="34" customWidth="1"/>
+    <col min="4850" max="4850" width="2.7109375" style="34" customWidth="1"/>
+    <col min="4851" max="4886" width="3.28515625" style="34" customWidth="1"/>
+    <col min="4887" max="4887" width="1.7109375" style="34" customWidth="1"/>
+    <col min="4888" max="4888" width="25.7109375" style="34" customWidth="1"/>
+    <col min="4889" max="4889" width="31.28515625" style="34" customWidth="1"/>
+    <col min="4890" max="5099" width="8.85546875" style="34"/>
+    <col min="5100" max="5100" width="1.42578125" style="34" customWidth="1"/>
+    <col min="5101" max="5101" width="1.28515625" style="34" customWidth="1"/>
     <col min="5102" max="5102" width="42" style="34" customWidth="1"/>
-    <col min="5103" max="5103" width="5.5" style="34" customWidth="1"/>
+    <col min="5103" max="5103" width="5.42578125" style="34" customWidth="1"/>
     <col min="5104" max="5105" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5106" max="5106" width="2.6640625" style="34" customWidth="1"/>
-    <col min="5107" max="5142" width="3.33203125" style="34" customWidth="1"/>
-    <col min="5143" max="5143" width="1.6640625" style="34" customWidth="1"/>
-    <col min="5144" max="5144" width="25.6640625" style="34" customWidth="1"/>
-    <col min="5145" max="5145" width="31.33203125" style="34" customWidth="1"/>
-    <col min="5146" max="5355" width="8.83203125" style="34"/>
-    <col min="5356" max="5356" width="1.5" style="34" customWidth="1"/>
-    <col min="5357" max="5357" width="1.33203125" style="34" customWidth="1"/>
+    <col min="5106" max="5106" width="2.7109375" style="34" customWidth="1"/>
+    <col min="5107" max="5142" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5143" max="5143" width="1.7109375" style="34" customWidth="1"/>
+    <col min="5144" max="5144" width="25.7109375" style="34" customWidth="1"/>
+    <col min="5145" max="5145" width="31.28515625" style="34" customWidth="1"/>
+    <col min="5146" max="5355" width="8.85546875" style="34"/>
+    <col min="5356" max="5356" width="1.42578125" style="34" customWidth="1"/>
+    <col min="5357" max="5357" width="1.28515625" style="34" customWidth="1"/>
     <col min="5358" max="5358" width="42" style="34" customWidth="1"/>
-    <col min="5359" max="5359" width="5.5" style="34" customWidth="1"/>
+    <col min="5359" max="5359" width="5.42578125" style="34" customWidth="1"/>
     <col min="5360" max="5361" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5362" max="5362" width="2.6640625" style="34" customWidth="1"/>
-    <col min="5363" max="5398" width="3.33203125" style="34" customWidth="1"/>
-    <col min="5399" max="5399" width="1.6640625" style="34" customWidth="1"/>
-    <col min="5400" max="5400" width="25.6640625" style="34" customWidth="1"/>
-    <col min="5401" max="5401" width="31.33203125" style="34" customWidth="1"/>
-    <col min="5402" max="5611" width="8.83203125" style="34"/>
-    <col min="5612" max="5612" width="1.5" style="34" customWidth="1"/>
-    <col min="5613" max="5613" width="1.33203125" style="34" customWidth="1"/>
+    <col min="5362" max="5362" width="2.7109375" style="34" customWidth="1"/>
+    <col min="5363" max="5398" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5399" max="5399" width="1.7109375" style="34" customWidth="1"/>
+    <col min="5400" max="5400" width="25.7109375" style="34" customWidth="1"/>
+    <col min="5401" max="5401" width="31.28515625" style="34" customWidth="1"/>
+    <col min="5402" max="5611" width="8.85546875" style="34"/>
+    <col min="5612" max="5612" width="1.42578125" style="34" customWidth="1"/>
+    <col min="5613" max="5613" width="1.28515625" style="34" customWidth="1"/>
     <col min="5614" max="5614" width="42" style="34" customWidth="1"/>
-    <col min="5615" max="5615" width="5.5" style="34" customWidth="1"/>
+    <col min="5615" max="5615" width="5.42578125" style="34" customWidth="1"/>
     <col min="5616" max="5617" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5618" max="5618" width="2.6640625" style="34" customWidth="1"/>
-    <col min="5619" max="5654" width="3.33203125" style="34" customWidth="1"/>
-    <col min="5655" max="5655" width="1.6640625" style="34" customWidth="1"/>
-    <col min="5656" max="5656" width="25.6640625" style="34" customWidth="1"/>
-    <col min="5657" max="5657" width="31.33203125" style="34" customWidth="1"/>
-    <col min="5658" max="5867" width="8.83203125" style="34"/>
-    <col min="5868" max="5868" width="1.5" style="34" customWidth="1"/>
-    <col min="5869" max="5869" width="1.33203125" style="34" customWidth="1"/>
+    <col min="5618" max="5618" width="2.7109375" style="34" customWidth="1"/>
+    <col min="5619" max="5654" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5655" max="5655" width="1.7109375" style="34" customWidth="1"/>
+    <col min="5656" max="5656" width="25.7109375" style="34" customWidth="1"/>
+    <col min="5657" max="5657" width="31.28515625" style="34" customWidth="1"/>
+    <col min="5658" max="5867" width="8.85546875" style="34"/>
+    <col min="5868" max="5868" width="1.42578125" style="34" customWidth="1"/>
+    <col min="5869" max="5869" width="1.28515625" style="34" customWidth="1"/>
     <col min="5870" max="5870" width="42" style="34" customWidth="1"/>
-    <col min="5871" max="5871" width="5.5" style="34" customWidth="1"/>
+    <col min="5871" max="5871" width="5.42578125" style="34" customWidth="1"/>
     <col min="5872" max="5873" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5874" max="5874" width="2.6640625" style="34" customWidth="1"/>
-    <col min="5875" max="5910" width="3.33203125" style="34" customWidth="1"/>
-    <col min="5911" max="5911" width="1.6640625" style="34" customWidth="1"/>
-    <col min="5912" max="5912" width="25.6640625" style="34" customWidth="1"/>
-    <col min="5913" max="5913" width="31.33203125" style="34" customWidth="1"/>
-    <col min="5914" max="6123" width="8.83203125" style="34"/>
-    <col min="6124" max="6124" width="1.5" style="34" customWidth="1"/>
-    <col min="6125" max="6125" width="1.33203125" style="34" customWidth="1"/>
+    <col min="5874" max="5874" width="2.7109375" style="34" customWidth="1"/>
+    <col min="5875" max="5910" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5911" max="5911" width="1.7109375" style="34" customWidth="1"/>
+    <col min="5912" max="5912" width="25.7109375" style="34" customWidth="1"/>
+    <col min="5913" max="5913" width="31.28515625" style="34" customWidth="1"/>
+    <col min="5914" max="6123" width="8.85546875" style="34"/>
+    <col min="6124" max="6124" width="1.42578125" style="34" customWidth="1"/>
+    <col min="6125" max="6125" width="1.28515625" style="34" customWidth="1"/>
     <col min="6126" max="6126" width="42" style="34" customWidth="1"/>
-    <col min="6127" max="6127" width="5.5" style="34" customWidth="1"/>
+    <col min="6127" max="6127" width="5.42578125" style="34" customWidth="1"/>
     <col min="6128" max="6129" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6130" max="6130" width="2.6640625" style="34" customWidth="1"/>
-    <col min="6131" max="6166" width="3.33203125" style="34" customWidth="1"/>
-    <col min="6167" max="6167" width="1.6640625" style="34" customWidth="1"/>
-    <col min="6168" max="6168" width="25.6640625" style="34" customWidth="1"/>
-    <col min="6169" max="6169" width="31.33203125" style="34" customWidth="1"/>
-    <col min="6170" max="6379" width="8.83203125" style="34"/>
-    <col min="6380" max="6380" width="1.5" style="34" customWidth="1"/>
-    <col min="6381" max="6381" width="1.33203125" style="34" customWidth="1"/>
+    <col min="6130" max="6130" width="2.7109375" style="34" customWidth="1"/>
+    <col min="6131" max="6166" width="3.28515625" style="34" customWidth="1"/>
+    <col min="6167" max="6167" width="1.7109375" style="34" customWidth="1"/>
+    <col min="6168" max="6168" width="25.7109375" style="34" customWidth="1"/>
+    <col min="6169" max="6169" width="31.28515625" style="34" customWidth="1"/>
+    <col min="6170" max="6379" width="8.85546875" style="34"/>
+    <col min="6380" max="6380" width="1.42578125" style="34" customWidth="1"/>
+    <col min="6381" max="6381" width="1.28515625" style="34" customWidth="1"/>
     <col min="6382" max="6382" width="42" style="34" customWidth="1"/>
-    <col min="6383" max="6383" width="5.5" style="34" customWidth="1"/>
+    <col min="6383" max="6383" width="5.42578125" style="34" customWidth="1"/>
     <col min="6384" max="6385" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6386" max="6386" width="2.6640625" style="34" customWidth="1"/>
-    <col min="6387" max="6422" width="3.33203125" style="34" customWidth="1"/>
-    <col min="6423" max="6423" width="1.6640625" style="34" customWidth="1"/>
-    <col min="6424" max="6424" width="25.6640625" style="34" customWidth="1"/>
-    <col min="6425" max="6425" width="31.33203125" style="34" customWidth="1"/>
-    <col min="6426" max="6635" width="8.83203125" style="34"/>
-    <col min="6636" max="6636" width="1.5" style="34" customWidth="1"/>
-    <col min="6637" max="6637" width="1.33203125" style="34" customWidth="1"/>
+    <col min="6386" max="6386" width="2.7109375" style="34" customWidth="1"/>
+    <col min="6387" max="6422" width="3.28515625" style="34" customWidth="1"/>
+    <col min="6423" max="6423" width="1.7109375" style="34" customWidth="1"/>
+    <col min="6424" max="6424" width="25.7109375" style="34" customWidth="1"/>
+    <col min="6425" max="6425" width="31.28515625" style="34" customWidth="1"/>
+    <col min="6426" max="6635" width="8.85546875" style="34"/>
+    <col min="6636" max="6636" width="1.42578125" style="34" customWidth="1"/>
+    <col min="6637" max="6637" width="1.28515625" style="34" customWidth="1"/>
     <col min="6638" max="6638" width="42" style="34" customWidth="1"/>
-    <col min="6639" max="6639" width="5.5" style="34" customWidth="1"/>
+    <col min="6639" max="6639" width="5.42578125" style="34" customWidth="1"/>
     <col min="6640" max="6641" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6642" max="6642" width="2.6640625" style="34" customWidth="1"/>
-    <col min="6643" max="6678" width="3.33203125" style="34" customWidth="1"/>
-    <col min="6679" max="6679" width="1.6640625" style="34" customWidth="1"/>
-    <col min="6680" max="6680" width="25.6640625" style="34" customWidth="1"/>
-    <col min="6681" max="6681" width="31.33203125" style="34" customWidth="1"/>
-    <col min="6682" max="6891" width="8.83203125" style="34"/>
-    <col min="6892" max="6892" width="1.5" style="34" customWidth="1"/>
-    <col min="6893" max="6893" width="1.33203125" style="34" customWidth="1"/>
+    <col min="6642" max="6642" width="2.7109375" style="34" customWidth="1"/>
+    <col min="6643" max="6678" width="3.28515625" style="34" customWidth="1"/>
+    <col min="6679" max="6679" width="1.7109375" style="34" customWidth="1"/>
+    <col min="6680" max="6680" width="25.7109375" style="34" customWidth="1"/>
+    <col min="6681" max="6681" width="31.28515625" style="34" customWidth="1"/>
+    <col min="6682" max="6891" width="8.85546875" style="34"/>
+    <col min="6892" max="6892" width="1.42578125" style="34" customWidth="1"/>
+    <col min="6893" max="6893" width="1.28515625" style="34" customWidth="1"/>
     <col min="6894" max="6894" width="42" style="34" customWidth="1"/>
-    <col min="6895" max="6895" width="5.5" style="34" customWidth="1"/>
+    <col min="6895" max="6895" width="5.42578125" style="34" customWidth="1"/>
     <col min="6896" max="6897" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6898" max="6898" width="2.6640625" style="34" customWidth="1"/>
-    <col min="6899" max="6934" width="3.33203125" style="34" customWidth="1"/>
-    <col min="6935" max="6935" width="1.6640625" style="34" customWidth="1"/>
-    <col min="6936" max="6936" width="25.6640625" style="34" customWidth="1"/>
-    <col min="6937" max="6937" width="31.33203125" style="34" customWidth="1"/>
-    <col min="6938" max="7147" width="8.83203125" style="34"/>
-    <col min="7148" max="7148" width="1.5" style="34" customWidth="1"/>
-    <col min="7149" max="7149" width="1.33203125" style="34" customWidth="1"/>
+    <col min="6898" max="6898" width="2.7109375" style="34" customWidth="1"/>
+    <col min="6899" max="6934" width="3.28515625" style="34" customWidth="1"/>
+    <col min="6935" max="6935" width="1.7109375" style="34" customWidth="1"/>
+    <col min="6936" max="6936" width="25.7109375" style="34" customWidth="1"/>
+    <col min="6937" max="6937" width="31.28515625" style="34" customWidth="1"/>
+    <col min="6938" max="7147" width="8.85546875" style="34"/>
+    <col min="7148" max="7148" width="1.42578125" style="34" customWidth="1"/>
+    <col min="7149" max="7149" width="1.28515625" style="34" customWidth="1"/>
     <col min="7150" max="7150" width="42" style="34" customWidth="1"/>
-    <col min="7151" max="7151" width="5.5" style="34" customWidth="1"/>
+    <col min="7151" max="7151" width="5.42578125" style="34" customWidth="1"/>
     <col min="7152" max="7153" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7154" max="7154" width="2.6640625" style="34" customWidth="1"/>
-    <col min="7155" max="7190" width="3.33203125" style="34" customWidth="1"/>
-    <col min="7191" max="7191" width="1.6640625" style="34" customWidth="1"/>
-    <col min="7192" max="7192" width="25.6640625" style="34" customWidth="1"/>
-    <col min="7193" max="7193" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7194" max="7403" width="8.83203125" style="34"/>
-    <col min="7404" max="7404" width="1.5" style="34" customWidth="1"/>
-    <col min="7405" max="7405" width="1.33203125" style="34" customWidth="1"/>
+    <col min="7154" max="7154" width="2.7109375" style="34" customWidth="1"/>
+    <col min="7155" max="7190" width="3.28515625" style="34" customWidth="1"/>
+    <col min="7191" max="7191" width="1.7109375" style="34" customWidth="1"/>
+    <col min="7192" max="7192" width="25.7109375" style="34" customWidth="1"/>
+    <col min="7193" max="7193" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7194" max="7403" width="8.85546875" style="34"/>
+    <col min="7404" max="7404" width="1.42578125" style="34" customWidth="1"/>
+    <col min="7405" max="7405" width="1.28515625" style="34" customWidth="1"/>
     <col min="7406" max="7406" width="42" style="34" customWidth="1"/>
-    <col min="7407" max="7407" width="5.5" style="34" customWidth="1"/>
+    <col min="7407" max="7407" width="5.42578125" style="34" customWidth="1"/>
     <col min="7408" max="7409" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7410" max="7410" width="2.6640625" style="34" customWidth="1"/>
-    <col min="7411" max="7446" width="3.33203125" style="34" customWidth="1"/>
-    <col min="7447" max="7447" width="1.6640625" style="34" customWidth="1"/>
-    <col min="7448" max="7448" width="25.6640625" style="34" customWidth="1"/>
-    <col min="7449" max="7449" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7450" max="7659" width="8.83203125" style="34"/>
-    <col min="7660" max="7660" width="1.5" style="34" customWidth="1"/>
-    <col min="7661" max="7661" width="1.33203125" style="34" customWidth="1"/>
+    <col min="7410" max="7410" width="2.7109375" style="34" customWidth="1"/>
+    <col min="7411" max="7446" width="3.28515625" style="34" customWidth="1"/>
+    <col min="7447" max="7447" width="1.7109375" style="34" customWidth="1"/>
+    <col min="7448" max="7448" width="25.7109375" style="34" customWidth="1"/>
+    <col min="7449" max="7449" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7450" max="7659" width="8.85546875" style="34"/>
+    <col min="7660" max="7660" width="1.42578125" style="34" customWidth="1"/>
+    <col min="7661" max="7661" width="1.28515625" style="34" customWidth="1"/>
     <col min="7662" max="7662" width="42" style="34" customWidth="1"/>
-    <col min="7663" max="7663" width="5.5" style="34" customWidth="1"/>
+    <col min="7663" max="7663" width="5.42578125" style="34" customWidth="1"/>
     <col min="7664" max="7665" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7666" max="7666" width="2.6640625" style="34" customWidth="1"/>
-    <col min="7667" max="7702" width="3.33203125" style="34" customWidth="1"/>
-    <col min="7703" max="7703" width="1.6640625" style="34" customWidth="1"/>
-    <col min="7704" max="7704" width="25.6640625" style="34" customWidth="1"/>
-    <col min="7705" max="7705" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7706" max="7915" width="8.83203125" style="34"/>
-    <col min="7916" max="7916" width="1.5" style="34" customWidth="1"/>
-    <col min="7917" max="7917" width="1.33203125" style="34" customWidth="1"/>
+    <col min="7666" max="7666" width="2.7109375" style="34" customWidth="1"/>
+    <col min="7667" max="7702" width="3.28515625" style="34" customWidth="1"/>
+    <col min="7703" max="7703" width="1.7109375" style="34" customWidth="1"/>
+    <col min="7704" max="7704" width="25.7109375" style="34" customWidth="1"/>
+    <col min="7705" max="7705" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7706" max="7915" width="8.85546875" style="34"/>
+    <col min="7916" max="7916" width="1.42578125" style="34" customWidth="1"/>
+    <col min="7917" max="7917" width="1.28515625" style="34" customWidth="1"/>
     <col min="7918" max="7918" width="42" style="34" customWidth="1"/>
-    <col min="7919" max="7919" width="5.5" style="34" customWidth="1"/>
+    <col min="7919" max="7919" width="5.42578125" style="34" customWidth="1"/>
     <col min="7920" max="7921" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7922" max="7922" width="2.6640625" style="34" customWidth="1"/>
-    <col min="7923" max="7958" width="3.33203125" style="34" customWidth="1"/>
-    <col min="7959" max="7959" width="1.6640625" style="34" customWidth="1"/>
-    <col min="7960" max="7960" width="25.6640625" style="34" customWidth="1"/>
-    <col min="7961" max="7961" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7962" max="8171" width="8.83203125" style="34"/>
-    <col min="8172" max="8172" width="1.5" style="34" customWidth="1"/>
-    <col min="8173" max="8173" width="1.33203125" style="34" customWidth="1"/>
+    <col min="7922" max="7922" width="2.7109375" style="34" customWidth="1"/>
+    <col min="7923" max="7958" width="3.28515625" style="34" customWidth="1"/>
+    <col min="7959" max="7959" width="1.7109375" style="34" customWidth="1"/>
+    <col min="7960" max="7960" width="25.7109375" style="34" customWidth="1"/>
+    <col min="7961" max="7961" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7962" max="8171" width="8.85546875" style="34"/>
+    <col min="8172" max="8172" width="1.42578125" style="34" customWidth="1"/>
+    <col min="8173" max="8173" width="1.28515625" style="34" customWidth="1"/>
     <col min="8174" max="8174" width="42" style="34" customWidth="1"/>
-    <col min="8175" max="8175" width="5.5" style="34" customWidth="1"/>
+    <col min="8175" max="8175" width="5.42578125" style="34" customWidth="1"/>
     <col min="8176" max="8177" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8178" max="8178" width="2.6640625" style="34" customWidth="1"/>
-    <col min="8179" max="8214" width="3.33203125" style="34" customWidth="1"/>
-    <col min="8215" max="8215" width="1.6640625" style="34" customWidth="1"/>
-    <col min="8216" max="8216" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8217" max="8217" width="31.33203125" style="34" customWidth="1"/>
-    <col min="8218" max="8427" width="8.83203125" style="34"/>
-    <col min="8428" max="8428" width="1.5" style="34" customWidth="1"/>
-    <col min="8429" max="8429" width="1.33203125" style="34" customWidth="1"/>
+    <col min="8178" max="8178" width="2.7109375" style="34" customWidth="1"/>
+    <col min="8179" max="8214" width="3.28515625" style="34" customWidth="1"/>
+    <col min="8215" max="8215" width="1.7109375" style="34" customWidth="1"/>
+    <col min="8216" max="8216" width="25.7109375" style="34" customWidth="1"/>
+    <col min="8217" max="8217" width="31.28515625" style="34" customWidth="1"/>
+    <col min="8218" max="8427" width="8.85546875" style="34"/>
+    <col min="8428" max="8428" width="1.42578125" style="34" customWidth="1"/>
+    <col min="8429" max="8429" width="1.28515625" style="34" customWidth="1"/>
     <col min="8430" max="8430" width="42" style="34" customWidth="1"/>
-    <col min="8431" max="8431" width="5.5" style="34" customWidth="1"/>
+    <col min="8431" max="8431" width="5.42578125" style="34" customWidth="1"/>
     <col min="8432" max="8433" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8434" max="8434" width="2.6640625" style="34" customWidth="1"/>
-    <col min="8435" max="8470" width="3.33203125" style="34" customWidth="1"/>
-    <col min="8471" max="8471" width="1.6640625" style="34" customWidth="1"/>
-    <col min="8472" max="8472" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8473" max="8473" width="31.33203125" style="34" customWidth="1"/>
-    <col min="8474" max="8683" width="8.83203125" style="34"/>
-    <col min="8684" max="8684" width="1.5" style="34" customWidth="1"/>
-    <col min="8685" max="8685" width="1.33203125" style="34" customWidth="1"/>
+    <col min="8434" max="8434" width="2.7109375" style="34" customWidth="1"/>
+    <col min="8435" max="8470" width="3.28515625" style="34" customWidth="1"/>
+    <col min="8471" max="8471" width="1.7109375" style="34" customWidth="1"/>
+    <col min="8472" max="8472" width="25.7109375" style="34" customWidth="1"/>
+    <col min="8473" max="8473" width="31.28515625" style="34" customWidth="1"/>
+    <col min="8474" max="8683" width="8.85546875" style="34"/>
+    <col min="8684" max="8684" width="1.42578125" style="34" customWidth="1"/>
+    <col min="8685" max="8685" width="1.28515625" style="34" customWidth="1"/>
     <col min="8686" max="8686" width="42" style="34" customWidth="1"/>
-    <col min="8687" max="8687" width="5.5" style="34" customWidth="1"/>
+    <col min="8687" max="8687" width="5.42578125" style="34" customWidth="1"/>
     <col min="8688" max="8689" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8690" max="8690" width="2.6640625" style="34" customWidth="1"/>
-    <col min="8691" max="8726" width="3.33203125" style="34" customWidth="1"/>
-    <col min="8727" max="8727" width="1.6640625" style="34" customWidth="1"/>
-    <col min="8728" max="8728" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8729" max="8729" width="31.33203125" style="34" customWidth="1"/>
-    <col min="8730" max="8939" width="8.83203125" style="34"/>
-    <col min="8940" max="8940" width="1.5" style="34" customWidth="1"/>
-    <col min="8941" max="8941" width="1.33203125" style="34" customWidth="1"/>
+    <col min="8690" max="8690" width="2.7109375" style="34" customWidth="1"/>
+    <col min="8691" max="8726" width="3.28515625" style="34" customWidth="1"/>
+    <col min="8727" max="8727" width="1.7109375" style="34" customWidth="1"/>
+    <col min="8728" max="8728" width="25.7109375" style="34" customWidth="1"/>
+    <col min="8729" max="8729" width="31.28515625" style="34" customWidth="1"/>
+    <col min="8730" max="8939" width="8.85546875" style="34"/>
+    <col min="8940" max="8940" width="1.42578125" style="34" customWidth="1"/>
+    <col min="8941" max="8941" width="1.28515625" style="34" customWidth="1"/>
     <col min="8942" max="8942" width="42" style="34" customWidth="1"/>
-    <col min="8943" max="8943" width="5.5" style="34" customWidth="1"/>
+    <col min="8943" max="8943" width="5.42578125" style="34" customWidth="1"/>
     <col min="8944" max="8945" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8946" max="8946" width="2.6640625" style="34" customWidth="1"/>
-    <col min="8947" max="8982" width="3.33203125" style="34" customWidth="1"/>
-    <col min="8983" max="8983" width="1.6640625" style="34" customWidth="1"/>
-    <col min="8984" max="8984" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8985" max="8985" width="31.33203125" style="34" customWidth="1"/>
-    <col min="8986" max="9195" width="8.83203125" style="34"/>
-    <col min="9196" max="9196" width="1.5" style="34" customWidth="1"/>
-    <col min="9197" max="9197" width="1.33203125" style="34" customWidth="1"/>
+    <col min="8946" max="8946" width="2.7109375" style="34" customWidth="1"/>
+    <col min="8947" max="8982" width="3.28515625" style="34" customWidth="1"/>
+    <col min="8983" max="8983" width="1.7109375" style="34" customWidth="1"/>
+    <col min="8984" max="8984" width="25.7109375" style="34" customWidth="1"/>
+    <col min="8985" max="8985" width="31.28515625" style="34" customWidth="1"/>
+    <col min="8986" max="9195" width="8.85546875" style="34"/>
+    <col min="9196" max="9196" width="1.42578125" style="34" customWidth="1"/>
+    <col min="9197" max="9197" width="1.28515625" style="34" customWidth="1"/>
     <col min="9198" max="9198" width="42" style="34" customWidth="1"/>
-    <col min="9199" max="9199" width="5.5" style="34" customWidth="1"/>
+    <col min="9199" max="9199" width="5.42578125" style="34" customWidth="1"/>
     <col min="9200" max="9201" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9202" max="9202" width="2.6640625" style="34" customWidth="1"/>
-    <col min="9203" max="9238" width="3.33203125" style="34" customWidth="1"/>
-    <col min="9239" max="9239" width="1.6640625" style="34" customWidth="1"/>
-    <col min="9240" max="9240" width="25.6640625" style="34" customWidth="1"/>
-    <col min="9241" max="9241" width="31.33203125" style="34" customWidth="1"/>
-    <col min="9242" max="9451" width="8.83203125" style="34"/>
-    <col min="9452" max="9452" width="1.5" style="34" customWidth="1"/>
-    <col min="9453" max="9453" width="1.33203125" style="34" customWidth="1"/>
+    <col min="9202" max="9202" width="2.7109375" style="34" customWidth="1"/>
+    <col min="9203" max="9238" width="3.28515625" style="34" customWidth="1"/>
+    <col min="9239" max="9239" width="1.7109375" style="34" customWidth="1"/>
+    <col min="9240" max="9240" width="25.7109375" style="34" customWidth="1"/>
+    <col min="9241" max="9241" width="31.28515625" style="34" customWidth="1"/>
+    <col min="9242" max="9451" width="8.85546875" style="34"/>
+    <col min="9452" max="9452" width="1.42578125" style="34" customWidth="1"/>
+    <col min="9453" max="9453" width="1.28515625" style="34" customWidth="1"/>
     <col min="9454" max="9454" width="42" style="34" customWidth="1"/>
-    <col min="9455" max="9455" width="5.5" style="34" customWidth="1"/>
+    <col min="9455" max="9455" width="5.42578125" style="34" customWidth="1"/>
     <col min="9456" max="9457" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9458" max="9458" width="2.6640625" style="34" customWidth="1"/>
-    <col min="9459" max="9494" width="3.33203125" style="34" customWidth="1"/>
-    <col min="9495" max="9495" width="1.6640625" style="34" customWidth="1"/>
-    <col min="9496" max="9496" width="25.6640625" style="34" customWidth="1"/>
-    <col min="9497" max="9497" width="31.33203125" style="34" customWidth="1"/>
-    <col min="9498" max="9707" width="8.83203125" style="34"/>
-    <col min="9708" max="9708" width="1.5" style="34" customWidth="1"/>
-    <col min="9709" max="9709" width="1.33203125" style="34" customWidth="1"/>
+    <col min="9458" max="9458" width="2.7109375" style="34" customWidth="1"/>
+    <col min="9459" max="9494" width="3.28515625" style="34" customWidth="1"/>
+    <col min="9495" max="9495" width="1.7109375" style="34" customWidth="1"/>
+    <col min="9496" max="9496" width="25.7109375" style="34" customWidth="1"/>
+    <col min="9497" max="9497" width="31.28515625" style="34" customWidth="1"/>
+    <col min="9498" max="9707" width="8.85546875" style="34"/>
+    <col min="9708" max="9708" width="1.42578125" style="34" customWidth="1"/>
+    <col min="9709" max="9709" width="1.28515625" style="34" customWidth="1"/>
     <col min="9710" max="9710" width="42" style="34" customWidth="1"/>
-    <col min="9711" max="9711" width="5.5" style="34" customWidth="1"/>
+    <col min="9711" max="9711" width="5.42578125" style="34" customWidth="1"/>
     <col min="9712" max="9713" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9714" max="9714" width="2.6640625" style="34" customWidth="1"/>
-    <col min="9715" max="9750" width="3.33203125" style="34" customWidth="1"/>
-    <col min="9751" max="9751" width="1.6640625" style="34" customWidth="1"/>
-    <col min="9752" max="9752" width="25.6640625" style="34" customWidth="1"/>
-    <col min="9753" max="9753" width="31.33203125" style="34" customWidth="1"/>
-    <col min="9754" max="9963" width="8.83203125" style="34"/>
-    <col min="9964" max="9964" width="1.5" style="34" customWidth="1"/>
-    <col min="9965" max="9965" width="1.33203125" style="34" customWidth="1"/>
+    <col min="9714" max="9714" width="2.7109375" style="34" customWidth="1"/>
+    <col min="9715" max="9750" width="3.28515625" style="34" customWidth="1"/>
+    <col min="9751" max="9751" width="1.7109375" style="34" customWidth="1"/>
+    <col min="9752" max="9752" width="25.7109375" style="34" customWidth="1"/>
+    <col min="9753" max="9753" width="31.28515625" style="34" customWidth="1"/>
+    <col min="9754" max="9963" width="8.85546875" style="34"/>
+    <col min="9964" max="9964" width="1.42578125" style="34" customWidth="1"/>
+    <col min="9965" max="9965" width="1.28515625" style="34" customWidth="1"/>
     <col min="9966" max="9966" width="42" style="34" customWidth="1"/>
-    <col min="9967" max="9967" width="5.5" style="34" customWidth="1"/>
+    <col min="9967" max="9967" width="5.42578125" style="34" customWidth="1"/>
     <col min="9968" max="9969" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9970" max="9970" width="2.6640625" style="34" customWidth="1"/>
-    <col min="9971" max="10006" width="3.33203125" style="34" customWidth="1"/>
-    <col min="10007" max="10007" width="1.6640625" style="34" customWidth="1"/>
-    <col min="10008" max="10008" width="25.6640625" style="34" customWidth="1"/>
-    <col min="10009" max="10009" width="31.33203125" style="34" customWidth="1"/>
-    <col min="10010" max="10219" width="8.83203125" style="34"/>
-    <col min="10220" max="10220" width="1.5" style="34" customWidth="1"/>
-    <col min="10221" max="10221" width="1.33203125" style="34" customWidth="1"/>
+    <col min="9970" max="9970" width="2.7109375" style="34" customWidth="1"/>
+    <col min="9971" max="10006" width="3.28515625" style="34" customWidth="1"/>
+    <col min="10007" max="10007" width="1.7109375" style="34" customWidth="1"/>
+    <col min="10008" max="10008" width="25.7109375" style="34" customWidth="1"/>
+    <col min="10009" max="10009" width="31.28515625" style="34" customWidth="1"/>
+    <col min="10010" max="10219" width="8.85546875" style="34"/>
+    <col min="10220" max="10220" width="1.42578125" style="34" customWidth="1"/>
+    <col min="10221" max="10221" width="1.28515625" style="34" customWidth="1"/>
     <col min="10222" max="10222" width="42" style="34" customWidth="1"/>
-    <col min="10223" max="10223" width="5.5" style="34" customWidth="1"/>
+    <col min="10223" max="10223" width="5.42578125" style="34" customWidth="1"/>
     <col min="10224" max="10225" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10226" max="10226" width="2.6640625" style="34" customWidth="1"/>
-    <col min="10227" max="10262" width="3.33203125" style="34" customWidth="1"/>
-    <col min="10263" max="10263" width="1.6640625" style="34" customWidth="1"/>
-    <col min="10264" max="10264" width="25.6640625" style="34" customWidth="1"/>
-    <col min="10265" max="10265" width="31.33203125" style="34" customWidth="1"/>
-    <col min="10266" max="10475" width="8.83203125" style="34"/>
-    <col min="10476" max="10476" width="1.5" style="34" customWidth="1"/>
-    <col min="10477" max="10477" width="1.33203125" style="34" customWidth="1"/>
+    <col min="10226" max="10226" width="2.7109375" style="34" customWidth="1"/>
+    <col min="10227" max="10262" width="3.28515625" style="34" customWidth="1"/>
+    <col min="10263" max="10263" width="1.7109375" style="34" customWidth="1"/>
+    <col min="10264" max="10264" width="25.7109375" style="34" customWidth="1"/>
+    <col min="10265" max="10265" width="31.28515625" style="34" customWidth="1"/>
+    <col min="10266" max="10475" width="8.85546875" style="34"/>
+    <col min="10476" max="10476" width="1.42578125" style="34" customWidth="1"/>
+    <col min="10477" max="10477" width="1.28515625" style="34" customWidth="1"/>
     <col min="10478" max="10478" width="42" style="34" customWidth="1"/>
-    <col min="10479" max="10479" width="5.5" style="34" customWidth="1"/>
+    <col min="10479" max="10479" width="5.42578125" style="34" customWidth="1"/>
     <col min="10480" max="10481" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10482" max="10482" width="2.6640625" style="34" customWidth="1"/>
-    <col min="10483" max="10518" width="3.33203125" style="34" customWidth="1"/>
-    <col min="10519" max="10519" width="1.6640625" style="34" customWidth="1"/>
-    <col min="10520" max="10520" width="25.6640625" style="34" customWidth="1"/>
-    <col min="10521" max="10521" width="31.33203125" style="34" customWidth="1"/>
-    <col min="10522" max="10731" width="8.83203125" style="34"/>
-    <col min="10732" max="10732" width="1.5" style="34" customWidth="1"/>
-    <col min="10733" max="10733" width="1.33203125" style="34" customWidth="1"/>
+    <col min="10482" max="10482" width="2.7109375" style="34" customWidth="1"/>
+    <col min="10483" max="10518" width="3.28515625" style="34" customWidth="1"/>
+    <col min="10519" max="10519" width="1.7109375" style="34" customWidth="1"/>
+    <col min="10520" max="10520" width="25.7109375" style="34" customWidth="1"/>
+    <col min="10521" max="10521" width="31.28515625" style="34" customWidth="1"/>
+    <col min="10522" max="10731" width="8.85546875" style="34"/>
+    <col min="10732" max="10732" width="1.42578125" style="34" customWidth="1"/>
+    <col min="10733" max="10733" width="1.28515625" style="34" customWidth="1"/>
     <col min="10734" max="10734" width="42" style="34" customWidth="1"/>
-    <col min="10735" max="10735" width="5.5" style="34" customWidth="1"/>
+    <col min="10735" max="10735" width="5.42578125" style="34" customWidth="1"/>
     <col min="10736" max="10737" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10738" max="10738" width="2.6640625" style="34" customWidth="1"/>
-    <col min="10739" max="10774" width="3.33203125" style="34" customWidth="1"/>
-    <col min="10775" max="10775" width="1.6640625" style="34" customWidth="1"/>
-    <col min="10776" max="10776" width="25.6640625" style="34" customWidth="1"/>
-    <col min="10777" max="10777" width="31.33203125" style="34" customWidth="1"/>
-    <col min="10778" max="10987" width="8.83203125" style="34"/>
-    <col min="10988" max="10988" width="1.5" style="34" customWidth="1"/>
-    <col min="10989" max="10989" width="1.33203125" style="34" customWidth="1"/>
+    <col min="10738" max="10738" width="2.7109375" style="34" customWidth="1"/>
+    <col min="10739" max="10774" width="3.28515625" style="34" customWidth="1"/>
+    <col min="10775" max="10775" width="1.7109375" style="34" customWidth="1"/>
+    <col min="10776" max="10776" width="25.7109375" style="34" customWidth="1"/>
+    <col min="10777" max="10777" width="31.28515625" style="34" customWidth="1"/>
+    <col min="10778" max="10987" width="8.85546875" style="34"/>
+    <col min="10988" max="10988" width="1.42578125" style="34" customWidth="1"/>
+    <col min="10989" max="10989" width="1.28515625" style="34" customWidth="1"/>
     <col min="10990" max="10990" width="42" style="34" customWidth="1"/>
-    <col min="10991" max="10991" width="5.5" style="34" customWidth="1"/>
+    <col min="10991" max="10991" width="5.42578125" style="34" customWidth="1"/>
     <col min="10992" max="10993" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10994" max="10994" width="2.6640625" style="34" customWidth="1"/>
-    <col min="10995" max="11030" width="3.33203125" style="34" customWidth="1"/>
-    <col min="11031" max="11031" width="1.6640625" style="34" customWidth="1"/>
-    <col min="11032" max="11032" width="25.6640625" style="34" customWidth="1"/>
-    <col min="11033" max="11033" width="31.33203125" style="34" customWidth="1"/>
-    <col min="11034" max="11243" width="8.83203125" style="34"/>
-    <col min="11244" max="11244" width="1.5" style="34" customWidth="1"/>
-    <col min="11245" max="11245" width="1.33203125" style="34" customWidth="1"/>
+    <col min="10994" max="10994" width="2.7109375" style="34" customWidth="1"/>
+    <col min="10995" max="11030" width="3.28515625" style="34" customWidth="1"/>
+    <col min="11031" max="11031" width="1.7109375" style="34" customWidth="1"/>
+    <col min="11032" max="11032" width="25.7109375" style="34" customWidth="1"/>
+    <col min="11033" max="11033" width="31.28515625" style="34" customWidth="1"/>
+    <col min="11034" max="11243" width="8.85546875" style="34"/>
+    <col min="11244" max="11244" width="1.42578125" style="34" customWidth="1"/>
+    <col min="11245" max="11245" width="1.28515625" style="34" customWidth="1"/>
     <col min="11246" max="11246" width="42" style="34" customWidth="1"/>
-    <col min="11247" max="11247" width="5.5" style="34" customWidth="1"/>
+    <col min="11247" max="11247" width="5.42578125" style="34" customWidth="1"/>
     <col min="11248" max="11249" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11250" max="11250" width="2.6640625" style="34" customWidth="1"/>
-    <col min="11251" max="11286" width="3.33203125" style="34" customWidth="1"/>
-    <col min="11287" max="11287" width="1.6640625" style="34" customWidth="1"/>
-    <col min="11288" max="11288" width="25.6640625" style="34" customWidth="1"/>
-    <col min="11289" max="11289" width="31.33203125" style="34" customWidth="1"/>
-    <col min="11290" max="11499" width="8.83203125" style="34"/>
-    <col min="11500" max="11500" width="1.5" style="34" customWidth="1"/>
-    <col min="11501" max="11501" width="1.33203125" style="34" customWidth="1"/>
+    <col min="11250" max="11250" width="2.7109375" style="34" customWidth="1"/>
+    <col min="11251" max="11286" width="3.28515625" style="34" customWidth="1"/>
+    <col min="11287" max="11287" width="1.7109375" style="34" customWidth="1"/>
+    <col min="11288" max="11288" width="25.7109375" style="34" customWidth="1"/>
+    <col min="11289" max="11289" width="31.28515625" style="34" customWidth="1"/>
+    <col min="11290" max="11499" width="8.85546875" style="34"/>
+    <col min="11500" max="11500" width="1.42578125" style="34" customWidth="1"/>
+    <col min="11501" max="11501" width="1.28515625" style="34" customWidth="1"/>
     <col min="11502" max="11502" width="42" style="34" customWidth="1"/>
-    <col min="11503" max="11503" width="5.5" style="34" customWidth="1"/>
+    <col min="11503" max="11503" width="5.42578125" style="34" customWidth="1"/>
     <col min="11504" max="11505" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11506" max="11506" width="2.6640625" style="34" customWidth="1"/>
-    <col min="11507" max="11542" width="3.33203125" style="34" customWidth="1"/>
-    <col min="11543" max="11543" width="1.6640625" style="34" customWidth="1"/>
-    <col min="11544" max="11544" width="25.6640625" style="34" customWidth="1"/>
-    <col min="11545" max="11545" width="31.33203125" style="34" customWidth="1"/>
-    <col min="11546" max="11755" width="8.83203125" style="34"/>
-    <col min="11756" max="11756" width="1.5" style="34" customWidth="1"/>
-    <col min="11757" max="11757" width="1.33203125" style="34" customWidth="1"/>
+    <col min="11506" max="11506" width="2.7109375" style="34" customWidth="1"/>
+    <col min="11507" max="11542" width="3.28515625" style="34" customWidth="1"/>
+    <col min="11543" max="11543" width="1.7109375" style="34" customWidth="1"/>
+    <col min="11544" max="11544" width="25.7109375" style="34" customWidth="1"/>
+    <col min="11545" max="11545" width="31.28515625" style="34" customWidth="1"/>
+    <col min="11546" max="11755" width="8.85546875" style="34"/>
+    <col min="11756" max="11756" width="1.42578125" style="34" customWidth="1"/>
+    <col min="11757" max="11757" width="1.28515625" style="34" customWidth="1"/>
     <col min="11758" max="11758" width="42" style="34" customWidth="1"/>
-    <col min="11759" max="11759" width="5.5" style="34" customWidth="1"/>
+    <col min="11759" max="11759" width="5.42578125" style="34" customWidth="1"/>
     <col min="11760" max="11761" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11762" max="11762" width="2.6640625" style="34" customWidth="1"/>
-    <col min="11763" max="11798" width="3.33203125" style="34" customWidth="1"/>
-    <col min="11799" max="11799" width="1.6640625" style="34" customWidth="1"/>
-    <col min="11800" max="11800" width="25.6640625" style="34" customWidth="1"/>
-    <col min="11801" max="11801" width="31.33203125" style="34" customWidth="1"/>
-    <col min="11802" max="12011" width="8.83203125" style="34"/>
-    <col min="12012" max="12012" width="1.5" style="34" customWidth="1"/>
-    <col min="12013" max="12013" width="1.33203125" style="34" customWidth="1"/>
+    <col min="11762" max="11762" width="2.7109375" style="34" customWidth="1"/>
+    <col min="11763" max="11798" width="3.28515625" style="34" customWidth="1"/>
+    <col min="11799" max="11799" width="1.7109375" style="34" customWidth="1"/>
+    <col min="11800" max="11800" width="25.7109375" style="34" customWidth="1"/>
+    <col min="11801" max="11801" width="31.28515625" style="34" customWidth="1"/>
+    <col min="11802" max="12011" width="8.85546875" style="34"/>
+    <col min="12012" max="12012" width="1.42578125" style="34" customWidth="1"/>
+    <col min="12013" max="12013" width="1.28515625" style="34" customWidth="1"/>
     <col min="12014" max="12014" width="42" style="34" customWidth="1"/>
-    <col min="12015" max="12015" width="5.5" style="34" customWidth="1"/>
+    <col min="12015" max="12015" width="5.42578125" style="34" customWidth="1"/>
     <col min="12016" max="12017" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12018" max="12018" width="2.6640625" style="34" customWidth="1"/>
-    <col min="12019" max="12054" width="3.33203125" style="34" customWidth="1"/>
-    <col min="12055" max="12055" width="1.6640625" style="34" customWidth="1"/>
-    <col min="12056" max="12056" width="25.6640625" style="34" customWidth="1"/>
-    <col min="12057" max="12057" width="31.33203125" style="34" customWidth="1"/>
-    <col min="12058" max="12267" width="8.83203125" style="34"/>
-    <col min="12268" max="12268" width="1.5" style="34" customWidth="1"/>
-    <col min="12269" max="12269" width="1.33203125" style="34" customWidth="1"/>
+    <col min="12018" max="12018" width="2.7109375" style="34" customWidth="1"/>
+    <col min="12019" max="12054" width="3.28515625" style="34" customWidth="1"/>
+    <col min="12055" max="12055" width="1.7109375" style="34" customWidth="1"/>
+    <col min="12056" max="12056" width="25.7109375" style="34" customWidth="1"/>
+    <col min="12057" max="12057" width="31.28515625" style="34" customWidth="1"/>
+    <col min="12058" max="12267" width="8.85546875" style="34"/>
+    <col min="12268" max="12268" width="1.42578125" style="34" customWidth="1"/>
+    <col min="12269" max="12269" width="1.28515625" style="34" customWidth="1"/>
     <col min="12270" max="12270" width="42" style="34" customWidth="1"/>
-    <col min="12271" max="12271" width="5.5" style="34" customWidth="1"/>
+    <col min="12271" max="12271" width="5.42578125" style="34" customWidth="1"/>
     <col min="12272" max="12273" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12274" max="12274" width="2.6640625" style="34" customWidth="1"/>
-    <col min="12275" max="12310" width="3.33203125" style="34" customWidth="1"/>
-    <col min="12311" max="12311" width="1.6640625" style="34" customWidth="1"/>
-    <col min="12312" max="12312" width="25.6640625" style="34" customWidth="1"/>
-    <col min="12313" max="12313" width="31.33203125" style="34" customWidth="1"/>
-    <col min="12314" max="12523" width="8.83203125" style="34"/>
-    <col min="12524" max="12524" width="1.5" style="34" customWidth="1"/>
-    <col min="12525" max="12525" width="1.33203125" style="34" customWidth="1"/>
+    <col min="12274" max="12274" width="2.7109375" style="34" customWidth="1"/>
+    <col min="12275" max="12310" width="3.28515625" style="34" customWidth="1"/>
+    <col min="12311" max="12311" width="1.7109375" style="34" customWidth="1"/>
+    <col min="12312" max="12312" width="25.7109375" style="34" customWidth="1"/>
+    <col min="12313" max="12313" width="31.28515625" style="34" customWidth="1"/>
+    <col min="12314" max="12523" width="8.85546875" style="34"/>
+    <col min="12524" max="12524" width="1.42578125" style="34" customWidth="1"/>
+    <col min="12525" max="12525" width="1.28515625" style="34" customWidth="1"/>
     <col min="12526" max="12526" width="42" style="34" customWidth="1"/>
-    <col min="12527" max="12527" width="5.5" style="34" customWidth="1"/>
+    <col min="12527" max="12527" width="5.42578125" style="34" customWidth="1"/>
     <col min="12528" max="12529" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12530" max="12530" width="2.6640625" style="34" customWidth="1"/>
-    <col min="12531" max="12566" width="3.33203125" style="34" customWidth="1"/>
-    <col min="12567" max="12567" width="1.6640625" style="34" customWidth="1"/>
-    <col min="12568" max="12568" width="25.6640625" style="34" customWidth="1"/>
-    <col min="12569" max="12569" width="31.33203125" style="34" customWidth="1"/>
-    <col min="12570" max="12779" width="8.83203125" style="34"/>
-    <col min="12780" max="12780" width="1.5" style="34" customWidth="1"/>
-    <col min="12781" max="12781" width="1.33203125" style="34" customWidth="1"/>
+    <col min="12530" max="12530" width="2.7109375" style="34" customWidth="1"/>
+    <col min="12531" max="12566" width="3.28515625" style="34" customWidth="1"/>
+    <col min="12567" max="12567" width="1.7109375" style="34" customWidth="1"/>
+    <col min="12568" max="12568" width="25.7109375" style="34" customWidth="1"/>
+    <col min="12569" max="12569" width="31.28515625" style="34" customWidth="1"/>
+    <col min="12570" max="12779" width="8.85546875" style="34"/>
+    <col min="12780" max="12780" width="1.42578125" style="34" customWidth="1"/>
+    <col min="12781" max="12781" width="1.28515625" style="34" customWidth="1"/>
     <col min="12782" max="12782" width="42" style="34" customWidth="1"/>
-    <col min="12783" max="12783" width="5.5" style="34" customWidth="1"/>
+    <col min="12783" max="12783" width="5.42578125" style="34" customWidth="1"/>
     <col min="12784" max="12785" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12786" max="12786" width="2.6640625" style="34" customWidth="1"/>
-    <col min="12787" max="12822" width="3.33203125" style="34" customWidth="1"/>
-    <col min="12823" max="12823" width="1.6640625" style="34" customWidth="1"/>
-    <col min="12824" max="12824" width="25.6640625" style="34" customWidth="1"/>
-    <col min="12825" max="12825" width="31.33203125" style="34" customWidth="1"/>
-    <col min="12826" max="13035" width="8.83203125" style="34"/>
-    <col min="13036" max="13036" width="1.5" style="34" customWidth="1"/>
-    <col min="13037" max="13037" width="1.33203125" style="34" customWidth="1"/>
+    <col min="12786" max="12786" width="2.7109375" style="34" customWidth="1"/>
+    <col min="12787" max="12822" width="3.28515625" style="34" customWidth="1"/>
+    <col min="12823" max="12823" width="1.7109375" style="34" customWidth="1"/>
+    <col min="12824" max="12824" width="25.7109375" style="34" customWidth="1"/>
+    <col min="12825" max="12825" width="31.28515625" style="34" customWidth="1"/>
+    <col min="12826" max="13035" width="8.85546875" style="34"/>
+    <col min="13036" max="13036" width="1.42578125" style="34" customWidth="1"/>
+    <col min="13037" max="13037" width="1.28515625" style="34" customWidth="1"/>
     <col min="13038" max="13038" width="42" style="34" customWidth="1"/>
-    <col min="13039" max="13039" width="5.5" style="34" customWidth="1"/>
+    <col min="13039" max="13039" width="5.42578125" style="34" customWidth="1"/>
     <col min="13040" max="13041" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13042" max="13042" width="2.6640625" style="34" customWidth="1"/>
-    <col min="13043" max="13078" width="3.33203125" style="34" customWidth="1"/>
-    <col min="13079" max="13079" width="1.6640625" style="34" customWidth="1"/>
-    <col min="13080" max="13080" width="25.6640625" style="34" customWidth="1"/>
-    <col min="13081" max="13081" width="31.33203125" style="34" customWidth="1"/>
-    <col min="13082" max="13291" width="8.83203125" style="34"/>
-    <col min="13292" max="13292" width="1.5" style="34" customWidth="1"/>
-    <col min="13293" max="13293" width="1.33203125" style="34" customWidth="1"/>
+    <col min="13042" max="13042" width="2.7109375" style="34" customWidth="1"/>
+    <col min="13043" max="13078" width="3.28515625" style="34" customWidth="1"/>
+    <col min="13079" max="13079" width="1.7109375" style="34" customWidth="1"/>
+    <col min="13080" max="13080" width="25.7109375" style="34" customWidth="1"/>
+    <col min="13081" max="13081" width="31.28515625" style="34" customWidth="1"/>
+    <col min="13082" max="13291" width="8.85546875" style="34"/>
+    <col min="13292" max="13292" width="1.42578125" style="34" customWidth="1"/>
+    <col min="13293" max="13293" width="1.28515625" style="34" customWidth="1"/>
     <col min="13294" max="13294" width="42" style="34" customWidth="1"/>
-    <col min="13295" max="13295" width="5.5" style="34" customWidth="1"/>
+    <col min="13295" max="13295" width="5.42578125" style="34" customWidth="1"/>
     <col min="13296" max="13297" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13298" max="13298" width="2.6640625" style="34" customWidth="1"/>
-    <col min="13299" max="13334" width="3.33203125" style="34" customWidth="1"/>
-    <col min="13335" max="13335" width="1.6640625" style="34" customWidth="1"/>
-    <col min="13336" max="13336" width="25.6640625" style="34" customWidth="1"/>
-    <col min="13337" max="13337" width="31.33203125" style="34" customWidth="1"/>
-    <col min="13338" max="13547" width="8.83203125" style="34"/>
-    <col min="13548" max="13548" width="1.5" style="34" customWidth="1"/>
-    <col min="13549" max="13549" width="1.33203125" style="34" customWidth="1"/>
+    <col min="13298" max="13298" width="2.7109375" style="34" customWidth="1"/>
+    <col min="13299" max="13334" width="3.28515625" style="34" customWidth="1"/>
+    <col min="13335" max="13335" width="1.7109375" style="34" customWidth="1"/>
+    <col min="13336" max="13336" width="25.7109375" style="34" customWidth="1"/>
+    <col min="13337" max="13337" width="31.28515625" style="34" customWidth="1"/>
+    <col min="13338" max="13547" width="8.85546875" style="34"/>
+    <col min="13548" max="13548" width="1.42578125" style="34" customWidth="1"/>
+    <col min="13549" max="13549" width="1.28515625" style="34" customWidth="1"/>
     <col min="13550" max="13550" width="42" style="34" customWidth="1"/>
-    <col min="13551" max="13551" width="5.5" style="34" customWidth="1"/>
+    <col min="13551" max="13551" width="5.42578125" style="34" customWidth="1"/>
     <col min="13552" max="13553" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13554" max="13554" width="2.6640625" style="34" customWidth="1"/>
-    <col min="13555" max="13590" width="3.33203125" style="34" customWidth="1"/>
-    <col min="13591" max="13591" width="1.6640625" style="34" customWidth="1"/>
-    <col min="13592" max="13592" width="25.6640625" style="34" customWidth="1"/>
-    <col min="13593" max="13593" width="31.33203125" style="34" customWidth="1"/>
-    <col min="13594" max="13803" width="8.83203125" style="34"/>
-    <col min="13804" max="13804" width="1.5" style="34" customWidth="1"/>
-    <col min="13805" max="13805" width="1.33203125" style="34" customWidth="1"/>
+    <col min="13554" max="13554" width="2.7109375" style="34" customWidth="1"/>
+    <col min="13555" max="13590" width="3.28515625" style="34" customWidth="1"/>
+    <col min="13591" max="13591" width="1.7109375" style="34" customWidth="1"/>
+    <col min="13592" max="13592" width="25.7109375" style="34" customWidth="1"/>
+    <col min="13593" max="13593" width="31.28515625" style="34" customWidth="1"/>
+    <col min="13594" max="13803" width="8.85546875" style="34"/>
+    <col min="13804" max="13804" width="1.42578125" style="34" customWidth="1"/>
+    <col min="13805" max="13805" width="1.28515625" style="34" customWidth="1"/>
     <col min="13806" max="13806" width="42" style="34" customWidth="1"/>
-    <col min="13807" max="13807" width="5.5" style="34" customWidth="1"/>
+    <col min="13807" max="13807" width="5.42578125" style="34" customWidth="1"/>
     <col min="13808" max="13809" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13810" max="13810" width="2.6640625" style="34" customWidth="1"/>
-    <col min="13811" max="13846" width="3.33203125" style="34" customWidth="1"/>
-    <col min="13847" max="13847" width="1.6640625" style="34" customWidth="1"/>
-    <col min="13848" max="13848" width="25.6640625" style="34" customWidth="1"/>
-    <col min="13849" max="13849" width="31.33203125" style="34" customWidth="1"/>
-    <col min="13850" max="14059" width="8.83203125" style="34"/>
-    <col min="14060" max="14060" width="1.5" style="34" customWidth="1"/>
-    <col min="14061" max="14061" width="1.33203125" style="34" customWidth="1"/>
+    <col min="13810" max="13810" width="2.7109375" style="34" customWidth="1"/>
+    <col min="13811" max="13846" width="3.28515625" style="34" customWidth="1"/>
+    <col min="13847" max="13847" width="1.7109375" style="34" customWidth="1"/>
+    <col min="13848" max="13848" width="25.7109375" style="34" customWidth="1"/>
+    <col min="13849" max="13849" width="31.28515625" style="34" customWidth="1"/>
+    <col min="13850" max="14059" width="8.85546875" style="34"/>
+    <col min="14060" max="14060" width="1.42578125" style="34" customWidth="1"/>
+    <col min="14061" max="14061" width="1.28515625" style="34" customWidth="1"/>
     <col min="14062" max="14062" width="42" style="34" customWidth="1"/>
-    <col min="14063" max="14063" width="5.5" style="34" customWidth="1"/>
+    <col min="14063" max="14063" width="5.42578125" style="34" customWidth="1"/>
     <col min="14064" max="14065" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14066" max="14066" width="2.6640625" style="34" customWidth="1"/>
-    <col min="14067" max="14102" width="3.33203125" style="34" customWidth="1"/>
-    <col min="14103" max="14103" width="1.6640625" style="34" customWidth="1"/>
-    <col min="14104" max="14104" width="25.6640625" style="34" customWidth="1"/>
-    <col min="14105" max="14105" width="31.33203125" style="34" customWidth="1"/>
-    <col min="14106" max="14315" width="8.83203125" style="34"/>
-    <col min="14316" max="14316" width="1.5" style="34" customWidth="1"/>
-    <col min="14317" max="14317" width="1.33203125" style="34" customWidth="1"/>
+    <col min="14066" max="14066" width="2.7109375" style="34" customWidth="1"/>
+    <col min="14067" max="14102" width="3.28515625" style="34" customWidth="1"/>
+    <col min="14103" max="14103" width="1.7109375" style="34" customWidth="1"/>
+    <col min="14104" max="14104" width="25.7109375" style="34" customWidth="1"/>
+    <col min="14105" max="14105" width="31.28515625" style="34" customWidth="1"/>
+    <col min="14106" max="14315" width="8.85546875" style="34"/>
+    <col min="14316" max="14316" width="1.42578125" style="34" customWidth="1"/>
+    <col min="14317" max="14317" width="1.28515625" style="34" customWidth="1"/>
     <col min="14318" max="14318" width="42" style="34" customWidth="1"/>
-    <col min="14319" max="14319" width="5.5" style="34" customWidth="1"/>
+    <col min="14319" max="14319" width="5.42578125" style="34" customWidth="1"/>
     <col min="14320" max="14321" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14322" max="14322" width="2.6640625" style="34" customWidth="1"/>
-    <col min="14323" max="14358" width="3.33203125" style="34" customWidth="1"/>
-    <col min="14359" max="14359" width="1.6640625" style="34" customWidth="1"/>
-    <col min="14360" max="14360" width="25.6640625" style="34" customWidth="1"/>
-    <col min="14361" max="14361" width="31.33203125" style="34" customWidth="1"/>
-    <col min="14362" max="14571" width="8.83203125" style="34"/>
-    <col min="14572" max="14572" width="1.5" style="34" customWidth="1"/>
-    <col min="14573" max="14573" width="1.33203125" style="34" customWidth="1"/>
+    <col min="14322" max="14322" width="2.7109375" style="34" customWidth="1"/>
+    <col min="14323" max="14358" width="3.28515625" style="34" customWidth="1"/>
+    <col min="14359" max="14359" width="1.7109375" style="34" customWidth="1"/>
+    <col min="14360" max="14360" width="25.7109375" style="34" customWidth="1"/>
+    <col min="14361" max="14361" width="31.28515625" style="34" customWidth="1"/>
+    <col min="14362" max="14571" width="8.85546875" style="34"/>
+    <col min="14572" max="14572" width="1.42578125" style="34" customWidth="1"/>
+    <col min="14573" max="14573" width="1.28515625" style="34" customWidth="1"/>
     <col min="14574" max="14574" width="42" style="34" customWidth="1"/>
-    <col min="14575" max="14575" width="5.5" style="34" customWidth="1"/>
+    <col min="14575" max="14575" width="5.42578125" style="34" customWidth="1"/>
     <col min="14576" max="14577" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14578" max="14578" width="2.6640625" style="34" customWidth="1"/>
-    <col min="14579" max="14614" width="3.33203125" style="34" customWidth="1"/>
-    <col min="14615" max="14615" width="1.6640625" style="34" customWidth="1"/>
-    <col min="14616" max="14616" width="25.6640625" style="34" customWidth="1"/>
-    <col min="14617" max="14617" width="31.33203125" style="34" customWidth="1"/>
-    <col min="14618" max="14827" width="8.83203125" style="34"/>
-    <col min="14828" max="14828" width="1.5" style="34" customWidth="1"/>
-    <col min="14829" max="14829" width="1.33203125" style="34" customWidth="1"/>
+    <col min="14578" max="14578" width="2.7109375" style="34" customWidth="1"/>
+    <col min="14579" max="14614" width="3.28515625" style="34" customWidth="1"/>
+    <col min="14615" max="14615" width="1.7109375" style="34" customWidth="1"/>
+    <col min="14616" max="14616" width="25.7109375" style="34" customWidth="1"/>
+    <col min="14617" max="14617" width="31.28515625" style="34" customWidth="1"/>
+    <col min="14618" max="14827" width="8.85546875" style="34"/>
+    <col min="14828" max="14828" width="1.42578125" style="34" customWidth="1"/>
+    <col min="14829" max="14829" width="1.28515625" style="34" customWidth="1"/>
     <col min="14830" max="14830" width="42" style="34" customWidth="1"/>
-    <col min="14831" max="14831" width="5.5" style="34" customWidth="1"/>
+    <col min="14831" max="14831" width="5.42578125" style="34" customWidth="1"/>
     <col min="14832" max="14833" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14834" max="14834" width="2.6640625" style="34" customWidth="1"/>
-    <col min="14835" max="14870" width="3.33203125" style="34" customWidth="1"/>
-    <col min="14871" max="14871" width="1.6640625" style="34" customWidth="1"/>
-    <col min="14872" max="14872" width="25.6640625" style="34" customWidth="1"/>
-    <col min="14873" max="14873" width="31.33203125" style="34" customWidth="1"/>
-    <col min="14874" max="15083" width="8.83203125" style="34"/>
-    <col min="15084" max="15084" width="1.5" style="34" customWidth="1"/>
-    <col min="15085" max="15085" width="1.33203125" style="34" customWidth="1"/>
+    <col min="14834" max="14834" width="2.7109375" style="34" customWidth="1"/>
+    <col min="14835" max="14870" width="3.28515625" style="34" customWidth="1"/>
+    <col min="14871" max="14871" width="1.7109375" style="34" customWidth="1"/>
+    <col min="14872" max="14872" width="25.7109375" style="34" customWidth="1"/>
+    <col min="14873" max="14873" width="31.28515625" style="34" customWidth="1"/>
+    <col min="14874" max="15083" width="8.85546875" style="34"/>
+    <col min="15084" max="15084" width="1.42578125" style="34" customWidth="1"/>
+    <col min="15085" max="15085" width="1.28515625" style="34" customWidth="1"/>
     <col min="15086" max="15086" width="42" style="34" customWidth="1"/>
-    <col min="15087" max="15087" width="5.5" style="34" customWidth="1"/>
+    <col min="15087" max="15087" width="5.42578125" style="34" customWidth="1"/>
     <col min="15088" max="15089" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15090" max="15090" width="2.6640625" style="34" customWidth="1"/>
-    <col min="15091" max="15126" width="3.33203125" style="34" customWidth="1"/>
-    <col min="15127" max="15127" width="1.6640625" style="34" customWidth="1"/>
-    <col min="15128" max="15128" width="25.6640625" style="34" customWidth="1"/>
-    <col min="15129" max="15129" width="31.33203125" style="34" customWidth="1"/>
-    <col min="15130" max="15339" width="8.83203125" style="34"/>
-    <col min="15340" max="15340" width="1.5" style="34" customWidth="1"/>
-    <col min="15341" max="15341" width="1.33203125" style="34" customWidth="1"/>
+    <col min="15090" max="15090" width="2.7109375" style="34" customWidth="1"/>
+    <col min="15091" max="15126" width="3.28515625" style="34" customWidth="1"/>
+    <col min="15127" max="15127" width="1.7109375" style="34" customWidth="1"/>
+    <col min="15128" max="15128" width="25.7109375" style="34" customWidth="1"/>
+    <col min="15129" max="15129" width="31.28515625" style="34" customWidth="1"/>
+    <col min="15130" max="15339" width="8.85546875" style="34"/>
+    <col min="15340" max="15340" width="1.42578125" style="34" customWidth="1"/>
+    <col min="15341" max="15341" width="1.28515625" style="34" customWidth="1"/>
     <col min="15342" max="15342" width="42" style="34" customWidth="1"/>
-    <col min="15343" max="15343" width="5.5" style="34" customWidth="1"/>
+    <col min="15343" max="15343" width="5.42578125" style="34" customWidth="1"/>
     <col min="15344" max="15345" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15346" max="15346" width="2.6640625" style="34" customWidth="1"/>
-    <col min="15347" max="15382" width="3.33203125" style="34" customWidth="1"/>
-    <col min="15383" max="15383" width="1.6640625" style="34" customWidth="1"/>
-    <col min="15384" max="15384" width="25.6640625" style="34" customWidth="1"/>
-    <col min="15385" max="15385" width="31.33203125" style="34" customWidth="1"/>
-    <col min="15386" max="15595" width="8.83203125" style="34"/>
-    <col min="15596" max="15596" width="1.5" style="34" customWidth="1"/>
-    <col min="15597" max="15597" width="1.33203125" style="34" customWidth="1"/>
+    <col min="15346" max="15346" width="2.7109375" style="34" customWidth="1"/>
+    <col min="15347" max="15382" width="3.28515625" style="34" customWidth="1"/>
+    <col min="15383" max="15383" width="1.7109375" style="34" customWidth="1"/>
+    <col min="15384" max="15384" width="25.7109375" style="34" customWidth="1"/>
+    <col min="15385" max="15385" width="31.28515625" style="34" customWidth="1"/>
+    <col min="15386" max="15595" width="8.85546875" style="34"/>
+    <col min="15596" max="15596" width="1.42578125" style="34" customWidth="1"/>
+    <col min="15597" max="15597" width="1.28515625" style="34" customWidth="1"/>
     <col min="15598" max="15598" width="42" style="34" customWidth="1"/>
-    <col min="15599" max="15599" width="5.5" style="34" customWidth="1"/>
+    <col min="15599" max="15599" width="5.42578125" style="34" customWidth="1"/>
     <col min="15600" max="15601" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15602" max="15602" width="2.6640625" style="34" customWidth="1"/>
-    <col min="15603" max="15638" width="3.33203125" style="34" customWidth="1"/>
-    <col min="15639" max="15639" width="1.6640625" style="34" customWidth="1"/>
-    <col min="15640" max="15640" width="25.6640625" style="34" customWidth="1"/>
-    <col min="15641" max="15641" width="31.33203125" style="34" customWidth="1"/>
-    <col min="15642" max="15851" width="8.83203125" style="34"/>
-    <col min="15852" max="15852" width="1.5" style="34" customWidth="1"/>
-    <col min="15853" max="15853" width="1.33203125" style="34" customWidth="1"/>
+    <col min="15602" max="15602" width="2.7109375" style="34" customWidth="1"/>
+    <col min="15603" max="15638" width="3.28515625" style="34" customWidth="1"/>
+    <col min="15639" max="15639" width="1.7109375" style="34" customWidth="1"/>
+    <col min="15640" max="15640" width="25.7109375" style="34" customWidth="1"/>
+    <col min="15641" max="15641" width="31.28515625" style="34" customWidth="1"/>
+    <col min="15642" max="15851" width="8.85546875" style="34"/>
+    <col min="15852" max="15852" width="1.42578125" style="34" customWidth="1"/>
+    <col min="15853" max="15853" width="1.28515625" style="34" customWidth="1"/>
     <col min="15854" max="15854" width="42" style="34" customWidth="1"/>
-    <col min="15855" max="15855" width="5.5" style="34" customWidth="1"/>
+    <col min="15855" max="15855" width="5.42578125" style="34" customWidth="1"/>
     <col min="15856" max="15857" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15858" max="15858" width="2.6640625" style="34" customWidth="1"/>
-    <col min="15859" max="15894" width="3.33203125" style="34" customWidth="1"/>
-    <col min="15895" max="15895" width="1.6640625" style="34" customWidth="1"/>
-    <col min="15896" max="15896" width="25.6640625" style="34" customWidth="1"/>
-    <col min="15897" max="15897" width="31.33203125" style="34" customWidth="1"/>
-    <col min="15898" max="16107" width="8.83203125" style="34"/>
-    <col min="16108" max="16108" width="1.5" style="34" customWidth="1"/>
-    <col min="16109" max="16109" width="1.33203125" style="34" customWidth="1"/>
+    <col min="15858" max="15858" width="2.7109375" style="34" customWidth="1"/>
+    <col min="15859" max="15894" width="3.28515625" style="34" customWidth="1"/>
+    <col min="15895" max="15895" width="1.7109375" style="34" customWidth="1"/>
+    <col min="15896" max="15896" width="25.7109375" style="34" customWidth="1"/>
+    <col min="15897" max="15897" width="31.28515625" style="34" customWidth="1"/>
+    <col min="15898" max="16107" width="8.85546875" style="34"/>
+    <col min="16108" max="16108" width="1.42578125" style="34" customWidth="1"/>
+    <col min="16109" max="16109" width="1.28515625" style="34" customWidth="1"/>
     <col min="16110" max="16110" width="42" style="34" customWidth="1"/>
-    <col min="16111" max="16111" width="5.5" style="34" customWidth="1"/>
+    <col min="16111" max="16111" width="5.42578125" style="34" customWidth="1"/>
     <col min="16112" max="16113" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="16114" max="16114" width="2.6640625" style="34" customWidth="1"/>
-    <col min="16115" max="16150" width="3.33203125" style="34" customWidth="1"/>
-    <col min="16151" max="16151" width="1.6640625" style="34" customWidth="1"/>
-    <col min="16152" max="16152" width="25.6640625" style="34" customWidth="1"/>
-    <col min="16153" max="16153" width="31.33203125" style="34" customWidth="1"/>
-    <col min="16154" max="16384" width="8.83203125" style="34"/>
+    <col min="16114" max="16114" width="2.7109375" style="34" customWidth="1"/>
+    <col min="16115" max="16150" width="3.28515625" style="34" customWidth="1"/>
+    <col min="16151" max="16151" width="1.7109375" style="34" customWidth="1"/>
+    <col min="16152" max="16152" width="25.7109375" style="34" customWidth="1"/>
+    <col min="16153" max="16153" width="31.28515625" style="34" customWidth="1"/>
+    <col min="16154" max="16384" width="8.85546875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:34" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="2:34" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="2:34" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="34"/>
     </row>
-    <row r="3" spans="2:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="D3" s="93" t="s">
         <v>59</v>
-      </c>
-      <c r="D3" s="93" t="s">
-        <v>60</v>
       </c>
       <c r="AD3" s="34"/>
       <c r="AE3" s="34"/>
@@ -7685,15 +7720,15 @@
       <c r="AG3" s="34"/>
       <c r="AH3" s="34"/>
     </row>
-    <row r="4" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:34" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B4" s="94" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>52</v>
+        <v>74</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>51</v>
       </c>
       <c r="AD4" s="34"/>
       <c r="AE4" s="34"/>
@@ -7701,15 +7736,15 @@
       <c r="AG4" s="34"/>
       <c r="AH4" s="34"/>
     </row>
-    <row r="5" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B5" s="94" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>52</v>
+        <v>76</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>51</v>
       </c>
       <c r="AD5" s="34"/>
       <c r="AE5" s="34"/>
@@ -7717,15 +7752,15 @@
       <c r="AG5" s="34"/>
       <c r="AH5" s="34"/>
     </row>
-    <row r="6" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="94" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD6" s="34"/>
       <c r="AE6" s="34"/>
@@ -7733,15 +7768,15 @@
       <c r="AG6" s="34"/>
       <c r="AH6" s="34"/>
     </row>
-    <row r="7" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="94" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD7" s="34"/>
       <c r="AE7" s="34"/>
@@ -7749,15 +7784,15 @@
       <c r="AG7" s="34"/>
       <c r="AH7" s="34"/>
     </row>
-    <row r="8" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="94" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD8" s="34"/>
       <c r="AE8" s="34"/>
@@ -7765,15 +7800,15 @@
       <c r="AG8" s="34"/>
       <c r="AH8" s="34"/>
     </row>
-    <row r="9" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="94" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C9" s="95" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD9" s="34"/>
       <c r="AE9" s="34"/>
@@ -7781,7 +7816,7 @@
       <c r="AG9" s="34"/>
       <c r="AH9" s="34"/>
     </row>
-    <row r="10" spans="2:34" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B10" s="85"/>
       <c r="C10" s="86"/>
       <c r="D10" s="87"/>
@@ -7791,7 +7826,7 @@
       <c r="AG10" s="34"/>
       <c r="AH10" s="34"/>
     </row>
-    <row r="11" spans="2:34" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B11" s="85"/>
       <c r="C11" s="86"/>
       <c r="D11" s="87"/>
@@ -7801,7 +7836,7 @@
       <c r="AG11" s="34"/>
       <c r="AH11" s="34"/>
     </row>
-    <row r="12" spans="2:34" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B12" s="85"/>
       <c r="C12" s="86"/>
       <c r="D12" s="87"/>
@@ -7811,7 +7846,7 @@
       <c r="AG12" s="34"/>
       <c r="AH12" s="34"/>
     </row>
-    <row r="13" spans="2:34" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B13" s="85"/>
       <c r="C13" s="86"/>
       <c r="D13" s="87"/>
@@ -7821,79 +7856,79 @@
       <c r="AG13" s="34"/>
       <c r="AH13" s="34"/>
     </row>
-    <row r="14" spans="2:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B14" s="20"/>
       <c r="C14" s="48"/>
       <c r="D14" s="49"/>
     </row>
-    <row r="15" spans="2:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="49"/>
     </row>
-    <row r="16" spans="2:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="49"/>
     </row>
-    <row r="17" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="49"/>
     </row>
-    <row r="18" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
       <c r="D19" s="49"/>
     </row>
-    <row r="20" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="49"/>
     </row>
-    <row r="21" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="49"/>
     </row>
-    <row r="22" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="49"/>
     </row>
-    <row r="23" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="49"/>
     </row>
-    <row r="24" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
       <c r="D24" s="49"/>
     </row>
-    <row r="25" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
       <c r="D25" s="49"/>
     </row>
-    <row r="26" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
       <c r="D26" s="49"/>
     </row>
-    <row r="27" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B27" s="48"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B28" s="48"/>
     </row>
-    <row r="29" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B29" s="48"/>
     </row>
   </sheetData>
@@ -7915,49 +7950,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <View_x0020_CRM xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_CRM>
-    <View_x0020_Qua xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Qua>
-    <Document_x0020_author xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
-      <UserInfo>
-        <DisplayName>Jacobs, Frans</DisplayName>
-        <AccountId>1</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Document_x0020_author>
-    <Document_x0020_type xmlns="5db227b6-3c56-4158-ad71-bd648583e357">Template</Document_x0020_type>
-    <View_x0020_Eng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_Eng>
-    <View_x0020_Production xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</View_x0020_Production>
-    <Relevant_x0020_to_x0020_ISO_x0020_13485 xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Relevant_x0020_to_x0020_ISO_x0020_13485>
-    <PInS_x0020_department xmlns="5db227b6-3c56-4158-ad71-bd648583e357">140 Software</PInS_x0020_department>
-    <Doc_x0020_nr. xmlns="5db227b6-3c56-4158-ad71-bd648583e357">BMS-REA-719</Doc_x0020_nr.>
-    <DLCPolicyLabelLock xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a" xsi:nil="true"/>
-    <Linked_x0020_to_x0020_PQRS xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</Linked_x0020_to_x0020_PQRS>
-    <Safety_x0020_relevant xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Safety_x0020_relevant>
-    <Approver xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
-      <UserInfo>
-        <DisplayName>Jacobs, Frans</DisplayName>
-        <AccountId>1</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Approver>
-    <Reviewers xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Reviewers>
-    <Process xmlns="5db227b6-3c56-4158-ad71-bd648583e357">04 Realisation</Process>
-    <View_x0020_PL xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_PL>
-    <View_x0020_Mng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Mng>
-    <DLCPolicyLabelClientValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">{_UIVersionString}
-{_ModerationStatus}</DLCPolicyLabelClientValue>
-    <DLCPolicyLabelValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">1.0
-Approved</DLCPolicyLabelValue>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>02 Departmental document</p:Name>
+  <p:Description/>
+  <p:Statement/>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.PolicyLabel">
+      <p:Name>Labels</p:Name>
+      <p:Description>Generates labels that can be inserted in Microsoft Office documents to ensure that document properties or other important information are included when documents are printed. Labels can also be used to search for documents.</p:Description>
+      <p:CustomData>
+        <label>
+          <segment type="metadata">_UIVersionString</segment>
+          <segment type="literal">\n</segment>
+          <segment type="metadata">_ModerationStatus</segment>
+        </label>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8351,25 +8362,49 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>02 Departmental document</p:Name>
-  <p:Description/>
-  <p:Statement/>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.PolicyLabel">
-      <p:Name>Labels</p:Name>
-      <p:Description>Generates labels that can be inserted in Microsoft Office documents to ensure that document properties or other important information are included when documents are printed. Labels can also be used to search for documents.</p:Description>
-      <p:CustomData>
-        <label>
-          <segment type="metadata">_UIVersionString</segment>
-          <segment type="literal">\n</segment>
-          <segment type="metadata">_ModerationStatus</segment>
-        </label>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <View_x0020_CRM xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_CRM>
+    <View_x0020_Qua xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Qua>
+    <Document_x0020_author xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
+      <UserInfo>
+        <DisplayName>Jacobs, Frans</DisplayName>
+        <AccountId>1</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Document_x0020_author>
+    <Document_x0020_type xmlns="5db227b6-3c56-4158-ad71-bd648583e357">Template</Document_x0020_type>
+    <View_x0020_Eng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_Eng>
+    <View_x0020_Production xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</View_x0020_Production>
+    <Relevant_x0020_to_x0020_ISO_x0020_13485 xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Relevant_x0020_to_x0020_ISO_x0020_13485>
+    <PInS_x0020_department xmlns="5db227b6-3c56-4158-ad71-bd648583e357">140 Software</PInS_x0020_department>
+    <Doc_x0020_nr. xmlns="5db227b6-3c56-4158-ad71-bd648583e357">BMS-REA-719</Doc_x0020_nr.>
+    <DLCPolicyLabelLock xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a" xsi:nil="true"/>
+    <Linked_x0020_to_x0020_PQRS xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</Linked_x0020_to_x0020_PQRS>
+    <Safety_x0020_relevant xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Safety_x0020_relevant>
+    <Approver xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
+      <UserInfo>
+        <DisplayName>Jacobs, Frans</DisplayName>
+        <AccountId>1</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Approver>
+    <Reviewers xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Reviewers>
+    <Process xmlns="5db227b6-3c56-4158-ad71-bd648583e357">04 Realisation</Process>
+    <View_x0020_PL xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_PL>
+    <View_x0020_Mng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Mng>
+    <DLCPolicyLabelClientValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">{_UIVersionString}
+{_ModerationStatus}</DLCPolicyLabelClientValue>
+    <DLCPolicyLabelValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">1.0
+Approved</DLCPolicyLabelValue>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8382,18 +8417,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1320B1-D764-4C81-9B48-5F60482C3805}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E0ECFB5-0E65-4944-A2C3-A12752EA8F83}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5db227b6-3c56-4158-ad71-bd648583e357"/>
-    <ds:schemaRef ds:uri="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="office.server.policy"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8418,9 +8444,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E0ECFB5-0E65-4944-A2C3-A12752EA8F83}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1320B1-D764-4C81-9B48-5F60482C3805}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5db227b6-3c56-4158-ad71-bd648583e357"/>
+    <ds:schemaRef ds:uri="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documents/External/Residual_Anomalies_CommLib_Android_JaiVis-20161118-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_CommLib_Android_JaiVis-20161118-01V01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/310228256/dev/dicomm-android/Documents/External/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_users\Gaal_CoCo-s\components\CommLib\Android\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="689" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="689" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -56,9 +56,6 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -67,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>1.1</t>
   </si>
@@ -236,9 +233,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>draft</t>
-  </si>
-  <si>
     <t>0.1</t>
   </si>
   <si>
@@ -472,6 +466,24 @@
   </si>
   <si>
     <t>2016-DEC-01</t>
+  </si>
+  <si>
+    <t>2016-Dec-13</t>
+  </si>
+  <si>
+    <t>Erik Gaal</t>
+  </si>
+  <si>
+    <t>Updated version, status and history</t>
+  </si>
+  <si>
+    <t>Ready for approval</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>approved</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1096,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1369,6 +1381,14 @@
     <xf numFmtId="0" fontId="37" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2301,8 +2321,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:F8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="B6:F8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:F9" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="B6:F9"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Version"/>
     <tableColumn id="2" name="Date" dataDxfId="1"/>
@@ -2601,53 +2621,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" style="6" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="50.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="D2" s="4"/>
       <c r="E2" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="F4" s="6"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
@@ -2656,7 +2676,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="105"/>
       <c r="C6" s="105"/>
       <c r="D6" s="105"/>
@@ -2664,7 +2684,7 @@
       <c r="F6" s="105"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>22</v>
       </c>
@@ -2680,23 +2700,23 @@
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>63</v>
       </c>
       <c r="D8" s="101" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2704,7 +2724,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -2712,7 +2732,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -2720,12 +2740,12 @@
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="106" t="s">
         <v>24</v>
@@ -2735,33 +2755,33 @@
         <v>16</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="107"/>
       <c r="F13" s="28" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="61" t="s">
-        <v>88</v>
+      <c r="C14" s="140" t="s">
+        <v>96</v>
       </c>
       <c r="D14" s="107"/>
       <c r="E14" s="107"/>
@@ -2769,15 +2789,15 @@
         <v>18</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>34</v>
@@ -2792,7 +2812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -2800,7 +2820,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2819,7 +2839,7 @@
     <hyperlink ref="E8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="1.2598425196850394" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="72" fitToHeight="100" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="100" orientation="landscape" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
     <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.1&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
@@ -2835,7 +2855,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F31"/>
@@ -2844,47 +2864,47 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="2:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C2" s="4"/>
       <c r="D2" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>0</v>
       </c>
@@ -2892,12 +2912,12 @@
         <v>1</v>
       </c>
       <c r="D6" s="114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="115"/>
       <c r="F6" s="116"/>
     </row>
-    <row r="7" spans="2:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="30" t="s">
         <v>2</v>
       </c>
@@ -2905,12 +2925,12 @@
         <v>3</v>
       </c>
       <c r="D7" s="117" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="117"/>
       <c r="F7" s="117"/>
     </row>
-    <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
@@ -2918,7 +2938,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="52" t="s">
         <v>6</v>
@@ -2927,30 +2947,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="32"/>
       <c r="C9" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="32"/>
       <c r="C10" s="30"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
       <c r="C11" s="30"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>19</v>
       </c>
@@ -2965,7 +2985,7 @@
       </c>
       <c r="F12" s="118"/>
     </row>
-    <row r="13" spans="2:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="31"/>
       <c r="D13" s="47" t="s">
         <v>39</v>
@@ -2975,68 +2995,68 @@
       </c>
       <c r="F13" s="109"/>
     </row>
-    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="30"/>
       <c r="D14" s="18"/>
       <c r="E14" s="110"/>
       <c r="F14" s="111"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="10"/>
       <c r="D15" s="18"/>
       <c r="E15" s="54"/>
       <c r="F15" s="55"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="112"/>
       <c r="F16" s="113"/>
     </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
     </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
     </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="3"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="3"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="3"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="3"/>
       <c r="C31" s="5"/>
@@ -3069,29 +3089,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:N179"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3099,7 +3119,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="21"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -3107,7 +3127,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="2:14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B3" s="21"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3115,7 +3135,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
@@ -3132,7 +3152,7 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -3147,7 +3167,7 @@
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="90" t="s">
         <v>31</v>
       </c>
@@ -3172,21 +3192,21 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="2:14" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B7" s="88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -3197,21 +3217,21 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B8" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="D8" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="103" t="s">
+      <c r="F8" s="103" t="s">
         <v>90</v>
-      </c>
-      <c r="F8" s="103" t="s">
-        <v>91</v>
       </c>
       <c r="G8" s="100"/>
       <c r="H8" s="17"/>
@@ -3222,12 +3242,22 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
+    <row r="9" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="137" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="139" t="s">
+        <v>95</v>
+      </c>
       <c r="G9" s="100"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -3237,7 +3267,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="97"/>
       <c r="C10" s="98"/>
       <c r="D10" s="98"/>
@@ -3252,7 +3282,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="96"/>
       <c r="C11" s="96"/>
       <c r="D11" s="96"/>
@@ -3267,7 +3297,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="96"/>
       <c r="C12" s="96"/>
       <c r="D12" s="96"/>
@@ -3282,7 +3312,7 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
       <c r="D13" s="96"/>
@@ -3297,7 +3327,7 @@
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -3312,7 +3342,7 @@
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -3327,7 +3357,7 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -3342,7 +3372,7 @@
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -3357,7 +3387,7 @@
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -3372,7 +3402,7 @@
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -3387,7 +3417,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -3402,7 +3432,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -3417,7 +3447,7 @@
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -3432,7 +3462,7 @@
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -3447,7 +3477,7 @@
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -3462,7 +3492,7 @@
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -3477,7 +3507,7 @@
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -3492,7 +3522,7 @@
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -3507,7 +3537,7 @@
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -3522,7 +3552,7 @@
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -3537,7 +3567,7 @@
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -3552,7 +3582,7 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -3567,7 +3597,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -3582,7 +3612,7 @@
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -3597,7 +3627,7 @@
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -3612,7 +3642,7 @@
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -3627,7 +3657,7 @@
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -3642,7 +3672,7 @@
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -3657,7 +3687,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -3672,7 +3702,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -3687,7 +3717,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -3702,7 +3732,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -3717,7 +3747,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -3732,7 +3762,7 @@
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -3747,7 +3777,7 @@
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -3762,7 +3792,7 @@
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -3777,7 +3807,7 @@
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -3792,7 +3822,7 @@
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -3807,7 +3837,7 @@
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -3822,7 +3852,7 @@
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -3837,7 +3867,7 @@
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -3852,7 +3882,7 @@
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -3867,7 +3897,7 @@
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -3882,7 +3912,7 @@
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -3897,7 +3927,7 @@
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -3912,7 +3942,7 @@
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -3927,7 +3957,7 @@
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -3942,7 +3972,7 @@
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
@@ -3957,7 +3987,7 @@
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -3972,7 +4002,7 @@
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -3987,7 +4017,7 @@
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -4002,7 +4032,7 @@
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -4017,7 +4047,7 @@
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -4032,7 +4062,7 @@
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -4047,7 +4077,7 @@
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -4062,7 +4092,7 @@
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -4077,7 +4107,7 @@
       <c r="M65" s="17"/>
       <c r="N65" s="17"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
@@ -4092,7 +4122,7 @@
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -4107,7 +4137,7 @@
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
@@ -4122,7 +4152,7 @@
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
@@ -4137,7 +4167,7 @@
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -4152,7 +4182,7 @@
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -4167,7 +4197,7 @@
       <c r="M71" s="17"/>
       <c r="N71" s="17"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -4182,7 +4212,7 @@
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -4197,7 +4227,7 @@
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -4212,7 +4242,7 @@
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -4227,7 +4257,7 @@
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -4242,7 +4272,7 @@
       <c r="M76" s="17"/>
       <c r="N76" s="17"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
@@ -4257,7 +4287,7 @@
       <c r="M77" s="17"/>
       <c r="N77" s="17"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
@@ -4272,7 +4302,7 @@
       <c r="M78" s="17"/>
       <c r="N78" s="17"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
@@ -4287,7 +4317,7 @@
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
@@ -4302,7 +4332,7 @@
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -4317,7 +4347,7 @@
       <c r="M81" s="17"/>
       <c r="N81" s="17"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
@@ -4332,7 +4362,7 @@
       <c r="M82" s="17"/>
       <c r="N82" s="17"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -4347,7 +4377,7 @@
       <c r="M83" s="17"/>
       <c r="N83" s="17"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -4362,7 +4392,7 @@
       <c r="M84" s="17"/>
       <c r="N84" s="17"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
@@ -4377,7 +4407,7 @@
       <c r="M85" s="17"/>
       <c r="N85" s="17"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
@@ -4392,7 +4422,7 @@
       <c r="M86" s="17"/>
       <c r="N86" s="17"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
@@ -4407,7 +4437,7 @@
       <c r="M87" s="17"/>
       <c r="N87" s="17"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
@@ -4422,7 +4452,7 @@
       <c r="M88" s="17"/>
       <c r="N88" s="17"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -4437,7 +4467,7 @@
       <c r="M89" s="17"/>
       <c r="N89" s="17"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
@@ -4452,7 +4482,7 @@
       <c r="M90" s="17"/>
       <c r="N90" s="17"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
@@ -4467,7 +4497,7 @@
       <c r="M91" s="17"/>
       <c r="N91" s="17"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
@@ -4482,7 +4512,7 @@
       <c r="M92" s="17"/>
       <c r="N92" s="17"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -4497,7 +4527,7 @@
       <c r="M93" s="17"/>
       <c r="N93" s="17"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
@@ -4512,7 +4542,7 @@
       <c r="M94" s="17"/>
       <c r="N94" s="17"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -4527,7 +4557,7 @@
       <c r="M95" s="17"/>
       <c r="N95" s="17"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
@@ -4542,7 +4572,7 @@
       <c r="M96" s="17"/>
       <c r="N96" s="17"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
@@ -4557,7 +4587,7 @@
       <c r="M97" s="17"/>
       <c r="N97" s="17"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
@@ -4572,7 +4602,7 @@
       <c r="M98" s="17"/>
       <c r="N98" s="17"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -4587,7 +4617,7 @@
       <c r="M99" s="17"/>
       <c r="N99" s="17"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
@@ -4602,7 +4632,7 @@
       <c r="M100" s="17"/>
       <c r="N100" s="17"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
@@ -4617,7 +4647,7 @@
       <c r="M101" s="17"/>
       <c r="N101" s="17"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -4632,7 +4662,7 @@
       <c r="M102" s="17"/>
       <c r="N102" s="17"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -4647,7 +4677,7 @@
       <c r="M103" s="17"/>
       <c r="N103" s="17"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -4662,7 +4692,7 @@
       <c r="M104" s="17"/>
       <c r="N104" s="17"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
@@ -4677,7 +4707,7 @@
       <c r="M105" s="17"/>
       <c r="N105" s="17"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
@@ -4692,7 +4722,7 @@
       <c r="M106" s="17"/>
       <c r="N106" s="17"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -4707,7 +4737,7 @@
       <c r="M107" s="17"/>
       <c r="N107" s="17"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -4722,7 +4752,7 @@
       <c r="M108" s="17"/>
       <c r="N108" s="17"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -4737,7 +4767,7 @@
       <c r="M109" s="17"/>
       <c r="N109" s="17"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
@@ -4752,7 +4782,7 @@
       <c r="M110" s="17"/>
       <c r="N110" s="17"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
@@ -4767,7 +4797,7 @@
       <c r="M111" s="17"/>
       <c r="N111" s="17"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
@@ -4782,7 +4812,7 @@
       <c r="M112" s="17"/>
       <c r="N112" s="17"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -4797,7 +4827,7 @@
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
@@ -4812,7 +4842,7 @@
       <c r="M114" s="17"/>
       <c r="N114" s="17"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
@@ -4827,7 +4857,7 @@
       <c r="M115" s="17"/>
       <c r="N115" s="17"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
@@ -4842,7 +4872,7 @@
       <c r="M116" s="17"/>
       <c r="N116" s="17"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
@@ -4857,7 +4887,7 @@
       <c r="M117" s="17"/>
       <c r="N117" s="17"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
@@ -4872,7 +4902,7 @@
       <c r="M118" s="17"/>
       <c r="N118" s="17"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
@@ -4887,7 +4917,7 @@
       <c r="M119" s="17"/>
       <c r="N119" s="17"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
@@ -4902,7 +4932,7 @@
       <c r="M120" s="17"/>
       <c r="N120" s="17"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
@@ -4917,7 +4947,7 @@
       <c r="M121" s="17"/>
       <c r="N121" s="17"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
@@ -4932,7 +4962,7 @@
       <c r="M122" s="17"/>
       <c r="N122" s="17"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -4947,7 +4977,7 @@
       <c r="M123" s="17"/>
       <c r="N123" s="17"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
@@ -4962,7 +4992,7 @@
       <c r="M124" s="17"/>
       <c r="N124" s="17"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
@@ -4977,7 +5007,7 @@
       <c r="M125" s="17"/>
       <c r="N125" s="17"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
@@ -4992,7 +5022,7 @@
       <c r="M126" s="17"/>
       <c r="N126" s="17"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
@@ -5007,7 +5037,7 @@
       <c r="M127" s="17"/>
       <c r="N127" s="17"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17"/>
@@ -5022,7 +5052,7 @@
       <c r="M128" s="17"/>
       <c r="N128" s="17"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
@@ -5037,7 +5067,7 @@
       <c r="M129" s="17"/>
       <c r="N129" s="17"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
@@ -5052,7 +5082,7 @@
       <c r="M130" s="17"/>
       <c r="N130" s="17"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
@@ -5067,7 +5097,7 @@
       <c r="M131" s="17"/>
       <c r="N131" s="17"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
@@ -5082,7 +5112,7 @@
       <c r="M132" s="17"/>
       <c r="N132" s="17"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
@@ -5097,7 +5127,7 @@
       <c r="M133" s="17"/>
       <c r="N133" s="17"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
       <c r="D134" s="17"/>
@@ -5112,7 +5142,7 @@
       <c r="M134" s="17"/>
       <c r="N134" s="17"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
       <c r="D135" s="17"/>
@@ -5127,7 +5157,7 @@
       <c r="M135" s="17"/>
       <c r="N135" s="17"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
@@ -5142,7 +5172,7 @@
       <c r="M136" s="17"/>
       <c r="N136" s="17"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
@@ -5157,7 +5187,7 @@
       <c r="M137" s="17"/>
       <c r="N137" s="17"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
       <c r="D138" s="17"/>
@@ -5172,7 +5202,7 @@
       <c r="M138" s="17"/>
       <c r="N138" s="17"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
       <c r="D139" s="17"/>
@@ -5187,7 +5217,7 @@
       <c r="M139" s="17"/>
       <c r="N139" s="17"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
       <c r="D140" s="17"/>
@@ -5202,7 +5232,7 @@
       <c r="M140" s="17"/>
       <c r="N140" s="17"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
       <c r="D141" s="17"/>
@@ -5217,7 +5247,7 @@
       <c r="M141" s="17"/>
       <c r="N141" s="17"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
@@ -5232,7 +5262,7 @@
       <c r="M142" s="17"/>
       <c r="N142" s="17"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
@@ -5247,7 +5277,7 @@
       <c r="M143" s="17"/>
       <c r="N143" s="17"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
       <c r="D144" s="17"/>
@@ -5262,7 +5292,7 @@
       <c r="M144" s="17"/>
       <c r="N144" s="17"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
@@ -5277,7 +5307,7 @@
       <c r="M145" s="17"/>
       <c r="N145" s="17"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
       <c r="D146" s="17"/>
@@ -5292,7 +5322,7 @@
       <c r="M146" s="17"/>
       <c r="N146" s="17"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
       <c r="D147" s="17"/>
@@ -5307,7 +5337,7 @@
       <c r="M147" s="17"/>
       <c r="N147" s="17"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
       <c r="D148" s="17"/>
@@ -5322,7 +5352,7 @@
       <c r="M148" s="17"/>
       <c r="N148" s="17"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
@@ -5337,7 +5367,7 @@
       <c r="M149" s="17"/>
       <c r="N149" s="17"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
@@ -5352,7 +5382,7 @@
       <c r="M150" s="17"/>
       <c r="N150" s="17"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
@@ -5367,7 +5397,7 @@
       <c r="M151" s="17"/>
       <c r="N151" s="17"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
       <c r="D152" s="17"/>
@@ -5382,7 +5412,7 @@
       <c r="M152" s="17"/>
       <c r="N152" s="17"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
       <c r="D153" s="17"/>
@@ -5397,7 +5427,7 @@
       <c r="M153" s="17"/>
       <c r="N153" s="17"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
@@ -5412,7 +5442,7 @@
       <c r="M154" s="17"/>
       <c r="N154" s="17"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
       <c r="D155" s="17"/>
@@ -5427,7 +5457,7 @@
       <c r="M155" s="17"/>
       <c r="N155" s="17"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
@@ -5442,7 +5472,7 @@
       <c r="M156" s="17"/>
       <c r="N156" s="17"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
@@ -5457,7 +5487,7 @@
       <c r="M157" s="17"/>
       <c r="N157" s="17"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
       <c r="D158" s="17"/>
@@ -5472,7 +5502,7 @@
       <c r="M158" s="17"/>
       <c r="N158" s="17"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
@@ -5487,7 +5517,7 @@
       <c r="M159" s="17"/>
       <c r="N159" s="17"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
       <c r="D160" s="17"/>
@@ -5502,7 +5532,7 @@
       <c r="M160" s="17"/>
       <c r="N160" s="17"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
       <c r="D161" s="17"/>
@@ -5517,7 +5547,7 @@
       <c r="M161" s="17"/>
       <c r="N161" s="17"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
       <c r="D162" s="17"/>
@@ -5532,7 +5562,7 @@
       <c r="M162" s="17"/>
       <c r="N162" s="17"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
       <c r="D163" s="17"/>
@@ -5547,7 +5577,7 @@
       <c r="M163" s="17"/>
       <c r="N163" s="17"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
       <c r="D164" s="17"/>
@@ -5562,7 +5592,7 @@
       <c r="M164" s="17"/>
       <c r="N164" s="17"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
       <c r="D165" s="17"/>
@@ -5577,7 +5607,7 @@
       <c r="M165" s="17"/>
       <c r="N165" s="17"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
       <c r="D166" s="17"/>
@@ -5592,7 +5622,7 @@
       <c r="M166" s="17"/>
       <c r="N166" s="17"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
       <c r="D167" s="17"/>
@@ -5607,7 +5637,7 @@
       <c r="M167" s="17"/>
       <c r="N167" s="17"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
       <c r="D168" s="17"/>
@@ -5622,7 +5652,7 @@
       <c r="M168" s="17"/>
       <c r="N168" s="17"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
       <c r="D169" s="17"/>
@@ -5637,7 +5667,7 @@
       <c r="M169" s="17"/>
       <c r="N169" s="17"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
       <c r="D170" s="17"/>
@@ -5652,7 +5682,7 @@
       <c r="M170" s="17"/>
       <c r="N170" s="17"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
@@ -5667,7 +5697,7 @@
       <c r="M171" s="17"/>
       <c r="N171" s="17"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
@@ -5682,7 +5712,7 @@
       <c r="M172" s="17"/>
       <c r="N172" s="17"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
@@ -5697,7 +5727,7 @@
       <c r="M173" s="17"/>
       <c r="N173" s="17"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
       <c r="D174" s="17"/>
@@ -5712,7 +5742,7 @@
       <c r="M174" s="17"/>
       <c r="N174" s="17"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
       <c r="D175" s="17"/>
@@ -5727,7 +5757,7 @@
       <c r="M175" s="17"/>
       <c r="N175" s="17"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
       <c r="D176" s="17"/>
@@ -5742,7 +5772,7 @@
       <c r="M176" s="17"/>
       <c r="N176" s="17"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
       <c r="D177" s="17"/>
@@ -5757,7 +5787,7 @@
       <c r="M177" s="17"/>
       <c r="N177" s="17"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
       <c r="D178" s="17"/>
@@ -5772,7 +5802,7 @@
       <c r="M178" s="17"/>
       <c r="N178" s="17"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
       <c r="D179" s="17"/>
@@ -5791,7 +5821,7 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
-  <pageSetup paperSize="9" scale="91" fitToHeight="100" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
     <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.2&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
@@ -5816,15 +5846,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="6" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="6" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" s="34" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:37" s="34" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="35"/>
       <c r="E1" s="36"/>
@@ -5861,7 +5891,7 @@
       <c r="AJ1" s="36"/>
       <c r="AK1" s="36"/>
     </row>
-    <row r="2" spans="2:37" s="34" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:37" s="34" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="21"/>
       <c r="D2" s="35"/>
       <c r="E2" s="36"/>
@@ -5898,7 +5928,7 @@
       <c r="AJ2" s="36"/>
       <c r="AK2" s="36"/>
     </row>
-    <row r="3" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>37</v>
       </c>
@@ -5913,9 +5943,9 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="2:37" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:37" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="125" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="126"/>
       <c r="D4" s="126"/>
@@ -5928,7 +5958,7 @@
       <c r="K4" s="126"/>
       <c r="L4" s="126"/>
     </row>
-    <row r="5" spans="2:37" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:37" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="45"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
@@ -5941,7 +5971,7 @@
       <c r="K5" s="46"/>
       <c r="L5" s="46"/>
     </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B6" s="65" t="s">
         <v>38</v>
       </c>
@@ -5955,12 +5985,12 @@
       <c r="H6" s="128"/>
       <c r="I6" s="129"/>
     </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B7" s="74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="130" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="131"/>
       <c r="E7" s="131"/>
@@ -5974,12 +6004,12 @@
       <c r="P7" s="51"/>
       <c r="Q7" s="51"/>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B8" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="134"/>
       <c r="E8" s="134"/>
@@ -5993,12 +6023,12 @@
       <c r="P8" s="51"/>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B9" s="68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="123"/>
       <c r="E9" s="123"/>
@@ -6012,12 +6042,12 @@
       <c r="P9" s="51"/>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B10" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="71"/>
       <c r="E10" s="71"/>
@@ -6026,12 +6056,12 @@
       <c r="H10" s="71"/>
       <c r="I10" s="72"/>
     </row>
-    <row r="11" spans="2:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="119" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="120"/>
       <c r="E11" s="120"/>
@@ -6040,25 +6070,25 @@
       <c r="H11" s="120"/>
       <c r="I11" s="121"/>
     </row>
-    <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C12" s="64"/>
     </row>
-    <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C13" s="64"/>
     </row>
-    <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C14" s="64"/>
     </row>
-    <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C15" s="64"/>
     </row>
-    <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C16" s="64"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="50"/>
     </row>
-    <row r="22" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="40"/>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
@@ -6071,7 +6101,7 @@
       <c r="K22" s="41"/>
       <c r="L22" s="41"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="42"/>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
@@ -6084,7 +6114,7 @@
       <c r="K23" s="43"/>
       <c r="L23" s="43"/>
     </row>
-    <row r="25" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="40"/>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
@@ -6097,7 +6127,7 @@
       <c r="K25" s="41"/>
       <c r="L25" s="41"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="44"/>
       <c r="C26" s="41"/>
       <c r="D26" s="41"/>
@@ -6137,7 +6167,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:D11"/>
@@ -6146,784 +6176,784 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="35" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="34" customWidth="1"/>
-    <col min="8" max="26" width="3.33203125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="34" customWidth="1"/>
+    <col min="8" max="26" width="3.28515625" style="34" customWidth="1"/>
     <col min="27" max="27" width="10" style="34" customWidth="1"/>
-    <col min="28" max="237" width="8.83203125" style="34"/>
-    <col min="238" max="238" width="1.5" style="34" customWidth="1"/>
-    <col min="239" max="239" width="1.33203125" style="34" customWidth="1"/>
+    <col min="28" max="237" width="8.85546875" style="34"/>
+    <col min="238" max="238" width="1.42578125" style="34" customWidth="1"/>
+    <col min="239" max="239" width="1.28515625" style="34" customWidth="1"/>
     <col min="240" max="240" width="42" style="34" customWidth="1"/>
-    <col min="241" max="241" width="5.5" style="34" customWidth="1"/>
+    <col min="241" max="241" width="5.42578125" style="34" customWidth="1"/>
     <col min="242" max="243" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="244" max="244" width="2.6640625" style="34" customWidth="1"/>
-    <col min="245" max="280" width="3.33203125" style="34" customWidth="1"/>
-    <col min="281" max="281" width="1.6640625" style="34" customWidth="1"/>
-    <col min="282" max="282" width="25.6640625" style="34" customWidth="1"/>
-    <col min="283" max="283" width="31.33203125" style="34" customWidth="1"/>
-    <col min="284" max="493" width="8.83203125" style="34"/>
-    <col min="494" max="494" width="1.5" style="34" customWidth="1"/>
-    <col min="495" max="495" width="1.33203125" style="34" customWidth="1"/>
+    <col min="244" max="244" width="2.7109375" style="34" customWidth="1"/>
+    <col min="245" max="280" width="3.28515625" style="34" customWidth="1"/>
+    <col min="281" max="281" width="1.7109375" style="34" customWidth="1"/>
+    <col min="282" max="282" width="25.7109375" style="34" customWidth="1"/>
+    <col min="283" max="283" width="31.28515625" style="34" customWidth="1"/>
+    <col min="284" max="493" width="8.85546875" style="34"/>
+    <col min="494" max="494" width="1.42578125" style="34" customWidth="1"/>
+    <col min="495" max="495" width="1.28515625" style="34" customWidth="1"/>
     <col min="496" max="496" width="42" style="34" customWidth="1"/>
-    <col min="497" max="497" width="5.5" style="34" customWidth="1"/>
+    <col min="497" max="497" width="5.42578125" style="34" customWidth="1"/>
     <col min="498" max="499" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="500" max="500" width="2.6640625" style="34" customWidth="1"/>
-    <col min="501" max="536" width="3.33203125" style="34" customWidth="1"/>
-    <col min="537" max="537" width="1.6640625" style="34" customWidth="1"/>
-    <col min="538" max="538" width="25.6640625" style="34" customWidth="1"/>
-    <col min="539" max="539" width="31.33203125" style="34" customWidth="1"/>
-    <col min="540" max="749" width="8.83203125" style="34"/>
-    <col min="750" max="750" width="1.5" style="34" customWidth="1"/>
-    <col min="751" max="751" width="1.33203125" style="34" customWidth="1"/>
+    <col min="500" max="500" width="2.7109375" style="34" customWidth="1"/>
+    <col min="501" max="536" width="3.28515625" style="34" customWidth="1"/>
+    <col min="537" max="537" width="1.7109375" style="34" customWidth="1"/>
+    <col min="538" max="538" width="25.7109375" style="34" customWidth="1"/>
+    <col min="539" max="539" width="31.28515625" style="34" customWidth="1"/>
+    <col min="540" max="749" width="8.85546875" style="34"/>
+    <col min="750" max="750" width="1.42578125" style="34" customWidth="1"/>
+    <col min="751" max="751" width="1.28515625" style="34" customWidth="1"/>
     <col min="752" max="752" width="42" style="34" customWidth="1"/>
-    <col min="753" max="753" width="5.5" style="34" customWidth="1"/>
+    <col min="753" max="753" width="5.42578125" style="34" customWidth="1"/>
     <col min="754" max="755" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="756" max="756" width="2.6640625" style="34" customWidth="1"/>
-    <col min="757" max="792" width="3.33203125" style="34" customWidth="1"/>
-    <col min="793" max="793" width="1.6640625" style="34" customWidth="1"/>
-    <col min="794" max="794" width="25.6640625" style="34" customWidth="1"/>
-    <col min="795" max="795" width="31.33203125" style="34" customWidth="1"/>
-    <col min="796" max="1005" width="8.83203125" style="34"/>
-    <col min="1006" max="1006" width="1.5" style="34" customWidth="1"/>
-    <col min="1007" max="1007" width="1.33203125" style="34" customWidth="1"/>
+    <col min="756" max="756" width="2.7109375" style="34" customWidth="1"/>
+    <col min="757" max="792" width="3.28515625" style="34" customWidth="1"/>
+    <col min="793" max="793" width="1.7109375" style="34" customWidth="1"/>
+    <col min="794" max="794" width="25.7109375" style="34" customWidth="1"/>
+    <col min="795" max="795" width="31.28515625" style="34" customWidth="1"/>
+    <col min="796" max="1005" width="8.85546875" style="34"/>
+    <col min="1006" max="1006" width="1.42578125" style="34" customWidth="1"/>
+    <col min="1007" max="1007" width="1.28515625" style="34" customWidth="1"/>
     <col min="1008" max="1008" width="42" style="34" customWidth="1"/>
-    <col min="1009" max="1009" width="5.5" style="34" customWidth="1"/>
+    <col min="1009" max="1009" width="5.42578125" style="34" customWidth="1"/>
     <col min="1010" max="1011" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1012" max="1012" width="2.6640625" style="34" customWidth="1"/>
-    <col min="1013" max="1048" width="3.33203125" style="34" customWidth="1"/>
-    <col min="1049" max="1049" width="1.6640625" style="34" customWidth="1"/>
-    <col min="1050" max="1050" width="25.6640625" style="34" customWidth="1"/>
-    <col min="1051" max="1051" width="31.33203125" style="34" customWidth="1"/>
-    <col min="1052" max="1261" width="8.83203125" style="34"/>
-    <col min="1262" max="1262" width="1.5" style="34" customWidth="1"/>
-    <col min="1263" max="1263" width="1.33203125" style="34" customWidth="1"/>
+    <col min="1012" max="1012" width="2.7109375" style="34" customWidth="1"/>
+    <col min="1013" max="1048" width="3.28515625" style="34" customWidth="1"/>
+    <col min="1049" max="1049" width="1.7109375" style="34" customWidth="1"/>
+    <col min="1050" max="1050" width="25.7109375" style="34" customWidth="1"/>
+    <col min="1051" max="1051" width="31.28515625" style="34" customWidth="1"/>
+    <col min="1052" max="1261" width="8.85546875" style="34"/>
+    <col min="1262" max="1262" width="1.42578125" style="34" customWidth="1"/>
+    <col min="1263" max="1263" width="1.28515625" style="34" customWidth="1"/>
     <col min="1264" max="1264" width="42" style="34" customWidth="1"/>
-    <col min="1265" max="1265" width="5.5" style="34" customWidth="1"/>
+    <col min="1265" max="1265" width="5.42578125" style="34" customWidth="1"/>
     <col min="1266" max="1267" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1268" max="1268" width="2.6640625" style="34" customWidth="1"/>
-    <col min="1269" max="1304" width="3.33203125" style="34" customWidth="1"/>
-    <col min="1305" max="1305" width="1.6640625" style="34" customWidth="1"/>
-    <col min="1306" max="1306" width="25.6640625" style="34" customWidth="1"/>
-    <col min="1307" max="1307" width="31.33203125" style="34" customWidth="1"/>
-    <col min="1308" max="1517" width="8.83203125" style="34"/>
-    <col min="1518" max="1518" width="1.5" style="34" customWidth="1"/>
-    <col min="1519" max="1519" width="1.33203125" style="34" customWidth="1"/>
+    <col min="1268" max="1268" width="2.7109375" style="34" customWidth="1"/>
+    <col min="1269" max="1304" width="3.28515625" style="34" customWidth="1"/>
+    <col min="1305" max="1305" width="1.7109375" style="34" customWidth="1"/>
+    <col min="1306" max="1306" width="25.7109375" style="34" customWidth="1"/>
+    <col min="1307" max="1307" width="31.28515625" style="34" customWidth="1"/>
+    <col min="1308" max="1517" width="8.85546875" style="34"/>
+    <col min="1518" max="1518" width="1.42578125" style="34" customWidth="1"/>
+    <col min="1519" max="1519" width="1.28515625" style="34" customWidth="1"/>
     <col min="1520" max="1520" width="42" style="34" customWidth="1"/>
-    <col min="1521" max="1521" width="5.5" style="34" customWidth="1"/>
+    <col min="1521" max="1521" width="5.42578125" style="34" customWidth="1"/>
     <col min="1522" max="1523" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1524" max="1524" width="2.6640625" style="34" customWidth="1"/>
-    <col min="1525" max="1560" width="3.33203125" style="34" customWidth="1"/>
-    <col min="1561" max="1561" width="1.6640625" style="34" customWidth="1"/>
-    <col min="1562" max="1562" width="25.6640625" style="34" customWidth="1"/>
-    <col min="1563" max="1563" width="31.33203125" style="34" customWidth="1"/>
-    <col min="1564" max="1773" width="8.83203125" style="34"/>
-    <col min="1774" max="1774" width="1.5" style="34" customWidth="1"/>
-    <col min="1775" max="1775" width="1.33203125" style="34" customWidth="1"/>
+    <col min="1524" max="1524" width="2.7109375" style="34" customWidth="1"/>
+    <col min="1525" max="1560" width="3.28515625" style="34" customWidth="1"/>
+    <col min="1561" max="1561" width="1.7109375" style="34" customWidth="1"/>
+    <col min="1562" max="1562" width="25.7109375" style="34" customWidth="1"/>
+    <col min="1563" max="1563" width="31.28515625" style="34" customWidth="1"/>
+    <col min="1564" max="1773" width="8.85546875" style="34"/>
+    <col min="1774" max="1774" width="1.42578125" style="34" customWidth="1"/>
+    <col min="1775" max="1775" width="1.28515625" style="34" customWidth="1"/>
     <col min="1776" max="1776" width="42" style="34" customWidth="1"/>
-    <col min="1777" max="1777" width="5.5" style="34" customWidth="1"/>
+    <col min="1777" max="1777" width="5.42578125" style="34" customWidth="1"/>
     <col min="1778" max="1779" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1780" max="1780" width="2.6640625" style="34" customWidth="1"/>
-    <col min="1781" max="1816" width="3.33203125" style="34" customWidth="1"/>
-    <col min="1817" max="1817" width="1.6640625" style="34" customWidth="1"/>
-    <col min="1818" max="1818" width="25.6640625" style="34" customWidth="1"/>
-    <col min="1819" max="1819" width="31.33203125" style="34" customWidth="1"/>
-    <col min="1820" max="2029" width="8.83203125" style="34"/>
-    <col min="2030" max="2030" width="1.5" style="34" customWidth="1"/>
-    <col min="2031" max="2031" width="1.33203125" style="34" customWidth="1"/>
+    <col min="1780" max="1780" width="2.7109375" style="34" customWidth="1"/>
+    <col min="1781" max="1816" width="3.28515625" style="34" customWidth="1"/>
+    <col min="1817" max="1817" width="1.7109375" style="34" customWidth="1"/>
+    <col min="1818" max="1818" width="25.7109375" style="34" customWidth="1"/>
+    <col min="1819" max="1819" width="31.28515625" style="34" customWidth="1"/>
+    <col min="1820" max="2029" width="8.85546875" style="34"/>
+    <col min="2030" max="2030" width="1.42578125" style="34" customWidth="1"/>
+    <col min="2031" max="2031" width="1.28515625" style="34" customWidth="1"/>
     <col min="2032" max="2032" width="42" style="34" customWidth="1"/>
-    <col min="2033" max="2033" width="5.5" style="34" customWidth="1"/>
+    <col min="2033" max="2033" width="5.42578125" style="34" customWidth="1"/>
     <col min="2034" max="2035" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2036" max="2036" width="2.6640625" style="34" customWidth="1"/>
-    <col min="2037" max="2072" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2073" max="2073" width="1.6640625" style="34" customWidth="1"/>
-    <col min="2074" max="2074" width="25.6640625" style="34" customWidth="1"/>
-    <col min="2075" max="2075" width="31.33203125" style="34" customWidth="1"/>
-    <col min="2076" max="2285" width="8.83203125" style="34"/>
-    <col min="2286" max="2286" width="1.5" style="34" customWidth="1"/>
-    <col min="2287" max="2287" width="1.33203125" style="34" customWidth="1"/>
+    <col min="2036" max="2036" width="2.7109375" style="34" customWidth="1"/>
+    <col min="2037" max="2072" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2073" max="2073" width="1.7109375" style="34" customWidth="1"/>
+    <col min="2074" max="2074" width="25.7109375" style="34" customWidth="1"/>
+    <col min="2075" max="2075" width="31.28515625" style="34" customWidth="1"/>
+    <col min="2076" max="2285" width="8.85546875" style="34"/>
+    <col min="2286" max="2286" width="1.42578125" style="34" customWidth="1"/>
+    <col min="2287" max="2287" width="1.28515625" style="34" customWidth="1"/>
     <col min="2288" max="2288" width="42" style="34" customWidth="1"/>
-    <col min="2289" max="2289" width="5.5" style="34" customWidth="1"/>
+    <col min="2289" max="2289" width="5.42578125" style="34" customWidth="1"/>
     <col min="2290" max="2291" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2292" max="2292" width="2.6640625" style="34" customWidth="1"/>
-    <col min="2293" max="2328" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2329" max="2329" width="1.6640625" style="34" customWidth="1"/>
-    <col min="2330" max="2330" width="25.6640625" style="34" customWidth="1"/>
-    <col min="2331" max="2331" width="31.33203125" style="34" customWidth="1"/>
-    <col min="2332" max="2541" width="8.83203125" style="34"/>
-    <col min="2542" max="2542" width="1.5" style="34" customWidth="1"/>
-    <col min="2543" max="2543" width="1.33203125" style="34" customWidth="1"/>
+    <col min="2292" max="2292" width="2.7109375" style="34" customWidth="1"/>
+    <col min="2293" max="2328" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2329" max="2329" width="1.7109375" style="34" customWidth="1"/>
+    <col min="2330" max="2330" width="25.7109375" style="34" customWidth="1"/>
+    <col min="2331" max="2331" width="31.28515625" style="34" customWidth="1"/>
+    <col min="2332" max="2541" width="8.85546875" style="34"/>
+    <col min="2542" max="2542" width="1.42578125" style="34" customWidth="1"/>
+    <col min="2543" max="2543" width="1.28515625" style="34" customWidth="1"/>
     <col min="2544" max="2544" width="42" style="34" customWidth="1"/>
-    <col min="2545" max="2545" width="5.5" style="34" customWidth="1"/>
+    <col min="2545" max="2545" width="5.42578125" style="34" customWidth="1"/>
     <col min="2546" max="2547" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2548" max="2548" width="2.6640625" style="34" customWidth="1"/>
-    <col min="2549" max="2584" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2585" max="2585" width="1.6640625" style="34" customWidth="1"/>
-    <col min="2586" max="2586" width="25.6640625" style="34" customWidth="1"/>
-    <col min="2587" max="2587" width="31.33203125" style="34" customWidth="1"/>
-    <col min="2588" max="2797" width="8.83203125" style="34"/>
-    <col min="2798" max="2798" width="1.5" style="34" customWidth="1"/>
-    <col min="2799" max="2799" width="1.33203125" style="34" customWidth="1"/>
+    <col min="2548" max="2548" width="2.7109375" style="34" customWidth="1"/>
+    <col min="2549" max="2584" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2585" max="2585" width="1.7109375" style="34" customWidth="1"/>
+    <col min="2586" max="2586" width="25.7109375" style="34" customWidth="1"/>
+    <col min="2587" max="2587" width="31.28515625" style="34" customWidth="1"/>
+    <col min="2588" max="2797" width="8.85546875" style="34"/>
+    <col min="2798" max="2798" width="1.42578125" style="34" customWidth="1"/>
+    <col min="2799" max="2799" width="1.28515625" style="34" customWidth="1"/>
     <col min="2800" max="2800" width="42" style="34" customWidth="1"/>
-    <col min="2801" max="2801" width="5.5" style="34" customWidth="1"/>
+    <col min="2801" max="2801" width="5.42578125" style="34" customWidth="1"/>
     <col min="2802" max="2803" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2804" max="2804" width="2.6640625" style="34" customWidth="1"/>
-    <col min="2805" max="2840" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2841" max="2841" width="1.6640625" style="34" customWidth="1"/>
-    <col min="2842" max="2842" width="25.6640625" style="34" customWidth="1"/>
-    <col min="2843" max="2843" width="31.33203125" style="34" customWidth="1"/>
-    <col min="2844" max="3053" width="8.83203125" style="34"/>
-    <col min="3054" max="3054" width="1.5" style="34" customWidth="1"/>
-    <col min="3055" max="3055" width="1.33203125" style="34" customWidth="1"/>
+    <col min="2804" max="2804" width="2.7109375" style="34" customWidth="1"/>
+    <col min="2805" max="2840" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2841" max="2841" width="1.7109375" style="34" customWidth="1"/>
+    <col min="2842" max="2842" width="25.7109375" style="34" customWidth="1"/>
+    <col min="2843" max="2843" width="31.28515625" style="34" customWidth="1"/>
+    <col min="2844" max="3053" width="8.85546875" style="34"/>
+    <col min="3054" max="3054" width="1.42578125" style="34" customWidth="1"/>
+    <col min="3055" max="3055" width="1.28515625" style="34" customWidth="1"/>
     <col min="3056" max="3056" width="42" style="34" customWidth="1"/>
-    <col min="3057" max="3057" width="5.5" style="34" customWidth="1"/>
+    <col min="3057" max="3057" width="5.42578125" style="34" customWidth="1"/>
     <col min="3058" max="3059" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3060" max="3060" width="2.6640625" style="34" customWidth="1"/>
-    <col min="3061" max="3096" width="3.33203125" style="34" customWidth="1"/>
-    <col min="3097" max="3097" width="1.6640625" style="34" customWidth="1"/>
-    <col min="3098" max="3098" width="25.6640625" style="34" customWidth="1"/>
-    <col min="3099" max="3099" width="31.33203125" style="34" customWidth="1"/>
-    <col min="3100" max="3309" width="8.83203125" style="34"/>
-    <col min="3310" max="3310" width="1.5" style="34" customWidth="1"/>
-    <col min="3311" max="3311" width="1.33203125" style="34" customWidth="1"/>
+    <col min="3060" max="3060" width="2.7109375" style="34" customWidth="1"/>
+    <col min="3061" max="3096" width="3.28515625" style="34" customWidth="1"/>
+    <col min="3097" max="3097" width="1.7109375" style="34" customWidth="1"/>
+    <col min="3098" max="3098" width="25.7109375" style="34" customWidth="1"/>
+    <col min="3099" max="3099" width="31.28515625" style="34" customWidth="1"/>
+    <col min="3100" max="3309" width="8.85546875" style="34"/>
+    <col min="3310" max="3310" width="1.42578125" style="34" customWidth="1"/>
+    <col min="3311" max="3311" width="1.28515625" style="34" customWidth="1"/>
     <col min="3312" max="3312" width="42" style="34" customWidth="1"/>
-    <col min="3313" max="3313" width="5.5" style="34" customWidth="1"/>
+    <col min="3313" max="3313" width="5.42578125" style="34" customWidth="1"/>
     <col min="3314" max="3315" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3316" max="3316" width="2.6640625" style="34" customWidth="1"/>
-    <col min="3317" max="3352" width="3.33203125" style="34" customWidth="1"/>
-    <col min="3353" max="3353" width="1.6640625" style="34" customWidth="1"/>
-    <col min="3354" max="3354" width="25.6640625" style="34" customWidth="1"/>
-    <col min="3355" max="3355" width="31.33203125" style="34" customWidth="1"/>
-    <col min="3356" max="3565" width="8.83203125" style="34"/>
-    <col min="3566" max="3566" width="1.5" style="34" customWidth="1"/>
-    <col min="3567" max="3567" width="1.33203125" style="34" customWidth="1"/>
+    <col min="3316" max="3316" width="2.7109375" style="34" customWidth="1"/>
+    <col min="3317" max="3352" width="3.28515625" style="34" customWidth="1"/>
+    <col min="3353" max="3353" width="1.7109375" style="34" customWidth="1"/>
+    <col min="3354" max="3354" width="25.7109375" style="34" customWidth="1"/>
+    <col min="3355" max="3355" width="31.28515625" style="34" customWidth="1"/>
+    <col min="3356" max="3565" width="8.85546875" style="34"/>
+    <col min="3566" max="3566" width="1.42578125" style="34" customWidth="1"/>
+    <col min="3567" max="3567" width="1.28515625" style="34" customWidth="1"/>
     <col min="3568" max="3568" width="42" style="34" customWidth="1"/>
-    <col min="3569" max="3569" width="5.5" style="34" customWidth="1"/>
+    <col min="3569" max="3569" width="5.42578125" style="34" customWidth="1"/>
     <col min="3570" max="3571" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3572" max="3572" width="2.6640625" style="34" customWidth="1"/>
-    <col min="3573" max="3608" width="3.33203125" style="34" customWidth="1"/>
-    <col min="3609" max="3609" width="1.6640625" style="34" customWidth="1"/>
-    <col min="3610" max="3610" width="25.6640625" style="34" customWidth="1"/>
-    <col min="3611" max="3611" width="31.33203125" style="34" customWidth="1"/>
-    <col min="3612" max="3821" width="8.83203125" style="34"/>
-    <col min="3822" max="3822" width="1.5" style="34" customWidth="1"/>
-    <col min="3823" max="3823" width="1.33203125" style="34" customWidth="1"/>
+    <col min="3572" max="3572" width="2.7109375" style="34" customWidth="1"/>
+    <col min="3573" max="3608" width="3.28515625" style="34" customWidth="1"/>
+    <col min="3609" max="3609" width="1.7109375" style="34" customWidth="1"/>
+    <col min="3610" max="3610" width="25.7109375" style="34" customWidth="1"/>
+    <col min="3611" max="3611" width="31.28515625" style="34" customWidth="1"/>
+    <col min="3612" max="3821" width="8.85546875" style="34"/>
+    <col min="3822" max="3822" width="1.42578125" style="34" customWidth="1"/>
+    <col min="3823" max="3823" width="1.28515625" style="34" customWidth="1"/>
     <col min="3824" max="3824" width="42" style="34" customWidth="1"/>
-    <col min="3825" max="3825" width="5.5" style="34" customWidth="1"/>
+    <col min="3825" max="3825" width="5.42578125" style="34" customWidth="1"/>
     <col min="3826" max="3827" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3828" max="3828" width="2.6640625" style="34" customWidth="1"/>
-    <col min="3829" max="3864" width="3.33203125" style="34" customWidth="1"/>
-    <col min="3865" max="3865" width="1.6640625" style="34" customWidth="1"/>
-    <col min="3866" max="3866" width="25.6640625" style="34" customWidth="1"/>
-    <col min="3867" max="3867" width="31.33203125" style="34" customWidth="1"/>
-    <col min="3868" max="4077" width="8.83203125" style="34"/>
-    <col min="4078" max="4078" width="1.5" style="34" customWidth="1"/>
-    <col min="4079" max="4079" width="1.33203125" style="34" customWidth="1"/>
+    <col min="3828" max="3828" width="2.7109375" style="34" customWidth="1"/>
+    <col min="3829" max="3864" width="3.28515625" style="34" customWidth="1"/>
+    <col min="3865" max="3865" width="1.7109375" style="34" customWidth="1"/>
+    <col min="3866" max="3866" width="25.7109375" style="34" customWidth="1"/>
+    <col min="3867" max="3867" width="31.28515625" style="34" customWidth="1"/>
+    <col min="3868" max="4077" width="8.85546875" style="34"/>
+    <col min="4078" max="4078" width="1.42578125" style="34" customWidth="1"/>
+    <col min="4079" max="4079" width="1.28515625" style="34" customWidth="1"/>
     <col min="4080" max="4080" width="42" style="34" customWidth="1"/>
-    <col min="4081" max="4081" width="5.5" style="34" customWidth="1"/>
+    <col min="4081" max="4081" width="5.42578125" style="34" customWidth="1"/>
     <col min="4082" max="4083" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4084" max="4084" width="2.6640625" style="34" customWidth="1"/>
-    <col min="4085" max="4120" width="3.33203125" style="34" customWidth="1"/>
-    <col min="4121" max="4121" width="1.6640625" style="34" customWidth="1"/>
-    <col min="4122" max="4122" width="25.6640625" style="34" customWidth="1"/>
-    <col min="4123" max="4123" width="31.33203125" style="34" customWidth="1"/>
-    <col min="4124" max="4333" width="8.83203125" style="34"/>
-    <col min="4334" max="4334" width="1.5" style="34" customWidth="1"/>
-    <col min="4335" max="4335" width="1.33203125" style="34" customWidth="1"/>
+    <col min="4084" max="4084" width="2.7109375" style="34" customWidth="1"/>
+    <col min="4085" max="4120" width="3.28515625" style="34" customWidth="1"/>
+    <col min="4121" max="4121" width="1.7109375" style="34" customWidth="1"/>
+    <col min="4122" max="4122" width="25.7109375" style="34" customWidth="1"/>
+    <col min="4123" max="4123" width="31.28515625" style="34" customWidth="1"/>
+    <col min="4124" max="4333" width="8.85546875" style="34"/>
+    <col min="4334" max="4334" width="1.42578125" style="34" customWidth="1"/>
+    <col min="4335" max="4335" width="1.28515625" style="34" customWidth="1"/>
     <col min="4336" max="4336" width="42" style="34" customWidth="1"/>
-    <col min="4337" max="4337" width="5.5" style="34" customWidth="1"/>
+    <col min="4337" max="4337" width="5.42578125" style="34" customWidth="1"/>
     <col min="4338" max="4339" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4340" max="4340" width="2.6640625" style="34" customWidth="1"/>
-    <col min="4341" max="4376" width="3.33203125" style="34" customWidth="1"/>
-    <col min="4377" max="4377" width="1.6640625" style="34" customWidth="1"/>
-    <col min="4378" max="4378" width="25.6640625" style="34" customWidth="1"/>
-    <col min="4379" max="4379" width="31.33203125" style="34" customWidth="1"/>
-    <col min="4380" max="4589" width="8.83203125" style="34"/>
-    <col min="4590" max="4590" width="1.5" style="34" customWidth="1"/>
-    <col min="4591" max="4591" width="1.33203125" style="34" customWidth="1"/>
+    <col min="4340" max="4340" width="2.7109375" style="34" customWidth="1"/>
+    <col min="4341" max="4376" width="3.28515625" style="34" customWidth="1"/>
+    <col min="4377" max="4377" width="1.7109375" style="34" customWidth="1"/>
+    <col min="4378" max="4378" width="25.7109375" style="34" customWidth="1"/>
+    <col min="4379" max="4379" width="31.28515625" style="34" customWidth="1"/>
+    <col min="4380" max="4589" width="8.85546875" style="34"/>
+    <col min="4590" max="4590" width="1.42578125" style="34" customWidth="1"/>
+    <col min="4591" max="4591" width="1.28515625" style="34" customWidth="1"/>
     <col min="4592" max="4592" width="42" style="34" customWidth="1"/>
-    <col min="4593" max="4593" width="5.5" style="34" customWidth="1"/>
+    <col min="4593" max="4593" width="5.42578125" style="34" customWidth="1"/>
     <col min="4594" max="4595" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4596" max="4596" width="2.6640625" style="34" customWidth="1"/>
-    <col min="4597" max="4632" width="3.33203125" style="34" customWidth="1"/>
-    <col min="4633" max="4633" width="1.6640625" style="34" customWidth="1"/>
-    <col min="4634" max="4634" width="25.6640625" style="34" customWidth="1"/>
-    <col min="4635" max="4635" width="31.33203125" style="34" customWidth="1"/>
-    <col min="4636" max="4845" width="8.83203125" style="34"/>
-    <col min="4846" max="4846" width="1.5" style="34" customWidth="1"/>
-    <col min="4847" max="4847" width="1.33203125" style="34" customWidth="1"/>
+    <col min="4596" max="4596" width="2.7109375" style="34" customWidth="1"/>
+    <col min="4597" max="4632" width="3.28515625" style="34" customWidth="1"/>
+    <col min="4633" max="4633" width="1.7109375" style="34" customWidth="1"/>
+    <col min="4634" max="4634" width="25.7109375" style="34" customWidth="1"/>
+    <col min="4635" max="4635" width="31.28515625" style="34" customWidth="1"/>
+    <col min="4636" max="4845" width="8.85546875" style="34"/>
+    <col min="4846" max="4846" width="1.42578125" style="34" customWidth="1"/>
+    <col min="4847" max="4847" width="1.28515625" style="34" customWidth="1"/>
     <col min="4848" max="4848" width="42" style="34" customWidth="1"/>
-    <col min="4849" max="4849" width="5.5" style="34" customWidth="1"/>
+    <col min="4849" max="4849" width="5.42578125" style="34" customWidth="1"/>
     <col min="4850" max="4851" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4852" max="4852" width="2.6640625" style="34" customWidth="1"/>
-    <col min="4853" max="4888" width="3.33203125" style="34" customWidth="1"/>
-    <col min="4889" max="4889" width="1.6640625" style="34" customWidth="1"/>
-    <col min="4890" max="4890" width="25.6640625" style="34" customWidth="1"/>
-    <col min="4891" max="4891" width="31.33203125" style="34" customWidth="1"/>
-    <col min="4892" max="5101" width="8.83203125" style="34"/>
-    <col min="5102" max="5102" width="1.5" style="34" customWidth="1"/>
-    <col min="5103" max="5103" width="1.33203125" style="34" customWidth="1"/>
+    <col min="4852" max="4852" width="2.7109375" style="34" customWidth="1"/>
+    <col min="4853" max="4888" width="3.28515625" style="34" customWidth="1"/>
+    <col min="4889" max="4889" width="1.7109375" style="34" customWidth="1"/>
+    <col min="4890" max="4890" width="25.7109375" style="34" customWidth="1"/>
+    <col min="4891" max="4891" width="31.28515625" style="34" customWidth="1"/>
+    <col min="4892" max="5101" width="8.85546875" style="34"/>
+    <col min="5102" max="5102" width="1.42578125" style="34" customWidth="1"/>
+    <col min="5103" max="5103" width="1.28515625" style="34" customWidth="1"/>
     <col min="5104" max="5104" width="42" style="34" customWidth="1"/>
-    <col min="5105" max="5105" width="5.5" style="34" customWidth="1"/>
+    <col min="5105" max="5105" width="5.42578125" style="34" customWidth="1"/>
     <col min="5106" max="5107" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5108" max="5108" width="2.6640625" style="34" customWidth="1"/>
-    <col min="5109" max="5144" width="3.33203125" style="34" customWidth="1"/>
-    <col min="5145" max="5145" width="1.6640625" style="34" customWidth="1"/>
-    <col min="5146" max="5146" width="25.6640625" style="34" customWidth="1"/>
-    <col min="5147" max="5147" width="31.33203125" style="34" customWidth="1"/>
-    <col min="5148" max="5357" width="8.83203125" style="34"/>
-    <col min="5358" max="5358" width="1.5" style="34" customWidth="1"/>
-    <col min="5359" max="5359" width="1.33203125" style="34" customWidth="1"/>
+    <col min="5108" max="5108" width="2.7109375" style="34" customWidth="1"/>
+    <col min="5109" max="5144" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5145" max="5145" width="1.7109375" style="34" customWidth="1"/>
+    <col min="5146" max="5146" width="25.7109375" style="34" customWidth="1"/>
+    <col min="5147" max="5147" width="31.28515625" style="34" customWidth="1"/>
+    <col min="5148" max="5357" width="8.85546875" style="34"/>
+    <col min="5358" max="5358" width="1.42578125" style="34" customWidth="1"/>
+    <col min="5359" max="5359" width="1.28515625" style="34" customWidth="1"/>
     <col min="5360" max="5360" width="42" style="34" customWidth="1"/>
-    <col min="5361" max="5361" width="5.5" style="34" customWidth="1"/>
+    <col min="5361" max="5361" width="5.42578125" style="34" customWidth="1"/>
     <col min="5362" max="5363" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5364" max="5364" width="2.6640625" style="34" customWidth="1"/>
-    <col min="5365" max="5400" width="3.33203125" style="34" customWidth="1"/>
-    <col min="5401" max="5401" width="1.6640625" style="34" customWidth="1"/>
-    <col min="5402" max="5402" width="25.6640625" style="34" customWidth="1"/>
-    <col min="5403" max="5403" width="31.33203125" style="34" customWidth="1"/>
-    <col min="5404" max="5613" width="8.83203125" style="34"/>
-    <col min="5614" max="5614" width="1.5" style="34" customWidth="1"/>
-    <col min="5615" max="5615" width="1.33203125" style="34" customWidth="1"/>
+    <col min="5364" max="5364" width="2.7109375" style="34" customWidth="1"/>
+    <col min="5365" max="5400" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5401" max="5401" width="1.7109375" style="34" customWidth="1"/>
+    <col min="5402" max="5402" width="25.7109375" style="34" customWidth="1"/>
+    <col min="5403" max="5403" width="31.28515625" style="34" customWidth="1"/>
+    <col min="5404" max="5613" width="8.85546875" style="34"/>
+    <col min="5614" max="5614" width="1.42578125" style="34" customWidth="1"/>
+    <col min="5615" max="5615" width="1.28515625" style="34" customWidth="1"/>
     <col min="5616" max="5616" width="42" style="34" customWidth="1"/>
-    <col min="5617" max="5617" width="5.5" style="34" customWidth="1"/>
+    <col min="5617" max="5617" width="5.42578125" style="34" customWidth="1"/>
     <col min="5618" max="5619" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5620" max="5620" width="2.6640625" style="34" customWidth="1"/>
-    <col min="5621" max="5656" width="3.33203125" style="34" customWidth="1"/>
-    <col min="5657" max="5657" width="1.6640625" style="34" customWidth="1"/>
-    <col min="5658" max="5658" width="25.6640625" style="34" customWidth="1"/>
-    <col min="5659" max="5659" width="31.33203125" style="34" customWidth="1"/>
-    <col min="5660" max="5869" width="8.83203125" style="34"/>
-    <col min="5870" max="5870" width="1.5" style="34" customWidth="1"/>
-    <col min="5871" max="5871" width="1.33203125" style="34" customWidth="1"/>
+    <col min="5620" max="5620" width="2.7109375" style="34" customWidth="1"/>
+    <col min="5621" max="5656" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5657" max="5657" width="1.7109375" style="34" customWidth="1"/>
+    <col min="5658" max="5658" width="25.7109375" style="34" customWidth="1"/>
+    <col min="5659" max="5659" width="31.28515625" style="34" customWidth="1"/>
+    <col min="5660" max="5869" width="8.85546875" style="34"/>
+    <col min="5870" max="5870" width="1.42578125" style="34" customWidth="1"/>
+    <col min="5871" max="5871" width="1.28515625" style="34" customWidth="1"/>
     <col min="5872" max="5872" width="42" style="34" customWidth="1"/>
-    <col min="5873" max="5873" width="5.5" style="34" customWidth="1"/>
+    <col min="5873" max="5873" width="5.42578125" style="34" customWidth="1"/>
     <col min="5874" max="5875" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5876" max="5876" width="2.6640625" style="34" customWidth="1"/>
-    <col min="5877" max="5912" width="3.33203125" style="34" customWidth="1"/>
-    <col min="5913" max="5913" width="1.6640625" style="34" customWidth="1"/>
-    <col min="5914" max="5914" width="25.6640625" style="34" customWidth="1"/>
-    <col min="5915" max="5915" width="31.33203125" style="34" customWidth="1"/>
-    <col min="5916" max="6125" width="8.83203125" style="34"/>
-    <col min="6126" max="6126" width="1.5" style="34" customWidth="1"/>
-    <col min="6127" max="6127" width="1.33203125" style="34" customWidth="1"/>
+    <col min="5876" max="5876" width="2.7109375" style="34" customWidth="1"/>
+    <col min="5877" max="5912" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5913" max="5913" width="1.7109375" style="34" customWidth="1"/>
+    <col min="5914" max="5914" width="25.7109375" style="34" customWidth="1"/>
+    <col min="5915" max="5915" width="31.28515625" style="34" customWidth="1"/>
+    <col min="5916" max="6125" width="8.85546875" style="34"/>
+    <col min="6126" max="6126" width="1.42578125" style="34" customWidth="1"/>
+    <col min="6127" max="6127" width="1.28515625" style="34" customWidth="1"/>
     <col min="6128" max="6128" width="42" style="34" customWidth="1"/>
-    <col min="6129" max="6129" width="5.5" style="34" customWidth="1"/>
+    <col min="6129" max="6129" width="5.42578125" style="34" customWidth="1"/>
     <col min="6130" max="6131" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6132" max="6132" width="2.6640625" style="34" customWidth="1"/>
-    <col min="6133" max="6168" width="3.33203125" style="34" customWidth="1"/>
-    <col min="6169" max="6169" width="1.6640625" style="34" customWidth="1"/>
-    <col min="6170" max="6170" width="25.6640625" style="34" customWidth="1"/>
-    <col min="6171" max="6171" width="31.33203125" style="34" customWidth="1"/>
-    <col min="6172" max="6381" width="8.83203125" style="34"/>
-    <col min="6382" max="6382" width="1.5" style="34" customWidth="1"/>
-    <col min="6383" max="6383" width="1.33203125" style="34" customWidth="1"/>
+    <col min="6132" max="6132" width="2.7109375" style="34" customWidth="1"/>
+    <col min="6133" max="6168" width="3.28515625" style="34" customWidth="1"/>
+    <col min="6169" max="6169" width="1.7109375" style="34" customWidth="1"/>
+    <col min="6170" max="6170" width="25.7109375" style="34" customWidth="1"/>
+    <col min="6171" max="6171" width="31.28515625" style="34" customWidth="1"/>
+    <col min="6172" max="6381" width="8.85546875" style="34"/>
+    <col min="6382" max="6382" width="1.42578125" style="34" customWidth="1"/>
+    <col min="6383" max="6383" width="1.28515625" style="34" customWidth="1"/>
     <col min="6384" max="6384" width="42" style="34" customWidth="1"/>
-    <col min="6385" max="6385" width="5.5" style="34" customWidth="1"/>
+    <col min="6385" max="6385" width="5.42578125" style="34" customWidth="1"/>
     <col min="6386" max="6387" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6388" max="6388" width="2.6640625" style="34" customWidth="1"/>
-    <col min="6389" max="6424" width="3.33203125" style="34" customWidth="1"/>
-    <col min="6425" max="6425" width="1.6640625" style="34" customWidth="1"/>
-    <col min="6426" max="6426" width="25.6640625" style="34" customWidth="1"/>
-    <col min="6427" max="6427" width="31.33203125" style="34" customWidth="1"/>
-    <col min="6428" max="6637" width="8.83203125" style="34"/>
-    <col min="6638" max="6638" width="1.5" style="34" customWidth="1"/>
-    <col min="6639" max="6639" width="1.33203125" style="34" customWidth="1"/>
+    <col min="6388" max="6388" width="2.7109375" style="34" customWidth="1"/>
+    <col min="6389" max="6424" width="3.28515625" style="34" customWidth="1"/>
+    <col min="6425" max="6425" width="1.7109375" style="34" customWidth="1"/>
+    <col min="6426" max="6426" width="25.7109375" style="34" customWidth="1"/>
+    <col min="6427" max="6427" width="31.28515625" style="34" customWidth="1"/>
+    <col min="6428" max="6637" width="8.85546875" style="34"/>
+    <col min="6638" max="6638" width="1.42578125" style="34" customWidth="1"/>
+    <col min="6639" max="6639" width="1.28515625" style="34" customWidth="1"/>
     <col min="6640" max="6640" width="42" style="34" customWidth="1"/>
-    <col min="6641" max="6641" width="5.5" style="34" customWidth="1"/>
+    <col min="6641" max="6641" width="5.42578125" style="34" customWidth="1"/>
     <col min="6642" max="6643" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6644" max="6644" width="2.6640625" style="34" customWidth="1"/>
-    <col min="6645" max="6680" width="3.33203125" style="34" customWidth="1"/>
-    <col min="6681" max="6681" width="1.6640625" style="34" customWidth="1"/>
-    <col min="6682" max="6682" width="25.6640625" style="34" customWidth="1"/>
-    <col min="6683" max="6683" width="31.33203125" style="34" customWidth="1"/>
-    <col min="6684" max="6893" width="8.83203125" style="34"/>
-    <col min="6894" max="6894" width="1.5" style="34" customWidth="1"/>
-    <col min="6895" max="6895" width="1.33203125" style="34" customWidth="1"/>
+    <col min="6644" max="6644" width="2.7109375" style="34" customWidth="1"/>
+    <col min="6645" max="6680" width="3.28515625" style="34" customWidth="1"/>
+    <col min="6681" max="6681" width="1.7109375" style="34" customWidth="1"/>
+    <col min="6682" max="6682" width="25.7109375" style="34" customWidth="1"/>
+    <col min="6683" max="6683" width="31.28515625" style="34" customWidth="1"/>
+    <col min="6684" max="6893" width="8.85546875" style="34"/>
+    <col min="6894" max="6894" width="1.42578125" style="34" customWidth="1"/>
+    <col min="6895" max="6895" width="1.28515625" style="34" customWidth="1"/>
     <col min="6896" max="6896" width="42" style="34" customWidth="1"/>
-    <col min="6897" max="6897" width="5.5" style="34" customWidth="1"/>
+    <col min="6897" max="6897" width="5.42578125" style="34" customWidth="1"/>
     <col min="6898" max="6899" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6900" max="6900" width="2.6640625" style="34" customWidth="1"/>
-    <col min="6901" max="6936" width="3.33203125" style="34" customWidth="1"/>
-    <col min="6937" max="6937" width="1.6640625" style="34" customWidth="1"/>
-    <col min="6938" max="6938" width="25.6640625" style="34" customWidth="1"/>
-    <col min="6939" max="6939" width="31.33203125" style="34" customWidth="1"/>
-    <col min="6940" max="7149" width="8.83203125" style="34"/>
-    <col min="7150" max="7150" width="1.5" style="34" customWidth="1"/>
-    <col min="7151" max="7151" width="1.33203125" style="34" customWidth="1"/>
+    <col min="6900" max="6900" width="2.7109375" style="34" customWidth="1"/>
+    <col min="6901" max="6936" width="3.28515625" style="34" customWidth="1"/>
+    <col min="6937" max="6937" width="1.7109375" style="34" customWidth="1"/>
+    <col min="6938" max="6938" width="25.7109375" style="34" customWidth="1"/>
+    <col min="6939" max="6939" width="31.28515625" style="34" customWidth="1"/>
+    <col min="6940" max="7149" width="8.85546875" style="34"/>
+    <col min="7150" max="7150" width="1.42578125" style="34" customWidth="1"/>
+    <col min="7151" max="7151" width="1.28515625" style="34" customWidth="1"/>
     <col min="7152" max="7152" width="42" style="34" customWidth="1"/>
-    <col min="7153" max="7153" width="5.5" style="34" customWidth="1"/>
+    <col min="7153" max="7153" width="5.42578125" style="34" customWidth="1"/>
     <col min="7154" max="7155" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7156" max="7156" width="2.6640625" style="34" customWidth="1"/>
-    <col min="7157" max="7192" width="3.33203125" style="34" customWidth="1"/>
-    <col min="7193" max="7193" width="1.6640625" style="34" customWidth="1"/>
-    <col min="7194" max="7194" width="25.6640625" style="34" customWidth="1"/>
-    <col min="7195" max="7195" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7196" max="7405" width="8.83203125" style="34"/>
-    <col min="7406" max="7406" width="1.5" style="34" customWidth="1"/>
-    <col min="7407" max="7407" width="1.33203125" style="34" customWidth="1"/>
+    <col min="7156" max="7156" width="2.7109375" style="34" customWidth="1"/>
+    <col min="7157" max="7192" width="3.28515625" style="34" customWidth="1"/>
+    <col min="7193" max="7193" width="1.7109375" style="34" customWidth="1"/>
+    <col min="7194" max="7194" width="25.7109375" style="34" customWidth="1"/>
+    <col min="7195" max="7195" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7196" max="7405" width="8.85546875" style="34"/>
+    <col min="7406" max="7406" width="1.42578125" style="34" customWidth="1"/>
+    <col min="7407" max="7407" width="1.28515625" style="34" customWidth="1"/>
     <col min="7408" max="7408" width="42" style="34" customWidth="1"/>
-    <col min="7409" max="7409" width="5.5" style="34" customWidth="1"/>
+    <col min="7409" max="7409" width="5.42578125" style="34" customWidth="1"/>
     <col min="7410" max="7411" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7412" max="7412" width="2.6640625" style="34" customWidth="1"/>
-    <col min="7413" max="7448" width="3.33203125" style="34" customWidth="1"/>
-    <col min="7449" max="7449" width="1.6640625" style="34" customWidth="1"/>
-    <col min="7450" max="7450" width="25.6640625" style="34" customWidth="1"/>
-    <col min="7451" max="7451" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7452" max="7661" width="8.83203125" style="34"/>
-    <col min="7662" max="7662" width="1.5" style="34" customWidth="1"/>
-    <col min="7663" max="7663" width="1.33203125" style="34" customWidth="1"/>
+    <col min="7412" max="7412" width="2.7109375" style="34" customWidth="1"/>
+    <col min="7413" max="7448" width="3.28515625" style="34" customWidth="1"/>
+    <col min="7449" max="7449" width="1.7109375" style="34" customWidth="1"/>
+    <col min="7450" max="7450" width="25.7109375" style="34" customWidth="1"/>
+    <col min="7451" max="7451" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7452" max="7661" width="8.85546875" style="34"/>
+    <col min="7662" max="7662" width="1.42578125" style="34" customWidth="1"/>
+    <col min="7663" max="7663" width="1.28515625" style="34" customWidth="1"/>
     <col min="7664" max="7664" width="42" style="34" customWidth="1"/>
-    <col min="7665" max="7665" width="5.5" style="34" customWidth="1"/>
+    <col min="7665" max="7665" width="5.42578125" style="34" customWidth="1"/>
     <col min="7666" max="7667" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7668" max="7668" width="2.6640625" style="34" customWidth="1"/>
-    <col min="7669" max="7704" width="3.33203125" style="34" customWidth="1"/>
-    <col min="7705" max="7705" width="1.6640625" style="34" customWidth="1"/>
-    <col min="7706" max="7706" width="25.6640625" style="34" customWidth="1"/>
-    <col min="7707" max="7707" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7708" max="7917" width="8.83203125" style="34"/>
-    <col min="7918" max="7918" width="1.5" style="34" customWidth="1"/>
-    <col min="7919" max="7919" width="1.33203125" style="34" customWidth="1"/>
+    <col min="7668" max="7668" width="2.7109375" style="34" customWidth="1"/>
+    <col min="7669" max="7704" width="3.28515625" style="34" customWidth="1"/>
+    <col min="7705" max="7705" width="1.7109375" style="34" customWidth="1"/>
+    <col min="7706" max="7706" width="25.7109375" style="34" customWidth="1"/>
+    <col min="7707" max="7707" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7708" max="7917" width="8.85546875" style="34"/>
+    <col min="7918" max="7918" width="1.42578125" style="34" customWidth="1"/>
+    <col min="7919" max="7919" width="1.28515625" style="34" customWidth="1"/>
     <col min="7920" max="7920" width="42" style="34" customWidth="1"/>
-    <col min="7921" max="7921" width="5.5" style="34" customWidth="1"/>
+    <col min="7921" max="7921" width="5.42578125" style="34" customWidth="1"/>
     <col min="7922" max="7923" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7924" max="7924" width="2.6640625" style="34" customWidth="1"/>
-    <col min="7925" max="7960" width="3.33203125" style="34" customWidth="1"/>
-    <col min="7961" max="7961" width="1.6640625" style="34" customWidth="1"/>
-    <col min="7962" max="7962" width="25.6640625" style="34" customWidth="1"/>
-    <col min="7963" max="7963" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7964" max="8173" width="8.83203125" style="34"/>
-    <col min="8174" max="8174" width="1.5" style="34" customWidth="1"/>
-    <col min="8175" max="8175" width="1.33203125" style="34" customWidth="1"/>
+    <col min="7924" max="7924" width="2.7109375" style="34" customWidth="1"/>
+    <col min="7925" max="7960" width="3.28515625" style="34" customWidth="1"/>
+    <col min="7961" max="7961" width="1.7109375" style="34" customWidth="1"/>
+    <col min="7962" max="7962" width="25.7109375" style="34" customWidth="1"/>
+    <col min="7963" max="7963" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7964" max="8173" width="8.85546875" style="34"/>
+    <col min="8174" max="8174" width="1.42578125" style="34" customWidth="1"/>
+    <col min="8175" max="8175" width="1.28515625" style="34" customWidth="1"/>
     <col min="8176" max="8176" width="42" style="34" customWidth="1"/>
-    <col min="8177" max="8177" width="5.5" style="34" customWidth="1"/>
+    <col min="8177" max="8177" width="5.42578125" style="34" customWidth="1"/>
     <col min="8178" max="8179" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8180" max="8180" width="2.6640625" style="34" customWidth="1"/>
-    <col min="8181" max="8216" width="3.33203125" style="34" customWidth="1"/>
-    <col min="8217" max="8217" width="1.6640625" style="34" customWidth="1"/>
-    <col min="8218" max="8218" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8219" max="8219" width="31.33203125" style="34" customWidth="1"/>
-    <col min="8220" max="8429" width="8.83203125" style="34"/>
-    <col min="8430" max="8430" width="1.5" style="34" customWidth="1"/>
-    <col min="8431" max="8431" width="1.33203125" style="34" customWidth="1"/>
+    <col min="8180" max="8180" width="2.7109375" style="34" customWidth="1"/>
+    <col min="8181" max="8216" width="3.28515625" style="34" customWidth="1"/>
+    <col min="8217" max="8217" width="1.7109375" style="34" customWidth="1"/>
+    <col min="8218" max="8218" width="25.7109375" style="34" customWidth="1"/>
+    <col min="8219" max="8219" width="31.28515625" style="34" customWidth="1"/>
+    <col min="8220" max="8429" width="8.85546875" style="34"/>
+    <col min="8430" max="8430" width="1.42578125" style="34" customWidth="1"/>
+    <col min="8431" max="8431" width="1.28515625" style="34" customWidth="1"/>
     <col min="8432" max="8432" width="42" style="34" customWidth="1"/>
-    <col min="8433" max="8433" width="5.5" style="34" customWidth="1"/>
+    <col min="8433" max="8433" width="5.42578125" style="34" customWidth="1"/>
     <col min="8434" max="8435" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8436" max="8436" width="2.6640625" style="34" customWidth="1"/>
-    <col min="8437" max="8472" width="3.33203125" style="34" customWidth="1"/>
-    <col min="8473" max="8473" width="1.6640625" style="34" customWidth="1"/>
-    <col min="8474" max="8474" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8475" max="8475" width="31.33203125" style="34" customWidth="1"/>
-    <col min="8476" max="8685" width="8.83203125" style="34"/>
-    <col min="8686" max="8686" width="1.5" style="34" customWidth="1"/>
-    <col min="8687" max="8687" width="1.33203125" style="34" customWidth="1"/>
+    <col min="8436" max="8436" width="2.7109375" style="34" customWidth="1"/>
+    <col min="8437" max="8472" width="3.28515625" style="34" customWidth="1"/>
+    <col min="8473" max="8473" width="1.7109375" style="34" customWidth="1"/>
+    <col min="8474" max="8474" width="25.7109375" style="34" customWidth="1"/>
+    <col min="8475" max="8475" width="31.28515625" style="34" customWidth="1"/>
+    <col min="8476" max="8685" width="8.85546875" style="34"/>
+    <col min="8686" max="8686" width="1.42578125" style="34" customWidth="1"/>
+    <col min="8687" max="8687" width="1.28515625" style="34" customWidth="1"/>
     <col min="8688" max="8688" width="42" style="34" customWidth="1"/>
-    <col min="8689" max="8689" width="5.5" style="34" customWidth="1"/>
+    <col min="8689" max="8689" width="5.42578125" style="34" customWidth="1"/>
     <col min="8690" max="8691" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8692" max="8692" width="2.6640625" style="34" customWidth="1"/>
-    <col min="8693" max="8728" width="3.33203125" style="34" customWidth="1"/>
-    <col min="8729" max="8729" width="1.6640625" style="34" customWidth="1"/>
-    <col min="8730" max="8730" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8731" max="8731" width="31.33203125" style="34" customWidth="1"/>
-    <col min="8732" max="8941" width="8.83203125" style="34"/>
-    <col min="8942" max="8942" width="1.5" style="34" customWidth="1"/>
-    <col min="8943" max="8943" width="1.33203125" style="34" customWidth="1"/>
+    <col min="8692" max="8692" width="2.7109375" style="34" customWidth="1"/>
+    <col min="8693" max="8728" width="3.28515625" style="34" customWidth="1"/>
+    <col min="8729" max="8729" width="1.7109375" style="34" customWidth="1"/>
+    <col min="8730" max="8730" width="25.7109375" style="34" customWidth="1"/>
+    <col min="8731" max="8731" width="31.28515625" style="34" customWidth="1"/>
+    <col min="8732" max="8941" width="8.85546875" style="34"/>
+    <col min="8942" max="8942" width="1.42578125" style="34" customWidth="1"/>
+    <col min="8943" max="8943" width="1.28515625" style="34" customWidth="1"/>
     <col min="8944" max="8944" width="42" style="34" customWidth="1"/>
-    <col min="8945" max="8945" width="5.5" style="34" customWidth="1"/>
+    <col min="8945" max="8945" width="5.42578125" style="34" customWidth="1"/>
     <col min="8946" max="8947" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8948" max="8948" width="2.6640625" style="34" customWidth="1"/>
-    <col min="8949" max="8984" width="3.33203125" style="34" customWidth="1"/>
-    <col min="8985" max="8985" width="1.6640625" style="34" customWidth="1"/>
-    <col min="8986" max="8986" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8987" max="8987" width="31.33203125" style="34" customWidth="1"/>
-    <col min="8988" max="9197" width="8.83203125" style="34"/>
-    <col min="9198" max="9198" width="1.5" style="34" customWidth="1"/>
-    <col min="9199" max="9199" width="1.33203125" style="34" customWidth="1"/>
+    <col min="8948" max="8948" width="2.7109375" style="34" customWidth="1"/>
+    <col min="8949" max="8984" width="3.28515625" style="34" customWidth="1"/>
+    <col min="8985" max="8985" width="1.7109375" style="34" customWidth="1"/>
+    <col min="8986" max="8986" width="25.7109375" style="34" customWidth="1"/>
+    <col min="8987" max="8987" width="31.28515625" style="34" customWidth="1"/>
+    <col min="8988" max="9197" width="8.85546875" style="34"/>
+    <col min="9198" max="9198" width="1.42578125" style="34" customWidth="1"/>
+    <col min="9199" max="9199" width="1.28515625" style="34" customWidth="1"/>
     <col min="9200" max="9200" width="42" style="34" customWidth="1"/>
-    <col min="9201" max="9201" width="5.5" style="34" customWidth="1"/>
+    <col min="9201" max="9201" width="5.42578125" style="34" customWidth="1"/>
     <col min="9202" max="9203" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9204" max="9204" width="2.6640625" style="34" customWidth="1"/>
-    <col min="9205" max="9240" width="3.33203125" style="34" customWidth="1"/>
-    <col min="9241" max="9241" width="1.6640625" style="34" customWidth="1"/>
-    <col min="9242" max="9242" width="25.6640625" style="34" customWidth="1"/>
-    <col min="9243" max="9243" width="31.33203125" style="34" customWidth="1"/>
-    <col min="9244" max="9453" width="8.83203125" style="34"/>
-    <col min="9454" max="9454" width="1.5" style="34" customWidth="1"/>
-    <col min="9455" max="9455" width="1.33203125" style="34" customWidth="1"/>
+    <col min="9204" max="9204" width="2.7109375" style="34" customWidth="1"/>
+    <col min="9205" max="9240" width="3.28515625" style="34" customWidth="1"/>
+    <col min="9241" max="9241" width="1.7109375" style="34" customWidth="1"/>
+    <col min="9242" max="9242" width="25.7109375" style="34" customWidth="1"/>
+    <col min="9243" max="9243" width="31.28515625" style="34" customWidth="1"/>
+    <col min="9244" max="9453" width="8.85546875" style="34"/>
+    <col min="9454" max="9454" width="1.42578125" style="34" customWidth="1"/>
+    <col min="9455" max="9455" width="1.28515625" style="34" customWidth="1"/>
     <col min="9456" max="9456" width="42" style="34" customWidth="1"/>
-    <col min="9457" max="9457" width="5.5" style="34" customWidth="1"/>
+    <col min="9457" max="9457" width="5.42578125" style="34" customWidth="1"/>
     <col min="9458" max="9459" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9460" max="9460" width="2.6640625" style="34" customWidth="1"/>
-    <col min="9461" max="9496" width="3.33203125" style="34" customWidth="1"/>
-    <col min="9497" max="9497" width="1.6640625" style="34" customWidth="1"/>
-    <col min="9498" max="9498" width="25.6640625" style="34" customWidth="1"/>
-    <col min="9499" max="9499" width="31.33203125" style="34" customWidth="1"/>
-    <col min="9500" max="9709" width="8.83203125" style="34"/>
-    <col min="9710" max="9710" width="1.5" style="34" customWidth="1"/>
-    <col min="9711" max="9711" width="1.33203125" style="34" customWidth="1"/>
+    <col min="9460" max="9460" width="2.7109375" style="34" customWidth="1"/>
+    <col min="9461" max="9496" width="3.28515625" style="34" customWidth="1"/>
+    <col min="9497" max="9497" width="1.7109375" style="34" customWidth="1"/>
+    <col min="9498" max="9498" width="25.7109375" style="34" customWidth="1"/>
+    <col min="9499" max="9499" width="31.28515625" style="34" customWidth="1"/>
+    <col min="9500" max="9709" width="8.85546875" style="34"/>
+    <col min="9710" max="9710" width="1.42578125" style="34" customWidth="1"/>
+    <col min="9711" max="9711" width="1.28515625" style="34" customWidth="1"/>
     <col min="9712" max="9712" width="42" style="34" customWidth="1"/>
-    <col min="9713" max="9713" width="5.5" style="34" customWidth="1"/>
+    <col min="9713" max="9713" width="5.42578125" style="34" customWidth="1"/>
     <col min="9714" max="9715" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9716" max="9716" width="2.6640625" style="34" customWidth="1"/>
-    <col min="9717" max="9752" width="3.33203125" style="34" customWidth="1"/>
-    <col min="9753" max="9753" width="1.6640625" style="34" customWidth="1"/>
-    <col min="9754" max="9754" width="25.6640625" style="34" customWidth="1"/>
-    <col min="9755" max="9755" width="31.33203125" style="34" customWidth="1"/>
-    <col min="9756" max="9965" width="8.83203125" style="34"/>
-    <col min="9966" max="9966" width="1.5" style="34" customWidth="1"/>
-    <col min="9967" max="9967" width="1.33203125" style="34" customWidth="1"/>
+    <col min="9716" max="9716" width="2.7109375" style="34" customWidth="1"/>
+    <col min="9717" max="9752" width="3.28515625" style="34" customWidth="1"/>
+    <col min="9753" max="9753" width="1.7109375" style="34" customWidth="1"/>
+    <col min="9754" max="9754" width="25.7109375" style="34" customWidth="1"/>
+    <col min="9755" max="9755" width="31.28515625" style="34" customWidth="1"/>
+    <col min="9756" max="9965" width="8.85546875" style="34"/>
+    <col min="9966" max="9966" width="1.42578125" style="34" customWidth="1"/>
+    <col min="9967" max="9967" width="1.28515625" style="34" customWidth="1"/>
     <col min="9968" max="9968" width="42" style="34" customWidth="1"/>
-    <col min="9969" max="9969" width="5.5" style="34" customWidth="1"/>
+    <col min="9969" max="9969" width="5.42578125" style="34" customWidth="1"/>
     <col min="9970" max="9971" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9972" max="9972" width="2.6640625" style="34" customWidth="1"/>
-    <col min="9973" max="10008" width="3.33203125" style="34" customWidth="1"/>
-    <col min="10009" max="10009" width="1.6640625" style="34" customWidth="1"/>
-    <col min="10010" max="10010" width="25.6640625" style="34" customWidth="1"/>
-    <col min="10011" max="10011" width="31.33203125" style="34" customWidth="1"/>
-    <col min="10012" max="10221" width="8.83203125" style="34"/>
-    <col min="10222" max="10222" width="1.5" style="34" customWidth="1"/>
-    <col min="10223" max="10223" width="1.33203125" style="34" customWidth="1"/>
+    <col min="9972" max="9972" width="2.7109375" style="34" customWidth="1"/>
+    <col min="9973" max="10008" width="3.28515625" style="34" customWidth="1"/>
+    <col min="10009" max="10009" width="1.7109375" style="34" customWidth="1"/>
+    <col min="10010" max="10010" width="25.7109375" style="34" customWidth="1"/>
+    <col min="10011" max="10011" width="31.28515625" style="34" customWidth="1"/>
+    <col min="10012" max="10221" width="8.85546875" style="34"/>
+    <col min="10222" max="10222" width="1.42578125" style="34" customWidth="1"/>
+    <col min="10223" max="10223" width="1.28515625" style="34" customWidth="1"/>
     <col min="10224" max="10224" width="42" style="34" customWidth="1"/>
-    <col min="10225" max="10225" width="5.5" style="34" customWidth="1"/>
+    <col min="10225" max="10225" width="5.42578125" style="34" customWidth="1"/>
     <col min="10226" max="10227" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10228" max="10228" width="2.6640625" style="34" customWidth="1"/>
-    <col min="10229" max="10264" width="3.33203125" style="34" customWidth="1"/>
-    <col min="10265" max="10265" width="1.6640625" style="34" customWidth="1"/>
-    <col min="10266" max="10266" width="25.6640625" style="34" customWidth="1"/>
-    <col min="10267" max="10267" width="31.33203125" style="34" customWidth="1"/>
-    <col min="10268" max="10477" width="8.83203125" style="34"/>
-    <col min="10478" max="10478" width="1.5" style="34" customWidth="1"/>
-    <col min="10479" max="10479" width="1.33203125" style="34" customWidth="1"/>
+    <col min="10228" max="10228" width="2.7109375" style="34" customWidth="1"/>
+    <col min="10229" max="10264" width="3.28515625" style="34" customWidth="1"/>
+    <col min="10265" max="10265" width="1.7109375" style="34" customWidth="1"/>
+    <col min="10266" max="10266" width="25.7109375" style="34" customWidth="1"/>
+    <col min="10267" max="10267" width="31.28515625" style="34" customWidth="1"/>
+    <col min="10268" max="10477" width="8.85546875" style="34"/>
+    <col min="10478" max="10478" width="1.42578125" style="34" customWidth="1"/>
+    <col min="10479" max="10479" width="1.28515625" style="34" customWidth="1"/>
     <col min="10480" max="10480" width="42" style="34" customWidth="1"/>
-    <col min="10481" max="10481" width="5.5" style="34" customWidth="1"/>
+    <col min="10481" max="10481" width="5.42578125" style="34" customWidth="1"/>
     <col min="10482" max="10483" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10484" max="10484" width="2.6640625" style="34" customWidth="1"/>
-    <col min="10485" max="10520" width="3.33203125" style="34" customWidth="1"/>
-    <col min="10521" max="10521" width="1.6640625" style="34" customWidth="1"/>
-    <col min="10522" max="10522" width="25.6640625" style="34" customWidth="1"/>
-    <col min="10523" max="10523" width="31.33203125" style="34" customWidth="1"/>
-    <col min="10524" max="10733" width="8.83203125" style="34"/>
-    <col min="10734" max="10734" width="1.5" style="34" customWidth="1"/>
-    <col min="10735" max="10735" width="1.33203125" style="34" customWidth="1"/>
+    <col min="10484" max="10484" width="2.7109375" style="34" customWidth="1"/>
+    <col min="10485" max="10520" width="3.28515625" style="34" customWidth="1"/>
+    <col min="10521" max="10521" width="1.7109375" style="34" customWidth="1"/>
+    <col min="10522" max="10522" width="25.7109375" style="34" customWidth="1"/>
+    <col min="10523" max="10523" width="31.28515625" style="34" customWidth="1"/>
+    <col min="10524" max="10733" width="8.85546875" style="34"/>
+    <col min="10734" max="10734" width="1.42578125" style="34" customWidth="1"/>
+    <col min="10735" max="10735" width="1.28515625" style="34" customWidth="1"/>
     <col min="10736" max="10736" width="42" style="34" customWidth="1"/>
-    <col min="10737" max="10737" width="5.5" style="34" customWidth="1"/>
+    <col min="10737" max="10737" width="5.42578125" style="34" customWidth="1"/>
     <col min="10738" max="10739" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10740" max="10740" width="2.6640625" style="34" customWidth="1"/>
-    <col min="10741" max="10776" width="3.33203125" style="34" customWidth="1"/>
-    <col min="10777" max="10777" width="1.6640625" style="34" customWidth="1"/>
-    <col min="10778" max="10778" width="25.6640625" style="34" customWidth="1"/>
-    <col min="10779" max="10779" width="31.33203125" style="34" customWidth="1"/>
-    <col min="10780" max="10989" width="8.83203125" style="34"/>
-    <col min="10990" max="10990" width="1.5" style="34" customWidth="1"/>
-    <col min="10991" max="10991" width="1.33203125" style="34" customWidth="1"/>
+    <col min="10740" max="10740" width="2.7109375" style="34" customWidth="1"/>
+    <col min="10741" max="10776" width="3.28515625" style="34" customWidth="1"/>
+    <col min="10777" max="10777" width="1.7109375" style="34" customWidth="1"/>
+    <col min="10778" max="10778" width="25.7109375" style="34" customWidth="1"/>
+    <col min="10779" max="10779" width="31.28515625" style="34" customWidth="1"/>
+    <col min="10780" max="10989" width="8.85546875" style="34"/>
+    <col min="10990" max="10990" width="1.42578125" style="34" customWidth="1"/>
+    <col min="10991" max="10991" width="1.28515625" style="34" customWidth="1"/>
     <col min="10992" max="10992" width="42" style="34" customWidth="1"/>
-    <col min="10993" max="10993" width="5.5" style="34" customWidth="1"/>
+    <col min="10993" max="10993" width="5.42578125" style="34" customWidth="1"/>
     <col min="10994" max="10995" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10996" max="10996" width="2.6640625" style="34" customWidth="1"/>
-    <col min="10997" max="11032" width="3.33203125" style="34" customWidth="1"/>
-    <col min="11033" max="11033" width="1.6640625" style="34" customWidth="1"/>
-    <col min="11034" max="11034" width="25.6640625" style="34" customWidth="1"/>
-    <col min="11035" max="11035" width="31.33203125" style="34" customWidth="1"/>
-    <col min="11036" max="11245" width="8.83203125" style="34"/>
-    <col min="11246" max="11246" width="1.5" style="34" customWidth="1"/>
-    <col min="11247" max="11247" width="1.33203125" style="34" customWidth="1"/>
+    <col min="10996" max="10996" width="2.7109375" style="34" customWidth="1"/>
+    <col min="10997" max="11032" width="3.28515625" style="34" customWidth="1"/>
+    <col min="11033" max="11033" width="1.7109375" style="34" customWidth="1"/>
+    <col min="11034" max="11034" width="25.7109375" style="34" customWidth="1"/>
+    <col min="11035" max="11035" width="31.28515625" style="34" customWidth="1"/>
+    <col min="11036" max="11245" width="8.85546875" style="34"/>
+    <col min="11246" max="11246" width="1.42578125" style="34" customWidth="1"/>
+    <col min="11247" max="11247" width="1.28515625" style="34" customWidth="1"/>
     <col min="11248" max="11248" width="42" style="34" customWidth="1"/>
-    <col min="11249" max="11249" width="5.5" style="34" customWidth="1"/>
+    <col min="11249" max="11249" width="5.42578125" style="34" customWidth="1"/>
     <col min="11250" max="11251" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11252" max="11252" width="2.6640625" style="34" customWidth="1"/>
-    <col min="11253" max="11288" width="3.33203125" style="34" customWidth="1"/>
-    <col min="11289" max="11289" width="1.6640625" style="34" customWidth="1"/>
-    <col min="11290" max="11290" width="25.6640625" style="34" customWidth="1"/>
-    <col min="11291" max="11291" width="31.33203125" style="34" customWidth="1"/>
-    <col min="11292" max="11501" width="8.83203125" style="34"/>
-    <col min="11502" max="11502" width="1.5" style="34" customWidth="1"/>
-    <col min="11503" max="11503" width="1.33203125" style="34" customWidth="1"/>
+    <col min="11252" max="11252" width="2.7109375" style="34" customWidth="1"/>
+    <col min="11253" max="11288" width="3.28515625" style="34" customWidth="1"/>
+    <col min="11289" max="11289" width="1.7109375" style="34" customWidth="1"/>
+    <col min="11290" max="11290" width="25.7109375" style="34" customWidth="1"/>
+    <col min="11291" max="11291" width="31.28515625" style="34" customWidth="1"/>
+    <col min="11292" max="11501" width="8.85546875" style="34"/>
+    <col min="11502" max="11502" width="1.42578125" style="34" customWidth="1"/>
+    <col min="11503" max="11503" width="1.28515625" style="34" customWidth="1"/>
     <col min="11504" max="11504" width="42" style="34" customWidth="1"/>
-    <col min="11505" max="11505" width="5.5" style="34" customWidth="1"/>
+    <col min="11505" max="11505" width="5.42578125" style="34" customWidth="1"/>
     <col min="11506" max="11507" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11508" max="11508" width="2.6640625" style="34" customWidth="1"/>
-    <col min="11509" max="11544" width="3.33203125" style="34" customWidth="1"/>
-    <col min="11545" max="11545" width="1.6640625" style="34" customWidth="1"/>
-    <col min="11546" max="11546" width="25.6640625" style="34" customWidth="1"/>
-    <col min="11547" max="11547" width="31.33203125" style="34" customWidth="1"/>
-    <col min="11548" max="11757" width="8.83203125" style="34"/>
-    <col min="11758" max="11758" width="1.5" style="34" customWidth="1"/>
-    <col min="11759" max="11759" width="1.33203125" style="34" customWidth="1"/>
+    <col min="11508" max="11508" width="2.7109375" style="34" customWidth="1"/>
+    <col min="11509" max="11544" width="3.28515625" style="34" customWidth="1"/>
+    <col min="11545" max="11545" width="1.7109375" style="34" customWidth="1"/>
+    <col min="11546" max="11546" width="25.7109375" style="34" customWidth="1"/>
+    <col min="11547" max="11547" width="31.28515625" style="34" customWidth="1"/>
+    <col min="11548" max="11757" width="8.85546875" style="34"/>
+    <col min="11758" max="11758" width="1.42578125" style="34" customWidth="1"/>
+    <col min="11759" max="11759" width="1.28515625" style="34" customWidth="1"/>
     <col min="11760" max="11760" width="42" style="34" customWidth="1"/>
-    <col min="11761" max="11761" width="5.5" style="34" customWidth="1"/>
+    <col min="11761" max="11761" width="5.42578125" style="34" customWidth="1"/>
     <col min="11762" max="11763" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11764" max="11764" width="2.6640625" style="34" customWidth="1"/>
-    <col min="11765" max="11800" width="3.33203125" style="34" customWidth="1"/>
-    <col min="11801" max="11801" width="1.6640625" style="34" customWidth="1"/>
-    <col min="11802" max="11802" width="25.6640625" style="34" customWidth="1"/>
-    <col min="11803" max="11803" width="31.33203125" style="34" customWidth="1"/>
-    <col min="11804" max="12013" width="8.83203125" style="34"/>
-    <col min="12014" max="12014" width="1.5" style="34" customWidth="1"/>
-    <col min="12015" max="12015" width="1.33203125" style="34" customWidth="1"/>
+    <col min="11764" max="11764" width="2.7109375" style="34" customWidth="1"/>
+    <col min="11765" max="11800" width="3.28515625" style="34" customWidth="1"/>
+    <col min="11801" max="11801" width="1.7109375" style="34" customWidth="1"/>
+    <col min="11802" max="11802" width="25.7109375" style="34" customWidth="1"/>
+    <col min="11803" max="11803" width="31.28515625" style="34" customWidth="1"/>
+    <col min="11804" max="12013" width="8.85546875" style="34"/>
+    <col min="12014" max="12014" width="1.42578125" style="34" customWidth="1"/>
+    <col min="12015" max="12015" width="1.28515625" style="34" customWidth="1"/>
     <col min="12016" max="12016" width="42" style="34" customWidth="1"/>
-    <col min="12017" max="12017" width="5.5" style="34" customWidth="1"/>
+    <col min="12017" max="12017" width="5.42578125" style="34" customWidth="1"/>
     <col min="12018" max="12019" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12020" max="12020" width="2.6640625" style="34" customWidth="1"/>
-    <col min="12021" max="12056" width="3.33203125" style="34" customWidth="1"/>
-    <col min="12057" max="12057" width="1.6640625" style="34" customWidth="1"/>
-    <col min="12058" max="12058" width="25.6640625" style="34" customWidth="1"/>
-    <col min="12059" max="12059" width="31.33203125" style="34" customWidth="1"/>
-    <col min="12060" max="12269" width="8.83203125" style="34"/>
-    <col min="12270" max="12270" width="1.5" style="34" customWidth="1"/>
-    <col min="12271" max="12271" width="1.33203125" style="34" customWidth="1"/>
+    <col min="12020" max="12020" width="2.7109375" style="34" customWidth="1"/>
+    <col min="12021" max="12056" width="3.28515625" style="34" customWidth="1"/>
+    <col min="12057" max="12057" width="1.7109375" style="34" customWidth="1"/>
+    <col min="12058" max="12058" width="25.7109375" style="34" customWidth="1"/>
+    <col min="12059" max="12059" width="31.28515625" style="34" customWidth="1"/>
+    <col min="12060" max="12269" width="8.85546875" style="34"/>
+    <col min="12270" max="12270" width="1.42578125" style="34" customWidth="1"/>
+    <col min="12271" max="12271" width="1.28515625" style="34" customWidth="1"/>
     <col min="12272" max="12272" width="42" style="34" customWidth="1"/>
-    <col min="12273" max="12273" width="5.5" style="34" customWidth="1"/>
+    <col min="12273" max="12273" width="5.42578125" style="34" customWidth="1"/>
     <col min="12274" max="12275" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12276" max="12276" width="2.6640625" style="34" customWidth="1"/>
-    <col min="12277" max="12312" width="3.33203125" style="34" customWidth="1"/>
-    <col min="12313" max="12313" width="1.6640625" style="34" customWidth="1"/>
-    <col min="12314" max="12314" width="25.6640625" style="34" customWidth="1"/>
-    <col min="12315" max="12315" width="31.33203125" style="34" customWidth="1"/>
-    <col min="12316" max="12525" width="8.83203125" style="34"/>
-    <col min="12526" max="12526" width="1.5" style="34" customWidth="1"/>
-    <col min="12527" max="12527" width="1.33203125" style="34" customWidth="1"/>
+    <col min="12276" max="12276" width="2.7109375" style="34" customWidth="1"/>
+    <col min="12277" max="12312" width="3.28515625" style="34" customWidth="1"/>
+    <col min="12313" max="12313" width="1.7109375" style="34" customWidth="1"/>
+    <col min="12314" max="12314" width="25.7109375" style="34" customWidth="1"/>
+    <col min="12315" max="12315" width="31.28515625" style="34" customWidth="1"/>
+    <col min="12316" max="12525" width="8.85546875" style="34"/>
+    <col min="12526" max="12526" width="1.42578125" style="34" customWidth="1"/>
+    <col min="12527" max="12527" width="1.28515625" style="34" customWidth="1"/>
     <col min="12528" max="12528" width="42" style="34" customWidth="1"/>
-    <col min="12529" max="12529" width="5.5" style="34" customWidth="1"/>
+    <col min="12529" max="12529" width="5.42578125" style="34" customWidth="1"/>
     <col min="12530" max="12531" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12532" max="12532" width="2.6640625" style="34" customWidth="1"/>
-    <col min="12533" max="12568" width="3.33203125" style="34" customWidth="1"/>
-    <col min="12569" max="12569" width="1.6640625" style="34" customWidth="1"/>
-    <col min="12570" max="12570" width="25.6640625" style="34" customWidth="1"/>
-    <col min="12571" max="12571" width="31.33203125" style="34" customWidth="1"/>
-    <col min="12572" max="12781" width="8.83203125" style="34"/>
-    <col min="12782" max="12782" width="1.5" style="34" customWidth="1"/>
-    <col min="12783" max="12783" width="1.33203125" style="34" customWidth="1"/>
+    <col min="12532" max="12532" width="2.7109375" style="34" customWidth="1"/>
+    <col min="12533" max="12568" width="3.28515625" style="34" customWidth="1"/>
+    <col min="12569" max="12569" width="1.7109375" style="34" customWidth="1"/>
+    <col min="12570" max="12570" width="25.7109375" style="34" customWidth="1"/>
+    <col min="12571" max="12571" width="31.28515625" style="34" customWidth="1"/>
+    <col min="12572" max="12781" width="8.85546875" style="34"/>
+    <col min="12782" max="12782" width="1.42578125" style="34" customWidth="1"/>
+    <col min="12783" max="12783" width="1.28515625" style="34" customWidth="1"/>
     <col min="12784" max="12784" width="42" style="34" customWidth="1"/>
-    <col min="12785" max="12785" width="5.5" style="34" customWidth="1"/>
+    <col min="12785" max="12785" width="5.42578125" style="34" customWidth="1"/>
     <col min="12786" max="12787" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12788" max="12788" width="2.6640625" style="34" customWidth="1"/>
-    <col min="12789" max="12824" width="3.33203125" style="34" customWidth="1"/>
-    <col min="12825" max="12825" width="1.6640625" style="34" customWidth="1"/>
-    <col min="12826" max="12826" width="25.6640625" style="34" customWidth="1"/>
-    <col min="12827" max="12827" width="31.33203125" style="34" customWidth="1"/>
-    <col min="12828" max="13037" width="8.83203125" style="34"/>
-    <col min="13038" max="13038" width="1.5" style="34" customWidth="1"/>
-    <col min="13039" max="13039" width="1.33203125" style="34" customWidth="1"/>
+    <col min="12788" max="12788" width="2.7109375" style="34" customWidth="1"/>
+    <col min="12789" max="12824" width="3.28515625" style="34" customWidth="1"/>
+    <col min="12825" max="12825" width="1.7109375" style="34" customWidth="1"/>
+    <col min="12826" max="12826" width="25.7109375" style="34" customWidth="1"/>
+    <col min="12827" max="12827" width="31.28515625" style="34" customWidth="1"/>
+    <col min="12828" max="13037" width="8.85546875" style="34"/>
+    <col min="13038" max="13038" width="1.42578125" style="34" customWidth="1"/>
+    <col min="13039" max="13039" width="1.28515625" style="34" customWidth="1"/>
     <col min="13040" max="13040" width="42" style="34" customWidth="1"/>
-    <col min="13041" max="13041" width="5.5" style="34" customWidth="1"/>
+    <col min="13041" max="13041" width="5.42578125" style="34" customWidth="1"/>
     <col min="13042" max="13043" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13044" max="13044" width="2.6640625" style="34" customWidth="1"/>
-    <col min="13045" max="13080" width="3.33203125" style="34" customWidth="1"/>
-    <col min="13081" max="13081" width="1.6640625" style="34" customWidth="1"/>
-    <col min="13082" max="13082" width="25.6640625" style="34" customWidth="1"/>
-    <col min="13083" max="13083" width="31.33203125" style="34" customWidth="1"/>
-    <col min="13084" max="13293" width="8.83203125" style="34"/>
-    <col min="13294" max="13294" width="1.5" style="34" customWidth="1"/>
-    <col min="13295" max="13295" width="1.33203125" style="34" customWidth="1"/>
+    <col min="13044" max="13044" width="2.7109375" style="34" customWidth="1"/>
+    <col min="13045" max="13080" width="3.28515625" style="34" customWidth="1"/>
+    <col min="13081" max="13081" width="1.7109375" style="34" customWidth="1"/>
+    <col min="13082" max="13082" width="25.7109375" style="34" customWidth="1"/>
+    <col min="13083" max="13083" width="31.28515625" style="34" customWidth="1"/>
+    <col min="13084" max="13293" width="8.85546875" style="34"/>
+    <col min="13294" max="13294" width="1.42578125" style="34" customWidth="1"/>
+    <col min="13295" max="13295" width="1.28515625" style="34" customWidth="1"/>
     <col min="13296" max="13296" width="42" style="34" customWidth="1"/>
-    <col min="13297" max="13297" width="5.5" style="34" customWidth="1"/>
+    <col min="13297" max="13297" width="5.42578125" style="34" customWidth="1"/>
     <col min="13298" max="13299" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13300" max="13300" width="2.6640625" style="34" customWidth="1"/>
-    <col min="13301" max="13336" width="3.33203125" style="34" customWidth="1"/>
-    <col min="13337" max="13337" width="1.6640625" style="34" customWidth="1"/>
-    <col min="13338" max="13338" width="25.6640625" style="34" customWidth="1"/>
-    <col min="13339" max="13339" width="31.33203125" style="34" customWidth="1"/>
-    <col min="13340" max="13549" width="8.83203125" style="34"/>
-    <col min="13550" max="13550" width="1.5" style="34" customWidth="1"/>
-    <col min="13551" max="13551" width="1.33203125" style="34" customWidth="1"/>
+    <col min="13300" max="13300" width="2.7109375" style="34" customWidth="1"/>
+    <col min="13301" max="13336" width="3.28515625" style="34" customWidth="1"/>
+    <col min="13337" max="13337" width="1.7109375" style="34" customWidth="1"/>
+    <col min="13338" max="13338" width="25.7109375" style="34" customWidth="1"/>
+    <col min="13339" max="13339" width="31.28515625" style="34" customWidth="1"/>
+    <col min="13340" max="13549" width="8.85546875" style="34"/>
+    <col min="13550" max="13550" width="1.42578125" style="34" customWidth="1"/>
+    <col min="13551" max="13551" width="1.28515625" style="34" customWidth="1"/>
     <col min="13552" max="13552" width="42" style="34" customWidth="1"/>
-    <col min="13553" max="13553" width="5.5" style="34" customWidth="1"/>
+    <col min="13553" max="13553" width="5.42578125" style="34" customWidth="1"/>
     <col min="13554" max="13555" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13556" max="13556" width="2.6640625" style="34" customWidth="1"/>
-    <col min="13557" max="13592" width="3.33203125" style="34" customWidth="1"/>
-    <col min="13593" max="13593" width="1.6640625" style="34" customWidth="1"/>
-    <col min="13594" max="13594" width="25.6640625" style="34" customWidth="1"/>
-    <col min="13595" max="13595" width="31.33203125" style="34" customWidth="1"/>
-    <col min="13596" max="13805" width="8.83203125" style="34"/>
-    <col min="13806" max="13806" width="1.5" style="34" customWidth="1"/>
-    <col min="13807" max="13807" width="1.33203125" style="34" customWidth="1"/>
+    <col min="13556" max="13556" width="2.7109375" style="34" customWidth="1"/>
+    <col min="13557" max="13592" width="3.28515625" style="34" customWidth="1"/>
+    <col min="13593" max="13593" width="1.7109375" style="34" customWidth="1"/>
+    <col min="13594" max="13594" width="25.7109375" style="34" customWidth="1"/>
+    <col min="13595" max="13595" width="31.28515625" style="34" customWidth="1"/>
+    <col min="13596" max="13805" width="8.85546875" style="34"/>
+    <col min="13806" max="13806" width="1.42578125" style="34" customWidth="1"/>
+    <col min="13807" max="13807" width="1.28515625" style="34" customWidth="1"/>
     <col min="13808" max="13808" width="42" style="34" customWidth="1"/>
-    <col min="13809" max="13809" width="5.5" style="34" customWidth="1"/>
+    <col min="13809" max="13809" width="5.42578125" style="34" customWidth="1"/>
     <col min="13810" max="13811" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13812" max="13812" width="2.6640625" style="34" customWidth="1"/>
-    <col min="13813" max="13848" width="3.33203125" style="34" customWidth="1"/>
-    <col min="13849" max="13849" width="1.6640625" style="34" customWidth="1"/>
-    <col min="13850" max="13850" width="25.6640625" style="34" customWidth="1"/>
-    <col min="13851" max="13851" width="31.33203125" style="34" customWidth="1"/>
-    <col min="13852" max="14061" width="8.83203125" style="34"/>
-    <col min="14062" max="14062" width="1.5" style="34" customWidth="1"/>
-    <col min="14063" max="14063" width="1.33203125" style="34" customWidth="1"/>
+    <col min="13812" max="13812" width="2.7109375" style="34" customWidth="1"/>
+    <col min="13813" max="13848" width="3.28515625" style="34" customWidth="1"/>
+    <col min="13849" max="13849" width="1.7109375" style="34" customWidth="1"/>
+    <col min="13850" max="13850" width="25.7109375" style="34" customWidth="1"/>
+    <col min="13851" max="13851" width="31.28515625" style="34" customWidth="1"/>
+    <col min="13852" max="14061" width="8.85546875" style="34"/>
+    <col min="14062" max="14062" width="1.42578125" style="34" customWidth="1"/>
+    <col min="14063" max="14063" width="1.28515625" style="34" customWidth="1"/>
     <col min="14064" max="14064" width="42" style="34" customWidth="1"/>
-    <col min="14065" max="14065" width="5.5" style="34" customWidth="1"/>
+    <col min="14065" max="14065" width="5.42578125" style="34" customWidth="1"/>
     <col min="14066" max="14067" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14068" max="14068" width="2.6640625" style="34" customWidth="1"/>
-    <col min="14069" max="14104" width="3.33203125" style="34" customWidth="1"/>
-    <col min="14105" max="14105" width="1.6640625" style="34" customWidth="1"/>
-    <col min="14106" max="14106" width="25.6640625" style="34" customWidth="1"/>
-    <col min="14107" max="14107" width="31.33203125" style="34" customWidth="1"/>
-    <col min="14108" max="14317" width="8.83203125" style="34"/>
-    <col min="14318" max="14318" width="1.5" style="34" customWidth="1"/>
-    <col min="14319" max="14319" width="1.33203125" style="34" customWidth="1"/>
+    <col min="14068" max="14068" width="2.7109375" style="34" customWidth="1"/>
+    <col min="14069" max="14104" width="3.28515625" style="34" customWidth="1"/>
+    <col min="14105" max="14105" width="1.7109375" style="34" customWidth="1"/>
+    <col min="14106" max="14106" width="25.7109375" style="34" customWidth="1"/>
+    <col min="14107" max="14107" width="31.28515625" style="34" customWidth="1"/>
+    <col min="14108" max="14317" width="8.85546875" style="34"/>
+    <col min="14318" max="14318" width="1.42578125" style="34" customWidth="1"/>
+    <col min="14319" max="14319" width="1.28515625" style="34" customWidth="1"/>
     <col min="14320" max="14320" width="42" style="34" customWidth="1"/>
-    <col min="14321" max="14321" width="5.5" style="34" customWidth="1"/>
+    <col min="14321" max="14321" width="5.42578125" style="34" customWidth="1"/>
     <col min="14322" max="14323" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14324" max="14324" width="2.6640625" style="34" customWidth="1"/>
-    <col min="14325" max="14360" width="3.33203125" style="34" customWidth="1"/>
-    <col min="14361" max="14361" width="1.6640625" style="34" customWidth="1"/>
-    <col min="14362" max="14362" width="25.6640625" style="34" customWidth="1"/>
-    <col min="14363" max="14363" width="31.33203125" style="34" customWidth="1"/>
-    <col min="14364" max="14573" width="8.83203125" style="34"/>
-    <col min="14574" max="14574" width="1.5" style="34" customWidth="1"/>
-    <col min="14575" max="14575" width="1.33203125" style="34" customWidth="1"/>
+    <col min="14324" max="14324" width="2.7109375" style="34" customWidth="1"/>
+    <col min="14325" max="14360" width="3.28515625" style="34" customWidth="1"/>
+    <col min="14361" max="14361" width="1.7109375" style="34" customWidth="1"/>
+    <col min="14362" max="14362" width="25.7109375" style="34" customWidth="1"/>
+    <col min="14363" max="14363" width="31.28515625" style="34" customWidth="1"/>
+    <col min="14364" max="14573" width="8.85546875" style="34"/>
+    <col min="14574" max="14574" width="1.42578125" style="34" customWidth="1"/>
+    <col min="14575" max="14575" width="1.28515625" style="34" customWidth="1"/>
     <col min="14576" max="14576" width="42" style="34" customWidth="1"/>
-    <col min="14577" max="14577" width="5.5" style="34" customWidth="1"/>
+    <col min="14577" max="14577" width="5.42578125" style="34" customWidth="1"/>
     <col min="14578" max="14579" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14580" max="14580" width="2.6640625" style="34" customWidth="1"/>
-    <col min="14581" max="14616" width="3.33203125" style="34" customWidth="1"/>
-    <col min="14617" max="14617" width="1.6640625" style="34" customWidth="1"/>
-    <col min="14618" max="14618" width="25.6640625" style="34" customWidth="1"/>
-    <col min="14619" max="14619" width="31.33203125" style="34" customWidth="1"/>
-    <col min="14620" max="14829" width="8.83203125" style="34"/>
-    <col min="14830" max="14830" width="1.5" style="34" customWidth="1"/>
-    <col min="14831" max="14831" width="1.33203125" style="34" customWidth="1"/>
+    <col min="14580" max="14580" width="2.7109375" style="34" customWidth="1"/>
+    <col min="14581" max="14616" width="3.28515625" style="34" customWidth="1"/>
+    <col min="14617" max="14617" width="1.7109375" style="34" customWidth="1"/>
+    <col min="14618" max="14618" width="25.7109375" style="34" customWidth="1"/>
+    <col min="14619" max="14619" width="31.28515625" style="34" customWidth="1"/>
+    <col min="14620" max="14829" width="8.85546875" style="34"/>
+    <col min="14830" max="14830" width="1.42578125" style="34" customWidth="1"/>
+    <col min="14831" max="14831" width="1.28515625" style="34" customWidth="1"/>
     <col min="14832" max="14832" width="42" style="34" customWidth="1"/>
-    <col min="14833" max="14833" width="5.5" style="34" customWidth="1"/>
+    <col min="14833" max="14833" width="5.42578125" style="34" customWidth="1"/>
     <col min="14834" max="14835" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14836" max="14836" width="2.6640625" style="34" customWidth="1"/>
-    <col min="14837" max="14872" width="3.33203125" style="34" customWidth="1"/>
-    <col min="14873" max="14873" width="1.6640625" style="34" customWidth="1"/>
-    <col min="14874" max="14874" width="25.6640625" style="34" customWidth="1"/>
-    <col min="14875" max="14875" width="31.33203125" style="34" customWidth="1"/>
-    <col min="14876" max="15085" width="8.83203125" style="34"/>
-    <col min="15086" max="15086" width="1.5" style="34" customWidth="1"/>
-    <col min="15087" max="15087" width="1.33203125" style="34" customWidth="1"/>
+    <col min="14836" max="14836" width="2.7109375" style="34" customWidth="1"/>
+    <col min="14837" max="14872" width="3.28515625" style="34" customWidth="1"/>
+    <col min="14873" max="14873" width="1.7109375" style="34" customWidth="1"/>
+    <col min="14874" max="14874" width="25.7109375" style="34" customWidth="1"/>
+    <col min="14875" max="14875" width="31.28515625" style="34" customWidth="1"/>
+    <col min="14876" max="15085" width="8.85546875" style="34"/>
+    <col min="15086" max="15086" width="1.42578125" style="34" customWidth="1"/>
+    <col min="15087" max="15087" width="1.28515625" style="34" customWidth="1"/>
     <col min="15088" max="15088" width="42" style="34" customWidth="1"/>
-    <col min="15089" max="15089" width="5.5" style="34" customWidth="1"/>
+    <col min="15089" max="15089" width="5.42578125" style="34" customWidth="1"/>
     <col min="15090" max="15091" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15092" max="15092" width="2.6640625" style="34" customWidth="1"/>
-    <col min="15093" max="15128" width="3.33203125" style="34" customWidth="1"/>
-    <col min="15129" max="15129" width="1.6640625" style="34" customWidth="1"/>
-    <col min="15130" max="15130" width="25.6640625" style="34" customWidth="1"/>
-    <col min="15131" max="15131" width="31.33203125" style="34" customWidth="1"/>
-    <col min="15132" max="15341" width="8.83203125" style="34"/>
-    <col min="15342" max="15342" width="1.5" style="34" customWidth="1"/>
-    <col min="15343" max="15343" width="1.33203125" style="34" customWidth="1"/>
+    <col min="15092" max="15092" width="2.7109375" style="34" customWidth="1"/>
+    <col min="15093" max="15128" width="3.28515625" style="34" customWidth="1"/>
+    <col min="15129" max="15129" width="1.7109375" style="34" customWidth="1"/>
+    <col min="15130" max="15130" width="25.7109375" style="34" customWidth="1"/>
+    <col min="15131" max="15131" width="31.28515625" style="34" customWidth="1"/>
+    <col min="15132" max="15341" width="8.85546875" style="34"/>
+    <col min="15342" max="15342" width="1.42578125" style="34" customWidth="1"/>
+    <col min="15343" max="15343" width="1.28515625" style="34" customWidth="1"/>
     <col min="15344" max="15344" width="42" style="34" customWidth="1"/>
-    <col min="15345" max="15345" width="5.5" style="34" customWidth="1"/>
+    <col min="15345" max="15345" width="5.42578125" style="34" customWidth="1"/>
     <col min="15346" max="15347" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15348" max="15348" width="2.6640625" style="34" customWidth="1"/>
-    <col min="15349" max="15384" width="3.33203125" style="34" customWidth="1"/>
-    <col min="15385" max="15385" width="1.6640625" style="34" customWidth="1"/>
-    <col min="15386" max="15386" width="25.6640625" style="34" customWidth="1"/>
-    <col min="15387" max="15387" width="31.33203125" style="34" customWidth="1"/>
-    <col min="15388" max="15597" width="8.83203125" style="34"/>
-    <col min="15598" max="15598" width="1.5" style="34" customWidth="1"/>
-    <col min="15599" max="15599" width="1.33203125" style="34" customWidth="1"/>
+    <col min="15348" max="15348" width="2.7109375" style="34" customWidth="1"/>
+    <col min="15349" max="15384" width="3.28515625" style="34" customWidth="1"/>
+    <col min="15385" max="15385" width="1.7109375" style="34" customWidth="1"/>
+    <col min="15386" max="15386" width="25.7109375" style="34" customWidth="1"/>
+    <col min="15387" max="15387" width="31.28515625" style="34" customWidth="1"/>
+    <col min="15388" max="15597" width="8.85546875" style="34"/>
+    <col min="15598" max="15598" width="1.42578125" style="34" customWidth="1"/>
+    <col min="15599" max="15599" width="1.28515625" style="34" customWidth="1"/>
     <col min="15600" max="15600" width="42" style="34" customWidth="1"/>
-    <col min="15601" max="15601" width="5.5" style="34" customWidth="1"/>
+    <col min="15601" max="15601" width="5.42578125" style="34" customWidth="1"/>
     <col min="15602" max="15603" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15604" max="15604" width="2.6640625" style="34" customWidth="1"/>
-    <col min="15605" max="15640" width="3.33203125" style="34" customWidth="1"/>
-    <col min="15641" max="15641" width="1.6640625" style="34" customWidth="1"/>
-    <col min="15642" max="15642" width="25.6640625" style="34" customWidth="1"/>
-    <col min="15643" max="15643" width="31.33203125" style="34" customWidth="1"/>
-    <col min="15644" max="15853" width="8.83203125" style="34"/>
-    <col min="15854" max="15854" width="1.5" style="34" customWidth="1"/>
-    <col min="15855" max="15855" width="1.33203125" style="34" customWidth="1"/>
+    <col min="15604" max="15604" width="2.7109375" style="34" customWidth="1"/>
+    <col min="15605" max="15640" width="3.28515625" style="34" customWidth="1"/>
+    <col min="15641" max="15641" width="1.7109375" style="34" customWidth="1"/>
+    <col min="15642" max="15642" width="25.7109375" style="34" customWidth="1"/>
+    <col min="15643" max="15643" width="31.28515625" style="34" customWidth="1"/>
+    <col min="15644" max="15853" width="8.85546875" style="34"/>
+    <col min="15854" max="15854" width="1.42578125" style="34" customWidth="1"/>
+    <col min="15855" max="15855" width="1.28515625" style="34" customWidth="1"/>
     <col min="15856" max="15856" width="42" style="34" customWidth="1"/>
-    <col min="15857" max="15857" width="5.5" style="34" customWidth="1"/>
+    <col min="15857" max="15857" width="5.42578125" style="34" customWidth="1"/>
     <col min="15858" max="15859" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15860" max="15860" width="2.6640625" style="34" customWidth="1"/>
-    <col min="15861" max="15896" width="3.33203125" style="34" customWidth="1"/>
-    <col min="15897" max="15897" width="1.6640625" style="34" customWidth="1"/>
-    <col min="15898" max="15898" width="25.6640625" style="34" customWidth="1"/>
-    <col min="15899" max="15899" width="31.33203125" style="34" customWidth="1"/>
-    <col min="15900" max="16109" width="8.83203125" style="34"/>
-    <col min="16110" max="16110" width="1.5" style="34" customWidth="1"/>
-    <col min="16111" max="16111" width="1.33203125" style="34" customWidth="1"/>
+    <col min="15860" max="15860" width="2.7109375" style="34" customWidth="1"/>
+    <col min="15861" max="15896" width="3.28515625" style="34" customWidth="1"/>
+    <col min="15897" max="15897" width="1.7109375" style="34" customWidth="1"/>
+    <col min="15898" max="15898" width="25.7109375" style="34" customWidth="1"/>
+    <col min="15899" max="15899" width="31.28515625" style="34" customWidth="1"/>
+    <col min="15900" max="16109" width="8.85546875" style="34"/>
+    <col min="16110" max="16110" width="1.42578125" style="34" customWidth="1"/>
+    <col min="16111" max="16111" width="1.28515625" style="34" customWidth="1"/>
     <col min="16112" max="16112" width="42" style="34" customWidth="1"/>
-    <col min="16113" max="16113" width="5.5" style="34" customWidth="1"/>
+    <col min="16113" max="16113" width="5.42578125" style="34" customWidth="1"/>
     <col min="16114" max="16115" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="16116" max="16116" width="2.6640625" style="34" customWidth="1"/>
-    <col min="16117" max="16152" width="3.33203125" style="34" customWidth="1"/>
-    <col min="16153" max="16153" width="1.6640625" style="34" customWidth="1"/>
-    <col min="16154" max="16154" width="25.6640625" style="34" customWidth="1"/>
-    <col min="16155" max="16155" width="31.33203125" style="34" customWidth="1"/>
-    <col min="16156" max="16384" width="8.83203125" style="34"/>
+    <col min="16116" max="16116" width="2.7109375" style="34" customWidth="1"/>
+    <col min="16117" max="16152" width="3.28515625" style="34" customWidth="1"/>
+    <col min="16153" max="16153" width="1.7109375" style="34" customWidth="1"/>
+    <col min="16154" max="16154" width="25.7109375" style="34" customWidth="1"/>
+    <col min="16155" max="16155" width="31.28515625" style="34" customWidth="1"/>
+    <col min="16156" max="16384" width="8.85546875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="136" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="136"/>
       <c r="D3" s="136"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
     </row>
-    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="76">
         <v>0</v>
       </c>
       <c r="D5" s="37"/>
     </row>
-    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="78">
         <v>0</v>
       </c>
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="80">
         <v>0</v>
       </c>
       <c r="D7" s="37"/>
     </row>
-    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="82">
         <v>4</v>
       </c>
       <c r="D8" s="37"/>
     </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="84">
         <v>2</v>
       </c>
       <c r="D9" s="39"/>
     </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="66"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
     </row>
-    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -6951,738 +6981,738 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="34" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="68.5" style="35" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="68.42578125" style="35" customWidth="1"/>
     <col min="4" max="4" width="8" style="36" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="36" customWidth="1"/>
-    <col min="6" max="24" width="3.33203125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="36" customWidth="1"/>
+    <col min="6" max="24" width="3.28515625" style="36" customWidth="1"/>
     <col min="25" max="25" width="10" style="36" customWidth="1"/>
-    <col min="26" max="34" width="8.83203125" style="36"/>
-    <col min="35" max="235" width="8.83203125" style="34"/>
-    <col min="236" max="236" width="1.5" style="34" customWidth="1"/>
-    <col min="237" max="237" width="1.33203125" style="34" customWidth="1"/>
+    <col min="26" max="34" width="8.85546875" style="36"/>
+    <col min="35" max="235" width="8.85546875" style="34"/>
+    <col min="236" max="236" width="1.42578125" style="34" customWidth="1"/>
+    <col min="237" max="237" width="1.28515625" style="34" customWidth="1"/>
     <col min="238" max="238" width="42" style="34" customWidth="1"/>
-    <col min="239" max="239" width="5.5" style="34" customWidth="1"/>
+    <col min="239" max="239" width="5.42578125" style="34" customWidth="1"/>
     <col min="240" max="241" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="242" max="242" width="2.6640625" style="34" customWidth="1"/>
-    <col min="243" max="278" width="3.33203125" style="34" customWidth="1"/>
-    <col min="279" max="279" width="1.6640625" style="34" customWidth="1"/>
-    <col min="280" max="280" width="25.6640625" style="34" customWidth="1"/>
-    <col min="281" max="281" width="31.33203125" style="34" customWidth="1"/>
-    <col min="282" max="491" width="8.83203125" style="34"/>
-    <col min="492" max="492" width="1.5" style="34" customWidth="1"/>
-    <col min="493" max="493" width="1.33203125" style="34" customWidth="1"/>
+    <col min="242" max="242" width="2.7109375" style="34" customWidth="1"/>
+    <col min="243" max="278" width="3.28515625" style="34" customWidth="1"/>
+    <col min="279" max="279" width="1.7109375" style="34" customWidth="1"/>
+    <col min="280" max="280" width="25.7109375" style="34" customWidth="1"/>
+    <col min="281" max="281" width="31.28515625" style="34" customWidth="1"/>
+    <col min="282" max="491" width="8.85546875" style="34"/>
+    <col min="492" max="492" width="1.42578125" style="34" customWidth="1"/>
+    <col min="493" max="493" width="1.28515625" style="34" customWidth="1"/>
     <col min="494" max="494" width="42" style="34" customWidth="1"/>
-    <col min="495" max="495" width="5.5" style="34" customWidth="1"/>
+    <col min="495" max="495" width="5.42578125" style="34" customWidth="1"/>
     <col min="496" max="497" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="498" max="498" width="2.6640625" style="34" customWidth="1"/>
-    <col min="499" max="534" width="3.33203125" style="34" customWidth="1"/>
-    <col min="535" max="535" width="1.6640625" style="34" customWidth="1"/>
-    <col min="536" max="536" width="25.6640625" style="34" customWidth="1"/>
-    <col min="537" max="537" width="31.33203125" style="34" customWidth="1"/>
-    <col min="538" max="747" width="8.83203125" style="34"/>
-    <col min="748" max="748" width="1.5" style="34" customWidth="1"/>
-    <col min="749" max="749" width="1.33203125" style="34" customWidth="1"/>
+    <col min="498" max="498" width="2.7109375" style="34" customWidth="1"/>
+    <col min="499" max="534" width="3.28515625" style="34" customWidth="1"/>
+    <col min="535" max="535" width="1.7109375" style="34" customWidth="1"/>
+    <col min="536" max="536" width="25.7109375" style="34" customWidth="1"/>
+    <col min="537" max="537" width="31.28515625" style="34" customWidth="1"/>
+    <col min="538" max="747" width="8.85546875" style="34"/>
+    <col min="748" max="748" width="1.42578125" style="34" customWidth="1"/>
+    <col min="749" max="749" width="1.28515625" style="34" customWidth="1"/>
     <col min="750" max="750" width="42" style="34" customWidth="1"/>
-    <col min="751" max="751" width="5.5" style="34" customWidth="1"/>
+    <col min="751" max="751" width="5.42578125" style="34" customWidth="1"/>
     <col min="752" max="753" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="754" max="754" width="2.6640625" style="34" customWidth="1"/>
-    <col min="755" max="790" width="3.33203125" style="34" customWidth="1"/>
-    <col min="791" max="791" width="1.6640625" style="34" customWidth="1"/>
-    <col min="792" max="792" width="25.6640625" style="34" customWidth="1"/>
-    <col min="793" max="793" width="31.33203125" style="34" customWidth="1"/>
-    <col min="794" max="1003" width="8.83203125" style="34"/>
-    <col min="1004" max="1004" width="1.5" style="34" customWidth="1"/>
-    <col min="1005" max="1005" width="1.33203125" style="34" customWidth="1"/>
+    <col min="754" max="754" width="2.7109375" style="34" customWidth="1"/>
+    <col min="755" max="790" width="3.28515625" style="34" customWidth="1"/>
+    <col min="791" max="791" width="1.7109375" style="34" customWidth="1"/>
+    <col min="792" max="792" width="25.7109375" style="34" customWidth="1"/>
+    <col min="793" max="793" width="31.28515625" style="34" customWidth="1"/>
+    <col min="794" max="1003" width="8.85546875" style="34"/>
+    <col min="1004" max="1004" width="1.42578125" style="34" customWidth="1"/>
+    <col min="1005" max="1005" width="1.28515625" style="34" customWidth="1"/>
     <col min="1006" max="1006" width="42" style="34" customWidth="1"/>
-    <col min="1007" max="1007" width="5.5" style="34" customWidth="1"/>
+    <col min="1007" max="1007" width="5.42578125" style="34" customWidth="1"/>
     <col min="1008" max="1009" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1010" max="1010" width="2.6640625" style="34" customWidth="1"/>
-    <col min="1011" max="1046" width="3.33203125" style="34" customWidth="1"/>
-    <col min="1047" max="1047" width="1.6640625" style="34" customWidth="1"/>
-    <col min="1048" max="1048" width="25.6640625" style="34" customWidth="1"/>
-    <col min="1049" max="1049" width="31.33203125" style="34" customWidth="1"/>
-    <col min="1050" max="1259" width="8.83203125" style="34"/>
-    <col min="1260" max="1260" width="1.5" style="34" customWidth="1"/>
-    <col min="1261" max="1261" width="1.33203125" style="34" customWidth="1"/>
+    <col min="1010" max="1010" width="2.7109375" style="34" customWidth="1"/>
+    <col min="1011" max="1046" width="3.28515625" style="34" customWidth="1"/>
+    <col min="1047" max="1047" width="1.7109375" style="34" customWidth="1"/>
+    <col min="1048" max="1048" width="25.7109375" style="34" customWidth="1"/>
+    <col min="1049" max="1049" width="31.28515625" style="34" customWidth="1"/>
+    <col min="1050" max="1259" width="8.85546875" style="34"/>
+    <col min="1260" max="1260" width="1.42578125" style="34" customWidth="1"/>
+    <col min="1261" max="1261" width="1.28515625" style="34" customWidth="1"/>
     <col min="1262" max="1262" width="42" style="34" customWidth="1"/>
-    <col min="1263" max="1263" width="5.5" style="34" customWidth="1"/>
+    <col min="1263" max="1263" width="5.42578125" style="34" customWidth="1"/>
     <col min="1264" max="1265" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1266" max="1266" width="2.6640625" style="34" customWidth="1"/>
-    <col min="1267" max="1302" width="3.33203125" style="34" customWidth="1"/>
-    <col min="1303" max="1303" width="1.6640625" style="34" customWidth="1"/>
-    <col min="1304" max="1304" width="25.6640625" style="34" customWidth="1"/>
-    <col min="1305" max="1305" width="31.33203125" style="34" customWidth="1"/>
-    <col min="1306" max="1515" width="8.83203125" style="34"/>
-    <col min="1516" max="1516" width="1.5" style="34" customWidth="1"/>
-    <col min="1517" max="1517" width="1.33203125" style="34" customWidth="1"/>
+    <col min="1266" max="1266" width="2.7109375" style="34" customWidth="1"/>
+    <col min="1267" max="1302" width="3.28515625" style="34" customWidth="1"/>
+    <col min="1303" max="1303" width="1.7109375" style="34" customWidth="1"/>
+    <col min="1304" max="1304" width="25.7109375" style="34" customWidth="1"/>
+    <col min="1305" max="1305" width="31.28515625" style="34" customWidth="1"/>
+    <col min="1306" max="1515" width="8.85546875" style="34"/>
+    <col min="1516" max="1516" width="1.42578125" style="34" customWidth="1"/>
+    <col min="1517" max="1517" width="1.28515625" style="34" customWidth="1"/>
     <col min="1518" max="1518" width="42" style="34" customWidth="1"/>
-    <col min="1519" max="1519" width="5.5" style="34" customWidth="1"/>
+    <col min="1519" max="1519" width="5.42578125" style="34" customWidth="1"/>
     <col min="1520" max="1521" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1522" max="1522" width="2.6640625" style="34" customWidth="1"/>
-    <col min="1523" max="1558" width="3.33203125" style="34" customWidth="1"/>
-    <col min="1559" max="1559" width="1.6640625" style="34" customWidth="1"/>
-    <col min="1560" max="1560" width="25.6640625" style="34" customWidth="1"/>
-    <col min="1561" max="1561" width="31.33203125" style="34" customWidth="1"/>
-    <col min="1562" max="1771" width="8.83203125" style="34"/>
-    <col min="1772" max="1772" width="1.5" style="34" customWidth="1"/>
-    <col min="1773" max="1773" width="1.33203125" style="34" customWidth="1"/>
+    <col min="1522" max="1522" width="2.7109375" style="34" customWidth="1"/>
+    <col min="1523" max="1558" width="3.28515625" style="34" customWidth="1"/>
+    <col min="1559" max="1559" width="1.7109375" style="34" customWidth="1"/>
+    <col min="1560" max="1560" width="25.7109375" style="34" customWidth="1"/>
+    <col min="1561" max="1561" width="31.28515625" style="34" customWidth="1"/>
+    <col min="1562" max="1771" width="8.85546875" style="34"/>
+    <col min="1772" max="1772" width="1.42578125" style="34" customWidth="1"/>
+    <col min="1773" max="1773" width="1.28515625" style="34" customWidth="1"/>
     <col min="1774" max="1774" width="42" style="34" customWidth="1"/>
-    <col min="1775" max="1775" width="5.5" style="34" customWidth="1"/>
+    <col min="1775" max="1775" width="5.42578125" style="34" customWidth="1"/>
     <col min="1776" max="1777" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1778" max="1778" width="2.6640625" style="34" customWidth="1"/>
-    <col min="1779" max="1814" width="3.33203125" style="34" customWidth="1"/>
-    <col min="1815" max="1815" width="1.6640625" style="34" customWidth="1"/>
-    <col min="1816" max="1816" width="25.6640625" style="34" customWidth="1"/>
-    <col min="1817" max="1817" width="31.33203125" style="34" customWidth="1"/>
-    <col min="1818" max="2027" width="8.83203125" style="34"/>
-    <col min="2028" max="2028" width="1.5" style="34" customWidth="1"/>
-    <col min="2029" max="2029" width="1.33203125" style="34" customWidth="1"/>
+    <col min="1778" max="1778" width="2.7109375" style="34" customWidth="1"/>
+    <col min="1779" max="1814" width="3.28515625" style="34" customWidth="1"/>
+    <col min="1815" max="1815" width="1.7109375" style="34" customWidth="1"/>
+    <col min="1816" max="1816" width="25.7109375" style="34" customWidth="1"/>
+    <col min="1817" max="1817" width="31.28515625" style="34" customWidth="1"/>
+    <col min="1818" max="2027" width="8.85546875" style="34"/>
+    <col min="2028" max="2028" width="1.42578125" style="34" customWidth="1"/>
+    <col min="2029" max="2029" width="1.28515625" style="34" customWidth="1"/>
     <col min="2030" max="2030" width="42" style="34" customWidth="1"/>
-    <col min="2031" max="2031" width="5.5" style="34" customWidth="1"/>
+    <col min="2031" max="2031" width="5.42578125" style="34" customWidth="1"/>
     <col min="2032" max="2033" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2034" max="2034" width="2.6640625" style="34" customWidth="1"/>
-    <col min="2035" max="2070" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2071" max="2071" width="1.6640625" style="34" customWidth="1"/>
-    <col min="2072" max="2072" width="25.6640625" style="34" customWidth="1"/>
-    <col min="2073" max="2073" width="31.33203125" style="34" customWidth="1"/>
-    <col min="2074" max="2283" width="8.83203125" style="34"/>
-    <col min="2284" max="2284" width="1.5" style="34" customWidth="1"/>
-    <col min="2285" max="2285" width="1.33203125" style="34" customWidth="1"/>
+    <col min="2034" max="2034" width="2.7109375" style="34" customWidth="1"/>
+    <col min="2035" max="2070" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2071" max="2071" width="1.7109375" style="34" customWidth="1"/>
+    <col min="2072" max="2072" width="25.7109375" style="34" customWidth="1"/>
+    <col min="2073" max="2073" width="31.28515625" style="34" customWidth="1"/>
+    <col min="2074" max="2283" width="8.85546875" style="34"/>
+    <col min="2284" max="2284" width="1.42578125" style="34" customWidth="1"/>
+    <col min="2285" max="2285" width="1.28515625" style="34" customWidth="1"/>
     <col min="2286" max="2286" width="42" style="34" customWidth="1"/>
-    <col min="2287" max="2287" width="5.5" style="34" customWidth="1"/>
+    <col min="2287" max="2287" width="5.42578125" style="34" customWidth="1"/>
     <col min="2288" max="2289" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2290" max="2290" width="2.6640625" style="34" customWidth="1"/>
-    <col min="2291" max="2326" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2327" max="2327" width="1.6640625" style="34" customWidth="1"/>
-    <col min="2328" max="2328" width="25.6640625" style="34" customWidth="1"/>
-    <col min="2329" max="2329" width="31.33203125" style="34" customWidth="1"/>
-    <col min="2330" max="2539" width="8.83203125" style="34"/>
-    <col min="2540" max="2540" width="1.5" style="34" customWidth="1"/>
-    <col min="2541" max="2541" width="1.33203125" style="34" customWidth="1"/>
+    <col min="2290" max="2290" width="2.7109375" style="34" customWidth="1"/>
+    <col min="2291" max="2326" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2327" max="2327" width="1.7109375" style="34" customWidth="1"/>
+    <col min="2328" max="2328" width="25.7109375" style="34" customWidth="1"/>
+    <col min="2329" max="2329" width="31.28515625" style="34" customWidth="1"/>
+    <col min="2330" max="2539" width="8.85546875" style="34"/>
+    <col min="2540" max="2540" width="1.42578125" style="34" customWidth="1"/>
+    <col min="2541" max="2541" width="1.28515625" style="34" customWidth="1"/>
     <col min="2542" max="2542" width="42" style="34" customWidth="1"/>
-    <col min="2543" max="2543" width="5.5" style="34" customWidth="1"/>
+    <col min="2543" max="2543" width="5.42578125" style="34" customWidth="1"/>
     <col min="2544" max="2545" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2546" max="2546" width="2.6640625" style="34" customWidth="1"/>
-    <col min="2547" max="2582" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2583" max="2583" width="1.6640625" style="34" customWidth="1"/>
-    <col min="2584" max="2584" width="25.6640625" style="34" customWidth="1"/>
-    <col min="2585" max="2585" width="31.33203125" style="34" customWidth="1"/>
-    <col min="2586" max="2795" width="8.83203125" style="34"/>
-    <col min="2796" max="2796" width="1.5" style="34" customWidth="1"/>
-    <col min="2797" max="2797" width="1.33203125" style="34" customWidth="1"/>
+    <col min="2546" max="2546" width="2.7109375" style="34" customWidth="1"/>
+    <col min="2547" max="2582" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2583" max="2583" width="1.7109375" style="34" customWidth="1"/>
+    <col min="2584" max="2584" width="25.7109375" style="34" customWidth="1"/>
+    <col min="2585" max="2585" width="31.28515625" style="34" customWidth="1"/>
+    <col min="2586" max="2795" width="8.85546875" style="34"/>
+    <col min="2796" max="2796" width="1.42578125" style="34" customWidth="1"/>
+    <col min="2797" max="2797" width="1.28515625" style="34" customWidth="1"/>
     <col min="2798" max="2798" width="42" style="34" customWidth="1"/>
-    <col min="2799" max="2799" width="5.5" style="34" customWidth="1"/>
+    <col min="2799" max="2799" width="5.42578125" style="34" customWidth="1"/>
     <col min="2800" max="2801" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2802" max="2802" width="2.6640625" style="34" customWidth="1"/>
-    <col min="2803" max="2838" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2839" max="2839" width="1.6640625" style="34" customWidth="1"/>
-    <col min="2840" max="2840" width="25.6640625" style="34" customWidth="1"/>
-    <col min="2841" max="2841" width="31.33203125" style="34" customWidth="1"/>
-    <col min="2842" max="3051" width="8.83203125" style="34"/>
-    <col min="3052" max="3052" width="1.5" style="34" customWidth="1"/>
-    <col min="3053" max="3053" width="1.33203125" style="34" customWidth="1"/>
+    <col min="2802" max="2802" width="2.7109375" style="34" customWidth="1"/>
+    <col min="2803" max="2838" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2839" max="2839" width="1.7109375" style="34" customWidth="1"/>
+    <col min="2840" max="2840" width="25.7109375" style="34" customWidth="1"/>
+    <col min="2841" max="2841" width="31.28515625" style="34" customWidth="1"/>
+    <col min="2842" max="3051" width="8.85546875" style="34"/>
+    <col min="3052" max="3052" width="1.42578125" style="34" customWidth="1"/>
+    <col min="3053" max="3053" width="1.28515625" style="34" customWidth="1"/>
     <col min="3054" max="3054" width="42" style="34" customWidth="1"/>
-    <col min="3055" max="3055" width="5.5" style="34" customWidth="1"/>
+    <col min="3055" max="3055" width="5.42578125" style="34" customWidth="1"/>
     <col min="3056" max="3057" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3058" max="3058" width="2.6640625" style="34" customWidth="1"/>
-    <col min="3059" max="3094" width="3.33203125" style="34" customWidth="1"/>
-    <col min="3095" max="3095" width="1.6640625" style="34" customWidth="1"/>
-    <col min="3096" max="3096" width="25.6640625" style="34" customWidth="1"/>
-    <col min="3097" max="3097" width="31.33203125" style="34" customWidth="1"/>
-    <col min="3098" max="3307" width="8.83203125" style="34"/>
-    <col min="3308" max="3308" width="1.5" style="34" customWidth="1"/>
-    <col min="3309" max="3309" width="1.33203125" style="34" customWidth="1"/>
+    <col min="3058" max="3058" width="2.7109375" style="34" customWidth="1"/>
+    <col min="3059" max="3094" width="3.28515625" style="34" customWidth="1"/>
+    <col min="3095" max="3095" width="1.7109375" style="34" customWidth="1"/>
+    <col min="3096" max="3096" width="25.7109375" style="34" customWidth="1"/>
+    <col min="3097" max="3097" width="31.28515625" style="34" customWidth="1"/>
+    <col min="3098" max="3307" width="8.85546875" style="34"/>
+    <col min="3308" max="3308" width="1.42578125" style="34" customWidth="1"/>
+    <col min="3309" max="3309" width="1.28515625" style="34" customWidth="1"/>
     <col min="3310" max="3310" width="42" style="34" customWidth="1"/>
-    <col min="3311" max="3311" width="5.5" style="34" customWidth="1"/>
+    <col min="3311" max="3311" width="5.42578125" style="34" customWidth="1"/>
     <col min="3312" max="3313" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3314" max="3314" width="2.6640625" style="34" customWidth="1"/>
-    <col min="3315" max="3350" width="3.33203125" style="34" customWidth="1"/>
-    <col min="3351" max="3351" width="1.6640625" style="34" customWidth="1"/>
-    <col min="3352" max="3352" width="25.6640625" style="34" customWidth="1"/>
-    <col min="3353" max="3353" width="31.33203125" style="34" customWidth="1"/>
-    <col min="3354" max="3563" width="8.83203125" style="34"/>
-    <col min="3564" max="3564" width="1.5" style="34" customWidth="1"/>
-    <col min="3565" max="3565" width="1.33203125" style="34" customWidth="1"/>
+    <col min="3314" max="3314" width="2.7109375" style="34" customWidth="1"/>
+    <col min="3315" max="3350" width="3.28515625" style="34" customWidth="1"/>
+    <col min="3351" max="3351" width="1.7109375" style="34" customWidth="1"/>
+    <col min="3352" max="3352" width="25.7109375" style="34" customWidth="1"/>
+    <col min="3353" max="3353" width="31.28515625" style="34" customWidth="1"/>
+    <col min="3354" max="3563" width="8.85546875" style="34"/>
+    <col min="3564" max="3564" width="1.42578125" style="34" customWidth="1"/>
+    <col min="3565" max="3565" width="1.28515625" style="34" customWidth="1"/>
     <col min="3566" max="3566" width="42" style="34" customWidth="1"/>
-    <col min="3567" max="3567" width="5.5" style="34" customWidth="1"/>
+    <col min="3567" max="3567" width="5.42578125" style="34" customWidth="1"/>
     <col min="3568" max="3569" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3570" max="3570" width="2.6640625" style="34" customWidth="1"/>
-    <col min="3571" max="3606" width="3.33203125" style="34" customWidth="1"/>
-    <col min="3607" max="3607" width="1.6640625" style="34" customWidth="1"/>
-    <col min="3608" max="3608" width="25.6640625" style="34" customWidth="1"/>
-    <col min="3609" max="3609" width="31.33203125" style="34" customWidth="1"/>
-    <col min="3610" max="3819" width="8.83203125" style="34"/>
-    <col min="3820" max="3820" width="1.5" style="34" customWidth="1"/>
-    <col min="3821" max="3821" width="1.33203125" style="34" customWidth="1"/>
+    <col min="3570" max="3570" width="2.7109375" style="34" customWidth="1"/>
+    <col min="3571" max="3606" width="3.28515625" style="34" customWidth="1"/>
+    <col min="3607" max="3607" width="1.7109375" style="34" customWidth="1"/>
+    <col min="3608" max="3608" width="25.7109375" style="34" customWidth="1"/>
+    <col min="3609" max="3609" width="31.28515625" style="34" customWidth="1"/>
+    <col min="3610" max="3819" width="8.85546875" style="34"/>
+    <col min="3820" max="3820" width="1.42578125" style="34" customWidth="1"/>
+    <col min="3821" max="3821" width="1.28515625" style="34" customWidth="1"/>
     <col min="3822" max="3822" width="42" style="34" customWidth="1"/>
-    <col min="3823" max="3823" width="5.5" style="34" customWidth="1"/>
+    <col min="3823" max="3823" width="5.42578125" style="34" customWidth="1"/>
     <col min="3824" max="3825" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3826" max="3826" width="2.6640625" style="34" customWidth="1"/>
-    <col min="3827" max="3862" width="3.33203125" style="34" customWidth="1"/>
-    <col min="3863" max="3863" width="1.6640625" style="34" customWidth="1"/>
-    <col min="3864" max="3864" width="25.6640625" style="34" customWidth="1"/>
-    <col min="3865" max="3865" width="31.33203125" style="34" customWidth="1"/>
-    <col min="3866" max="4075" width="8.83203125" style="34"/>
-    <col min="4076" max="4076" width="1.5" style="34" customWidth="1"/>
-    <col min="4077" max="4077" width="1.33203125" style="34" customWidth="1"/>
+    <col min="3826" max="3826" width="2.7109375" style="34" customWidth="1"/>
+    <col min="3827" max="3862" width="3.28515625" style="34" customWidth="1"/>
+    <col min="3863" max="3863" width="1.7109375" style="34" customWidth="1"/>
+    <col min="3864" max="3864" width="25.7109375" style="34" customWidth="1"/>
+    <col min="3865" max="3865" width="31.28515625" style="34" customWidth="1"/>
+    <col min="3866" max="4075" width="8.85546875" style="34"/>
+    <col min="4076" max="4076" width="1.42578125" style="34" customWidth="1"/>
+    <col min="4077" max="4077" width="1.28515625" style="34" customWidth="1"/>
     <col min="4078" max="4078" width="42" style="34" customWidth="1"/>
-    <col min="4079" max="4079" width="5.5" style="34" customWidth="1"/>
+    <col min="4079" max="4079" width="5.42578125" style="34" customWidth="1"/>
     <col min="4080" max="4081" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4082" max="4082" width="2.6640625" style="34" customWidth="1"/>
-    <col min="4083" max="4118" width="3.33203125" style="34" customWidth="1"/>
-    <col min="4119" max="4119" width="1.6640625" style="34" customWidth="1"/>
-    <col min="4120" max="4120" width="25.6640625" style="34" customWidth="1"/>
-    <col min="4121" max="4121" width="31.33203125" style="34" customWidth="1"/>
-    <col min="4122" max="4331" width="8.83203125" style="34"/>
-    <col min="4332" max="4332" width="1.5" style="34" customWidth="1"/>
-    <col min="4333" max="4333" width="1.33203125" style="34" customWidth="1"/>
+    <col min="4082" max="4082" width="2.7109375" style="34" customWidth="1"/>
+    <col min="4083" max="4118" width="3.28515625" style="34" customWidth="1"/>
+    <col min="4119" max="4119" width="1.7109375" style="34" customWidth="1"/>
+    <col min="4120" max="4120" width="25.7109375" style="34" customWidth="1"/>
+    <col min="4121" max="4121" width="31.28515625" style="34" customWidth="1"/>
+    <col min="4122" max="4331" width="8.85546875" style="34"/>
+    <col min="4332" max="4332" width="1.42578125" style="34" customWidth="1"/>
+    <col min="4333" max="4333" width="1.28515625" style="34" customWidth="1"/>
     <col min="4334" max="4334" width="42" style="34" customWidth="1"/>
-    <col min="4335" max="4335" width="5.5" style="34" customWidth="1"/>
+    <col min="4335" max="4335" width="5.42578125" style="34" customWidth="1"/>
     <col min="4336" max="4337" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4338" max="4338" width="2.6640625" style="34" customWidth="1"/>
-    <col min="4339" max="4374" width="3.33203125" style="34" customWidth="1"/>
-    <col min="4375" max="4375" width="1.6640625" style="34" customWidth="1"/>
-    <col min="4376" max="4376" width="25.6640625" style="34" customWidth="1"/>
-    <col min="4377" max="4377" width="31.33203125" style="34" customWidth="1"/>
-    <col min="4378" max="4587" width="8.83203125" style="34"/>
-    <col min="4588" max="4588" width="1.5" style="34" customWidth="1"/>
-    <col min="4589" max="4589" width="1.33203125" style="34" customWidth="1"/>
+    <col min="4338" max="4338" width="2.7109375" style="34" customWidth="1"/>
+    <col min="4339" max="4374" width="3.28515625" style="34" customWidth="1"/>
+    <col min="4375" max="4375" width="1.7109375" style="34" customWidth="1"/>
+    <col min="4376" max="4376" width="25.7109375" style="34" customWidth="1"/>
+    <col min="4377" max="4377" width="31.28515625" style="34" customWidth="1"/>
+    <col min="4378" max="4587" width="8.85546875" style="34"/>
+    <col min="4588" max="4588" width="1.42578125" style="34" customWidth="1"/>
+    <col min="4589" max="4589" width="1.28515625" style="34" customWidth="1"/>
     <col min="4590" max="4590" width="42" style="34" customWidth="1"/>
-    <col min="4591" max="4591" width="5.5" style="34" customWidth="1"/>
+    <col min="4591" max="4591" width="5.42578125" style="34" customWidth="1"/>
     <col min="4592" max="4593" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4594" max="4594" width="2.6640625" style="34" customWidth="1"/>
-    <col min="4595" max="4630" width="3.33203125" style="34" customWidth="1"/>
-    <col min="4631" max="4631" width="1.6640625" style="34" customWidth="1"/>
-    <col min="4632" max="4632" width="25.6640625" style="34" customWidth="1"/>
-    <col min="4633" max="4633" width="31.33203125" style="34" customWidth="1"/>
-    <col min="4634" max="4843" width="8.83203125" style="34"/>
-    <col min="4844" max="4844" width="1.5" style="34" customWidth="1"/>
-    <col min="4845" max="4845" width="1.33203125" style="34" customWidth="1"/>
+    <col min="4594" max="4594" width="2.7109375" style="34" customWidth="1"/>
+    <col min="4595" max="4630" width="3.28515625" style="34" customWidth="1"/>
+    <col min="4631" max="4631" width="1.7109375" style="34" customWidth="1"/>
+    <col min="4632" max="4632" width="25.7109375" style="34" customWidth="1"/>
+    <col min="4633" max="4633" width="31.28515625" style="34" customWidth="1"/>
+    <col min="4634" max="4843" width="8.85546875" style="34"/>
+    <col min="4844" max="4844" width="1.42578125" style="34" customWidth="1"/>
+    <col min="4845" max="4845" width="1.28515625" style="34" customWidth="1"/>
     <col min="4846" max="4846" width="42" style="34" customWidth="1"/>
-    <col min="4847" max="4847" width="5.5" style="34" customWidth="1"/>
+    <col min="4847" max="4847" width="5.42578125" style="34" customWidth="1"/>
     <col min="4848" max="4849" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4850" max="4850" width="2.6640625" style="34" customWidth="1"/>
-    <col min="4851" max="4886" width="3.33203125" style="34" customWidth="1"/>
-    <col min="4887" max="4887" width="1.6640625" style="34" customWidth="1"/>
-    <col min="4888" max="4888" width="25.6640625" style="34" customWidth="1"/>
-    <col min="4889" max="4889" width="31.33203125" style="34" customWidth="1"/>
-    <col min="4890" max="5099" width="8.83203125" style="34"/>
-    <col min="5100" max="5100" width="1.5" style="34" customWidth="1"/>
-    <col min="5101" max="5101" width="1.33203125" style="34" customWidth="1"/>
+    <col min="4850" max="4850" width="2.7109375" style="34" customWidth="1"/>
+    <col min="4851" max="4886" width="3.28515625" style="34" customWidth="1"/>
+    <col min="4887" max="4887" width="1.7109375" style="34" customWidth="1"/>
+    <col min="4888" max="4888" width="25.7109375" style="34" customWidth="1"/>
+    <col min="4889" max="4889" width="31.28515625" style="34" customWidth="1"/>
+    <col min="4890" max="5099" width="8.85546875" style="34"/>
+    <col min="5100" max="5100" width="1.42578125" style="34" customWidth="1"/>
+    <col min="5101" max="5101" width="1.28515625" style="34" customWidth="1"/>
     <col min="5102" max="5102" width="42" style="34" customWidth="1"/>
-    <col min="5103" max="5103" width="5.5" style="34" customWidth="1"/>
+    <col min="5103" max="5103" width="5.42578125" style="34" customWidth="1"/>
     <col min="5104" max="5105" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5106" max="5106" width="2.6640625" style="34" customWidth="1"/>
-    <col min="5107" max="5142" width="3.33203125" style="34" customWidth="1"/>
-    <col min="5143" max="5143" width="1.6640625" style="34" customWidth="1"/>
-    <col min="5144" max="5144" width="25.6640625" style="34" customWidth="1"/>
-    <col min="5145" max="5145" width="31.33203125" style="34" customWidth="1"/>
-    <col min="5146" max="5355" width="8.83203125" style="34"/>
-    <col min="5356" max="5356" width="1.5" style="34" customWidth="1"/>
-    <col min="5357" max="5357" width="1.33203125" style="34" customWidth="1"/>
+    <col min="5106" max="5106" width="2.7109375" style="34" customWidth="1"/>
+    <col min="5107" max="5142" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5143" max="5143" width="1.7109375" style="34" customWidth="1"/>
+    <col min="5144" max="5144" width="25.7109375" style="34" customWidth="1"/>
+    <col min="5145" max="5145" width="31.28515625" style="34" customWidth="1"/>
+    <col min="5146" max="5355" width="8.85546875" style="34"/>
+    <col min="5356" max="5356" width="1.42578125" style="34" customWidth="1"/>
+    <col min="5357" max="5357" width="1.28515625" style="34" customWidth="1"/>
     <col min="5358" max="5358" width="42" style="34" customWidth="1"/>
-    <col min="5359" max="5359" width="5.5" style="34" customWidth="1"/>
+    <col min="5359" max="5359" width="5.42578125" style="34" customWidth="1"/>
     <col min="5360" max="5361" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5362" max="5362" width="2.6640625" style="34" customWidth="1"/>
-    <col min="5363" max="5398" width="3.33203125" style="34" customWidth="1"/>
-    <col min="5399" max="5399" width="1.6640625" style="34" customWidth="1"/>
-    <col min="5400" max="5400" width="25.6640625" style="34" customWidth="1"/>
-    <col min="5401" max="5401" width="31.33203125" style="34" customWidth="1"/>
-    <col min="5402" max="5611" width="8.83203125" style="34"/>
-    <col min="5612" max="5612" width="1.5" style="34" customWidth="1"/>
-    <col min="5613" max="5613" width="1.33203125" style="34" customWidth="1"/>
+    <col min="5362" max="5362" width="2.7109375" style="34" customWidth="1"/>
+    <col min="5363" max="5398" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5399" max="5399" width="1.7109375" style="34" customWidth="1"/>
+    <col min="5400" max="5400" width="25.7109375" style="34" customWidth="1"/>
+    <col min="5401" max="5401" width="31.28515625" style="34" customWidth="1"/>
+    <col min="5402" max="5611" width="8.85546875" style="34"/>
+    <col min="5612" max="5612" width="1.42578125" style="34" customWidth="1"/>
+    <col min="5613" max="5613" width="1.28515625" style="34" customWidth="1"/>
     <col min="5614" max="5614" width="42" style="34" customWidth="1"/>
-    <col min="5615" max="5615" width="5.5" style="34" customWidth="1"/>
+    <col min="5615" max="5615" width="5.42578125" style="34" customWidth="1"/>
     <col min="5616" max="5617" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5618" max="5618" width="2.6640625" style="34" customWidth="1"/>
-    <col min="5619" max="5654" width="3.33203125" style="34" customWidth="1"/>
-    <col min="5655" max="5655" width="1.6640625" style="34" customWidth="1"/>
-    <col min="5656" max="5656" width="25.6640625" style="34" customWidth="1"/>
-    <col min="5657" max="5657" width="31.33203125" style="34" customWidth="1"/>
-    <col min="5658" max="5867" width="8.83203125" style="34"/>
-    <col min="5868" max="5868" width="1.5" style="34" customWidth="1"/>
-    <col min="5869" max="5869" width="1.33203125" style="34" customWidth="1"/>
+    <col min="5618" max="5618" width="2.7109375" style="34" customWidth="1"/>
+    <col min="5619" max="5654" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5655" max="5655" width="1.7109375" style="34" customWidth="1"/>
+    <col min="5656" max="5656" width="25.7109375" style="34" customWidth="1"/>
+    <col min="5657" max="5657" width="31.28515625" style="34" customWidth="1"/>
+    <col min="5658" max="5867" width="8.85546875" style="34"/>
+    <col min="5868" max="5868" width="1.42578125" style="34" customWidth="1"/>
+    <col min="5869" max="5869" width="1.28515625" style="34" customWidth="1"/>
     <col min="5870" max="5870" width="42" style="34" customWidth="1"/>
-    <col min="5871" max="5871" width="5.5" style="34" customWidth="1"/>
+    <col min="5871" max="5871" width="5.42578125" style="34" customWidth="1"/>
     <col min="5872" max="5873" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5874" max="5874" width="2.6640625" style="34" customWidth="1"/>
-    <col min="5875" max="5910" width="3.33203125" style="34" customWidth="1"/>
-    <col min="5911" max="5911" width="1.6640625" style="34" customWidth="1"/>
-    <col min="5912" max="5912" width="25.6640625" style="34" customWidth="1"/>
-    <col min="5913" max="5913" width="31.33203125" style="34" customWidth="1"/>
-    <col min="5914" max="6123" width="8.83203125" style="34"/>
-    <col min="6124" max="6124" width="1.5" style="34" customWidth="1"/>
-    <col min="6125" max="6125" width="1.33203125" style="34" customWidth="1"/>
+    <col min="5874" max="5874" width="2.7109375" style="34" customWidth="1"/>
+    <col min="5875" max="5910" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5911" max="5911" width="1.7109375" style="34" customWidth="1"/>
+    <col min="5912" max="5912" width="25.7109375" style="34" customWidth="1"/>
+    <col min="5913" max="5913" width="31.28515625" style="34" customWidth="1"/>
+    <col min="5914" max="6123" width="8.85546875" style="34"/>
+    <col min="6124" max="6124" width="1.42578125" style="34" customWidth="1"/>
+    <col min="6125" max="6125" width="1.28515625" style="34" customWidth="1"/>
     <col min="6126" max="6126" width="42" style="34" customWidth="1"/>
-    <col min="6127" max="6127" width="5.5" style="34" customWidth="1"/>
+    <col min="6127" max="6127" width="5.42578125" style="34" customWidth="1"/>
     <col min="6128" max="6129" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6130" max="6130" width="2.6640625" style="34" customWidth="1"/>
-    <col min="6131" max="6166" width="3.33203125" style="34" customWidth="1"/>
-    <col min="6167" max="6167" width="1.6640625" style="34" customWidth="1"/>
-    <col min="6168" max="6168" width="25.6640625" style="34" customWidth="1"/>
-    <col min="6169" max="6169" width="31.33203125" style="34" customWidth="1"/>
-    <col min="6170" max="6379" width="8.83203125" style="34"/>
-    <col min="6380" max="6380" width="1.5" style="34" customWidth="1"/>
-    <col min="6381" max="6381" width="1.33203125" style="34" customWidth="1"/>
+    <col min="6130" max="6130" width="2.7109375" style="34" customWidth="1"/>
+    <col min="6131" max="6166" width="3.28515625" style="34" customWidth="1"/>
+    <col min="6167" max="6167" width="1.7109375" style="34" customWidth="1"/>
+    <col min="6168" max="6168" width="25.7109375" style="34" customWidth="1"/>
+    <col min="6169" max="6169" width="31.28515625" style="34" customWidth="1"/>
+    <col min="6170" max="6379" width="8.85546875" style="34"/>
+    <col min="6380" max="6380" width="1.42578125" style="34" customWidth="1"/>
+    <col min="6381" max="6381" width="1.28515625" style="34" customWidth="1"/>
     <col min="6382" max="6382" width="42" style="34" customWidth="1"/>
-    <col min="6383" max="6383" width="5.5" style="34" customWidth="1"/>
+    <col min="6383" max="6383" width="5.42578125" style="34" customWidth="1"/>
     <col min="6384" max="6385" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6386" max="6386" width="2.6640625" style="34" customWidth="1"/>
-    <col min="6387" max="6422" width="3.33203125" style="34" customWidth="1"/>
-    <col min="6423" max="6423" width="1.6640625" style="34" customWidth="1"/>
-    <col min="6424" max="6424" width="25.6640625" style="34" customWidth="1"/>
-    <col min="6425" max="6425" width="31.33203125" style="34" customWidth="1"/>
-    <col min="6426" max="6635" width="8.83203125" style="34"/>
-    <col min="6636" max="6636" width="1.5" style="34" customWidth="1"/>
-    <col min="6637" max="6637" width="1.33203125" style="34" customWidth="1"/>
+    <col min="6386" max="6386" width="2.7109375" style="34" customWidth="1"/>
+    <col min="6387" max="6422" width="3.28515625" style="34" customWidth="1"/>
+    <col min="6423" max="6423" width="1.7109375" style="34" customWidth="1"/>
+    <col min="6424" max="6424" width="25.7109375" style="34" customWidth="1"/>
+    <col min="6425" max="6425" width="31.28515625" style="34" customWidth="1"/>
+    <col min="6426" max="6635" width="8.85546875" style="34"/>
+    <col min="6636" max="6636" width="1.42578125" style="34" customWidth="1"/>
+    <col min="6637" max="6637" width="1.28515625" style="34" customWidth="1"/>
     <col min="6638" max="6638" width="42" style="34" customWidth="1"/>
-    <col min="6639" max="6639" width="5.5" style="34" customWidth="1"/>
+    <col min="6639" max="6639" width="5.42578125" style="34" customWidth="1"/>
     <col min="6640" max="6641" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6642" max="6642" width="2.6640625" style="34" customWidth="1"/>
-    <col min="6643" max="6678" width="3.33203125" style="34" customWidth="1"/>
-    <col min="6679" max="6679" width="1.6640625" style="34" customWidth="1"/>
-    <col min="6680" max="6680" width="25.6640625" style="34" customWidth="1"/>
-    <col min="6681" max="6681" width="31.33203125" style="34" customWidth="1"/>
-    <col min="6682" max="6891" width="8.83203125" style="34"/>
-    <col min="6892" max="6892" width="1.5" style="34" customWidth="1"/>
-    <col min="6893" max="6893" width="1.33203125" style="34" customWidth="1"/>
+    <col min="6642" max="6642" width="2.7109375" style="34" customWidth="1"/>
+    <col min="6643" max="6678" width="3.28515625" style="34" customWidth="1"/>
+    <col min="6679" max="6679" width="1.7109375" style="34" customWidth="1"/>
+    <col min="6680" max="6680" width="25.7109375" style="34" customWidth="1"/>
+    <col min="6681" max="6681" width="31.28515625" style="34" customWidth="1"/>
+    <col min="6682" max="6891" width="8.85546875" style="34"/>
+    <col min="6892" max="6892" width="1.42578125" style="34" customWidth="1"/>
+    <col min="6893" max="6893" width="1.28515625" style="34" customWidth="1"/>
     <col min="6894" max="6894" width="42" style="34" customWidth="1"/>
-    <col min="6895" max="6895" width="5.5" style="34" customWidth="1"/>
+    <col min="6895" max="6895" width="5.42578125" style="34" customWidth="1"/>
     <col min="6896" max="6897" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6898" max="6898" width="2.6640625" style="34" customWidth="1"/>
-    <col min="6899" max="6934" width="3.33203125" style="34" customWidth="1"/>
-    <col min="6935" max="6935" width="1.6640625" style="34" customWidth="1"/>
-    <col min="6936" max="6936" width="25.6640625" style="34" customWidth="1"/>
-    <col min="6937" max="6937" width="31.33203125" style="34" customWidth="1"/>
-    <col min="6938" max="7147" width="8.83203125" style="34"/>
-    <col min="7148" max="7148" width="1.5" style="34" customWidth="1"/>
-    <col min="7149" max="7149" width="1.33203125" style="34" customWidth="1"/>
+    <col min="6898" max="6898" width="2.7109375" style="34" customWidth="1"/>
+    <col min="6899" max="6934" width="3.28515625" style="34" customWidth="1"/>
+    <col min="6935" max="6935" width="1.7109375" style="34" customWidth="1"/>
+    <col min="6936" max="6936" width="25.7109375" style="34" customWidth="1"/>
+    <col min="6937" max="6937" width="31.28515625" style="34" customWidth="1"/>
+    <col min="6938" max="7147" width="8.85546875" style="34"/>
+    <col min="7148" max="7148" width="1.42578125" style="34" customWidth="1"/>
+    <col min="7149" max="7149" width="1.28515625" style="34" customWidth="1"/>
     <col min="7150" max="7150" width="42" style="34" customWidth="1"/>
-    <col min="7151" max="7151" width="5.5" style="34" customWidth="1"/>
+    <col min="7151" max="7151" width="5.42578125" style="34" customWidth="1"/>
     <col min="7152" max="7153" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7154" max="7154" width="2.6640625" style="34" customWidth="1"/>
-    <col min="7155" max="7190" width="3.33203125" style="34" customWidth="1"/>
-    <col min="7191" max="7191" width="1.6640625" style="34" customWidth="1"/>
-    <col min="7192" max="7192" width="25.6640625" style="34" customWidth="1"/>
-    <col min="7193" max="7193" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7194" max="7403" width="8.83203125" style="34"/>
-    <col min="7404" max="7404" width="1.5" style="34" customWidth="1"/>
-    <col min="7405" max="7405" width="1.33203125" style="34" customWidth="1"/>
+    <col min="7154" max="7154" width="2.7109375" style="34" customWidth="1"/>
+    <col min="7155" max="7190" width="3.28515625" style="34" customWidth="1"/>
+    <col min="7191" max="7191" width="1.7109375" style="34" customWidth="1"/>
+    <col min="7192" max="7192" width="25.7109375" style="34" customWidth="1"/>
+    <col min="7193" max="7193" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7194" max="7403" width="8.85546875" style="34"/>
+    <col min="7404" max="7404" width="1.42578125" style="34" customWidth="1"/>
+    <col min="7405" max="7405" width="1.28515625" style="34" customWidth="1"/>
     <col min="7406" max="7406" width="42" style="34" customWidth="1"/>
-    <col min="7407" max="7407" width="5.5" style="34" customWidth="1"/>
+    <col min="7407" max="7407" width="5.42578125" style="34" customWidth="1"/>
     <col min="7408" max="7409" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7410" max="7410" width="2.6640625" style="34" customWidth="1"/>
-    <col min="7411" max="7446" width="3.33203125" style="34" customWidth="1"/>
-    <col min="7447" max="7447" width="1.6640625" style="34" customWidth="1"/>
-    <col min="7448" max="7448" width="25.6640625" style="34" customWidth="1"/>
-    <col min="7449" max="7449" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7450" max="7659" width="8.83203125" style="34"/>
-    <col min="7660" max="7660" width="1.5" style="34" customWidth="1"/>
-    <col min="7661" max="7661" width="1.33203125" style="34" customWidth="1"/>
+    <col min="7410" max="7410" width="2.7109375" style="34" customWidth="1"/>
+    <col min="7411" max="7446" width="3.28515625" style="34" customWidth="1"/>
+    <col min="7447" max="7447" width="1.7109375" style="34" customWidth="1"/>
+    <col min="7448" max="7448" width="25.7109375" style="34" customWidth="1"/>
+    <col min="7449" max="7449" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7450" max="7659" width="8.85546875" style="34"/>
+    <col min="7660" max="7660" width="1.42578125" style="34" customWidth="1"/>
+    <col min="7661" max="7661" width="1.28515625" style="34" customWidth="1"/>
     <col min="7662" max="7662" width="42" style="34" customWidth="1"/>
-    <col min="7663" max="7663" width="5.5" style="34" customWidth="1"/>
+    <col min="7663" max="7663" width="5.42578125" style="34" customWidth="1"/>
     <col min="7664" max="7665" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7666" max="7666" width="2.6640625" style="34" customWidth="1"/>
-    <col min="7667" max="7702" width="3.33203125" style="34" customWidth="1"/>
-    <col min="7703" max="7703" width="1.6640625" style="34" customWidth="1"/>
-    <col min="7704" max="7704" width="25.6640625" style="34" customWidth="1"/>
-    <col min="7705" max="7705" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7706" max="7915" width="8.83203125" style="34"/>
-    <col min="7916" max="7916" width="1.5" style="34" customWidth="1"/>
-    <col min="7917" max="7917" width="1.33203125" style="34" customWidth="1"/>
+    <col min="7666" max="7666" width="2.7109375" style="34" customWidth="1"/>
+    <col min="7667" max="7702" width="3.28515625" style="34" customWidth="1"/>
+    <col min="7703" max="7703" width="1.7109375" style="34" customWidth="1"/>
+    <col min="7704" max="7704" width="25.7109375" style="34" customWidth="1"/>
+    <col min="7705" max="7705" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7706" max="7915" width="8.85546875" style="34"/>
+    <col min="7916" max="7916" width="1.42578125" style="34" customWidth="1"/>
+    <col min="7917" max="7917" width="1.28515625" style="34" customWidth="1"/>
     <col min="7918" max="7918" width="42" style="34" customWidth="1"/>
-    <col min="7919" max="7919" width="5.5" style="34" customWidth="1"/>
+    <col min="7919" max="7919" width="5.42578125" style="34" customWidth="1"/>
     <col min="7920" max="7921" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7922" max="7922" width="2.6640625" style="34" customWidth="1"/>
-    <col min="7923" max="7958" width="3.33203125" style="34" customWidth="1"/>
-    <col min="7959" max="7959" width="1.6640625" style="34" customWidth="1"/>
-    <col min="7960" max="7960" width="25.6640625" style="34" customWidth="1"/>
-    <col min="7961" max="7961" width="31.33203125" style="34" customWidth="1"/>
-    <col min="7962" max="8171" width="8.83203125" style="34"/>
-    <col min="8172" max="8172" width="1.5" style="34" customWidth="1"/>
-    <col min="8173" max="8173" width="1.33203125" style="34" customWidth="1"/>
+    <col min="7922" max="7922" width="2.7109375" style="34" customWidth="1"/>
+    <col min="7923" max="7958" width="3.28515625" style="34" customWidth="1"/>
+    <col min="7959" max="7959" width="1.7109375" style="34" customWidth="1"/>
+    <col min="7960" max="7960" width="25.7109375" style="34" customWidth="1"/>
+    <col min="7961" max="7961" width="31.28515625" style="34" customWidth="1"/>
+    <col min="7962" max="8171" width="8.85546875" style="34"/>
+    <col min="8172" max="8172" width="1.42578125" style="34" customWidth="1"/>
+    <col min="8173" max="8173" width="1.28515625" style="34" customWidth="1"/>
     <col min="8174" max="8174" width="42" style="34" customWidth="1"/>
-    <col min="8175" max="8175" width="5.5" style="34" customWidth="1"/>
+    <col min="8175" max="8175" width="5.42578125" style="34" customWidth="1"/>
     <col min="8176" max="8177" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8178" max="8178" width="2.6640625" style="34" customWidth="1"/>
-    <col min="8179" max="8214" width="3.33203125" style="34" customWidth="1"/>
-    <col min="8215" max="8215" width="1.6640625" style="34" customWidth="1"/>
-    <col min="8216" max="8216" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8217" max="8217" width="31.33203125" style="34" customWidth="1"/>
-    <col min="8218" max="8427" width="8.83203125" style="34"/>
-    <col min="8428" max="8428" width="1.5" style="34" customWidth="1"/>
-    <col min="8429" max="8429" width="1.33203125" style="34" customWidth="1"/>
+    <col min="8178" max="8178" width="2.7109375" style="34" customWidth="1"/>
+    <col min="8179" max="8214" width="3.28515625" style="34" customWidth="1"/>
+    <col min="8215" max="8215" width="1.7109375" style="34" customWidth="1"/>
+    <col min="8216" max="8216" width="25.7109375" style="34" customWidth="1"/>
+    <col min="8217" max="8217" width="31.28515625" style="34" customWidth="1"/>
+    <col min="8218" max="8427" width="8.85546875" style="34"/>
+    <col min="8428" max="8428" width="1.42578125" style="34" customWidth="1"/>
+    <col min="8429" max="8429" width="1.28515625" style="34" customWidth="1"/>
     <col min="8430" max="8430" width="42" style="34" customWidth="1"/>
-    <col min="8431" max="8431" width="5.5" style="34" customWidth="1"/>
+    <col min="8431" max="8431" width="5.42578125" style="34" customWidth="1"/>
     <col min="8432" max="8433" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8434" max="8434" width="2.6640625" style="34" customWidth="1"/>
-    <col min="8435" max="8470" width="3.33203125" style="34" customWidth="1"/>
-    <col min="8471" max="8471" width="1.6640625" style="34" customWidth="1"/>
-    <col min="8472" max="8472" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8473" max="8473" width="31.33203125" style="34" customWidth="1"/>
-    <col min="8474" max="8683" width="8.83203125" style="34"/>
-    <col min="8684" max="8684" width="1.5" style="34" customWidth="1"/>
-    <col min="8685" max="8685" width="1.33203125" style="34" customWidth="1"/>
+    <col min="8434" max="8434" width="2.7109375" style="34" customWidth="1"/>
+    <col min="8435" max="8470" width="3.28515625" style="34" customWidth="1"/>
+    <col min="8471" max="8471" width="1.7109375" style="34" customWidth="1"/>
+    <col min="8472" max="8472" width="25.7109375" style="34" customWidth="1"/>
+    <col min="8473" max="8473" width="31.28515625" style="34" customWidth="1"/>
+    <col min="8474" max="8683" width="8.85546875" style="34"/>
+    <col min="8684" max="8684" width="1.42578125" style="34" customWidth="1"/>
+    <col min="8685" max="8685" width="1.28515625" style="34" customWidth="1"/>
     <col min="8686" max="8686" width="42" style="34" customWidth="1"/>
-    <col min="8687" max="8687" width="5.5" style="34" customWidth="1"/>
+    <col min="8687" max="8687" width="5.42578125" style="34" customWidth="1"/>
     <col min="8688" max="8689" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8690" max="8690" width="2.6640625" style="34" customWidth="1"/>
-    <col min="8691" max="8726" width="3.33203125" style="34" customWidth="1"/>
-    <col min="8727" max="8727" width="1.6640625" style="34" customWidth="1"/>
-    <col min="8728" max="8728" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8729" max="8729" width="31.33203125" style="34" customWidth="1"/>
-    <col min="8730" max="8939" width="8.83203125" style="34"/>
-    <col min="8940" max="8940" width="1.5" style="34" customWidth="1"/>
-    <col min="8941" max="8941" width="1.33203125" style="34" customWidth="1"/>
+    <col min="8690" max="8690" width="2.7109375" style="34" customWidth="1"/>
+    <col min="8691" max="8726" width="3.28515625" style="34" customWidth="1"/>
+    <col min="8727" max="8727" width="1.7109375" style="34" customWidth="1"/>
+    <col min="8728" max="8728" width="25.7109375" style="34" customWidth="1"/>
+    <col min="8729" max="8729" width="31.28515625" style="34" customWidth="1"/>
+    <col min="8730" max="8939" width="8.85546875" style="34"/>
+    <col min="8940" max="8940" width="1.42578125" style="34" customWidth="1"/>
+    <col min="8941" max="8941" width="1.28515625" style="34" customWidth="1"/>
     <col min="8942" max="8942" width="42" style="34" customWidth="1"/>
-    <col min="8943" max="8943" width="5.5" style="34" customWidth="1"/>
+    <col min="8943" max="8943" width="5.42578125" style="34" customWidth="1"/>
     <col min="8944" max="8945" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8946" max="8946" width="2.6640625" style="34" customWidth="1"/>
-    <col min="8947" max="8982" width="3.33203125" style="34" customWidth="1"/>
-    <col min="8983" max="8983" width="1.6640625" style="34" customWidth="1"/>
-    <col min="8984" max="8984" width="25.6640625" style="34" customWidth="1"/>
-    <col min="8985" max="8985" width="31.33203125" style="34" customWidth="1"/>
-    <col min="8986" max="9195" width="8.83203125" style="34"/>
-    <col min="9196" max="9196" width="1.5" style="34" customWidth="1"/>
-    <col min="9197" max="9197" width="1.33203125" style="34" customWidth="1"/>
+    <col min="8946" max="8946" width="2.7109375" style="34" customWidth="1"/>
+    <col min="8947" max="8982" width="3.28515625" style="34" customWidth="1"/>
+    <col min="8983" max="8983" width="1.7109375" style="34" customWidth="1"/>
+    <col min="8984" max="8984" width="25.7109375" style="34" customWidth="1"/>
+    <col min="8985" max="8985" width="31.28515625" style="34" customWidth="1"/>
+    <col min="8986" max="9195" width="8.85546875" style="34"/>
+    <col min="9196" max="9196" width="1.42578125" style="34" customWidth="1"/>
+    <col min="9197" max="9197" width="1.28515625" style="34" customWidth="1"/>
     <col min="9198" max="9198" width="42" style="34" customWidth="1"/>
-    <col min="9199" max="9199" width="5.5" style="34" customWidth="1"/>
+    <col min="9199" max="9199" width="5.42578125" style="34" customWidth="1"/>
     <col min="9200" max="9201" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9202" max="9202" width="2.6640625" style="34" customWidth="1"/>
-    <col min="9203" max="9238" width="3.33203125" style="34" customWidth="1"/>
-    <col min="9239" max="9239" width="1.6640625" style="34" customWidth="1"/>
-    <col min="9240" max="9240" width="25.6640625" style="34" customWidth="1"/>
-    <col min="9241" max="9241" width="31.33203125" style="34" customWidth="1"/>
-    <col min="9242" max="9451" width="8.83203125" style="34"/>
-    <col min="9452" max="9452" width="1.5" style="34" customWidth="1"/>
-    <col min="9453" max="9453" width="1.33203125" style="34" customWidth="1"/>
+    <col min="9202" max="9202" width="2.7109375" style="34" customWidth="1"/>
+    <col min="9203" max="9238" width="3.28515625" style="34" customWidth="1"/>
+    <col min="9239" max="9239" width="1.7109375" style="34" customWidth="1"/>
+    <col min="9240" max="9240" width="25.7109375" style="34" customWidth="1"/>
+    <col min="9241" max="9241" width="31.28515625" style="34" customWidth="1"/>
+    <col min="9242" max="9451" width="8.85546875" style="34"/>
+    <col min="9452" max="9452" width="1.42578125" style="34" customWidth="1"/>
+    <col min="9453" max="9453" width="1.28515625" style="34" customWidth="1"/>
     <col min="9454" max="9454" width="42" style="34" customWidth="1"/>
-    <col min="9455" max="9455" width="5.5" style="34" customWidth="1"/>
+    <col min="9455" max="9455" width="5.42578125" style="34" customWidth="1"/>
     <col min="9456" max="9457" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9458" max="9458" width="2.6640625" style="34" customWidth="1"/>
-    <col min="9459" max="9494" width="3.33203125" style="34" customWidth="1"/>
-    <col min="9495" max="9495" width="1.6640625" style="34" customWidth="1"/>
-    <col min="9496" max="9496" width="25.6640625" style="34" customWidth="1"/>
-    <col min="9497" max="9497" width="31.33203125" style="34" customWidth="1"/>
-    <col min="9498" max="9707" width="8.83203125" style="34"/>
-    <col min="9708" max="9708" width="1.5" style="34" customWidth="1"/>
-    <col min="9709" max="9709" width="1.33203125" style="34" customWidth="1"/>
+    <col min="9458" max="9458" width="2.7109375" style="34" customWidth="1"/>
+    <col min="9459" max="9494" width="3.28515625" style="34" customWidth="1"/>
+    <col min="9495" max="9495" width="1.7109375" style="34" customWidth="1"/>
+    <col min="9496" max="9496" width="25.7109375" style="34" customWidth="1"/>
+    <col min="9497" max="9497" width="31.28515625" style="34" customWidth="1"/>
+    <col min="9498" max="9707" width="8.85546875" style="34"/>
+    <col min="9708" max="9708" width="1.42578125" style="34" customWidth="1"/>
+    <col min="9709" max="9709" width="1.28515625" style="34" customWidth="1"/>
     <col min="9710" max="9710" width="42" style="34" customWidth="1"/>
-    <col min="9711" max="9711" width="5.5" style="34" customWidth="1"/>
+    <col min="9711" max="9711" width="5.42578125" style="34" customWidth="1"/>
     <col min="9712" max="9713" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9714" max="9714" width="2.6640625" style="34" customWidth="1"/>
-    <col min="9715" max="9750" width="3.33203125" style="34" customWidth="1"/>
-    <col min="9751" max="9751" width="1.6640625" style="34" customWidth="1"/>
-    <col min="9752" max="9752" width="25.6640625" style="34" customWidth="1"/>
-    <col min="9753" max="9753" width="31.33203125" style="34" customWidth="1"/>
-    <col min="9754" max="9963" width="8.83203125" style="34"/>
-    <col min="9964" max="9964" width="1.5" style="34" customWidth="1"/>
-    <col min="9965" max="9965" width="1.33203125" style="34" customWidth="1"/>
+    <col min="9714" max="9714" width="2.7109375" style="34" customWidth="1"/>
+    <col min="9715" max="9750" width="3.28515625" style="34" customWidth="1"/>
+    <col min="9751" max="9751" width="1.7109375" style="34" customWidth="1"/>
+    <col min="9752" max="9752" width="25.7109375" style="34" customWidth="1"/>
+    <col min="9753" max="9753" width="31.28515625" style="34" customWidth="1"/>
+    <col min="9754" max="9963" width="8.85546875" style="34"/>
+    <col min="9964" max="9964" width="1.42578125" style="34" customWidth="1"/>
+    <col min="9965" max="9965" width="1.28515625" style="34" customWidth="1"/>
     <col min="9966" max="9966" width="42" style="34" customWidth="1"/>
-    <col min="9967" max="9967" width="5.5" style="34" customWidth="1"/>
+    <col min="9967" max="9967" width="5.42578125" style="34" customWidth="1"/>
     <col min="9968" max="9969" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9970" max="9970" width="2.6640625" style="34" customWidth="1"/>
-    <col min="9971" max="10006" width="3.33203125" style="34" customWidth="1"/>
-    <col min="10007" max="10007" width="1.6640625" style="34" customWidth="1"/>
-    <col min="10008" max="10008" width="25.6640625" style="34" customWidth="1"/>
-    <col min="10009" max="10009" width="31.33203125" style="34" customWidth="1"/>
-    <col min="10010" max="10219" width="8.83203125" style="34"/>
-    <col min="10220" max="10220" width="1.5" style="34" customWidth="1"/>
-    <col min="10221" max="10221" width="1.33203125" style="34" customWidth="1"/>
+    <col min="9970" max="9970" width="2.7109375" style="34" customWidth="1"/>
+    <col min="9971" max="10006" width="3.28515625" style="34" customWidth="1"/>
+    <col min="10007" max="10007" width="1.7109375" style="34" customWidth="1"/>
+    <col min="10008" max="10008" width="25.7109375" style="34" customWidth="1"/>
+    <col min="10009" max="10009" width="31.28515625" style="34" customWidth="1"/>
+    <col min="10010" max="10219" width="8.85546875" style="34"/>
+    <col min="10220" max="10220" width="1.42578125" style="34" customWidth="1"/>
+    <col min="10221" max="10221" width="1.28515625" style="34" customWidth="1"/>
     <col min="10222" max="10222" width="42" style="34" customWidth="1"/>
-    <col min="10223" max="10223" width="5.5" style="34" customWidth="1"/>
+    <col min="10223" max="10223" width="5.42578125" style="34" customWidth="1"/>
     <col min="10224" max="10225" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10226" max="10226" width="2.6640625" style="34" customWidth="1"/>
-    <col min="10227" max="10262" width="3.33203125" style="34" customWidth="1"/>
-    <col min="10263" max="10263" width="1.6640625" style="34" customWidth="1"/>
-    <col min="10264" max="10264" width="25.6640625" style="34" customWidth="1"/>
-    <col min="10265" max="10265" width="31.33203125" style="34" customWidth="1"/>
-    <col min="10266" max="10475" width="8.83203125" style="34"/>
-    <col min="10476" max="10476" width="1.5" style="34" customWidth="1"/>
-    <col min="10477" max="10477" width="1.33203125" style="34" customWidth="1"/>
+    <col min="10226" max="10226" width="2.7109375" style="34" customWidth="1"/>
+    <col min="10227" max="10262" width="3.28515625" style="34" customWidth="1"/>
+    <col min="10263" max="10263" width="1.7109375" style="34" customWidth="1"/>
+    <col min="10264" max="10264" width="25.7109375" style="34" customWidth="1"/>
+    <col min="10265" max="10265" width="31.28515625" style="34" customWidth="1"/>
+    <col min="10266" max="10475" width="8.85546875" style="34"/>
+    <col min="10476" max="10476" width="1.42578125" style="34" customWidth="1"/>
+    <col min="10477" max="10477" width="1.28515625" style="34" customWidth="1"/>
     <col min="10478" max="10478" width="42" style="34" customWidth="1"/>
-    <col min="10479" max="10479" width="5.5" style="34" customWidth="1"/>
+    <col min="10479" max="10479" width="5.42578125" style="34" customWidth="1"/>
     <col min="10480" max="10481" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10482" max="10482" width="2.6640625" style="34" customWidth="1"/>
-    <col min="10483" max="10518" width="3.33203125" style="34" customWidth="1"/>
-    <col min="10519" max="10519" width="1.6640625" style="34" customWidth="1"/>
-    <col min="10520" max="10520" width="25.6640625" style="34" customWidth="1"/>
-    <col min="10521" max="10521" width="31.33203125" style="34" customWidth="1"/>
-    <col min="10522" max="10731" width="8.83203125" style="34"/>
-    <col min="10732" max="10732" width="1.5" style="34" customWidth="1"/>
-    <col min="10733" max="10733" width="1.33203125" style="34" customWidth="1"/>
+    <col min="10482" max="10482" width="2.7109375" style="34" customWidth="1"/>
+    <col min="10483" max="10518" width="3.28515625" style="34" customWidth="1"/>
+    <col min="10519" max="10519" width="1.7109375" style="34" customWidth="1"/>
+    <col min="10520" max="10520" width="25.7109375" style="34" customWidth="1"/>
+    <col min="10521" max="10521" width="31.28515625" style="34" customWidth="1"/>
+    <col min="10522" max="10731" width="8.85546875" style="34"/>
+    <col min="10732" max="10732" width="1.42578125" style="34" customWidth="1"/>
+    <col min="10733" max="10733" width="1.28515625" style="34" customWidth="1"/>
     <col min="10734" max="10734" width="42" style="34" customWidth="1"/>
-    <col min="10735" max="10735" width="5.5" style="34" customWidth="1"/>
+    <col min="10735" max="10735" width="5.42578125" style="34" customWidth="1"/>
     <col min="10736" max="10737" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10738" max="10738" width="2.6640625" style="34" customWidth="1"/>
-    <col min="10739" max="10774" width="3.33203125" style="34" customWidth="1"/>
-    <col min="10775" max="10775" width="1.6640625" style="34" customWidth="1"/>
-    <col min="10776" max="10776" width="25.6640625" style="34" customWidth="1"/>
-    <col min="10777" max="10777" width="31.33203125" style="34" customWidth="1"/>
-    <col min="10778" max="10987" width="8.83203125" style="34"/>
-    <col min="10988" max="10988" width="1.5" style="34" customWidth="1"/>
-    <col min="10989" max="10989" width="1.33203125" style="34" customWidth="1"/>
+    <col min="10738" max="10738" width="2.7109375" style="34" customWidth="1"/>
+    <col min="10739" max="10774" width="3.28515625" style="34" customWidth="1"/>
+    <col min="10775" max="10775" width="1.7109375" style="34" customWidth="1"/>
+    <col min="10776" max="10776" width="25.7109375" style="34" customWidth="1"/>
+    <col min="10777" max="10777" width="31.28515625" style="34" customWidth="1"/>
+    <col min="10778" max="10987" width="8.85546875" style="34"/>
+    <col min="10988" max="10988" width="1.42578125" style="34" customWidth="1"/>
+    <col min="10989" max="10989" width="1.28515625" style="34" customWidth="1"/>
     <col min="10990" max="10990" width="42" style="34" customWidth="1"/>
-    <col min="10991" max="10991" width="5.5" style="34" customWidth="1"/>
+    <col min="10991" max="10991" width="5.42578125" style="34" customWidth="1"/>
     <col min="10992" max="10993" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10994" max="10994" width="2.6640625" style="34" customWidth="1"/>
-    <col min="10995" max="11030" width="3.33203125" style="34" customWidth="1"/>
-    <col min="11031" max="11031" width="1.6640625" style="34" customWidth="1"/>
-    <col min="11032" max="11032" width="25.6640625" style="34" customWidth="1"/>
-    <col min="11033" max="11033" width="31.33203125" style="34" customWidth="1"/>
-    <col min="11034" max="11243" width="8.83203125" style="34"/>
-    <col min="11244" max="11244" width="1.5" style="34" customWidth="1"/>
-    <col min="11245" max="11245" width="1.33203125" style="34" customWidth="1"/>
+    <col min="10994" max="10994" width="2.7109375" style="34" customWidth="1"/>
+    <col min="10995" max="11030" width="3.28515625" style="34" customWidth="1"/>
+    <col min="11031" max="11031" width="1.7109375" style="34" customWidth="1"/>
+    <col min="11032" max="11032" width="25.7109375" style="34" customWidth="1"/>
+    <col min="11033" max="11033" width="31.28515625" style="34" customWidth="1"/>
+    <col min="11034" max="11243" width="8.85546875" style="34"/>
+    <col min="11244" max="11244" width="1.42578125" style="34" customWidth="1"/>
+    <col min="11245" max="11245" width="1.28515625" style="34" customWidth="1"/>
     <col min="11246" max="11246" width="42" style="34" customWidth="1"/>
-    <col min="11247" max="11247" width="5.5" style="34" customWidth="1"/>
+    <col min="11247" max="11247" width="5.42578125" style="34" customWidth="1"/>
     <col min="11248" max="11249" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11250" max="11250" width="2.6640625" style="34" customWidth="1"/>
-    <col min="11251" max="11286" width="3.33203125" style="34" customWidth="1"/>
-    <col min="11287" max="11287" width="1.6640625" style="34" customWidth="1"/>
-    <col min="11288" max="11288" width="25.6640625" style="34" customWidth="1"/>
-    <col min="11289" max="11289" width="31.33203125" style="34" customWidth="1"/>
-    <col min="11290" max="11499" width="8.83203125" style="34"/>
-    <col min="11500" max="11500" width="1.5" style="34" customWidth="1"/>
-    <col min="11501" max="11501" width="1.33203125" style="34" customWidth="1"/>
+    <col min="11250" max="11250" width="2.7109375" style="34" customWidth="1"/>
+    <col min="11251" max="11286" width="3.28515625" style="34" customWidth="1"/>
+    <col min="11287" max="11287" width="1.7109375" style="34" customWidth="1"/>
+    <col min="11288" max="11288" width="25.7109375" style="34" customWidth="1"/>
+    <col min="11289" max="11289" width="31.28515625" style="34" customWidth="1"/>
+    <col min="11290" max="11499" width="8.85546875" style="34"/>
+    <col min="11500" max="11500" width="1.42578125" style="34" customWidth="1"/>
+    <col min="11501" max="11501" width="1.28515625" style="34" customWidth="1"/>
     <col min="11502" max="11502" width="42" style="34" customWidth="1"/>
-    <col min="11503" max="11503" width="5.5" style="34" customWidth="1"/>
+    <col min="11503" max="11503" width="5.42578125" style="34" customWidth="1"/>
     <col min="11504" max="11505" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11506" max="11506" width="2.6640625" style="34" customWidth="1"/>
-    <col min="11507" max="11542" width="3.33203125" style="34" customWidth="1"/>
-    <col min="11543" max="11543" width="1.6640625" style="34" customWidth="1"/>
-    <col min="11544" max="11544" width="25.6640625" style="34" customWidth="1"/>
-    <col min="11545" max="11545" width="31.33203125" style="34" customWidth="1"/>
-    <col min="11546" max="11755" width="8.83203125" style="34"/>
-    <col min="11756" max="11756" width="1.5" style="34" customWidth="1"/>
-    <col min="11757" max="11757" width="1.33203125" style="34" customWidth="1"/>
+    <col min="11506" max="11506" width="2.7109375" style="34" customWidth="1"/>
+    <col min="11507" max="11542" width="3.28515625" style="34" customWidth="1"/>
+    <col min="11543" max="11543" width="1.7109375" style="34" customWidth="1"/>
+    <col min="11544" max="11544" width="25.7109375" style="34" customWidth="1"/>
+    <col min="11545" max="11545" width="31.28515625" style="34" customWidth="1"/>
+    <col min="11546" max="11755" width="8.85546875" style="34"/>
+    <col min="11756" max="11756" width="1.42578125" style="34" customWidth="1"/>
+    <col min="11757" max="11757" width="1.28515625" style="34" customWidth="1"/>
     <col min="11758" max="11758" width="42" style="34" customWidth="1"/>
-    <col min="11759" max="11759" width="5.5" style="34" customWidth="1"/>
+    <col min="11759" max="11759" width="5.42578125" style="34" customWidth="1"/>
     <col min="11760" max="11761" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11762" max="11762" width="2.6640625" style="34" customWidth="1"/>
-    <col min="11763" max="11798" width="3.33203125" style="34" customWidth="1"/>
-    <col min="11799" max="11799" width="1.6640625" style="34" customWidth="1"/>
-    <col min="11800" max="11800" width="25.6640625" style="34" customWidth="1"/>
-    <col min="11801" max="11801" width="31.33203125" style="34" customWidth="1"/>
-    <col min="11802" max="12011" width="8.83203125" style="34"/>
-    <col min="12012" max="12012" width="1.5" style="34" customWidth="1"/>
-    <col min="12013" max="12013" width="1.33203125" style="34" customWidth="1"/>
+    <col min="11762" max="11762" width="2.7109375" style="34" customWidth="1"/>
+    <col min="11763" max="11798" width="3.28515625" style="34" customWidth="1"/>
+    <col min="11799" max="11799" width="1.7109375" style="34" customWidth="1"/>
+    <col min="11800" max="11800" width="25.7109375" style="34" customWidth="1"/>
+    <col min="11801" max="11801" width="31.28515625" style="34" customWidth="1"/>
+    <col min="11802" max="12011" width="8.85546875" style="34"/>
+    <col min="12012" max="12012" width="1.42578125" style="34" customWidth="1"/>
+    <col min="12013" max="12013" width="1.28515625" style="34" customWidth="1"/>
     <col min="12014" max="12014" width="42" style="34" customWidth="1"/>
-    <col min="12015" max="12015" width="5.5" style="34" customWidth="1"/>
+    <col min="12015" max="12015" width="5.42578125" style="34" customWidth="1"/>
     <col min="12016" max="12017" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12018" max="12018" width="2.6640625" style="34" customWidth="1"/>
-    <col min="12019" max="12054" width="3.33203125" style="34" customWidth="1"/>
-    <col min="12055" max="12055" width="1.6640625" style="34" customWidth="1"/>
-    <col min="12056" max="12056" width="25.6640625" style="34" customWidth="1"/>
-    <col min="12057" max="12057" width="31.33203125" style="34" customWidth="1"/>
-    <col min="12058" max="12267" width="8.83203125" style="34"/>
-    <col min="12268" max="12268" width="1.5" style="34" customWidth="1"/>
-    <col min="12269" max="12269" width="1.33203125" style="34" customWidth="1"/>
+    <col min="12018" max="12018" width="2.7109375" style="34" customWidth="1"/>
+    <col min="12019" max="12054" width="3.28515625" style="34" customWidth="1"/>
+    <col min="12055" max="12055" width="1.7109375" style="34" customWidth="1"/>
+    <col min="12056" max="12056" width="25.7109375" style="34" customWidth="1"/>
+    <col min="12057" max="12057" width="31.28515625" style="34" customWidth="1"/>
+    <col min="12058" max="12267" width="8.85546875" style="34"/>
+    <col min="12268" max="12268" width="1.42578125" style="34" customWidth="1"/>
+    <col min="12269" max="12269" width="1.28515625" style="34" customWidth="1"/>
     <col min="12270" max="12270" width="42" style="34" customWidth="1"/>
-    <col min="12271" max="12271" width="5.5" style="34" customWidth="1"/>
+    <col min="12271" max="12271" width="5.42578125" style="34" customWidth="1"/>
     <col min="12272" max="12273" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12274" max="12274" width="2.6640625" style="34" customWidth="1"/>
-    <col min="12275" max="12310" width="3.33203125" style="34" customWidth="1"/>
-    <col min="12311" max="12311" width="1.6640625" style="34" customWidth="1"/>
-    <col min="12312" max="12312" width="25.6640625" style="34" customWidth="1"/>
-    <col min="12313" max="12313" width="31.33203125" style="34" customWidth="1"/>
-    <col min="12314" max="12523" width="8.83203125" style="34"/>
-    <col min="12524" max="12524" width="1.5" style="34" customWidth="1"/>
-    <col min="12525" max="12525" width="1.33203125" style="34" customWidth="1"/>
+    <col min="12274" max="12274" width="2.7109375" style="34" customWidth="1"/>
+    <col min="12275" max="12310" width="3.28515625" style="34" customWidth="1"/>
+    <col min="12311" max="12311" width="1.7109375" style="34" customWidth="1"/>
+    <col min="12312" max="12312" width="25.7109375" style="34" customWidth="1"/>
+    <col min="12313" max="12313" width="31.28515625" style="34" customWidth="1"/>
+    <col min="12314" max="12523" width="8.85546875" style="34"/>
+    <col min="12524" max="12524" width="1.42578125" style="34" customWidth="1"/>
+    <col min="12525" max="12525" width="1.28515625" style="34" customWidth="1"/>
     <col min="12526" max="12526" width="42" style="34" customWidth="1"/>
-    <col min="12527" max="12527" width="5.5" style="34" customWidth="1"/>
+    <col min="12527" max="12527" width="5.42578125" style="34" customWidth="1"/>
     <col min="12528" max="12529" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12530" max="12530" width="2.6640625" style="34" customWidth="1"/>
-    <col min="12531" max="12566" width="3.33203125" style="34" customWidth="1"/>
-    <col min="12567" max="12567" width="1.6640625" style="34" customWidth="1"/>
-    <col min="12568" max="12568" width="25.6640625" style="34" customWidth="1"/>
-    <col min="12569" max="12569" width="31.33203125" style="34" customWidth="1"/>
-    <col min="12570" max="12779" width="8.83203125" style="34"/>
-    <col min="12780" max="12780" width="1.5" style="34" customWidth="1"/>
-    <col min="12781" max="12781" width="1.33203125" style="34" customWidth="1"/>
+    <col min="12530" max="12530" width="2.7109375" style="34" customWidth="1"/>
+    <col min="12531" max="12566" width="3.28515625" style="34" customWidth="1"/>
+    <col min="12567" max="12567" width="1.7109375" style="34" customWidth="1"/>
+    <col min="12568" max="12568" width="25.7109375" style="34" customWidth="1"/>
+    <col min="12569" max="12569" width="31.28515625" style="34" customWidth="1"/>
+    <col min="12570" max="12779" width="8.85546875" style="34"/>
+    <col min="12780" max="12780" width="1.42578125" style="34" customWidth="1"/>
+    <col min="12781" max="12781" width="1.28515625" style="34" customWidth="1"/>
     <col min="12782" max="12782" width="42" style="34" customWidth="1"/>
-    <col min="12783" max="12783" width="5.5" style="34" customWidth="1"/>
+    <col min="12783" max="12783" width="5.42578125" style="34" customWidth="1"/>
     <col min="12784" max="12785" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12786" max="12786" width="2.6640625" style="34" customWidth="1"/>
-    <col min="12787" max="12822" width="3.33203125" style="34" customWidth="1"/>
-    <col min="12823" max="12823" width="1.6640625" style="34" customWidth="1"/>
-    <col min="12824" max="12824" width="25.6640625" style="34" customWidth="1"/>
-    <col min="12825" max="12825" width="31.33203125" style="34" customWidth="1"/>
-    <col min="12826" max="13035" width="8.83203125" style="34"/>
-    <col min="13036" max="13036" width="1.5" style="34" customWidth="1"/>
-    <col min="13037" max="13037" width="1.33203125" style="34" customWidth="1"/>
+    <col min="12786" max="12786" width="2.7109375" style="34" customWidth="1"/>
+    <col min="12787" max="12822" width="3.28515625" style="34" customWidth="1"/>
+    <col min="12823" max="12823" width="1.7109375" style="34" customWidth="1"/>
+    <col min="12824" max="12824" width="25.7109375" style="34" customWidth="1"/>
+    <col min="12825" max="12825" width="31.28515625" style="34" customWidth="1"/>
+    <col min="12826" max="13035" width="8.85546875" style="34"/>
+    <col min="13036" max="13036" width="1.42578125" style="34" customWidth="1"/>
+    <col min="13037" max="13037" width="1.28515625" style="34" customWidth="1"/>
     <col min="13038" max="13038" width="42" style="34" customWidth="1"/>
-    <col min="13039" max="13039" width="5.5" style="34" customWidth="1"/>
+    <col min="13039" max="13039" width="5.42578125" style="34" customWidth="1"/>
     <col min="13040" max="13041" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13042" max="13042" width="2.6640625" style="34" customWidth="1"/>
-    <col min="13043" max="13078" width="3.33203125" style="34" customWidth="1"/>
-    <col min="13079" max="13079" width="1.6640625" style="34" customWidth="1"/>
-    <col min="13080" max="13080" width="25.6640625" style="34" customWidth="1"/>
-    <col min="13081" max="13081" width="31.33203125" style="34" customWidth="1"/>
-    <col min="13082" max="13291" width="8.83203125" style="34"/>
-    <col min="13292" max="13292" width="1.5" style="34" customWidth="1"/>
-    <col min="13293" max="13293" width="1.33203125" style="34" customWidth="1"/>
+    <col min="13042" max="13042" width="2.7109375" style="34" customWidth="1"/>
+    <col min="13043" max="13078" width="3.28515625" style="34" customWidth="1"/>
+    <col min="13079" max="13079" width="1.7109375" style="34" customWidth="1"/>
+    <col min="13080" max="13080" width="25.7109375" style="34" customWidth="1"/>
+    <col min="13081" max="13081" width="31.28515625" style="34" customWidth="1"/>
+    <col min="13082" max="13291" width="8.85546875" style="34"/>
+    <col min="13292" max="13292" width="1.42578125" style="34" customWidth="1"/>
+    <col min="13293" max="13293" width="1.28515625" style="34" customWidth="1"/>
     <col min="13294" max="13294" width="42" style="34" customWidth="1"/>
-    <col min="13295" max="13295" width="5.5" style="34" customWidth="1"/>
+    <col min="13295" max="13295" width="5.42578125" style="34" customWidth="1"/>
     <col min="13296" max="13297" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13298" max="13298" width="2.6640625" style="34" customWidth="1"/>
-    <col min="13299" max="13334" width="3.33203125" style="34" customWidth="1"/>
-    <col min="13335" max="13335" width="1.6640625" style="34" customWidth="1"/>
-    <col min="13336" max="13336" width="25.6640625" style="34" customWidth="1"/>
-    <col min="13337" max="13337" width="31.33203125" style="34" customWidth="1"/>
-    <col min="13338" max="13547" width="8.83203125" style="34"/>
-    <col min="13548" max="13548" width="1.5" style="34" customWidth="1"/>
-    <col min="13549" max="13549" width="1.33203125" style="34" customWidth="1"/>
+    <col min="13298" max="13298" width="2.7109375" style="34" customWidth="1"/>
+    <col min="13299" max="13334" width="3.28515625" style="34" customWidth="1"/>
+    <col min="13335" max="13335" width="1.7109375" style="34" customWidth="1"/>
+    <col min="13336" max="13336" width="25.7109375" style="34" customWidth="1"/>
+    <col min="13337" max="13337" width="31.28515625" style="34" customWidth="1"/>
+    <col min="13338" max="13547" width="8.85546875" style="34"/>
+    <col min="13548" max="13548" width="1.42578125" style="34" customWidth="1"/>
+    <col min="13549" max="13549" width="1.28515625" style="34" customWidth="1"/>
     <col min="13550" max="13550" width="42" style="34" customWidth="1"/>
-    <col min="13551" max="13551" width="5.5" style="34" customWidth="1"/>
+    <col min="13551" max="13551" width="5.42578125" style="34" customWidth="1"/>
     <col min="13552" max="13553" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13554" max="13554" width="2.6640625" style="34" customWidth="1"/>
-    <col min="13555" max="13590" width="3.33203125" style="34" customWidth="1"/>
-    <col min="13591" max="13591" width="1.6640625" style="34" customWidth="1"/>
-    <col min="13592" max="13592" width="25.6640625" style="34" customWidth="1"/>
-    <col min="13593" max="13593" width="31.33203125" style="34" customWidth="1"/>
-    <col min="13594" max="13803" width="8.83203125" style="34"/>
-    <col min="13804" max="13804" width="1.5" style="34" customWidth="1"/>
-    <col min="13805" max="13805" width="1.33203125" style="34" customWidth="1"/>
+    <col min="13554" max="13554" width="2.7109375" style="34" customWidth="1"/>
+    <col min="13555" max="13590" width="3.28515625" style="34" customWidth="1"/>
+    <col min="13591" max="13591" width="1.7109375" style="34" customWidth="1"/>
+    <col min="13592" max="13592" width="25.7109375" style="34" customWidth="1"/>
+    <col min="13593" max="13593" width="31.28515625" style="34" customWidth="1"/>
+    <col min="13594" max="13803" width="8.85546875" style="34"/>
+    <col min="13804" max="13804" width="1.42578125" style="34" customWidth="1"/>
+    <col min="13805" max="13805" width="1.28515625" style="34" customWidth="1"/>
     <col min="13806" max="13806" width="42" style="34" customWidth="1"/>
-    <col min="13807" max="13807" width="5.5" style="34" customWidth="1"/>
+    <col min="13807" max="13807" width="5.42578125" style="34" customWidth="1"/>
     <col min="13808" max="13809" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13810" max="13810" width="2.6640625" style="34" customWidth="1"/>
-    <col min="13811" max="13846" width="3.33203125" style="34" customWidth="1"/>
-    <col min="13847" max="13847" width="1.6640625" style="34" customWidth="1"/>
-    <col min="13848" max="13848" width="25.6640625" style="34" customWidth="1"/>
-    <col min="13849" max="13849" width="31.33203125" style="34" customWidth="1"/>
-    <col min="13850" max="14059" width="8.83203125" style="34"/>
-    <col min="14060" max="14060" width="1.5" style="34" customWidth="1"/>
-    <col min="14061" max="14061" width="1.33203125" style="34" customWidth="1"/>
+    <col min="13810" max="13810" width="2.7109375" style="34" customWidth="1"/>
+    <col min="13811" max="13846" width="3.28515625" style="34" customWidth="1"/>
+    <col min="13847" max="13847" width="1.7109375" style="34" customWidth="1"/>
+    <col min="13848" max="13848" width="25.7109375" style="34" customWidth="1"/>
+    <col min="13849" max="13849" width="31.28515625" style="34" customWidth="1"/>
+    <col min="13850" max="14059" width="8.85546875" style="34"/>
+    <col min="14060" max="14060" width="1.42578125" style="34" customWidth="1"/>
+    <col min="14061" max="14061" width="1.28515625" style="34" customWidth="1"/>
     <col min="14062" max="14062" width="42" style="34" customWidth="1"/>
-    <col min="14063" max="14063" width="5.5" style="34" customWidth="1"/>
+    <col min="14063" max="14063" width="5.42578125" style="34" customWidth="1"/>
     <col min="14064" max="14065" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14066" max="14066" width="2.6640625" style="34" customWidth="1"/>
-    <col min="14067" max="14102" width="3.33203125" style="34" customWidth="1"/>
-    <col min="14103" max="14103" width="1.6640625" style="34" customWidth="1"/>
-    <col min="14104" max="14104" width="25.6640625" style="34" customWidth="1"/>
-    <col min="14105" max="14105" width="31.33203125" style="34" customWidth="1"/>
-    <col min="14106" max="14315" width="8.83203125" style="34"/>
-    <col min="14316" max="14316" width="1.5" style="34" customWidth="1"/>
-    <col min="14317" max="14317" width="1.33203125" style="34" customWidth="1"/>
+    <col min="14066" max="14066" width="2.7109375" style="34" customWidth="1"/>
+    <col min="14067" max="14102" width="3.28515625" style="34" customWidth="1"/>
+    <col min="14103" max="14103" width="1.7109375" style="34" customWidth="1"/>
+    <col min="14104" max="14104" width="25.7109375" style="34" customWidth="1"/>
+    <col min="14105" max="14105" width="31.28515625" style="34" customWidth="1"/>
+    <col min="14106" max="14315" width="8.85546875" style="34"/>
+    <col min="14316" max="14316" width="1.42578125" style="34" customWidth="1"/>
+    <col min="14317" max="14317" width="1.28515625" style="34" customWidth="1"/>
     <col min="14318" max="14318" width="42" style="34" customWidth="1"/>
-    <col min="14319" max="14319" width="5.5" style="34" customWidth="1"/>
+    <col min="14319" max="14319" width="5.42578125" style="34" customWidth="1"/>
     <col min="14320" max="14321" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14322" max="14322" width="2.6640625" style="34" customWidth="1"/>
-    <col min="14323" max="14358" width="3.33203125" style="34" customWidth="1"/>
-    <col min="14359" max="14359" width="1.6640625" style="34" customWidth="1"/>
-    <col min="14360" max="14360" width="25.6640625" style="34" customWidth="1"/>
-    <col min="14361" max="14361" width="31.33203125" style="34" customWidth="1"/>
-    <col min="14362" max="14571" width="8.83203125" style="34"/>
-    <col min="14572" max="14572" width="1.5" style="34" customWidth="1"/>
-    <col min="14573" max="14573" width="1.33203125" style="34" customWidth="1"/>
+    <col min="14322" max="14322" width="2.7109375" style="34" customWidth="1"/>
+    <col min="14323" max="14358" width="3.28515625" style="34" customWidth="1"/>
+    <col min="14359" max="14359" width="1.7109375" style="34" customWidth="1"/>
+    <col min="14360" max="14360" width="25.7109375" style="34" customWidth="1"/>
+    <col min="14361" max="14361" width="31.28515625" style="34" customWidth="1"/>
+    <col min="14362" max="14571" width="8.85546875" style="34"/>
+    <col min="14572" max="14572" width="1.42578125" style="34" customWidth="1"/>
+    <col min="14573" max="14573" width="1.28515625" style="34" customWidth="1"/>
     <col min="14574" max="14574" width="42" style="34" customWidth="1"/>
-    <col min="14575" max="14575" width="5.5" style="34" customWidth="1"/>
+    <col min="14575" max="14575" width="5.42578125" style="34" customWidth="1"/>
     <col min="14576" max="14577" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14578" max="14578" width="2.6640625" style="34" customWidth="1"/>
-    <col min="14579" max="14614" width="3.33203125" style="34" customWidth="1"/>
-    <col min="14615" max="14615" width="1.6640625" style="34" customWidth="1"/>
-    <col min="14616" max="14616" width="25.6640625" style="34" customWidth="1"/>
-    <col min="14617" max="14617" width="31.33203125" style="34" customWidth="1"/>
-    <col min="14618" max="14827" width="8.83203125" style="34"/>
-    <col min="14828" max="14828" width="1.5" style="34" customWidth="1"/>
-    <col min="14829" max="14829" width="1.33203125" style="34" customWidth="1"/>
+    <col min="14578" max="14578" width="2.7109375" style="34" customWidth="1"/>
+    <col min="14579" max="14614" width="3.28515625" style="34" customWidth="1"/>
+    <col min="14615" max="14615" width="1.7109375" style="34" customWidth="1"/>
+    <col min="14616" max="14616" width="25.7109375" style="34" customWidth="1"/>
+    <col min="14617" max="14617" width="31.28515625" style="34" customWidth="1"/>
+    <col min="14618" max="14827" width="8.85546875" style="34"/>
+    <col min="14828" max="14828" width="1.42578125" style="34" customWidth="1"/>
+    <col min="14829" max="14829" width="1.28515625" style="34" customWidth="1"/>
     <col min="14830" max="14830" width="42" style="34" customWidth="1"/>
-    <col min="14831" max="14831" width="5.5" style="34" customWidth="1"/>
+    <col min="14831" max="14831" width="5.42578125" style="34" customWidth="1"/>
     <col min="14832" max="14833" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14834" max="14834" width="2.6640625" style="34" customWidth="1"/>
-    <col min="14835" max="14870" width="3.33203125" style="34" customWidth="1"/>
-    <col min="14871" max="14871" width="1.6640625" style="34" customWidth="1"/>
-    <col min="14872" max="14872" width="25.6640625" style="34" customWidth="1"/>
-    <col min="14873" max="14873" width="31.33203125" style="34" customWidth="1"/>
-    <col min="14874" max="15083" width="8.83203125" style="34"/>
-    <col min="15084" max="15084" width="1.5" style="34" customWidth="1"/>
-    <col min="15085" max="15085" width="1.33203125" style="34" customWidth="1"/>
+    <col min="14834" max="14834" width="2.7109375" style="34" customWidth="1"/>
+    <col min="14835" max="14870" width="3.28515625" style="34" customWidth="1"/>
+    <col min="14871" max="14871" width="1.7109375" style="34" customWidth="1"/>
+    <col min="14872" max="14872" width="25.7109375" style="34" customWidth="1"/>
+    <col min="14873" max="14873" width="31.28515625" style="34" customWidth="1"/>
+    <col min="14874" max="15083" width="8.85546875" style="34"/>
+    <col min="15084" max="15084" width="1.42578125" style="34" customWidth="1"/>
+    <col min="15085" max="15085" width="1.28515625" style="34" customWidth="1"/>
     <col min="15086" max="15086" width="42" style="34" customWidth="1"/>
-    <col min="15087" max="15087" width="5.5" style="34" customWidth="1"/>
+    <col min="15087" max="15087" width="5.42578125" style="34" customWidth="1"/>
     <col min="15088" max="15089" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15090" max="15090" width="2.6640625" style="34" customWidth="1"/>
-    <col min="15091" max="15126" width="3.33203125" style="34" customWidth="1"/>
-    <col min="15127" max="15127" width="1.6640625" style="34" customWidth="1"/>
-    <col min="15128" max="15128" width="25.6640625" style="34" customWidth="1"/>
-    <col min="15129" max="15129" width="31.33203125" style="34" customWidth="1"/>
-    <col min="15130" max="15339" width="8.83203125" style="34"/>
-    <col min="15340" max="15340" width="1.5" style="34" customWidth="1"/>
-    <col min="15341" max="15341" width="1.33203125" style="34" customWidth="1"/>
+    <col min="15090" max="15090" width="2.7109375" style="34" customWidth="1"/>
+    <col min="15091" max="15126" width="3.28515625" style="34" customWidth="1"/>
+    <col min="15127" max="15127" width="1.7109375" style="34" customWidth="1"/>
+    <col min="15128" max="15128" width="25.7109375" style="34" customWidth="1"/>
+    <col min="15129" max="15129" width="31.28515625" style="34" customWidth="1"/>
+    <col min="15130" max="15339" width="8.85546875" style="34"/>
+    <col min="15340" max="15340" width="1.42578125" style="34" customWidth="1"/>
+    <col min="15341" max="15341" width="1.28515625" style="34" customWidth="1"/>
     <col min="15342" max="15342" width="42" style="34" customWidth="1"/>
-    <col min="15343" max="15343" width="5.5" style="34" customWidth="1"/>
+    <col min="15343" max="15343" width="5.42578125" style="34" customWidth="1"/>
     <col min="15344" max="15345" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15346" max="15346" width="2.6640625" style="34" customWidth="1"/>
-    <col min="15347" max="15382" width="3.33203125" style="34" customWidth="1"/>
-    <col min="15383" max="15383" width="1.6640625" style="34" customWidth="1"/>
-    <col min="15384" max="15384" width="25.6640625" style="34" customWidth="1"/>
-    <col min="15385" max="15385" width="31.33203125" style="34" customWidth="1"/>
-    <col min="15386" max="15595" width="8.83203125" style="34"/>
-    <col min="15596" max="15596" width="1.5" style="34" customWidth="1"/>
-    <col min="15597" max="15597" width="1.33203125" style="34" customWidth="1"/>
+    <col min="15346" max="15346" width="2.7109375" style="34" customWidth="1"/>
+    <col min="15347" max="15382" width="3.28515625" style="34" customWidth="1"/>
+    <col min="15383" max="15383" width="1.7109375" style="34" customWidth="1"/>
+    <col min="15384" max="15384" width="25.7109375" style="34" customWidth="1"/>
+    <col min="15385" max="15385" width="31.28515625" style="34" customWidth="1"/>
+    <col min="15386" max="15595" width="8.85546875" style="34"/>
+    <col min="15596" max="15596" width="1.42578125" style="34" customWidth="1"/>
+    <col min="15597" max="15597" width="1.28515625" style="34" customWidth="1"/>
     <col min="15598" max="15598" width="42" style="34" customWidth="1"/>
-    <col min="15599" max="15599" width="5.5" style="34" customWidth="1"/>
+    <col min="15599" max="15599" width="5.42578125" style="34" customWidth="1"/>
     <col min="15600" max="15601" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15602" max="15602" width="2.6640625" style="34" customWidth="1"/>
-    <col min="15603" max="15638" width="3.33203125" style="34" customWidth="1"/>
-    <col min="15639" max="15639" width="1.6640625" style="34" customWidth="1"/>
-    <col min="15640" max="15640" width="25.6640625" style="34" customWidth="1"/>
-    <col min="15641" max="15641" width="31.33203125" style="34" customWidth="1"/>
-    <col min="15642" max="15851" width="8.83203125" style="34"/>
-    <col min="15852" max="15852" width="1.5" style="34" customWidth="1"/>
-    <col min="15853" max="15853" width="1.33203125" style="34" customWidth="1"/>
+    <col min="15602" max="15602" width="2.7109375" style="34" customWidth="1"/>
+    <col min="15603" max="15638" width="3.28515625" style="34" customWidth="1"/>
+    <col min="15639" max="15639" width="1.7109375" style="34" customWidth="1"/>
+    <col min="15640" max="15640" width="25.7109375" style="34" customWidth="1"/>
+    <col min="15641" max="15641" width="31.28515625" style="34" customWidth="1"/>
+    <col min="15642" max="15851" width="8.85546875" style="34"/>
+    <col min="15852" max="15852" width="1.42578125" style="34" customWidth="1"/>
+    <col min="15853" max="15853" width="1.28515625" style="34" customWidth="1"/>
     <col min="15854" max="15854" width="42" style="34" customWidth="1"/>
-    <col min="15855" max="15855" width="5.5" style="34" customWidth="1"/>
+    <col min="15855" max="15855" width="5.42578125" style="34" customWidth="1"/>
     <col min="15856" max="15857" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15858" max="15858" width="2.6640625" style="34" customWidth="1"/>
-    <col min="15859" max="15894" width="3.33203125" style="34" customWidth="1"/>
-    <col min="15895" max="15895" width="1.6640625" style="34" customWidth="1"/>
-    <col min="15896" max="15896" width="25.6640625" style="34" customWidth="1"/>
-    <col min="15897" max="15897" width="31.33203125" style="34" customWidth="1"/>
-    <col min="15898" max="16107" width="8.83203125" style="34"/>
-    <col min="16108" max="16108" width="1.5" style="34" customWidth="1"/>
-    <col min="16109" max="16109" width="1.33203125" style="34" customWidth="1"/>
+    <col min="15858" max="15858" width="2.7109375" style="34" customWidth="1"/>
+    <col min="15859" max="15894" width="3.28515625" style="34" customWidth="1"/>
+    <col min="15895" max="15895" width="1.7109375" style="34" customWidth="1"/>
+    <col min="15896" max="15896" width="25.7109375" style="34" customWidth="1"/>
+    <col min="15897" max="15897" width="31.28515625" style="34" customWidth="1"/>
+    <col min="15898" max="16107" width="8.85546875" style="34"/>
+    <col min="16108" max="16108" width="1.42578125" style="34" customWidth="1"/>
+    <col min="16109" max="16109" width="1.28515625" style="34" customWidth="1"/>
     <col min="16110" max="16110" width="42" style="34" customWidth="1"/>
-    <col min="16111" max="16111" width="5.5" style="34" customWidth="1"/>
+    <col min="16111" max="16111" width="5.42578125" style="34" customWidth="1"/>
     <col min="16112" max="16113" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="16114" max="16114" width="2.6640625" style="34" customWidth="1"/>
-    <col min="16115" max="16150" width="3.33203125" style="34" customWidth="1"/>
-    <col min="16151" max="16151" width="1.6640625" style="34" customWidth="1"/>
-    <col min="16152" max="16152" width="25.6640625" style="34" customWidth="1"/>
-    <col min="16153" max="16153" width="31.33203125" style="34" customWidth="1"/>
-    <col min="16154" max="16384" width="8.83203125" style="34"/>
+    <col min="16114" max="16114" width="2.7109375" style="34" customWidth="1"/>
+    <col min="16115" max="16150" width="3.28515625" style="34" customWidth="1"/>
+    <col min="16151" max="16151" width="1.7109375" style="34" customWidth="1"/>
+    <col min="16152" max="16152" width="25.7109375" style="34" customWidth="1"/>
+    <col min="16153" max="16153" width="31.28515625" style="34" customWidth="1"/>
+    <col min="16154" max="16384" width="8.85546875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:34" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="2:34" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="2:34" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="34"/>
     </row>
-    <row r="3" spans="2:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="D3" s="93" t="s">
         <v>59</v>
-      </c>
-      <c r="D3" s="93" t="s">
-        <v>60</v>
       </c>
       <c r="AD3" s="34"/>
       <c r="AE3" s="34"/>
@@ -7690,15 +7720,15 @@
       <c r="AG3" s="34"/>
       <c r="AH3" s="34"/>
     </row>
-    <row r="4" spans="2:34" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:34" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B4" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="95" t="s">
-        <v>75</v>
-      </c>
       <c r="D4" s="84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD4" s="34"/>
       <c r="AE4" s="34"/>
@@ -7706,15 +7736,15 @@
       <c r="AG4" s="34"/>
       <c r="AH4" s="34"/>
     </row>
-    <row r="5" spans="2:34" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B5" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="95" t="s">
-        <v>77</v>
-      </c>
       <c r="D5" s="84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD5" s="34"/>
       <c r="AE5" s="34"/>
@@ -7722,15 +7752,15 @@
       <c r="AG5" s="34"/>
       <c r="AH5" s="34"/>
     </row>
-    <row r="6" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="95" t="s">
-        <v>79</v>
-      </c>
       <c r="D6" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD6" s="34"/>
       <c r="AE6" s="34"/>
@@ -7738,15 +7768,15 @@
       <c r="AG6" s="34"/>
       <c r="AH6" s="34"/>
     </row>
-    <row r="7" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="95" t="s">
-        <v>81</v>
-      </c>
       <c r="D7" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD7" s="34"/>
       <c r="AE7" s="34"/>
@@ -7754,15 +7784,15 @@
       <c r="AG7" s="34"/>
       <c r="AH7" s="34"/>
     </row>
-    <row r="8" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="95" t="s">
-        <v>83</v>
-      </c>
       <c r="D8" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD8" s="34"/>
       <c r="AE8" s="34"/>
@@ -7770,15 +7800,15 @@
       <c r="AG8" s="34"/>
       <c r="AH8" s="34"/>
     </row>
-    <row r="9" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="95" t="s">
-        <v>85</v>
-      </c>
       <c r="D9" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD9" s="34"/>
       <c r="AE9" s="34"/>
@@ -7786,7 +7816,7 @@
       <c r="AG9" s="34"/>
       <c r="AH9" s="34"/>
     </row>
-    <row r="10" spans="2:34" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B10" s="85"/>
       <c r="C10" s="86"/>
       <c r="D10" s="87"/>
@@ -7796,7 +7826,7 @@
       <c r="AG10" s="34"/>
       <c r="AH10" s="34"/>
     </row>
-    <row r="11" spans="2:34" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B11" s="85"/>
       <c r="C11" s="86"/>
       <c r="D11" s="87"/>
@@ -7806,7 +7836,7 @@
       <c r="AG11" s="34"/>
       <c r="AH11" s="34"/>
     </row>
-    <row r="12" spans="2:34" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B12" s="85"/>
       <c r="C12" s="86"/>
       <c r="D12" s="87"/>
@@ -7816,7 +7846,7 @@
       <c r="AG12" s="34"/>
       <c r="AH12" s="34"/>
     </row>
-    <row r="13" spans="2:34" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B13" s="85"/>
       <c r="C13" s="86"/>
       <c r="D13" s="87"/>
@@ -7826,79 +7856,79 @@
       <c r="AG13" s="34"/>
       <c r="AH13" s="34"/>
     </row>
-    <row r="14" spans="2:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B14" s="20"/>
       <c r="C14" s="48"/>
       <c r="D14" s="49"/>
     </row>
-    <row r="15" spans="2:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="49"/>
     </row>
-    <row r="16" spans="2:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="49"/>
     </row>
-    <row r="17" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="49"/>
     </row>
-    <row r="18" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
       <c r="D19" s="49"/>
     </row>
-    <row r="20" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="49"/>
     </row>
-    <row r="21" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="49"/>
     </row>
-    <row r="22" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="49"/>
     </row>
-    <row r="23" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="49"/>
     </row>
-    <row r="24" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
       <c r="D24" s="49"/>
     </row>
-    <row r="25" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
       <c r="D25" s="49"/>
     </row>
-    <row r="26" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
       <c r="D26" s="49"/>
     </row>
-    <row r="27" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B27" s="48"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B28" s="48"/>
     </row>
-    <row r="29" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B29" s="48"/>
     </row>
   </sheetData>
@@ -7920,6 +7950,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>02 Departmental document</p:Name>
+  <p:Description/>
+  <p:Statement/>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.PolicyLabel">
+      <p:Name>Labels</p:Name>
+      <p:Description>Generates labels that can be inserted in Microsoft Office documents to ensure that document properties or other important information are included when documents are printed. Labels can also be used to search for documents.</p:Description>
+      <p:CustomData>
+        <label>
+          <segment type="metadata">_UIVersionString</segment>
+          <segment type="literal">\n</segment>
+          <segment type="metadata">_ModerationStatus</segment>
+        </label>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="02 Departmental document" ma:contentTypeID="0x0101001E9AF57F6A6FB1498E6BAB1704371DB9020048B3E13A56EC2B4880B8E17388254DB6" ma:contentTypeVersion="42" ma:contentTypeDescription="A document under departmental control" ma:contentTypeScope="" ma:versionID="28e15f56482d8af7e67347cbef2a0996">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5db227b6-3c56-4158-ad71-bd648583e357" xmlns:ns3="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa83b77159cc0e9c22a0bfa7b50ba950" ns2:_="" ns3:_="">
     <xsd:import namespace="5db227b6-3c56-4158-ad71-bd648583e357"/>
@@ -8309,38 +8361,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>02 Departmental document</p:Name>
-  <p:Description/>
-  <p:Statement/>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.PolicyLabel">
-      <p:Name>Labels</p:Name>
-      <p:Description>Generates labels that can be inserted in Microsoft Office documents to ensure that document properties or other important information are included when documents are printed. Labels can also be used to search for documents.</p:Description>
-      <p:CustomData>
-        <label>
-          <segment type="metadata">_UIVersionString</segment>
-          <segment type="literal">\n</segment>
-          <segment type="metadata">_ModerationStatus</segment>
-        </label>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <View_x0020_CRM xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_CRM>
@@ -8386,7 +8407,24 @@
 </p:properties>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E0ECFB5-0E65-4944-A2C3-A12752EA8F83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="office.server.policy"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3331877D-A973-4A26-8E19-E1DD744074D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8405,23 +8443,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E0ECFB5-0E65-4944-A2C3-A12752EA8F83}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F20991C-9C75-4A23-AD56-83877EA734AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1320B1-D764-4C81-9B48-5F60482C3805}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -8436,4 +8458,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F20991C-9C75-4A23-AD56-83877EA734AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/External/Residual_Anomalies_CommLib_Android_JaiVis-20161118-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_CommLib_Android_JaiVis-20161118-01V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="689" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="689"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -465,9 +465,6 @@
     <t>Review comments</t>
   </si>
   <si>
-    <t>2016-DEC-01</t>
-  </si>
-  <si>
     <t>2016-Dec-13</t>
   </si>
   <si>
@@ -484,6 +481,9 @@
   </si>
   <si>
     <t>approved</t>
+  </si>
+  <si>
+    <t>2016-DEC-13</t>
   </si>
 </sst>
 </file>
@@ -1314,6 +1314,14 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1381,14 +1389,6 @@
     <xf numFmtId="0" fontId="37" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2626,8 +2626,8 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2677,11 +2677,11 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -2747,10 +2747,10 @@
       <c r="C12" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="106" t="s">
+      <c r="D12" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="106"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="28" t="s">
         <v>16</v>
       </c>
@@ -2763,12 +2763,12 @@
         <v>13</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="107"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="28" t="s">
         <v>17</v>
       </c>
@@ -2780,11 +2780,11 @@
       <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="140" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
+      <c r="C14" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="28" t="s">
         <v>18</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>34</v>
@@ -2842,7 +2842,8 @@
   <pageSetup paperSize="9" scale="76" fitToHeight="100" orientation="landscape" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
-    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.1&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;12&amp;F
+Version 1.0&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId3"/>
   <extLst>
@@ -2911,11 +2912,11 @@
       <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="116"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="120"/>
     </row>
     <row r="7" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="30" t="s">
@@ -2924,11 +2925,11 @@
       <c r="C7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
     </row>
     <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
@@ -2980,27 +2981,27 @@
       <c r="D12" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="118" t="s">
+      <c r="E12" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="118"/>
+      <c r="F12" s="122"/>
     </row>
     <row r="13" spans="2:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="31"/>
       <c r="D13" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="109"/>
+      <c r="F13" s="113"/>
     </row>
     <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="30"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="111"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="115"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
@@ -3013,8 +3014,8 @@
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="113"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="117"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
@@ -3094,8 +3095,8 @@
   </sheetPr>
   <dimension ref="B1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3243,20 +3244,20 @@
       <c r="N8" s="17"/>
     </row>
     <row r="9" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="138" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="137" t="s">
+      <c r="B9" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="137" t="s">
+      <c r="E9" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="139" t="s">
+      <c r="F9" s="107" t="s">
         <v>94</v>
-      </c>
-      <c r="F9" s="139" t="s">
-        <v>95</v>
       </c>
       <c r="G9" s="100"/>
       <c r="H9" s="17"/>
@@ -5944,19 +5945,19 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:37" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
     </row>
     <row r="5" spans="2:37" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="45"/>
@@ -5975,29 +5976,29 @@
       <c r="B6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="129"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="133"/>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B7" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
       <c r="M7" s="51"/>
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
@@ -6008,15 +6009,15 @@
       <c r="B8" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="135"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="139"/>
       <c r="M8" s="51"/>
       <c r="N8" s="51"/>
       <c r="O8" s="51"/>
@@ -6027,15 +6028,15 @@
       <c r="B9" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="124"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="128"/>
       <c r="M9" s="51"/>
       <c r="N9" s="51"/>
       <c r="O9" s="51"/>
@@ -6060,15 +6061,15 @@
       <c r="B11" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="121"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
     </row>
     <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C12" s="64"/>
@@ -6890,11 +6891,11 @@
     </row>
     <row r="2" spans="2:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="37"/>
@@ -7950,25 +7951,49 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>02 Departmental document</p:Name>
-  <p:Description/>
-  <p:Statement/>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.PolicyLabel">
-      <p:Name>Labels</p:Name>
-      <p:Description>Generates labels that can be inserted in Microsoft Office documents to ensure that document properties or other important information are included when documents are printed. Labels can also be used to search for documents.</p:Description>
-      <p:CustomData>
-        <label>
-          <segment type="metadata">_UIVersionString</segment>
-          <segment type="literal">\n</segment>
-          <segment type="metadata">_ModerationStatus</segment>
-        </label>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <View_x0020_CRM xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_CRM>
+    <View_x0020_Qua xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Qua>
+    <Document_x0020_author xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
+      <UserInfo>
+        <DisplayName>Jacobs, Frans</DisplayName>
+        <AccountId>1</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Document_x0020_author>
+    <Document_x0020_type xmlns="5db227b6-3c56-4158-ad71-bd648583e357">Template</Document_x0020_type>
+    <View_x0020_Eng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_Eng>
+    <View_x0020_Production xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</View_x0020_Production>
+    <Relevant_x0020_to_x0020_ISO_x0020_13485 xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Relevant_x0020_to_x0020_ISO_x0020_13485>
+    <PInS_x0020_department xmlns="5db227b6-3c56-4158-ad71-bd648583e357">140 Software</PInS_x0020_department>
+    <Doc_x0020_nr. xmlns="5db227b6-3c56-4158-ad71-bd648583e357">BMS-REA-719</Doc_x0020_nr.>
+    <DLCPolicyLabelLock xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a" xsi:nil="true"/>
+    <Linked_x0020_to_x0020_PQRS xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</Linked_x0020_to_x0020_PQRS>
+    <Safety_x0020_relevant xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Safety_x0020_relevant>
+    <Approver xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
+      <UserInfo>
+        <DisplayName>Jacobs, Frans</DisplayName>
+        <AccountId>1</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Approver>
+    <Reviewers xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Reviewers>
+    <Process xmlns="5db227b6-3c56-4158-ad71-bd648583e357">04 Realisation</Process>
+    <View_x0020_PL xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_PL>
+    <View_x0020_Mng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Mng>
+    <DLCPolicyLabelClientValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">{_UIVersionString}
+{_ModerationStatus}</DLCPolicyLabelClientValue>
+    <DLCPolicyLabelValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">1.0
+Approved</DLCPolicyLabelValue>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8362,49 +8387,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <View_x0020_CRM xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_CRM>
-    <View_x0020_Qua xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Qua>
-    <Document_x0020_author xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
-      <UserInfo>
-        <DisplayName>Jacobs, Frans</DisplayName>
-        <AccountId>1</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Document_x0020_author>
-    <Document_x0020_type xmlns="5db227b6-3c56-4158-ad71-bd648583e357">Template</Document_x0020_type>
-    <View_x0020_Eng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_Eng>
-    <View_x0020_Production xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</View_x0020_Production>
-    <Relevant_x0020_to_x0020_ISO_x0020_13485 xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Relevant_x0020_to_x0020_ISO_x0020_13485>
-    <PInS_x0020_department xmlns="5db227b6-3c56-4158-ad71-bd648583e357">140 Software</PInS_x0020_department>
-    <Doc_x0020_nr. xmlns="5db227b6-3c56-4158-ad71-bd648583e357">BMS-REA-719</Doc_x0020_nr.>
-    <DLCPolicyLabelLock xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a" xsi:nil="true"/>
-    <Linked_x0020_to_x0020_PQRS xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</Linked_x0020_to_x0020_PQRS>
-    <Safety_x0020_relevant xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Safety_x0020_relevant>
-    <Approver xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
-      <UserInfo>
-        <DisplayName>Jacobs, Frans</DisplayName>
-        <AccountId>1</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Approver>
-    <Reviewers xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Reviewers>
-    <Process xmlns="5db227b6-3c56-4158-ad71-bd648583e357">04 Realisation</Process>
-    <View_x0020_PL xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_PL>
-    <View_x0020_Mng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Mng>
-    <DLCPolicyLabelClientValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">{_UIVersionString}
-{_ModerationStatus}</DLCPolicyLabelClientValue>
-    <DLCPolicyLabelValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">1.0
-Approved</DLCPolicyLabelValue>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>02 Departmental document</p:Name>
+  <p:Description/>
+  <p:Statement/>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.PolicyLabel">
+      <p:Name>Labels</p:Name>
+      <p:Description>Generates labels that can be inserted in Microsoft Office documents to ensure that document properties or other important information are included when documents are printed. Labels can also be used to search for documents.</p:Description>
+      <p:CustomData>
+        <label>
+          <segment type="metadata">_UIVersionString</segment>
+          <segment type="literal">\n</segment>
+          <segment type="metadata">_ModerationStatus</segment>
+        </label>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8417,9 +8418,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E0ECFB5-0E65-4944-A2C3-A12752EA8F83}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1320B1-D764-4C81-9B48-5F60482C3805}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5db227b6-3c56-4158-ad71-bd648583e357"/>
+    <ds:schemaRef ds:uri="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8444,18 +8454,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1320B1-D764-4C81-9B48-5F60482C3805}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E0ECFB5-0E65-4944-A2C3-A12752EA8F83}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5db227b6-3c56-4158-ad71-bd648583e357"/>
-    <ds:schemaRef ds:uri="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="office.server.policy"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documents/External/Residual_Anomalies_CommLib_Android_JaiVis-20161118-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_CommLib_Android_JaiVis-20161118-01V01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28021"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_users\Gaal_CoCo-s\components\CommLib\Android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/310216383/Philips/dicomm-android/Documents/External/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="689"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22440" tabRatio="689" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -56,6 +56,9 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
   <si>
     <t>1.1</t>
   </si>
@@ -392,42 +395,6 @@
     <t>Document creation, and new release</t>
   </si>
   <si>
-    <t>COM-191</t>
-  </si>
-  <si>
-    <t>Cannot related failed requests to original requests in case of queueing</t>
-  </si>
-  <si>
-    <t>COM-83</t>
-  </si>
-  <si>
-    <t>Small legal issue, format of copyright notice in code is incorrect</t>
-  </si>
-  <si>
-    <t>COM-13</t>
-  </si>
-  <si>
-    <t>SampleApp does not switch from local to remote requests (and vice versa)</t>
-  </si>
-  <si>
-    <t>COM-7</t>
-  </si>
-  <si>
-    <t>Register Protocol Addresses Request Android</t>
-  </si>
-  <si>
-    <t>COM-5</t>
-  </si>
-  <si>
-    <t>Push notification languages are not updated when locale changes</t>
-  </si>
-  <si>
-    <t>COM-4</t>
-  </si>
-  <si>
-    <t>Connect screen shows devices that actually are not present on the local network</t>
-  </si>
-  <si>
     <t>Document creation, and update for release 2.0.0</t>
   </si>
   <si>
@@ -485,12 +452,78 @@
   <si>
     <t>2016-DEC-13</t>
   </si>
+  <si>
+    <t>2017-Feb-28</t>
+  </si>
+  <si>
+    <t>Peter Fortuin</t>
+  </si>
+  <si>
+    <t>Anomalies updated</t>
+  </si>
+  <si>
+    <t>3.1.2 Release</t>
+  </si>
+  <si>
+    <t>DE9086</t>
+  </si>
+  <si>
+    <t>[Android] CR: All subscriptions seem to be started, as soon as a DICommApplianceListener is set to an Appliance</t>
+  </si>
+  <si>
+    <t>DE10748</t>
+  </si>
+  <si>
+    <t>[Android] Register Protocol Addresses Request</t>
+  </si>
+  <si>
+    <t>DE11270</t>
+  </si>
+  <si>
+    <t>[Android] Pairing status not correctly updated</t>
+  </si>
+  <si>
+    <t>DE11634</t>
+  </si>
+  <si>
+    <t>[Android][iOS] Connect screen shows devices that actually are not present on the local network</t>
+  </si>
+  <si>
+    <t>DE11899</t>
+  </si>
+  <si>
+    <t>[Android] Phone lock/unlock leaves connection status undetermined (connecting state)</t>
+  </si>
+  <si>
+    <t>DE14027</t>
+  </si>
+  <si>
+    <t>[Android][iOS] PR: HSS 1.0 Do NOT add a PowerSleep specific device port DiComm lib should support “udi” property"</t>
+  </si>
+  <si>
+    <t>DE14609</t>
+  </si>
+  <si>
+    <t>[Android] RemoveRelationship will not work with new user pairing anymore</t>
+  </si>
+  <si>
+    <t>DE14610</t>
+  </si>
+  <si>
+    <t>[Android] Locale is wrongly taken into account when constructing URLs internally</t>
+  </si>
+  <si>
+    <t>DE14612</t>
+  </si>
+  <si>
+    <t>[Android] SampleApp does not switch from local to remote requests (and vice versa)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,12 +750,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,7 +791,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,8 +846,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1075,19 +1108,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1096,7 +1116,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1239,42 +1259,27 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1284,41 +1289,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1360,36 +1341,59 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -1398,39 +1402,61 @@
     <cellStyle name="Normal 2 2" xfId="3"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </left>
         <right style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </right>
         <top style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1449,22 +1475,104 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </left>
         <right style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </right>
         <top style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1472,6 +1580,13 @@
         <top style="thin">
           <color auto="1"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1491,11 +1606,12 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2321,14 +2437,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:F9" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="B6:F9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:F10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="B6:F10"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Version"/>
-    <tableColumn id="2" name="Date" dataDxfId="1"/>
-    <tableColumn id="3" name="Author" dataDxfId="0"/>
-    <tableColumn id="4" name="Description of Change"/>
-    <tableColumn id="5" name="Reason for Change"/>
+    <tableColumn id="1" name="Version" dataDxfId="4"/>
+    <tableColumn id="2" name="Date" dataDxfId="3"/>
+    <tableColumn id="3" name="Author" dataDxfId="2"/>
+    <tableColumn id="4" name="Description of Change" dataDxfId="1"/>
+    <tableColumn id="5" name="Reason for Change" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2621,27 +2737,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4">
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="6" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -2653,21 +2769,21 @@
       <c r="F1" s="6"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="D2" s="4"/>
       <c r="E2" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="F4" s="6"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
@@ -2676,15 +2792,15 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+    <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
         <v>22</v>
       </c>
@@ -2700,23 +2816,23 @@
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B8" s="33" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="92" t="s">
         <v>66</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2724,7 +2840,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -2732,7 +2848,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -2740,17 +2856,17 @@
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="28" t="s">
         <v>16</v>
       </c>
@@ -2758,17 +2874,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="111"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="28" t="s">
         <v>17</v>
       </c>
@@ -2776,15 +2892,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="108" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
+      <c r="C14" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
       <c r="F14" s="28" t="s">
         <v>18</v>
       </c>
@@ -2792,12 +2908,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>34</v>
@@ -2812,7 +2928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -2820,7 +2936,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2839,7 +2955,7 @@
     <hyperlink ref="E8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="1.2598425196850394" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="76" fitToHeight="100" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="100" orientation="landscape" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
     <oddFooter>&amp;L&amp;12&amp;F
@@ -2856,7 +2972,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F31"/>
@@ -2865,18 +2981,18 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="60" t="s">
         <v>68</v>
       </c>
@@ -2884,54 +3000,54 @@
       <c r="E1" s="6"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="28" x14ac:dyDescent="0.2">
       <c r="C2" s="4"/>
       <c r="D2" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="120"/>
-    </row>
-    <row r="7" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="104"/>
+      <c r="F6" s="105"/>
+    </row>
+    <row r="7" spans="2:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-    </row>
-    <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+    </row>
+    <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
@@ -2948,7 +3064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="32"/>
       <c r="C9" s="62" t="s">
         <v>46</v>
@@ -2957,21 +3073,21 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="32"/>
       <c r="C10" s="30"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="32"/>
       <c r="C11" s="30"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="31" t="s">
         <v>19</v>
       </c>
@@ -2981,83 +3097,83 @@
       <c r="D12" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="122" t="s">
+      <c r="E12" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="122"/>
-    </row>
-    <row r="13" spans="2:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="107"/>
+    </row>
+    <row r="13" spans="2:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="31"/>
       <c r="D13" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="E13" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="113"/>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F13" s="98"/>
+    </row>
+    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="32"/>
       <c r="C14" s="30"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="115"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="99"/>
+      <c r="F14" s="100"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
       <c r="C15" s="10"/>
       <c r="D15" s="18"/>
       <c r="E15" s="54"/>
       <c r="F15" s="55"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="117"/>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="48"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="48"/>
     </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
     </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="3"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="3"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="3"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="3"/>
       <c r="C31" s="5"/>
@@ -3090,27 +3206,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5">
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:N179"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="63" t="s">
         <v>67</v>
       </c>
@@ -3120,7 +3236,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:14" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="21"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -3128,7 +3244,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="2:14" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B3" s="21"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3136,7 +3252,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
@@ -3153,7 +3269,7 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -3168,20 +3284,20 @@
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="2:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="90" t="s">
+    <row r="6" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="B6" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="87" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="17"/>
@@ -3193,20 +3309,20 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="88" t="s">
+    <row r="7" spans="2:14" ht="28" x14ac:dyDescent="0.15">
+      <c r="B7" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="89" t="s">
+      <c r="E7" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="126" t="s">
         <v>72</v>
       </c>
       <c r="G7" s="17"/>
@@ -3218,23 +3334,23 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="103" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="104" t="s">
+    <row r="8" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="B8" s="129" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="128" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="103" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="103" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="100"/>
+      <c r="E8" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="90"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -3243,23 +3359,23 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="106" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="107" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="100"/>
+    <row r="9" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="B9" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="128" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="128" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="129" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="90"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -3268,13 +3384,23 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="97"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="96"/>
+    <row r="10" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="B10" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="131" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="89"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -3283,13 +3409,13 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -3298,13 +3424,13 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -3313,13 +3439,13 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -3328,7 +3454,7 @@
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -3343,7 +3469,7 @@
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -3358,7 +3484,7 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -3373,7 +3499,7 @@
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -3388,7 +3514,7 @@
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -3403,7 +3529,7 @@
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -3418,7 +3544,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -3433,7 +3559,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -3448,7 +3574,7 @@
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -3463,7 +3589,7 @@
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -3478,7 +3604,7 @@
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -3493,7 +3619,7 @@
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -3508,7 +3634,7 @@
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -3523,7 +3649,7 @@
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -3538,7 +3664,7 @@
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -3553,7 +3679,7 @@
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -3568,7 +3694,7 @@
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -3583,7 +3709,7 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -3598,7 +3724,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -3613,7 +3739,7 @@
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -3628,7 +3754,7 @@
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -3643,7 +3769,7 @@
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -3658,7 +3784,7 @@
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -3673,7 +3799,7 @@
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -3688,7 +3814,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -3703,7 +3829,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -3718,7 +3844,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -3733,7 +3859,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -3748,7 +3874,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -3763,7 +3889,7 @@
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -3778,7 +3904,7 @@
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -3793,7 +3919,7 @@
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -3808,7 +3934,7 @@
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -3823,7 +3949,7 @@
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -3838,7 +3964,7 @@
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -3853,7 +3979,7 @@
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -3868,7 +3994,7 @@
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -3883,7 +4009,7 @@
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -3898,7 +4024,7 @@
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -3913,7 +4039,7 @@
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -3928,7 +4054,7 @@
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -3943,7 +4069,7 @@
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -3958,7 +4084,7 @@
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -3973,7 +4099,7 @@
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
@@ -3988,7 +4114,7 @@
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -4003,7 +4129,7 @@
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -4018,7 +4144,7 @@
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -4033,7 +4159,7 @@
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -4048,7 +4174,7 @@
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -4063,7 +4189,7 @@
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -4078,7 +4204,7 @@
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -4093,7 +4219,7 @@
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -4108,7 +4234,7 @@
       <c r="M65" s="17"/>
       <c r="N65" s="17"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
@@ -4123,7 +4249,7 @@
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -4138,7 +4264,7 @@
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
@@ -4153,7 +4279,7 @@
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
@@ -4168,7 +4294,7 @@
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -4183,7 +4309,7 @@
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -4198,7 +4324,7 @@
       <c r="M71" s="17"/>
       <c r="N71" s="17"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -4213,7 +4339,7 @@
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -4228,7 +4354,7 @@
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -4243,7 +4369,7 @@
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -4258,7 +4384,7 @@
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -4273,7 +4399,7 @@
       <c r="M76" s="17"/>
       <c r="N76" s="17"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
@@ -4288,7 +4414,7 @@
       <c r="M77" s="17"/>
       <c r="N77" s="17"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
@@ -4303,7 +4429,7 @@
       <c r="M78" s="17"/>
       <c r="N78" s="17"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
@@ -4318,7 +4444,7 @@
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
@@ -4333,7 +4459,7 @@
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -4348,7 +4474,7 @@
       <c r="M81" s="17"/>
       <c r="N81" s="17"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
@@ -4363,7 +4489,7 @@
       <c r="M82" s="17"/>
       <c r="N82" s="17"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -4378,7 +4504,7 @@
       <c r="M83" s="17"/>
       <c r="N83" s="17"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -4393,7 +4519,7 @@
       <c r="M84" s="17"/>
       <c r="N84" s="17"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
@@ -4408,7 +4534,7 @@
       <c r="M85" s="17"/>
       <c r="N85" s="17"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
@@ -4423,7 +4549,7 @@
       <c r="M86" s="17"/>
       <c r="N86" s="17"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
@@ -4438,7 +4564,7 @@
       <c r="M87" s="17"/>
       <c r="N87" s="17"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
@@ -4453,7 +4579,7 @@
       <c r="M88" s="17"/>
       <c r="N88" s="17"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -4468,7 +4594,7 @@
       <c r="M89" s="17"/>
       <c r="N89" s="17"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
@@ -4483,7 +4609,7 @@
       <c r="M90" s="17"/>
       <c r="N90" s="17"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
@@ -4498,7 +4624,7 @@
       <c r="M91" s="17"/>
       <c r="N91" s="17"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
@@ -4513,7 +4639,7 @@
       <c r="M92" s="17"/>
       <c r="N92" s="17"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -4528,7 +4654,7 @@
       <c r="M93" s="17"/>
       <c r="N93" s="17"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
@@ -4543,7 +4669,7 @@
       <c r="M94" s="17"/>
       <c r="N94" s="17"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -4558,7 +4684,7 @@
       <c r="M95" s="17"/>
       <c r="N95" s="17"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
@@ -4573,7 +4699,7 @@
       <c r="M96" s="17"/>
       <c r="N96" s="17"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
@@ -4588,7 +4714,7 @@
       <c r="M97" s="17"/>
       <c r="N97" s="17"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
@@ -4603,7 +4729,7 @@
       <c r="M98" s="17"/>
       <c r="N98" s="17"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -4618,7 +4744,7 @@
       <c r="M99" s="17"/>
       <c r="N99" s="17"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
@@ -4633,7 +4759,7 @@
       <c r="M100" s="17"/>
       <c r="N100" s="17"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
@@ -4648,7 +4774,7 @@
       <c r="M101" s="17"/>
       <c r="N101" s="17"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -4663,7 +4789,7 @@
       <c r="M102" s="17"/>
       <c r="N102" s="17"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -4678,7 +4804,7 @@
       <c r="M103" s="17"/>
       <c r="N103" s="17"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -4693,7 +4819,7 @@
       <c r="M104" s="17"/>
       <c r="N104" s="17"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
@@ -4708,7 +4834,7 @@
       <c r="M105" s="17"/>
       <c r="N105" s="17"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
@@ -4723,7 +4849,7 @@
       <c r="M106" s="17"/>
       <c r="N106" s="17"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -4738,7 +4864,7 @@
       <c r="M107" s="17"/>
       <c r="N107" s="17"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -4753,7 +4879,7 @@
       <c r="M108" s="17"/>
       <c r="N108" s="17"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -4768,7 +4894,7 @@
       <c r="M109" s="17"/>
       <c r="N109" s="17"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
@@ -4783,7 +4909,7 @@
       <c r="M110" s="17"/>
       <c r="N110" s="17"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
@@ -4798,7 +4924,7 @@
       <c r="M111" s="17"/>
       <c r="N111" s="17"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
@@ -4813,7 +4939,7 @@
       <c r="M112" s="17"/>
       <c r="N112" s="17"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -4828,7 +4954,7 @@
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
@@ -4843,7 +4969,7 @@
       <c r="M114" s="17"/>
       <c r="N114" s="17"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
@@ -4858,7 +4984,7 @@
       <c r="M115" s="17"/>
       <c r="N115" s="17"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
@@ -4873,7 +4999,7 @@
       <c r="M116" s="17"/>
       <c r="N116" s="17"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
@@ -4888,7 +5014,7 @@
       <c r="M117" s="17"/>
       <c r="N117" s="17"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
@@ -4903,7 +5029,7 @@
       <c r="M118" s="17"/>
       <c r="N118" s="17"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
@@ -4918,7 +5044,7 @@
       <c r="M119" s="17"/>
       <c r="N119" s="17"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
@@ -4933,7 +5059,7 @@
       <c r="M120" s="17"/>
       <c r="N120" s="17"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
@@ -4948,7 +5074,7 @@
       <c r="M121" s="17"/>
       <c r="N121" s="17"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
@@ -4963,7 +5089,7 @@
       <c r="M122" s="17"/>
       <c r="N122" s="17"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -4978,7 +5104,7 @@
       <c r="M123" s="17"/>
       <c r="N123" s="17"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
@@ -4993,7 +5119,7 @@
       <c r="M124" s="17"/>
       <c r="N124" s="17"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
@@ -5008,7 +5134,7 @@
       <c r="M125" s="17"/>
       <c r="N125" s="17"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
@@ -5023,7 +5149,7 @@
       <c r="M126" s="17"/>
       <c r="N126" s="17"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
@@ -5038,7 +5164,7 @@
       <c r="M127" s="17"/>
       <c r="N127" s="17"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17"/>
@@ -5053,7 +5179,7 @@
       <c r="M128" s="17"/>
       <c r="N128" s="17"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
@@ -5068,7 +5194,7 @@
       <c r="M129" s="17"/>
       <c r="N129" s="17"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
@@ -5083,7 +5209,7 @@
       <c r="M130" s="17"/>
       <c r="N130" s="17"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
@@ -5098,7 +5224,7 @@
       <c r="M131" s="17"/>
       <c r="N131" s="17"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
@@ -5113,7 +5239,7 @@
       <c r="M132" s="17"/>
       <c r="N132" s="17"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
@@ -5128,7 +5254,7 @@
       <c r="M133" s="17"/>
       <c r="N133" s="17"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
       <c r="D134" s="17"/>
@@ -5143,7 +5269,7 @@
       <c r="M134" s="17"/>
       <c r="N134" s="17"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
       <c r="D135" s="17"/>
@@ -5158,7 +5284,7 @@
       <c r="M135" s="17"/>
       <c r="N135" s="17"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
@@ -5173,7 +5299,7 @@
       <c r="M136" s="17"/>
       <c r="N136" s="17"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
@@ -5188,7 +5314,7 @@
       <c r="M137" s="17"/>
       <c r="N137" s="17"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
       <c r="D138" s="17"/>
@@ -5203,7 +5329,7 @@
       <c r="M138" s="17"/>
       <c r="N138" s="17"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
       <c r="D139" s="17"/>
@@ -5218,7 +5344,7 @@
       <c r="M139" s="17"/>
       <c r="N139" s="17"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
       <c r="D140" s="17"/>
@@ -5233,7 +5359,7 @@
       <c r="M140" s="17"/>
       <c r="N140" s="17"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
       <c r="D141" s="17"/>
@@ -5248,7 +5374,7 @@
       <c r="M141" s="17"/>
       <c r="N141" s="17"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
@@ -5263,7 +5389,7 @@
       <c r="M142" s="17"/>
       <c r="N142" s="17"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
@@ -5278,7 +5404,7 @@
       <c r="M143" s="17"/>
       <c r="N143" s="17"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
       <c r="D144" s="17"/>
@@ -5293,7 +5419,7 @@
       <c r="M144" s="17"/>
       <c r="N144" s="17"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
@@ -5308,7 +5434,7 @@
       <c r="M145" s="17"/>
       <c r="N145" s="17"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
       <c r="D146" s="17"/>
@@ -5323,7 +5449,7 @@
       <c r="M146" s="17"/>
       <c r="N146" s="17"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
       <c r="D147" s="17"/>
@@ -5338,7 +5464,7 @@
       <c r="M147" s="17"/>
       <c r="N147" s="17"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
       <c r="D148" s="17"/>
@@ -5353,7 +5479,7 @@
       <c r="M148" s="17"/>
       <c r="N148" s="17"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
@@ -5368,7 +5494,7 @@
       <c r="M149" s="17"/>
       <c r="N149" s="17"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
@@ -5383,7 +5509,7 @@
       <c r="M150" s="17"/>
       <c r="N150" s="17"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
@@ -5398,7 +5524,7 @@
       <c r="M151" s="17"/>
       <c r="N151" s="17"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
       <c r="D152" s="17"/>
@@ -5413,7 +5539,7 @@
       <c r="M152" s="17"/>
       <c r="N152" s="17"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
       <c r="D153" s="17"/>
@@ -5428,7 +5554,7 @@
       <c r="M153" s="17"/>
       <c r="N153" s="17"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
@@ -5443,7 +5569,7 @@
       <c r="M154" s="17"/>
       <c r="N154" s="17"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
       <c r="D155" s="17"/>
@@ -5458,7 +5584,7 @@
       <c r="M155" s="17"/>
       <c r="N155" s="17"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
@@ -5473,7 +5599,7 @@
       <c r="M156" s="17"/>
       <c r="N156" s="17"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
@@ -5488,7 +5614,7 @@
       <c r="M157" s="17"/>
       <c r="N157" s="17"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
       <c r="D158" s="17"/>
@@ -5503,7 +5629,7 @@
       <c r="M158" s="17"/>
       <c r="N158" s="17"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
@@ -5518,7 +5644,7 @@
       <c r="M159" s="17"/>
       <c r="N159" s="17"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
       <c r="D160" s="17"/>
@@ -5533,7 +5659,7 @@
       <c r="M160" s="17"/>
       <c r="N160" s="17"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
       <c r="D161" s="17"/>
@@ -5548,7 +5674,7 @@
       <c r="M161" s="17"/>
       <c r="N161" s="17"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
       <c r="D162" s="17"/>
@@ -5563,7 +5689,7 @@
       <c r="M162" s="17"/>
       <c r="N162" s="17"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
       <c r="D163" s="17"/>
@@ -5578,7 +5704,7 @@
       <c r="M163" s="17"/>
       <c r="N163" s="17"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
       <c r="D164" s="17"/>
@@ -5593,7 +5719,7 @@
       <c r="M164" s="17"/>
       <c r="N164" s="17"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
       <c r="D165" s="17"/>
@@ -5608,7 +5734,7 @@
       <c r="M165" s="17"/>
       <c r="N165" s="17"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
       <c r="D166" s="17"/>
@@ -5623,7 +5749,7 @@
       <c r="M166" s="17"/>
       <c r="N166" s="17"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
       <c r="D167" s="17"/>
@@ -5638,7 +5764,7 @@
       <c r="M167" s="17"/>
       <c r="N167" s="17"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
       <c r="D168" s="17"/>
@@ -5653,7 +5779,7 @@
       <c r="M168" s="17"/>
       <c r="N168" s="17"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
       <c r="D169" s="17"/>
@@ -5668,7 +5794,7 @@
       <c r="M169" s="17"/>
       <c r="N169" s="17"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
       <c r="D170" s="17"/>
@@ -5683,7 +5809,7 @@
       <c r="M170" s="17"/>
       <c r="N170" s="17"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
@@ -5698,7 +5824,7 @@
       <c r="M171" s="17"/>
       <c r="N171" s="17"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
@@ -5713,7 +5839,7 @@
       <c r="M172" s="17"/>
       <c r="N172" s="17"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
@@ -5728,7 +5854,7 @@
       <c r="M173" s="17"/>
       <c r="N173" s="17"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
       <c r="D174" s="17"/>
@@ -5743,7 +5869,7 @@
       <c r="M174" s="17"/>
       <c r="N174" s="17"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
       <c r="D175" s="17"/>
@@ -5758,7 +5884,7 @@
       <c r="M175" s="17"/>
       <c r="N175" s="17"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
       <c r="D176" s="17"/>
@@ -5773,7 +5899,7 @@
       <c r="M176" s="17"/>
       <c r="N176" s="17"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
       <c r="D177" s="17"/>
@@ -5788,7 +5914,7 @@
       <c r="M177" s="17"/>
       <c r="N177" s="17"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
       <c r="D178" s="17"/>
@@ -5803,7 +5929,7 @@
       <c r="M178" s="17"/>
       <c r="N178" s="17"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
       <c r="D179" s="17"/>
@@ -5822,7 +5948,7 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
-  <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
     <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.2&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
@@ -5847,13 +5973,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="6" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" s="34" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:37" s="34" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="60" t="s">
         <v>67</v>
       </c>
@@ -5892,7 +6018,7 @@
       <c r="AJ1" s="36"/>
       <c r="AK1" s="36"/>
     </row>
-    <row r="2" spans="2:37" s="34" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:37" s="34" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="21"/>
       <c r="D2" s="35"/>
       <c r="E2" s="36"/>
@@ -5929,7 +6055,7 @@
       <c r="AJ2" s="36"/>
       <c r="AK2" s="36"/>
     </row>
-    <row r="3" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>37</v>
       </c>
@@ -5944,22 +6070,22 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="2:37" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="129" t="s">
+    <row r="4" spans="2:37" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-    </row>
-    <row r="5" spans="2:37" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+    </row>
+    <row r="5" spans="2:37" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="45"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
@@ -5972,78 +6098,78 @@
       <c r="K5" s="46"/>
       <c r="L5" s="46"/>
     </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="133"/>
-    </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="118"/>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B7" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
       <c r="M7" s="51"/>
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="51"/>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B8" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="139"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="124"/>
       <c r="M8" s="51"/>
       <c r="N8" s="51"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B9" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="128"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="113"/>
       <c r="M9" s="51"/>
       <c r="N9" s="51"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B10" s="69" t="s">
         <v>50</v>
       </c>
@@ -6057,39 +6183,39 @@
       <c r="H10" s="71"/>
       <c r="I10" s="72"/>
     </row>
-    <row r="11" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
-    </row>
-    <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="110"/>
+    </row>
+    <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="64"/>
     </row>
-    <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="C13" s="64"/>
     </row>
-    <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="C14" s="64"/>
     </row>
-    <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="C15" s="64"/>
     </row>
-    <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="C16" s="64"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="50"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="40"/>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
@@ -6102,7 +6228,7 @@
       <c r="K22" s="41"/>
       <c r="L22" s="41"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="42"/>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
@@ -6115,7 +6241,7 @@
       <c r="K23" s="43"/>
       <c r="L23" s="43"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="40"/>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
@@ -6128,7 +6254,7 @@
       <c r="K25" s="41"/>
       <c r="L25" s="41"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="44"/>
       <c r="C26" s="41"/>
       <c r="D26" s="41"/>
@@ -6168,741 +6294,741 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="34" customWidth="1"/>
-    <col min="8" max="26" width="3.28515625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="35" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="34" customWidth="1"/>
+    <col min="8" max="26" width="3.33203125" style="34" customWidth="1"/>
     <col min="27" max="27" width="10" style="34" customWidth="1"/>
-    <col min="28" max="237" width="8.85546875" style="34"/>
-    <col min="238" max="238" width="1.42578125" style="34" customWidth="1"/>
-    <col min="239" max="239" width="1.28515625" style="34" customWidth="1"/>
+    <col min="28" max="237" width="8.83203125" style="34"/>
+    <col min="238" max="238" width="1.5" style="34" customWidth="1"/>
+    <col min="239" max="239" width="1.33203125" style="34" customWidth="1"/>
     <col min="240" max="240" width="42" style="34" customWidth="1"/>
-    <col min="241" max="241" width="5.42578125" style="34" customWidth="1"/>
+    <col min="241" max="241" width="5.5" style="34" customWidth="1"/>
     <col min="242" max="243" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="244" max="244" width="2.7109375" style="34" customWidth="1"/>
-    <col min="245" max="280" width="3.28515625" style="34" customWidth="1"/>
-    <col min="281" max="281" width="1.7109375" style="34" customWidth="1"/>
-    <col min="282" max="282" width="25.7109375" style="34" customWidth="1"/>
-    <col min="283" max="283" width="31.28515625" style="34" customWidth="1"/>
-    <col min="284" max="493" width="8.85546875" style="34"/>
-    <col min="494" max="494" width="1.42578125" style="34" customWidth="1"/>
-    <col min="495" max="495" width="1.28515625" style="34" customWidth="1"/>
+    <col min="244" max="244" width="2.6640625" style="34" customWidth="1"/>
+    <col min="245" max="280" width="3.33203125" style="34" customWidth="1"/>
+    <col min="281" max="281" width="1.6640625" style="34" customWidth="1"/>
+    <col min="282" max="282" width="25.6640625" style="34" customWidth="1"/>
+    <col min="283" max="283" width="31.33203125" style="34" customWidth="1"/>
+    <col min="284" max="493" width="8.83203125" style="34"/>
+    <col min="494" max="494" width="1.5" style="34" customWidth="1"/>
+    <col min="495" max="495" width="1.33203125" style="34" customWidth="1"/>
     <col min="496" max="496" width="42" style="34" customWidth="1"/>
-    <col min="497" max="497" width="5.42578125" style="34" customWidth="1"/>
+    <col min="497" max="497" width="5.5" style="34" customWidth="1"/>
     <col min="498" max="499" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="500" max="500" width="2.7109375" style="34" customWidth="1"/>
-    <col min="501" max="536" width="3.28515625" style="34" customWidth="1"/>
-    <col min="537" max="537" width="1.7109375" style="34" customWidth="1"/>
-    <col min="538" max="538" width="25.7109375" style="34" customWidth="1"/>
-    <col min="539" max="539" width="31.28515625" style="34" customWidth="1"/>
-    <col min="540" max="749" width="8.85546875" style="34"/>
-    <col min="750" max="750" width="1.42578125" style="34" customWidth="1"/>
-    <col min="751" max="751" width="1.28515625" style="34" customWidth="1"/>
+    <col min="500" max="500" width="2.6640625" style="34" customWidth="1"/>
+    <col min="501" max="536" width="3.33203125" style="34" customWidth="1"/>
+    <col min="537" max="537" width="1.6640625" style="34" customWidth="1"/>
+    <col min="538" max="538" width="25.6640625" style="34" customWidth="1"/>
+    <col min="539" max="539" width="31.33203125" style="34" customWidth="1"/>
+    <col min="540" max="749" width="8.83203125" style="34"/>
+    <col min="750" max="750" width="1.5" style="34" customWidth="1"/>
+    <col min="751" max="751" width="1.33203125" style="34" customWidth="1"/>
     <col min="752" max="752" width="42" style="34" customWidth="1"/>
-    <col min="753" max="753" width="5.42578125" style="34" customWidth="1"/>
+    <col min="753" max="753" width="5.5" style="34" customWidth="1"/>
     <col min="754" max="755" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="756" max="756" width="2.7109375" style="34" customWidth="1"/>
-    <col min="757" max="792" width="3.28515625" style="34" customWidth="1"/>
-    <col min="793" max="793" width="1.7109375" style="34" customWidth="1"/>
-    <col min="794" max="794" width="25.7109375" style="34" customWidth="1"/>
-    <col min="795" max="795" width="31.28515625" style="34" customWidth="1"/>
-    <col min="796" max="1005" width="8.85546875" style="34"/>
-    <col min="1006" max="1006" width="1.42578125" style="34" customWidth="1"/>
-    <col min="1007" max="1007" width="1.28515625" style="34" customWidth="1"/>
+    <col min="756" max="756" width="2.6640625" style="34" customWidth="1"/>
+    <col min="757" max="792" width="3.33203125" style="34" customWidth="1"/>
+    <col min="793" max="793" width="1.6640625" style="34" customWidth="1"/>
+    <col min="794" max="794" width="25.6640625" style="34" customWidth="1"/>
+    <col min="795" max="795" width="31.33203125" style="34" customWidth="1"/>
+    <col min="796" max="1005" width="8.83203125" style="34"/>
+    <col min="1006" max="1006" width="1.5" style="34" customWidth="1"/>
+    <col min="1007" max="1007" width="1.33203125" style="34" customWidth="1"/>
     <col min="1008" max="1008" width="42" style="34" customWidth="1"/>
-    <col min="1009" max="1009" width="5.42578125" style="34" customWidth="1"/>
+    <col min="1009" max="1009" width="5.5" style="34" customWidth="1"/>
     <col min="1010" max="1011" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1012" max="1012" width="2.7109375" style="34" customWidth="1"/>
-    <col min="1013" max="1048" width="3.28515625" style="34" customWidth="1"/>
-    <col min="1049" max="1049" width="1.7109375" style="34" customWidth="1"/>
-    <col min="1050" max="1050" width="25.7109375" style="34" customWidth="1"/>
-    <col min="1051" max="1051" width="31.28515625" style="34" customWidth="1"/>
-    <col min="1052" max="1261" width="8.85546875" style="34"/>
-    <col min="1262" max="1262" width="1.42578125" style="34" customWidth="1"/>
-    <col min="1263" max="1263" width="1.28515625" style="34" customWidth="1"/>
+    <col min="1012" max="1012" width="2.6640625" style="34" customWidth="1"/>
+    <col min="1013" max="1048" width="3.33203125" style="34" customWidth="1"/>
+    <col min="1049" max="1049" width="1.6640625" style="34" customWidth="1"/>
+    <col min="1050" max="1050" width="25.6640625" style="34" customWidth="1"/>
+    <col min="1051" max="1051" width="31.33203125" style="34" customWidth="1"/>
+    <col min="1052" max="1261" width="8.83203125" style="34"/>
+    <col min="1262" max="1262" width="1.5" style="34" customWidth="1"/>
+    <col min="1263" max="1263" width="1.33203125" style="34" customWidth="1"/>
     <col min="1264" max="1264" width="42" style="34" customWidth="1"/>
-    <col min="1265" max="1265" width="5.42578125" style="34" customWidth="1"/>
+    <col min="1265" max="1265" width="5.5" style="34" customWidth="1"/>
     <col min="1266" max="1267" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1268" max="1268" width="2.7109375" style="34" customWidth="1"/>
-    <col min="1269" max="1304" width="3.28515625" style="34" customWidth="1"/>
-    <col min="1305" max="1305" width="1.7109375" style="34" customWidth="1"/>
-    <col min="1306" max="1306" width="25.7109375" style="34" customWidth="1"/>
-    <col min="1307" max="1307" width="31.28515625" style="34" customWidth="1"/>
-    <col min="1308" max="1517" width="8.85546875" style="34"/>
-    <col min="1518" max="1518" width="1.42578125" style="34" customWidth="1"/>
-    <col min="1519" max="1519" width="1.28515625" style="34" customWidth="1"/>
+    <col min="1268" max="1268" width="2.6640625" style="34" customWidth="1"/>
+    <col min="1269" max="1304" width="3.33203125" style="34" customWidth="1"/>
+    <col min="1305" max="1305" width="1.6640625" style="34" customWidth="1"/>
+    <col min="1306" max="1306" width="25.6640625" style="34" customWidth="1"/>
+    <col min="1307" max="1307" width="31.33203125" style="34" customWidth="1"/>
+    <col min="1308" max="1517" width="8.83203125" style="34"/>
+    <col min="1518" max="1518" width="1.5" style="34" customWidth="1"/>
+    <col min="1519" max="1519" width="1.33203125" style="34" customWidth="1"/>
     <col min="1520" max="1520" width="42" style="34" customWidth="1"/>
-    <col min="1521" max="1521" width="5.42578125" style="34" customWidth="1"/>
+    <col min="1521" max="1521" width="5.5" style="34" customWidth="1"/>
     <col min="1522" max="1523" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1524" max="1524" width="2.7109375" style="34" customWidth="1"/>
-    <col min="1525" max="1560" width="3.28515625" style="34" customWidth="1"/>
-    <col min="1561" max="1561" width="1.7109375" style="34" customWidth="1"/>
-    <col min="1562" max="1562" width="25.7109375" style="34" customWidth="1"/>
-    <col min="1563" max="1563" width="31.28515625" style="34" customWidth="1"/>
-    <col min="1564" max="1773" width="8.85546875" style="34"/>
-    <col min="1774" max="1774" width="1.42578125" style="34" customWidth="1"/>
-    <col min="1775" max="1775" width="1.28515625" style="34" customWidth="1"/>
+    <col min="1524" max="1524" width="2.6640625" style="34" customWidth="1"/>
+    <col min="1525" max="1560" width="3.33203125" style="34" customWidth="1"/>
+    <col min="1561" max="1561" width="1.6640625" style="34" customWidth="1"/>
+    <col min="1562" max="1562" width="25.6640625" style="34" customWidth="1"/>
+    <col min="1563" max="1563" width="31.33203125" style="34" customWidth="1"/>
+    <col min="1564" max="1773" width="8.83203125" style="34"/>
+    <col min="1774" max="1774" width="1.5" style="34" customWidth="1"/>
+    <col min="1775" max="1775" width="1.33203125" style="34" customWidth="1"/>
     <col min="1776" max="1776" width="42" style="34" customWidth="1"/>
-    <col min="1777" max="1777" width="5.42578125" style="34" customWidth="1"/>
+    <col min="1777" max="1777" width="5.5" style="34" customWidth="1"/>
     <col min="1778" max="1779" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1780" max="1780" width="2.7109375" style="34" customWidth="1"/>
-    <col min="1781" max="1816" width="3.28515625" style="34" customWidth="1"/>
-    <col min="1817" max="1817" width="1.7109375" style="34" customWidth="1"/>
-    <col min="1818" max="1818" width="25.7109375" style="34" customWidth="1"/>
-    <col min="1819" max="1819" width="31.28515625" style="34" customWidth="1"/>
-    <col min="1820" max="2029" width="8.85546875" style="34"/>
-    <col min="2030" max="2030" width="1.42578125" style="34" customWidth="1"/>
-    <col min="2031" max="2031" width="1.28515625" style="34" customWidth="1"/>
+    <col min="1780" max="1780" width="2.6640625" style="34" customWidth="1"/>
+    <col min="1781" max="1816" width="3.33203125" style="34" customWidth="1"/>
+    <col min="1817" max="1817" width="1.6640625" style="34" customWidth="1"/>
+    <col min="1818" max="1818" width="25.6640625" style="34" customWidth="1"/>
+    <col min="1819" max="1819" width="31.33203125" style="34" customWidth="1"/>
+    <col min="1820" max="2029" width="8.83203125" style="34"/>
+    <col min="2030" max="2030" width="1.5" style="34" customWidth="1"/>
+    <col min="2031" max="2031" width="1.33203125" style="34" customWidth="1"/>
     <col min="2032" max="2032" width="42" style="34" customWidth="1"/>
-    <col min="2033" max="2033" width="5.42578125" style="34" customWidth="1"/>
+    <col min="2033" max="2033" width="5.5" style="34" customWidth="1"/>
     <col min="2034" max="2035" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2036" max="2036" width="2.7109375" style="34" customWidth="1"/>
-    <col min="2037" max="2072" width="3.28515625" style="34" customWidth="1"/>
-    <col min="2073" max="2073" width="1.7109375" style="34" customWidth="1"/>
-    <col min="2074" max="2074" width="25.7109375" style="34" customWidth="1"/>
-    <col min="2075" max="2075" width="31.28515625" style="34" customWidth="1"/>
-    <col min="2076" max="2285" width="8.85546875" style="34"/>
-    <col min="2286" max="2286" width="1.42578125" style="34" customWidth="1"/>
-    <col min="2287" max="2287" width="1.28515625" style="34" customWidth="1"/>
+    <col min="2036" max="2036" width="2.6640625" style="34" customWidth="1"/>
+    <col min="2037" max="2072" width="3.33203125" style="34" customWidth="1"/>
+    <col min="2073" max="2073" width="1.6640625" style="34" customWidth="1"/>
+    <col min="2074" max="2074" width="25.6640625" style="34" customWidth="1"/>
+    <col min="2075" max="2075" width="31.33203125" style="34" customWidth="1"/>
+    <col min="2076" max="2285" width="8.83203125" style="34"/>
+    <col min="2286" max="2286" width="1.5" style="34" customWidth="1"/>
+    <col min="2287" max="2287" width="1.33203125" style="34" customWidth="1"/>
     <col min="2288" max="2288" width="42" style="34" customWidth="1"/>
-    <col min="2289" max="2289" width="5.42578125" style="34" customWidth="1"/>
+    <col min="2289" max="2289" width="5.5" style="34" customWidth="1"/>
     <col min="2290" max="2291" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2292" max="2292" width="2.7109375" style="34" customWidth="1"/>
-    <col min="2293" max="2328" width="3.28515625" style="34" customWidth="1"/>
-    <col min="2329" max="2329" width="1.7109375" style="34" customWidth="1"/>
-    <col min="2330" max="2330" width="25.7109375" style="34" customWidth="1"/>
-    <col min="2331" max="2331" width="31.28515625" style="34" customWidth="1"/>
-    <col min="2332" max="2541" width="8.85546875" style="34"/>
-    <col min="2542" max="2542" width="1.42578125" style="34" customWidth="1"/>
-    <col min="2543" max="2543" width="1.28515625" style="34" customWidth="1"/>
+    <col min="2292" max="2292" width="2.6640625" style="34" customWidth="1"/>
+    <col min="2293" max="2328" width="3.33203125" style="34" customWidth="1"/>
+    <col min="2329" max="2329" width="1.6640625" style="34" customWidth="1"/>
+    <col min="2330" max="2330" width="25.6640625" style="34" customWidth="1"/>
+    <col min="2331" max="2331" width="31.33203125" style="34" customWidth="1"/>
+    <col min="2332" max="2541" width="8.83203125" style="34"/>
+    <col min="2542" max="2542" width="1.5" style="34" customWidth="1"/>
+    <col min="2543" max="2543" width="1.33203125" style="34" customWidth="1"/>
     <col min="2544" max="2544" width="42" style="34" customWidth="1"/>
-    <col min="2545" max="2545" width="5.42578125" style="34" customWidth="1"/>
+    <col min="2545" max="2545" width="5.5" style="34" customWidth="1"/>
     <col min="2546" max="2547" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2548" max="2548" width="2.7109375" style="34" customWidth="1"/>
-    <col min="2549" max="2584" width="3.28515625" style="34" customWidth="1"/>
-    <col min="2585" max="2585" width="1.7109375" style="34" customWidth="1"/>
-    <col min="2586" max="2586" width="25.7109375" style="34" customWidth="1"/>
-    <col min="2587" max="2587" width="31.28515625" style="34" customWidth="1"/>
-    <col min="2588" max="2797" width="8.85546875" style="34"/>
-    <col min="2798" max="2798" width="1.42578125" style="34" customWidth="1"/>
-    <col min="2799" max="2799" width="1.28515625" style="34" customWidth="1"/>
+    <col min="2548" max="2548" width="2.6640625" style="34" customWidth="1"/>
+    <col min="2549" max="2584" width="3.33203125" style="34" customWidth="1"/>
+    <col min="2585" max="2585" width="1.6640625" style="34" customWidth="1"/>
+    <col min="2586" max="2586" width="25.6640625" style="34" customWidth="1"/>
+    <col min="2587" max="2587" width="31.33203125" style="34" customWidth="1"/>
+    <col min="2588" max="2797" width="8.83203125" style="34"/>
+    <col min="2798" max="2798" width="1.5" style="34" customWidth="1"/>
+    <col min="2799" max="2799" width="1.33203125" style="34" customWidth="1"/>
     <col min="2800" max="2800" width="42" style="34" customWidth="1"/>
-    <col min="2801" max="2801" width="5.42578125" style="34" customWidth="1"/>
+    <col min="2801" max="2801" width="5.5" style="34" customWidth="1"/>
     <col min="2802" max="2803" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2804" max="2804" width="2.7109375" style="34" customWidth="1"/>
-    <col min="2805" max="2840" width="3.28515625" style="34" customWidth="1"/>
-    <col min="2841" max="2841" width="1.7109375" style="34" customWidth="1"/>
-    <col min="2842" max="2842" width="25.7109375" style="34" customWidth="1"/>
-    <col min="2843" max="2843" width="31.28515625" style="34" customWidth="1"/>
-    <col min="2844" max="3053" width="8.85546875" style="34"/>
-    <col min="3054" max="3054" width="1.42578125" style="34" customWidth="1"/>
-    <col min="3055" max="3055" width="1.28515625" style="34" customWidth="1"/>
+    <col min="2804" max="2804" width="2.6640625" style="34" customWidth="1"/>
+    <col min="2805" max="2840" width="3.33203125" style="34" customWidth="1"/>
+    <col min="2841" max="2841" width="1.6640625" style="34" customWidth="1"/>
+    <col min="2842" max="2842" width="25.6640625" style="34" customWidth="1"/>
+    <col min="2843" max="2843" width="31.33203125" style="34" customWidth="1"/>
+    <col min="2844" max="3053" width="8.83203125" style="34"/>
+    <col min="3054" max="3054" width="1.5" style="34" customWidth="1"/>
+    <col min="3055" max="3055" width="1.33203125" style="34" customWidth="1"/>
     <col min="3056" max="3056" width="42" style="34" customWidth="1"/>
-    <col min="3057" max="3057" width="5.42578125" style="34" customWidth="1"/>
+    <col min="3057" max="3057" width="5.5" style="34" customWidth="1"/>
     <col min="3058" max="3059" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3060" max="3060" width="2.7109375" style="34" customWidth="1"/>
-    <col min="3061" max="3096" width="3.28515625" style="34" customWidth="1"/>
-    <col min="3097" max="3097" width="1.7109375" style="34" customWidth="1"/>
-    <col min="3098" max="3098" width="25.7109375" style="34" customWidth="1"/>
-    <col min="3099" max="3099" width="31.28515625" style="34" customWidth="1"/>
-    <col min="3100" max="3309" width="8.85546875" style="34"/>
-    <col min="3310" max="3310" width="1.42578125" style="34" customWidth="1"/>
-    <col min="3311" max="3311" width="1.28515625" style="34" customWidth="1"/>
+    <col min="3060" max="3060" width="2.6640625" style="34" customWidth="1"/>
+    <col min="3061" max="3096" width="3.33203125" style="34" customWidth="1"/>
+    <col min="3097" max="3097" width="1.6640625" style="34" customWidth="1"/>
+    <col min="3098" max="3098" width="25.6640625" style="34" customWidth="1"/>
+    <col min="3099" max="3099" width="31.33203125" style="34" customWidth="1"/>
+    <col min="3100" max="3309" width="8.83203125" style="34"/>
+    <col min="3310" max="3310" width="1.5" style="34" customWidth="1"/>
+    <col min="3311" max="3311" width="1.33203125" style="34" customWidth="1"/>
     <col min="3312" max="3312" width="42" style="34" customWidth="1"/>
-    <col min="3313" max="3313" width="5.42578125" style="34" customWidth="1"/>
+    <col min="3313" max="3313" width="5.5" style="34" customWidth="1"/>
     <col min="3314" max="3315" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3316" max="3316" width="2.7109375" style="34" customWidth="1"/>
-    <col min="3317" max="3352" width="3.28515625" style="34" customWidth="1"/>
-    <col min="3353" max="3353" width="1.7109375" style="34" customWidth="1"/>
-    <col min="3354" max="3354" width="25.7109375" style="34" customWidth="1"/>
-    <col min="3355" max="3355" width="31.28515625" style="34" customWidth="1"/>
-    <col min="3356" max="3565" width="8.85546875" style="34"/>
-    <col min="3566" max="3566" width="1.42578125" style="34" customWidth="1"/>
-    <col min="3567" max="3567" width="1.28515625" style="34" customWidth="1"/>
+    <col min="3316" max="3316" width="2.6640625" style="34" customWidth="1"/>
+    <col min="3317" max="3352" width="3.33203125" style="34" customWidth="1"/>
+    <col min="3353" max="3353" width="1.6640625" style="34" customWidth="1"/>
+    <col min="3354" max="3354" width="25.6640625" style="34" customWidth="1"/>
+    <col min="3355" max="3355" width="31.33203125" style="34" customWidth="1"/>
+    <col min="3356" max="3565" width="8.83203125" style="34"/>
+    <col min="3566" max="3566" width="1.5" style="34" customWidth="1"/>
+    <col min="3567" max="3567" width="1.33203125" style="34" customWidth="1"/>
     <col min="3568" max="3568" width="42" style="34" customWidth="1"/>
-    <col min="3569" max="3569" width="5.42578125" style="34" customWidth="1"/>
+    <col min="3569" max="3569" width="5.5" style="34" customWidth="1"/>
     <col min="3570" max="3571" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3572" max="3572" width="2.7109375" style="34" customWidth="1"/>
-    <col min="3573" max="3608" width="3.28515625" style="34" customWidth="1"/>
-    <col min="3609" max="3609" width="1.7109375" style="34" customWidth="1"/>
-    <col min="3610" max="3610" width="25.7109375" style="34" customWidth="1"/>
-    <col min="3611" max="3611" width="31.28515625" style="34" customWidth="1"/>
-    <col min="3612" max="3821" width="8.85546875" style="34"/>
-    <col min="3822" max="3822" width="1.42578125" style="34" customWidth="1"/>
-    <col min="3823" max="3823" width="1.28515625" style="34" customWidth="1"/>
+    <col min="3572" max="3572" width="2.6640625" style="34" customWidth="1"/>
+    <col min="3573" max="3608" width="3.33203125" style="34" customWidth="1"/>
+    <col min="3609" max="3609" width="1.6640625" style="34" customWidth="1"/>
+    <col min="3610" max="3610" width="25.6640625" style="34" customWidth="1"/>
+    <col min="3611" max="3611" width="31.33203125" style="34" customWidth="1"/>
+    <col min="3612" max="3821" width="8.83203125" style="34"/>
+    <col min="3822" max="3822" width="1.5" style="34" customWidth="1"/>
+    <col min="3823" max="3823" width="1.33203125" style="34" customWidth="1"/>
     <col min="3824" max="3824" width="42" style="34" customWidth="1"/>
-    <col min="3825" max="3825" width="5.42578125" style="34" customWidth="1"/>
+    <col min="3825" max="3825" width="5.5" style="34" customWidth="1"/>
     <col min="3826" max="3827" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3828" max="3828" width="2.7109375" style="34" customWidth="1"/>
-    <col min="3829" max="3864" width="3.28515625" style="34" customWidth="1"/>
-    <col min="3865" max="3865" width="1.7109375" style="34" customWidth="1"/>
-    <col min="3866" max="3866" width="25.7109375" style="34" customWidth="1"/>
-    <col min="3867" max="3867" width="31.28515625" style="34" customWidth="1"/>
-    <col min="3868" max="4077" width="8.85546875" style="34"/>
-    <col min="4078" max="4078" width="1.42578125" style="34" customWidth="1"/>
-    <col min="4079" max="4079" width="1.28515625" style="34" customWidth="1"/>
+    <col min="3828" max="3828" width="2.6640625" style="34" customWidth="1"/>
+    <col min="3829" max="3864" width="3.33203125" style="34" customWidth="1"/>
+    <col min="3865" max="3865" width="1.6640625" style="34" customWidth="1"/>
+    <col min="3866" max="3866" width="25.6640625" style="34" customWidth="1"/>
+    <col min="3867" max="3867" width="31.33203125" style="34" customWidth="1"/>
+    <col min="3868" max="4077" width="8.83203125" style="34"/>
+    <col min="4078" max="4078" width="1.5" style="34" customWidth="1"/>
+    <col min="4079" max="4079" width="1.33203125" style="34" customWidth="1"/>
     <col min="4080" max="4080" width="42" style="34" customWidth="1"/>
-    <col min="4081" max="4081" width="5.42578125" style="34" customWidth="1"/>
+    <col min="4081" max="4081" width="5.5" style="34" customWidth="1"/>
     <col min="4082" max="4083" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4084" max="4084" width="2.7109375" style="34" customWidth="1"/>
-    <col min="4085" max="4120" width="3.28515625" style="34" customWidth="1"/>
-    <col min="4121" max="4121" width="1.7109375" style="34" customWidth="1"/>
-    <col min="4122" max="4122" width="25.7109375" style="34" customWidth="1"/>
-    <col min="4123" max="4123" width="31.28515625" style="34" customWidth="1"/>
-    <col min="4124" max="4333" width="8.85546875" style="34"/>
-    <col min="4334" max="4334" width="1.42578125" style="34" customWidth="1"/>
-    <col min="4335" max="4335" width="1.28515625" style="34" customWidth="1"/>
+    <col min="4084" max="4084" width="2.6640625" style="34" customWidth="1"/>
+    <col min="4085" max="4120" width="3.33203125" style="34" customWidth="1"/>
+    <col min="4121" max="4121" width="1.6640625" style="34" customWidth="1"/>
+    <col min="4122" max="4122" width="25.6640625" style="34" customWidth="1"/>
+    <col min="4123" max="4123" width="31.33203125" style="34" customWidth="1"/>
+    <col min="4124" max="4333" width="8.83203125" style="34"/>
+    <col min="4334" max="4334" width="1.5" style="34" customWidth="1"/>
+    <col min="4335" max="4335" width="1.33203125" style="34" customWidth="1"/>
     <col min="4336" max="4336" width="42" style="34" customWidth="1"/>
-    <col min="4337" max="4337" width="5.42578125" style="34" customWidth="1"/>
+    <col min="4337" max="4337" width="5.5" style="34" customWidth="1"/>
     <col min="4338" max="4339" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4340" max="4340" width="2.7109375" style="34" customWidth="1"/>
-    <col min="4341" max="4376" width="3.28515625" style="34" customWidth="1"/>
-    <col min="4377" max="4377" width="1.7109375" style="34" customWidth="1"/>
-    <col min="4378" max="4378" width="25.7109375" style="34" customWidth="1"/>
-    <col min="4379" max="4379" width="31.28515625" style="34" customWidth="1"/>
-    <col min="4380" max="4589" width="8.85546875" style="34"/>
-    <col min="4590" max="4590" width="1.42578125" style="34" customWidth="1"/>
-    <col min="4591" max="4591" width="1.28515625" style="34" customWidth="1"/>
+    <col min="4340" max="4340" width="2.6640625" style="34" customWidth="1"/>
+    <col min="4341" max="4376" width="3.33203125" style="34" customWidth="1"/>
+    <col min="4377" max="4377" width="1.6640625" style="34" customWidth="1"/>
+    <col min="4378" max="4378" width="25.6640625" style="34" customWidth="1"/>
+    <col min="4379" max="4379" width="31.33203125" style="34" customWidth="1"/>
+    <col min="4380" max="4589" width="8.83203125" style="34"/>
+    <col min="4590" max="4590" width="1.5" style="34" customWidth="1"/>
+    <col min="4591" max="4591" width="1.33203125" style="34" customWidth="1"/>
     <col min="4592" max="4592" width="42" style="34" customWidth="1"/>
-    <col min="4593" max="4593" width="5.42578125" style="34" customWidth="1"/>
+    <col min="4593" max="4593" width="5.5" style="34" customWidth="1"/>
     <col min="4594" max="4595" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4596" max="4596" width="2.7109375" style="34" customWidth="1"/>
-    <col min="4597" max="4632" width="3.28515625" style="34" customWidth="1"/>
-    <col min="4633" max="4633" width="1.7109375" style="34" customWidth="1"/>
-    <col min="4634" max="4634" width="25.7109375" style="34" customWidth="1"/>
-    <col min="4635" max="4635" width="31.28515625" style="34" customWidth="1"/>
-    <col min="4636" max="4845" width="8.85546875" style="34"/>
-    <col min="4846" max="4846" width="1.42578125" style="34" customWidth="1"/>
-    <col min="4847" max="4847" width="1.28515625" style="34" customWidth="1"/>
+    <col min="4596" max="4596" width="2.6640625" style="34" customWidth="1"/>
+    <col min="4597" max="4632" width="3.33203125" style="34" customWidth="1"/>
+    <col min="4633" max="4633" width="1.6640625" style="34" customWidth="1"/>
+    <col min="4634" max="4634" width="25.6640625" style="34" customWidth="1"/>
+    <col min="4635" max="4635" width="31.33203125" style="34" customWidth="1"/>
+    <col min="4636" max="4845" width="8.83203125" style="34"/>
+    <col min="4846" max="4846" width="1.5" style="34" customWidth="1"/>
+    <col min="4847" max="4847" width="1.33203125" style="34" customWidth="1"/>
     <col min="4848" max="4848" width="42" style="34" customWidth="1"/>
-    <col min="4849" max="4849" width="5.42578125" style="34" customWidth="1"/>
+    <col min="4849" max="4849" width="5.5" style="34" customWidth="1"/>
     <col min="4850" max="4851" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4852" max="4852" width="2.7109375" style="34" customWidth="1"/>
-    <col min="4853" max="4888" width="3.28515625" style="34" customWidth="1"/>
-    <col min="4889" max="4889" width="1.7109375" style="34" customWidth="1"/>
-    <col min="4890" max="4890" width="25.7109375" style="34" customWidth="1"/>
-    <col min="4891" max="4891" width="31.28515625" style="34" customWidth="1"/>
-    <col min="4892" max="5101" width="8.85546875" style="34"/>
-    <col min="5102" max="5102" width="1.42578125" style="34" customWidth="1"/>
-    <col min="5103" max="5103" width="1.28515625" style="34" customWidth="1"/>
+    <col min="4852" max="4852" width="2.6640625" style="34" customWidth="1"/>
+    <col min="4853" max="4888" width="3.33203125" style="34" customWidth="1"/>
+    <col min="4889" max="4889" width="1.6640625" style="34" customWidth="1"/>
+    <col min="4890" max="4890" width="25.6640625" style="34" customWidth="1"/>
+    <col min="4891" max="4891" width="31.33203125" style="34" customWidth="1"/>
+    <col min="4892" max="5101" width="8.83203125" style="34"/>
+    <col min="5102" max="5102" width="1.5" style="34" customWidth="1"/>
+    <col min="5103" max="5103" width="1.33203125" style="34" customWidth="1"/>
     <col min="5104" max="5104" width="42" style="34" customWidth="1"/>
-    <col min="5105" max="5105" width="5.42578125" style="34" customWidth="1"/>
+    <col min="5105" max="5105" width="5.5" style="34" customWidth="1"/>
     <col min="5106" max="5107" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5108" max="5108" width="2.7109375" style="34" customWidth="1"/>
-    <col min="5109" max="5144" width="3.28515625" style="34" customWidth="1"/>
-    <col min="5145" max="5145" width="1.7109375" style="34" customWidth="1"/>
-    <col min="5146" max="5146" width="25.7109375" style="34" customWidth="1"/>
-    <col min="5147" max="5147" width="31.28515625" style="34" customWidth="1"/>
-    <col min="5148" max="5357" width="8.85546875" style="34"/>
-    <col min="5358" max="5358" width="1.42578125" style="34" customWidth="1"/>
-    <col min="5359" max="5359" width="1.28515625" style="34" customWidth="1"/>
+    <col min="5108" max="5108" width="2.6640625" style="34" customWidth="1"/>
+    <col min="5109" max="5144" width="3.33203125" style="34" customWidth="1"/>
+    <col min="5145" max="5145" width="1.6640625" style="34" customWidth="1"/>
+    <col min="5146" max="5146" width="25.6640625" style="34" customWidth="1"/>
+    <col min="5147" max="5147" width="31.33203125" style="34" customWidth="1"/>
+    <col min="5148" max="5357" width="8.83203125" style="34"/>
+    <col min="5358" max="5358" width="1.5" style="34" customWidth="1"/>
+    <col min="5359" max="5359" width="1.33203125" style="34" customWidth="1"/>
     <col min="5360" max="5360" width="42" style="34" customWidth="1"/>
-    <col min="5361" max="5361" width="5.42578125" style="34" customWidth="1"/>
+    <col min="5361" max="5361" width="5.5" style="34" customWidth="1"/>
     <col min="5362" max="5363" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5364" max="5364" width="2.7109375" style="34" customWidth="1"/>
-    <col min="5365" max="5400" width="3.28515625" style="34" customWidth="1"/>
-    <col min="5401" max="5401" width="1.7109375" style="34" customWidth="1"/>
-    <col min="5402" max="5402" width="25.7109375" style="34" customWidth="1"/>
-    <col min="5403" max="5403" width="31.28515625" style="34" customWidth="1"/>
-    <col min="5404" max="5613" width="8.85546875" style="34"/>
-    <col min="5614" max="5614" width="1.42578125" style="34" customWidth="1"/>
-    <col min="5615" max="5615" width="1.28515625" style="34" customWidth="1"/>
+    <col min="5364" max="5364" width="2.6640625" style="34" customWidth="1"/>
+    <col min="5365" max="5400" width="3.33203125" style="34" customWidth="1"/>
+    <col min="5401" max="5401" width="1.6640625" style="34" customWidth="1"/>
+    <col min="5402" max="5402" width="25.6640625" style="34" customWidth="1"/>
+    <col min="5403" max="5403" width="31.33203125" style="34" customWidth="1"/>
+    <col min="5404" max="5613" width="8.83203125" style="34"/>
+    <col min="5614" max="5614" width="1.5" style="34" customWidth="1"/>
+    <col min="5615" max="5615" width="1.33203125" style="34" customWidth="1"/>
     <col min="5616" max="5616" width="42" style="34" customWidth="1"/>
-    <col min="5617" max="5617" width="5.42578125" style="34" customWidth="1"/>
+    <col min="5617" max="5617" width="5.5" style="34" customWidth="1"/>
     <col min="5618" max="5619" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5620" max="5620" width="2.7109375" style="34" customWidth="1"/>
-    <col min="5621" max="5656" width="3.28515625" style="34" customWidth="1"/>
-    <col min="5657" max="5657" width="1.7109375" style="34" customWidth="1"/>
-    <col min="5658" max="5658" width="25.7109375" style="34" customWidth="1"/>
-    <col min="5659" max="5659" width="31.28515625" style="34" customWidth="1"/>
-    <col min="5660" max="5869" width="8.85546875" style="34"/>
-    <col min="5870" max="5870" width="1.42578125" style="34" customWidth="1"/>
-    <col min="5871" max="5871" width="1.28515625" style="34" customWidth="1"/>
+    <col min="5620" max="5620" width="2.6640625" style="34" customWidth="1"/>
+    <col min="5621" max="5656" width="3.33203125" style="34" customWidth="1"/>
+    <col min="5657" max="5657" width="1.6640625" style="34" customWidth="1"/>
+    <col min="5658" max="5658" width="25.6640625" style="34" customWidth="1"/>
+    <col min="5659" max="5659" width="31.33203125" style="34" customWidth="1"/>
+    <col min="5660" max="5869" width="8.83203125" style="34"/>
+    <col min="5870" max="5870" width="1.5" style="34" customWidth="1"/>
+    <col min="5871" max="5871" width="1.33203125" style="34" customWidth="1"/>
     <col min="5872" max="5872" width="42" style="34" customWidth="1"/>
-    <col min="5873" max="5873" width="5.42578125" style="34" customWidth="1"/>
+    <col min="5873" max="5873" width="5.5" style="34" customWidth="1"/>
     <col min="5874" max="5875" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5876" max="5876" width="2.7109375" style="34" customWidth="1"/>
-    <col min="5877" max="5912" width="3.28515625" style="34" customWidth="1"/>
-    <col min="5913" max="5913" width="1.7109375" style="34" customWidth="1"/>
-    <col min="5914" max="5914" width="25.7109375" style="34" customWidth="1"/>
-    <col min="5915" max="5915" width="31.28515625" style="34" customWidth="1"/>
-    <col min="5916" max="6125" width="8.85546875" style="34"/>
-    <col min="6126" max="6126" width="1.42578125" style="34" customWidth="1"/>
-    <col min="6127" max="6127" width="1.28515625" style="34" customWidth="1"/>
+    <col min="5876" max="5876" width="2.6640625" style="34" customWidth="1"/>
+    <col min="5877" max="5912" width="3.33203125" style="34" customWidth="1"/>
+    <col min="5913" max="5913" width="1.6640625" style="34" customWidth="1"/>
+    <col min="5914" max="5914" width="25.6640625" style="34" customWidth="1"/>
+    <col min="5915" max="5915" width="31.33203125" style="34" customWidth="1"/>
+    <col min="5916" max="6125" width="8.83203125" style="34"/>
+    <col min="6126" max="6126" width="1.5" style="34" customWidth="1"/>
+    <col min="6127" max="6127" width="1.33203125" style="34" customWidth="1"/>
     <col min="6128" max="6128" width="42" style="34" customWidth="1"/>
-    <col min="6129" max="6129" width="5.42578125" style="34" customWidth="1"/>
+    <col min="6129" max="6129" width="5.5" style="34" customWidth="1"/>
     <col min="6130" max="6131" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6132" max="6132" width="2.7109375" style="34" customWidth="1"/>
-    <col min="6133" max="6168" width="3.28515625" style="34" customWidth="1"/>
-    <col min="6169" max="6169" width="1.7109375" style="34" customWidth="1"/>
-    <col min="6170" max="6170" width="25.7109375" style="34" customWidth="1"/>
-    <col min="6171" max="6171" width="31.28515625" style="34" customWidth="1"/>
-    <col min="6172" max="6381" width="8.85546875" style="34"/>
-    <col min="6382" max="6382" width="1.42578125" style="34" customWidth="1"/>
-    <col min="6383" max="6383" width="1.28515625" style="34" customWidth="1"/>
+    <col min="6132" max="6132" width="2.6640625" style="34" customWidth="1"/>
+    <col min="6133" max="6168" width="3.33203125" style="34" customWidth="1"/>
+    <col min="6169" max="6169" width="1.6640625" style="34" customWidth="1"/>
+    <col min="6170" max="6170" width="25.6640625" style="34" customWidth="1"/>
+    <col min="6171" max="6171" width="31.33203125" style="34" customWidth="1"/>
+    <col min="6172" max="6381" width="8.83203125" style="34"/>
+    <col min="6382" max="6382" width="1.5" style="34" customWidth="1"/>
+    <col min="6383" max="6383" width="1.33203125" style="34" customWidth="1"/>
     <col min="6384" max="6384" width="42" style="34" customWidth="1"/>
-    <col min="6385" max="6385" width="5.42578125" style="34" customWidth="1"/>
+    <col min="6385" max="6385" width="5.5" style="34" customWidth="1"/>
     <col min="6386" max="6387" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6388" max="6388" width="2.7109375" style="34" customWidth="1"/>
-    <col min="6389" max="6424" width="3.28515625" style="34" customWidth="1"/>
-    <col min="6425" max="6425" width="1.7109375" style="34" customWidth="1"/>
-    <col min="6426" max="6426" width="25.7109375" style="34" customWidth="1"/>
-    <col min="6427" max="6427" width="31.28515625" style="34" customWidth="1"/>
-    <col min="6428" max="6637" width="8.85546875" style="34"/>
-    <col min="6638" max="6638" width="1.42578125" style="34" customWidth="1"/>
-    <col min="6639" max="6639" width="1.28515625" style="34" customWidth="1"/>
+    <col min="6388" max="6388" width="2.6640625" style="34" customWidth="1"/>
+    <col min="6389" max="6424" width="3.33203125" style="34" customWidth="1"/>
+    <col min="6425" max="6425" width="1.6640625" style="34" customWidth="1"/>
+    <col min="6426" max="6426" width="25.6640625" style="34" customWidth="1"/>
+    <col min="6427" max="6427" width="31.33203125" style="34" customWidth="1"/>
+    <col min="6428" max="6637" width="8.83203125" style="34"/>
+    <col min="6638" max="6638" width="1.5" style="34" customWidth="1"/>
+    <col min="6639" max="6639" width="1.33203125" style="34" customWidth="1"/>
     <col min="6640" max="6640" width="42" style="34" customWidth="1"/>
-    <col min="6641" max="6641" width="5.42578125" style="34" customWidth="1"/>
+    <col min="6641" max="6641" width="5.5" style="34" customWidth="1"/>
     <col min="6642" max="6643" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6644" max="6644" width="2.7109375" style="34" customWidth="1"/>
-    <col min="6645" max="6680" width="3.28515625" style="34" customWidth="1"/>
-    <col min="6681" max="6681" width="1.7109375" style="34" customWidth="1"/>
-    <col min="6682" max="6682" width="25.7109375" style="34" customWidth="1"/>
-    <col min="6683" max="6683" width="31.28515625" style="34" customWidth="1"/>
-    <col min="6684" max="6893" width="8.85546875" style="34"/>
-    <col min="6894" max="6894" width="1.42578125" style="34" customWidth="1"/>
-    <col min="6895" max="6895" width="1.28515625" style="34" customWidth="1"/>
+    <col min="6644" max="6644" width="2.6640625" style="34" customWidth="1"/>
+    <col min="6645" max="6680" width="3.33203125" style="34" customWidth="1"/>
+    <col min="6681" max="6681" width="1.6640625" style="34" customWidth="1"/>
+    <col min="6682" max="6682" width="25.6640625" style="34" customWidth="1"/>
+    <col min="6683" max="6683" width="31.33203125" style="34" customWidth="1"/>
+    <col min="6684" max="6893" width="8.83203125" style="34"/>
+    <col min="6894" max="6894" width="1.5" style="34" customWidth="1"/>
+    <col min="6895" max="6895" width="1.33203125" style="34" customWidth="1"/>
     <col min="6896" max="6896" width="42" style="34" customWidth="1"/>
-    <col min="6897" max="6897" width="5.42578125" style="34" customWidth="1"/>
+    <col min="6897" max="6897" width="5.5" style="34" customWidth="1"/>
     <col min="6898" max="6899" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6900" max="6900" width="2.7109375" style="34" customWidth="1"/>
-    <col min="6901" max="6936" width="3.28515625" style="34" customWidth="1"/>
-    <col min="6937" max="6937" width="1.7109375" style="34" customWidth="1"/>
-    <col min="6938" max="6938" width="25.7109375" style="34" customWidth="1"/>
-    <col min="6939" max="6939" width="31.28515625" style="34" customWidth="1"/>
-    <col min="6940" max="7149" width="8.85546875" style="34"/>
-    <col min="7150" max="7150" width="1.42578125" style="34" customWidth="1"/>
-    <col min="7151" max="7151" width="1.28515625" style="34" customWidth="1"/>
+    <col min="6900" max="6900" width="2.6640625" style="34" customWidth="1"/>
+    <col min="6901" max="6936" width="3.33203125" style="34" customWidth="1"/>
+    <col min="6937" max="6937" width="1.6640625" style="34" customWidth="1"/>
+    <col min="6938" max="6938" width="25.6640625" style="34" customWidth="1"/>
+    <col min="6939" max="6939" width="31.33203125" style="34" customWidth="1"/>
+    <col min="6940" max="7149" width="8.83203125" style="34"/>
+    <col min="7150" max="7150" width="1.5" style="34" customWidth="1"/>
+    <col min="7151" max="7151" width="1.33203125" style="34" customWidth="1"/>
     <col min="7152" max="7152" width="42" style="34" customWidth="1"/>
-    <col min="7153" max="7153" width="5.42578125" style="34" customWidth="1"/>
+    <col min="7153" max="7153" width="5.5" style="34" customWidth="1"/>
     <col min="7154" max="7155" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7156" max="7156" width="2.7109375" style="34" customWidth="1"/>
-    <col min="7157" max="7192" width="3.28515625" style="34" customWidth="1"/>
-    <col min="7193" max="7193" width="1.7109375" style="34" customWidth="1"/>
-    <col min="7194" max="7194" width="25.7109375" style="34" customWidth="1"/>
-    <col min="7195" max="7195" width="31.28515625" style="34" customWidth="1"/>
-    <col min="7196" max="7405" width="8.85546875" style="34"/>
-    <col min="7406" max="7406" width="1.42578125" style="34" customWidth="1"/>
-    <col min="7407" max="7407" width="1.28515625" style="34" customWidth="1"/>
+    <col min="7156" max="7156" width="2.6640625" style="34" customWidth="1"/>
+    <col min="7157" max="7192" width="3.33203125" style="34" customWidth="1"/>
+    <col min="7193" max="7193" width="1.6640625" style="34" customWidth="1"/>
+    <col min="7194" max="7194" width="25.6640625" style="34" customWidth="1"/>
+    <col min="7195" max="7195" width="31.33203125" style="34" customWidth="1"/>
+    <col min="7196" max="7405" width="8.83203125" style="34"/>
+    <col min="7406" max="7406" width="1.5" style="34" customWidth="1"/>
+    <col min="7407" max="7407" width="1.33203125" style="34" customWidth="1"/>
     <col min="7408" max="7408" width="42" style="34" customWidth="1"/>
-    <col min="7409" max="7409" width="5.42578125" style="34" customWidth="1"/>
+    <col min="7409" max="7409" width="5.5" style="34" customWidth="1"/>
     <col min="7410" max="7411" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7412" max="7412" width="2.7109375" style="34" customWidth="1"/>
-    <col min="7413" max="7448" width="3.28515625" style="34" customWidth="1"/>
-    <col min="7449" max="7449" width="1.7109375" style="34" customWidth="1"/>
-    <col min="7450" max="7450" width="25.7109375" style="34" customWidth="1"/>
-    <col min="7451" max="7451" width="31.28515625" style="34" customWidth="1"/>
-    <col min="7452" max="7661" width="8.85546875" style="34"/>
-    <col min="7662" max="7662" width="1.42578125" style="34" customWidth="1"/>
-    <col min="7663" max="7663" width="1.28515625" style="34" customWidth="1"/>
+    <col min="7412" max="7412" width="2.6640625" style="34" customWidth="1"/>
+    <col min="7413" max="7448" width="3.33203125" style="34" customWidth="1"/>
+    <col min="7449" max="7449" width="1.6640625" style="34" customWidth="1"/>
+    <col min="7450" max="7450" width="25.6640625" style="34" customWidth="1"/>
+    <col min="7451" max="7451" width="31.33203125" style="34" customWidth="1"/>
+    <col min="7452" max="7661" width="8.83203125" style="34"/>
+    <col min="7662" max="7662" width="1.5" style="34" customWidth="1"/>
+    <col min="7663" max="7663" width="1.33203125" style="34" customWidth="1"/>
     <col min="7664" max="7664" width="42" style="34" customWidth="1"/>
-    <col min="7665" max="7665" width="5.42578125" style="34" customWidth="1"/>
+    <col min="7665" max="7665" width="5.5" style="34" customWidth="1"/>
     <col min="7666" max="7667" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7668" max="7668" width="2.7109375" style="34" customWidth="1"/>
-    <col min="7669" max="7704" width="3.28515625" style="34" customWidth="1"/>
-    <col min="7705" max="7705" width="1.7109375" style="34" customWidth="1"/>
-    <col min="7706" max="7706" width="25.7109375" style="34" customWidth="1"/>
-    <col min="7707" max="7707" width="31.28515625" style="34" customWidth="1"/>
-    <col min="7708" max="7917" width="8.85546875" style="34"/>
-    <col min="7918" max="7918" width="1.42578125" style="34" customWidth="1"/>
-    <col min="7919" max="7919" width="1.28515625" style="34" customWidth="1"/>
+    <col min="7668" max="7668" width="2.6640625" style="34" customWidth="1"/>
+    <col min="7669" max="7704" width="3.33203125" style="34" customWidth="1"/>
+    <col min="7705" max="7705" width="1.6640625" style="34" customWidth="1"/>
+    <col min="7706" max="7706" width="25.6640625" style="34" customWidth="1"/>
+    <col min="7707" max="7707" width="31.33203125" style="34" customWidth="1"/>
+    <col min="7708" max="7917" width="8.83203125" style="34"/>
+    <col min="7918" max="7918" width="1.5" style="34" customWidth="1"/>
+    <col min="7919" max="7919" width="1.33203125" style="34" customWidth="1"/>
     <col min="7920" max="7920" width="42" style="34" customWidth="1"/>
-    <col min="7921" max="7921" width="5.42578125" style="34" customWidth="1"/>
+    <col min="7921" max="7921" width="5.5" style="34" customWidth="1"/>
     <col min="7922" max="7923" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7924" max="7924" width="2.7109375" style="34" customWidth="1"/>
-    <col min="7925" max="7960" width="3.28515625" style="34" customWidth="1"/>
-    <col min="7961" max="7961" width="1.7109375" style="34" customWidth="1"/>
-    <col min="7962" max="7962" width="25.7109375" style="34" customWidth="1"/>
-    <col min="7963" max="7963" width="31.28515625" style="34" customWidth="1"/>
-    <col min="7964" max="8173" width="8.85546875" style="34"/>
-    <col min="8174" max="8174" width="1.42578125" style="34" customWidth="1"/>
-    <col min="8175" max="8175" width="1.28515625" style="34" customWidth="1"/>
+    <col min="7924" max="7924" width="2.6640625" style="34" customWidth="1"/>
+    <col min="7925" max="7960" width="3.33203125" style="34" customWidth="1"/>
+    <col min="7961" max="7961" width="1.6640625" style="34" customWidth="1"/>
+    <col min="7962" max="7962" width="25.6640625" style="34" customWidth="1"/>
+    <col min="7963" max="7963" width="31.33203125" style="34" customWidth="1"/>
+    <col min="7964" max="8173" width="8.83203125" style="34"/>
+    <col min="8174" max="8174" width="1.5" style="34" customWidth="1"/>
+    <col min="8175" max="8175" width="1.33203125" style="34" customWidth="1"/>
     <col min="8176" max="8176" width="42" style="34" customWidth="1"/>
-    <col min="8177" max="8177" width="5.42578125" style="34" customWidth="1"/>
+    <col min="8177" max="8177" width="5.5" style="34" customWidth="1"/>
     <col min="8178" max="8179" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8180" max="8180" width="2.7109375" style="34" customWidth="1"/>
-    <col min="8181" max="8216" width="3.28515625" style="34" customWidth="1"/>
-    <col min="8217" max="8217" width="1.7109375" style="34" customWidth="1"/>
-    <col min="8218" max="8218" width="25.7109375" style="34" customWidth="1"/>
-    <col min="8219" max="8219" width="31.28515625" style="34" customWidth="1"/>
-    <col min="8220" max="8429" width="8.85546875" style="34"/>
-    <col min="8430" max="8430" width="1.42578125" style="34" customWidth="1"/>
-    <col min="8431" max="8431" width="1.28515625" style="34" customWidth="1"/>
+    <col min="8180" max="8180" width="2.6640625" style="34" customWidth="1"/>
+    <col min="8181" max="8216" width="3.33203125" style="34" customWidth="1"/>
+    <col min="8217" max="8217" width="1.6640625" style="34" customWidth="1"/>
+    <col min="8218" max="8218" width="25.6640625" style="34" customWidth="1"/>
+    <col min="8219" max="8219" width="31.33203125" style="34" customWidth="1"/>
+    <col min="8220" max="8429" width="8.83203125" style="34"/>
+    <col min="8430" max="8430" width="1.5" style="34" customWidth="1"/>
+    <col min="8431" max="8431" width="1.33203125" style="34" customWidth="1"/>
     <col min="8432" max="8432" width="42" style="34" customWidth="1"/>
-    <col min="8433" max="8433" width="5.42578125" style="34" customWidth="1"/>
+    <col min="8433" max="8433" width="5.5" style="34" customWidth="1"/>
     <col min="8434" max="8435" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8436" max="8436" width="2.7109375" style="34" customWidth="1"/>
-    <col min="8437" max="8472" width="3.28515625" style="34" customWidth="1"/>
-    <col min="8473" max="8473" width="1.7109375" style="34" customWidth="1"/>
-    <col min="8474" max="8474" width="25.7109375" style="34" customWidth="1"/>
-    <col min="8475" max="8475" width="31.28515625" style="34" customWidth="1"/>
-    <col min="8476" max="8685" width="8.85546875" style="34"/>
-    <col min="8686" max="8686" width="1.42578125" style="34" customWidth="1"/>
-    <col min="8687" max="8687" width="1.28515625" style="34" customWidth="1"/>
+    <col min="8436" max="8436" width="2.6640625" style="34" customWidth="1"/>
+    <col min="8437" max="8472" width="3.33203125" style="34" customWidth="1"/>
+    <col min="8473" max="8473" width="1.6640625" style="34" customWidth="1"/>
+    <col min="8474" max="8474" width="25.6640625" style="34" customWidth="1"/>
+    <col min="8475" max="8475" width="31.33203125" style="34" customWidth="1"/>
+    <col min="8476" max="8685" width="8.83203125" style="34"/>
+    <col min="8686" max="8686" width="1.5" style="34" customWidth="1"/>
+    <col min="8687" max="8687" width="1.33203125" style="34" customWidth="1"/>
     <col min="8688" max="8688" width="42" style="34" customWidth="1"/>
-    <col min="8689" max="8689" width="5.42578125" style="34" customWidth="1"/>
+    <col min="8689" max="8689" width="5.5" style="34" customWidth="1"/>
     <col min="8690" max="8691" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8692" max="8692" width="2.7109375" style="34" customWidth="1"/>
-    <col min="8693" max="8728" width="3.28515625" style="34" customWidth="1"/>
-    <col min="8729" max="8729" width="1.7109375" style="34" customWidth="1"/>
-    <col min="8730" max="8730" width="25.7109375" style="34" customWidth="1"/>
-    <col min="8731" max="8731" width="31.28515625" style="34" customWidth="1"/>
-    <col min="8732" max="8941" width="8.85546875" style="34"/>
-    <col min="8942" max="8942" width="1.42578125" style="34" customWidth="1"/>
-    <col min="8943" max="8943" width="1.28515625" style="34" customWidth="1"/>
+    <col min="8692" max="8692" width="2.6640625" style="34" customWidth="1"/>
+    <col min="8693" max="8728" width="3.33203125" style="34" customWidth="1"/>
+    <col min="8729" max="8729" width="1.6640625" style="34" customWidth="1"/>
+    <col min="8730" max="8730" width="25.6640625" style="34" customWidth="1"/>
+    <col min="8731" max="8731" width="31.33203125" style="34" customWidth="1"/>
+    <col min="8732" max="8941" width="8.83203125" style="34"/>
+    <col min="8942" max="8942" width="1.5" style="34" customWidth="1"/>
+    <col min="8943" max="8943" width="1.33203125" style="34" customWidth="1"/>
     <col min="8944" max="8944" width="42" style="34" customWidth="1"/>
-    <col min="8945" max="8945" width="5.42578125" style="34" customWidth="1"/>
+    <col min="8945" max="8945" width="5.5" style="34" customWidth="1"/>
     <col min="8946" max="8947" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8948" max="8948" width="2.7109375" style="34" customWidth="1"/>
-    <col min="8949" max="8984" width="3.28515625" style="34" customWidth="1"/>
-    <col min="8985" max="8985" width="1.7109375" style="34" customWidth="1"/>
-    <col min="8986" max="8986" width="25.7109375" style="34" customWidth="1"/>
-    <col min="8987" max="8987" width="31.28515625" style="34" customWidth="1"/>
-    <col min="8988" max="9197" width="8.85546875" style="34"/>
-    <col min="9198" max="9198" width="1.42578125" style="34" customWidth="1"/>
-    <col min="9199" max="9199" width="1.28515625" style="34" customWidth="1"/>
+    <col min="8948" max="8948" width="2.6640625" style="34" customWidth="1"/>
+    <col min="8949" max="8984" width="3.33203125" style="34" customWidth="1"/>
+    <col min="8985" max="8985" width="1.6640625" style="34" customWidth="1"/>
+    <col min="8986" max="8986" width="25.6640625" style="34" customWidth="1"/>
+    <col min="8987" max="8987" width="31.33203125" style="34" customWidth="1"/>
+    <col min="8988" max="9197" width="8.83203125" style="34"/>
+    <col min="9198" max="9198" width="1.5" style="34" customWidth="1"/>
+    <col min="9199" max="9199" width="1.33203125" style="34" customWidth="1"/>
     <col min="9200" max="9200" width="42" style="34" customWidth="1"/>
-    <col min="9201" max="9201" width="5.42578125" style="34" customWidth="1"/>
+    <col min="9201" max="9201" width="5.5" style="34" customWidth="1"/>
     <col min="9202" max="9203" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9204" max="9204" width="2.7109375" style="34" customWidth="1"/>
-    <col min="9205" max="9240" width="3.28515625" style="34" customWidth="1"/>
-    <col min="9241" max="9241" width="1.7109375" style="34" customWidth="1"/>
-    <col min="9242" max="9242" width="25.7109375" style="34" customWidth="1"/>
-    <col min="9243" max="9243" width="31.28515625" style="34" customWidth="1"/>
-    <col min="9244" max="9453" width="8.85546875" style="34"/>
-    <col min="9454" max="9454" width="1.42578125" style="34" customWidth="1"/>
-    <col min="9455" max="9455" width="1.28515625" style="34" customWidth="1"/>
+    <col min="9204" max="9204" width="2.6640625" style="34" customWidth="1"/>
+    <col min="9205" max="9240" width="3.33203125" style="34" customWidth="1"/>
+    <col min="9241" max="9241" width="1.6640625" style="34" customWidth="1"/>
+    <col min="9242" max="9242" width="25.6640625" style="34" customWidth="1"/>
+    <col min="9243" max="9243" width="31.33203125" style="34" customWidth="1"/>
+    <col min="9244" max="9453" width="8.83203125" style="34"/>
+    <col min="9454" max="9454" width="1.5" style="34" customWidth="1"/>
+    <col min="9455" max="9455" width="1.33203125" style="34" customWidth="1"/>
     <col min="9456" max="9456" width="42" style="34" customWidth="1"/>
-    <col min="9457" max="9457" width="5.42578125" style="34" customWidth="1"/>
+    <col min="9457" max="9457" width="5.5" style="34" customWidth="1"/>
     <col min="9458" max="9459" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9460" max="9460" width="2.7109375" style="34" customWidth="1"/>
-    <col min="9461" max="9496" width="3.28515625" style="34" customWidth="1"/>
-    <col min="9497" max="9497" width="1.7109375" style="34" customWidth="1"/>
-    <col min="9498" max="9498" width="25.7109375" style="34" customWidth="1"/>
-    <col min="9499" max="9499" width="31.28515625" style="34" customWidth="1"/>
-    <col min="9500" max="9709" width="8.85546875" style="34"/>
-    <col min="9710" max="9710" width="1.42578125" style="34" customWidth="1"/>
-    <col min="9711" max="9711" width="1.28515625" style="34" customWidth="1"/>
+    <col min="9460" max="9460" width="2.6640625" style="34" customWidth="1"/>
+    <col min="9461" max="9496" width="3.33203125" style="34" customWidth="1"/>
+    <col min="9497" max="9497" width="1.6640625" style="34" customWidth="1"/>
+    <col min="9498" max="9498" width="25.6640625" style="34" customWidth="1"/>
+    <col min="9499" max="9499" width="31.33203125" style="34" customWidth="1"/>
+    <col min="9500" max="9709" width="8.83203125" style="34"/>
+    <col min="9710" max="9710" width="1.5" style="34" customWidth="1"/>
+    <col min="9711" max="9711" width="1.33203125" style="34" customWidth="1"/>
     <col min="9712" max="9712" width="42" style="34" customWidth="1"/>
-    <col min="9713" max="9713" width="5.42578125" style="34" customWidth="1"/>
+    <col min="9713" max="9713" width="5.5" style="34" customWidth="1"/>
     <col min="9714" max="9715" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9716" max="9716" width="2.7109375" style="34" customWidth="1"/>
-    <col min="9717" max="9752" width="3.28515625" style="34" customWidth="1"/>
-    <col min="9753" max="9753" width="1.7109375" style="34" customWidth="1"/>
-    <col min="9754" max="9754" width="25.7109375" style="34" customWidth="1"/>
-    <col min="9755" max="9755" width="31.28515625" style="34" customWidth="1"/>
-    <col min="9756" max="9965" width="8.85546875" style="34"/>
-    <col min="9966" max="9966" width="1.42578125" style="34" customWidth="1"/>
-    <col min="9967" max="9967" width="1.28515625" style="34" customWidth="1"/>
+    <col min="9716" max="9716" width="2.6640625" style="34" customWidth="1"/>
+    <col min="9717" max="9752" width="3.33203125" style="34" customWidth="1"/>
+    <col min="9753" max="9753" width="1.6640625" style="34" customWidth="1"/>
+    <col min="9754" max="9754" width="25.6640625" style="34" customWidth="1"/>
+    <col min="9755" max="9755" width="31.33203125" style="34" customWidth="1"/>
+    <col min="9756" max="9965" width="8.83203125" style="34"/>
+    <col min="9966" max="9966" width="1.5" style="34" customWidth="1"/>
+    <col min="9967" max="9967" width="1.33203125" style="34" customWidth="1"/>
     <col min="9968" max="9968" width="42" style="34" customWidth="1"/>
-    <col min="9969" max="9969" width="5.42578125" style="34" customWidth="1"/>
+    <col min="9969" max="9969" width="5.5" style="34" customWidth="1"/>
     <col min="9970" max="9971" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9972" max="9972" width="2.7109375" style="34" customWidth="1"/>
-    <col min="9973" max="10008" width="3.28515625" style="34" customWidth="1"/>
-    <col min="10009" max="10009" width="1.7109375" style="34" customWidth="1"/>
-    <col min="10010" max="10010" width="25.7109375" style="34" customWidth="1"/>
-    <col min="10011" max="10011" width="31.28515625" style="34" customWidth="1"/>
-    <col min="10012" max="10221" width="8.85546875" style="34"/>
-    <col min="10222" max="10222" width="1.42578125" style="34" customWidth="1"/>
-    <col min="10223" max="10223" width="1.28515625" style="34" customWidth="1"/>
+    <col min="9972" max="9972" width="2.6640625" style="34" customWidth="1"/>
+    <col min="9973" max="10008" width="3.33203125" style="34" customWidth="1"/>
+    <col min="10009" max="10009" width="1.6640625" style="34" customWidth="1"/>
+    <col min="10010" max="10010" width="25.6640625" style="34" customWidth="1"/>
+    <col min="10011" max="10011" width="31.33203125" style="34" customWidth="1"/>
+    <col min="10012" max="10221" width="8.83203125" style="34"/>
+    <col min="10222" max="10222" width="1.5" style="34" customWidth="1"/>
+    <col min="10223" max="10223" width="1.33203125" style="34" customWidth="1"/>
     <col min="10224" max="10224" width="42" style="34" customWidth="1"/>
-    <col min="10225" max="10225" width="5.42578125" style="34" customWidth="1"/>
+    <col min="10225" max="10225" width="5.5" style="34" customWidth="1"/>
     <col min="10226" max="10227" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10228" max="10228" width="2.7109375" style="34" customWidth="1"/>
-    <col min="10229" max="10264" width="3.28515625" style="34" customWidth="1"/>
-    <col min="10265" max="10265" width="1.7109375" style="34" customWidth="1"/>
-    <col min="10266" max="10266" width="25.7109375" style="34" customWidth="1"/>
-    <col min="10267" max="10267" width="31.28515625" style="34" customWidth="1"/>
-    <col min="10268" max="10477" width="8.85546875" style="34"/>
-    <col min="10478" max="10478" width="1.42578125" style="34" customWidth="1"/>
-    <col min="10479" max="10479" width="1.28515625" style="34" customWidth="1"/>
+    <col min="10228" max="10228" width="2.6640625" style="34" customWidth="1"/>
+    <col min="10229" max="10264" width="3.33203125" style="34" customWidth="1"/>
+    <col min="10265" max="10265" width="1.6640625" style="34" customWidth="1"/>
+    <col min="10266" max="10266" width="25.6640625" style="34" customWidth="1"/>
+    <col min="10267" max="10267" width="31.33203125" style="34" customWidth="1"/>
+    <col min="10268" max="10477" width="8.83203125" style="34"/>
+    <col min="10478" max="10478" width="1.5" style="34" customWidth="1"/>
+    <col min="10479" max="10479" width="1.33203125" style="34" customWidth="1"/>
     <col min="10480" max="10480" width="42" style="34" customWidth="1"/>
-    <col min="10481" max="10481" width="5.42578125" style="34" customWidth="1"/>
+    <col min="10481" max="10481" width="5.5" style="34" customWidth="1"/>
     <col min="10482" max="10483" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10484" max="10484" width="2.7109375" style="34" customWidth="1"/>
-    <col min="10485" max="10520" width="3.28515625" style="34" customWidth="1"/>
-    <col min="10521" max="10521" width="1.7109375" style="34" customWidth="1"/>
-    <col min="10522" max="10522" width="25.7109375" style="34" customWidth="1"/>
-    <col min="10523" max="10523" width="31.28515625" style="34" customWidth="1"/>
-    <col min="10524" max="10733" width="8.85546875" style="34"/>
-    <col min="10734" max="10734" width="1.42578125" style="34" customWidth="1"/>
-    <col min="10735" max="10735" width="1.28515625" style="34" customWidth="1"/>
+    <col min="10484" max="10484" width="2.6640625" style="34" customWidth="1"/>
+    <col min="10485" max="10520" width="3.33203125" style="34" customWidth="1"/>
+    <col min="10521" max="10521" width="1.6640625" style="34" customWidth="1"/>
+    <col min="10522" max="10522" width="25.6640625" style="34" customWidth="1"/>
+    <col min="10523" max="10523" width="31.33203125" style="34" customWidth="1"/>
+    <col min="10524" max="10733" width="8.83203125" style="34"/>
+    <col min="10734" max="10734" width="1.5" style="34" customWidth="1"/>
+    <col min="10735" max="10735" width="1.33203125" style="34" customWidth="1"/>
     <col min="10736" max="10736" width="42" style="34" customWidth="1"/>
-    <col min="10737" max="10737" width="5.42578125" style="34" customWidth="1"/>
+    <col min="10737" max="10737" width="5.5" style="34" customWidth="1"/>
     <col min="10738" max="10739" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10740" max="10740" width="2.7109375" style="34" customWidth="1"/>
-    <col min="10741" max="10776" width="3.28515625" style="34" customWidth="1"/>
-    <col min="10777" max="10777" width="1.7109375" style="34" customWidth="1"/>
-    <col min="10778" max="10778" width="25.7109375" style="34" customWidth="1"/>
-    <col min="10779" max="10779" width="31.28515625" style="34" customWidth="1"/>
-    <col min="10780" max="10989" width="8.85546875" style="34"/>
-    <col min="10990" max="10990" width="1.42578125" style="34" customWidth="1"/>
-    <col min="10991" max="10991" width="1.28515625" style="34" customWidth="1"/>
+    <col min="10740" max="10740" width="2.6640625" style="34" customWidth="1"/>
+    <col min="10741" max="10776" width="3.33203125" style="34" customWidth="1"/>
+    <col min="10777" max="10777" width="1.6640625" style="34" customWidth="1"/>
+    <col min="10778" max="10778" width="25.6640625" style="34" customWidth="1"/>
+    <col min="10779" max="10779" width="31.33203125" style="34" customWidth="1"/>
+    <col min="10780" max="10989" width="8.83203125" style="34"/>
+    <col min="10990" max="10990" width="1.5" style="34" customWidth="1"/>
+    <col min="10991" max="10991" width="1.33203125" style="34" customWidth="1"/>
     <col min="10992" max="10992" width="42" style="34" customWidth="1"/>
-    <col min="10993" max="10993" width="5.42578125" style="34" customWidth="1"/>
+    <col min="10993" max="10993" width="5.5" style="34" customWidth="1"/>
     <col min="10994" max="10995" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10996" max="10996" width="2.7109375" style="34" customWidth="1"/>
-    <col min="10997" max="11032" width="3.28515625" style="34" customWidth="1"/>
-    <col min="11033" max="11033" width="1.7109375" style="34" customWidth="1"/>
-    <col min="11034" max="11034" width="25.7109375" style="34" customWidth="1"/>
-    <col min="11035" max="11035" width="31.28515625" style="34" customWidth="1"/>
-    <col min="11036" max="11245" width="8.85546875" style="34"/>
-    <col min="11246" max="11246" width="1.42578125" style="34" customWidth="1"/>
-    <col min="11247" max="11247" width="1.28515625" style="34" customWidth="1"/>
+    <col min="10996" max="10996" width="2.6640625" style="34" customWidth="1"/>
+    <col min="10997" max="11032" width="3.33203125" style="34" customWidth="1"/>
+    <col min="11033" max="11033" width="1.6640625" style="34" customWidth="1"/>
+    <col min="11034" max="11034" width="25.6640625" style="34" customWidth="1"/>
+    <col min="11035" max="11035" width="31.33203125" style="34" customWidth="1"/>
+    <col min="11036" max="11245" width="8.83203125" style="34"/>
+    <col min="11246" max="11246" width="1.5" style="34" customWidth="1"/>
+    <col min="11247" max="11247" width="1.33203125" style="34" customWidth="1"/>
     <col min="11248" max="11248" width="42" style="34" customWidth="1"/>
-    <col min="11249" max="11249" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11249" max="11249" width="5.5" style="34" customWidth="1"/>
     <col min="11250" max="11251" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11252" max="11252" width="2.7109375" style="34" customWidth="1"/>
-    <col min="11253" max="11288" width="3.28515625" style="34" customWidth="1"/>
-    <col min="11289" max="11289" width="1.7109375" style="34" customWidth="1"/>
-    <col min="11290" max="11290" width="25.7109375" style="34" customWidth="1"/>
-    <col min="11291" max="11291" width="31.28515625" style="34" customWidth="1"/>
-    <col min="11292" max="11501" width="8.85546875" style="34"/>
-    <col min="11502" max="11502" width="1.42578125" style="34" customWidth="1"/>
-    <col min="11503" max="11503" width="1.28515625" style="34" customWidth="1"/>
+    <col min="11252" max="11252" width="2.6640625" style="34" customWidth="1"/>
+    <col min="11253" max="11288" width="3.33203125" style="34" customWidth="1"/>
+    <col min="11289" max="11289" width="1.6640625" style="34" customWidth="1"/>
+    <col min="11290" max="11290" width="25.6640625" style="34" customWidth="1"/>
+    <col min="11291" max="11291" width="31.33203125" style="34" customWidth="1"/>
+    <col min="11292" max="11501" width="8.83203125" style="34"/>
+    <col min="11502" max="11502" width="1.5" style="34" customWidth="1"/>
+    <col min="11503" max="11503" width="1.33203125" style="34" customWidth="1"/>
     <col min="11504" max="11504" width="42" style="34" customWidth="1"/>
-    <col min="11505" max="11505" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11505" max="11505" width="5.5" style="34" customWidth="1"/>
     <col min="11506" max="11507" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11508" max="11508" width="2.7109375" style="34" customWidth="1"/>
-    <col min="11509" max="11544" width="3.28515625" style="34" customWidth="1"/>
-    <col min="11545" max="11545" width="1.7109375" style="34" customWidth="1"/>
-    <col min="11546" max="11546" width="25.7109375" style="34" customWidth="1"/>
-    <col min="11547" max="11547" width="31.28515625" style="34" customWidth="1"/>
-    <col min="11548" max="11757" width="8.85546875" style="34"/>
-    <col min="11758" max="11758" width="1.42578125" style="34" customWidth="1"/>
-    <col min="11759" max="11759" width="1.28515625" style="34" customWidth="1"/>
+    <col min="11508" max="11508" width="2.6640625" style="34" customWidth="1"/>
+    <col min="11509" max="11544" width="3.33203125" style="34" customWidth="1"/>
+    <col min="11545" max="11545" width="1.6640625" style="34" customWidth="1"/>
+    <col min="11546" max="11546" width="25.6640625" style="34" customWidth="1"/>
+    <col min="11547" max="11547" width="31.33203125" style="34" customWidth="1"/>
+    <col min="11548" max="11757" width="8.83203125" style="34"/>
+    <col min="11758" max="11758" width="1.5" style="34" customWidth="1"/>
+    <col min="11759" max="11759" width="1.33203125" style="34" customWidth="1"/>
     <col min="11760" max="11760" width="42" style="34" customWidth="1"/>
-    <col min="11761" max="11761" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11761" max="11761" width="5.5" style="34" customWidth="1"/>
     <col min="11762" max="11763" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11764" max="11764" width="2.7109375" style="34" customWidth="1"/>
-    <col min="11765" max="11800" width="3.28515625" style="34" customWidth="1"/>
-    <col min="11801" max="11801" width="1.7109375" style="34" customWidth="1"/>
-    <col min="11802" max="11802" width="25.7109375" style="34" customWidth="1"/>
-    <col min="11803" max="11803" width="31.28515625" style="34" customWidth="1"/>
-    <col min="11804" max="12013" width="8.85546875" style="34"/>
-    <col min="12014" max="12014" width="1.42578125" style="34" customWidth="1"/>
-    <col min="12015" max="12015" width="1.28515625" style="34" customWidth="1"/>
+    <col min="11764" max="11764" width="2.6640625" style="34" customWidth="1"/>
+    <col min="11765" max="11800" width="3.33203125" style="34" customWidth="1"/>
+    <col min="11801" max="11801" width="1.6640625" style="34" customWidth="1"/>
+    <col min="11802" max="11802" width="25.6640625" style="34" customWidth="1"/>
+    <col min="11803" max="11803" width="31.33203125" style="34" customWidth="1"/>
+    <col min="11804" max="12013" width="8.83203125" style="34"/>
+    <col min="12014" max="12014" width="1.5" style="34" customWidth="1"/>
+    <col min="12015" max="12015" width="1.33203125" style="34" customWidth="1"/>
     <col min="12016" max="12016" width="42" style="34" customWidth="1"/>
-    <col min="12017" max="12017" width="5.42578125" style="34" customWidth="1"/>
+    <col min="12017" max="12017" width="5.5" style="34" customWidth="1"/>
     <col min="12018" max="12019" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12020" max="12020" width="2.7109375" style="34" customWidth="1"/>
-    <col min="12021" max="12056" width="3.28515625" style="34" customWidth="1"/>
-    <col min="12057" max="12057" width="1.7109375" style="34" customWidth="1"/>
-    <col min="12058" max="12058" width="25.7109375" style="34" customWidth="1"/>
-    <col min="12059" max="12059" width="31.28515625" style="34" customWidth="1"/>
-    <col min="12060" max="12269" width="8.85546875" style="34"/>
-    <col min="12270" max="12270" width="1.42578125" style="34" customWidth="1"/>
-    <col min="12271" max="12271" width="1.28515625" style="34" customWidth="1"/>
+    <col min="12020" max="12020" width="2.6640625" style="34" customWidth="1"/>
+    <col min="12021" max="12056" width="3.33203125" style="34" customWidth="1"/>
+    <col min="12057" max="12057" width="1.6640625" style="34" customWidth="1"/>
+    <col min="12058" max="12058" width="25.6640625" style="34" customWidth="1"/>
+    <col min="12059" max="12059" width="31.33203125" style="34" customWidth="1"/>
+    <col min="12060" max="12269" width="8.83203125" style="34"/>
+    <col min="12270" max="12270" width="1.5" style="34" customWidth="1"/>
+    <col min="12271" max="12271" width="1.33203125" style="34" customWidth="1"/>
     <col min="12272" max="12272" width="42" style="34" customWidth="1"/>
-    <col min="12273" max="12273" width="5.42578125" style="34" customWidth="1"/>
+    <col min="12273" max="12273" width="5.5" style="34" customWidth="1"/>
     <col min="12274" max="12275" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12276" max="12276" width="2.7109375" style="34" customWidth="1"/>
-    <col min="12277" max="12312" width="3.28515625" style="34" customWidth="1"/>
-    <col min="12313" max="12313" width="1.7109375" style="34" customWidth="1"/>
-    <col min="12314" max="12314" width="25.7109375" style="34" customWidth="1"/>
-    <col min="12315" max="12315" width="31.28515625" style="34" customWidth="1"/>
-    <col min="12316" max="12525" width="8.85546875" style="34"/>
-    <col min="12526" max="12526" width="1.42578125" style="34" customWidth="1"/>
-    <col min="12527" max="12527" width="1.28515625" style="34" customWidth="1"/>
+    <col min="12276" max="12276" width="2.6640625" style="34" customWidth="1"/>
+    <col min="12277" max="12312" width="3.33203125" style="34" customWidth="1"/>
+    <col min="12313" max="12313" width="1.6640625" style="34" customWidth="1"/>
+    <col min="12314" max="12314" width="25.6640625" style="34" customWidth="1"/>
+    <col min="12315" max="12315" width="31.33203125" style="34" customWidth="1"/>
+    <col min="12316" max="12525" width="8.83203125" style="34"/>
+    <col min="12526" max="12526" width="1.5" style="34" customWidth="1"/>
+    <col min="12527" max="12527" width="1.33203125" style="34" customWidth="1"/>
     <col min="12528" max="12528" width="42" style="34" customWidth="1"/>
-    <col min="12529" max="12529" width="5.42578125" style="34" customWidth="1"/>
+    <col min="12529" max="12529" width="5.5" style="34" customWidth="1"/>
     <col min="12530" max="12531" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12532" max="12532" width="2.7109375" style="34" customWidth="1"/>
-    <col min="12533" max="12568" width="3.28515625" style="34" customWidth="1"/>
-    <col min="12569" max="12569" width="1.7109375" style="34" customWidth="1"/>
-    <col min="12570" max="12570" width="25.7109375" style="34" customWidth="1"/>
-    <col min="12571" max="12571" width="31.28515625" style="34" customWidth="1"/>
-    <col min="12572" max="12781" width="8.85546875" style="34"/>
-    <col min="12782" max="12782" width="1.42578125" style="34" customWidth="1"/>
-    <col min="12783" max="12783" width="1.28515625" style="34" customWidth="1"/>
+    <col min="12532" max="12532" width="2.6640625" style="34" customWidth="1"/>
+    <col min="12533" max="12568" width="3.33203125" style="34" customWidth="1"/>
+    <col min="12569" max="12569" width="1.6640625" style="34" customWidth="1"/>
+    <col min="12570" max="12570" width="25.6640625" style="34" customWidth="1"/>
+    <col min="12571" max="12571" width="31.33203125" style="34" customWidth="1"/>
+    <col min="12572" max="12781" width="8.83203125" style="34"/>
+    <col min="12782" max="12782" width="1.5" style="34" customWidth="1"/>
+    <col min="12783" max="12783" width="1.33203125" style="34" customWidth="1"/>
     <col min="12784" max="12784" width="42" style="34" customWidth="1"/>
-    <col min="12785" max="12785" width="5.42578125" style="34" customWidth="1"/>
+    <col min="12785" max="12785" width="5.5" style="34" customWidth="1"/>
     <col min="12786" max="12787" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12788" max="12788" width="2.7109375" style="34" customWidth="1"/>
-    <col min="12789" max="12824" width="3.28515625" style="34" customWidth="1"/>
-    <col min="12825" max="12825" width="1.7109375" style="34" customWidth="1"/>
-    <col min="12826" max="12826" width="25.7109375" style="34" customWidth="1"/>
-    <col min="12827" max="12827" width="31.28515625" style="34" customWidth="1"/>
-    <col min="12828" max="13037" width="8.85546875" style="34"/>
-    <col min="13038" max="13038" width="1.42578125" style="34" customWidth="1"/>
-    <col min="13039" max="13039" width="1.28515625" style="34" customWidth="1"/>
+    <col min="12788" max="12788" width="2.6640625" style="34" customWidth="1"/>
+    <col min="12789" max="12824" width="3.33203125" style="34" customWidth="1"/>
+    <col min="12825" max="12825" width="1.6640625" style="34" customWidth="1"/>
+    <col min="12826" max="12826" width="25.6640625" style="34" customWidth="1"/>
+    <col min="12827" max="12827" width="31.33203125" style="34" customWidth="1"/>
+    <col min="12828" max="13037" width="8.83203125" style="34"/>
+    <col min="13038" max="13038" width="1.5" style="34" customWidth="1"/>
+    <col min="13039" max="13039" width="1.33203125" style="34" customWidth="1"/>
     <col min="13040" max="13040" width="42" style="34" customWidth="1"/>
-    <col min="13041" max="13041" width="5.42578125" style="34" customWidth="1"/>
+    <col min="13041" max="13041" width="5.5" style="34" customWidth="1"/>
     <col min="13042" max="13043" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13044" max="13044" width="2.7109375" style="34" customWidth="1"/>
-    <col min="13045" max="13080" width="3.28515625" style="34" customWidth="1"/>
-    <col min="13081" max="13081" width="1.7109375" style="34" customWidth="1"/>
-    <col min="13082" max="13082" width="25.7109375" style="34" customWidth="1"/>
-    <col min="13083" max="13083" width="31.28515625" style="34" customWidth="1"/>
-    <col min="13084" max="13293" width="8.85546875" style="34"/>
-    <col min="13294" max="13294" width="1.42578125" style="34" customWidth="1"/>
-    <col min="13295" max="13295" width="1.28515625" style="34" customWidth="1"/>
+    <col min="13044" max="13044" width="2.6640625" style="34" customWidth="1"/>
+    <col min="13045" max="13080" width="3.33203125" style="34" customWidth="1"/>
+    <col min="13081" max="13081" width="1.6640625" style="34" customWidth="1"/>
+    <col min="13082" max="13082" width="25.6640625" style="34" customWidth="1"/>
+    <col min="13083" max="13083" width="31.33203125" style="34" customWidth="1"/>
+    <col min="13084" max="13293" width="8.83203125" style="34"/>
+    <col min="13294" max="13294" width="1.5" style="34" customWidth="1"/>
+    <col min="13295" max="13295" width="1.33203125" style="34" customWidth="1"/>
     <col min="13296" max="13296" width="42" style="34" customWidth="1"/>
-    <col min="13297" max="13297" width="5.42578125" style="34" customWidth="1"/>
+    <col min="13297" max="13297" width="5.5" style="34" customWidth="1"/>
     <col min="13298" max="13299" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13300" max="13300" width="2.7109375" style="34" customWidth="1"/>
-    <col min="13301" max="13336" width="3.28515625" style="34" customWidth="1"/>
-    <col min="13337" max="13337" width="1.7109375" style="34" customWidth="1"/>
-    <col min="13338" max="13338" width="25.7109375" style="34" customWidth="1"/>
-    <col min="13339" max="13339" width="31.28515625" style="34" customWidth="1"/>
-    <col min="13340" max="13549" width="8.85546875" style="34"/>
-    <col min="13550" max="13550" width="1.42578125" style="34" customWidth="1"/>
-    <col min="13551" max="13551" width="1.28515625" style="34" customWidth="1"/>
+    <col min="13300" max="13300" width="2.6640625" style="34" customWidth="1"/>
+    <col min="13301" max="13336" width="3.33203125" style="34" customWidth="1"/>
+    <col min="13337" max="13337" width="1.6640625" style="34" customWidth="1"/>
+    <col min="13338" max="13338" width="25.6640625" style="34" customWidth="1"/>
+    <col min="13339" max="13339" width="31.33203125" style="34" customWidth="1"/>
+    <col min="13340" max="13549" width="8.83203125" style="34"/>
+    <col min="13550" max="13550" width="1.5" style="34" customWidth="1"/>
+    <col min="13551" max="13551" width="1.33203125" style="34" customWidth="1"/>
     <col min="13552" max="13552" width="42" style="34" customWidth="1"/>
-    <col min="13553" max="13553" width="5.42578125" style="34" customWidth="1"/>
+    <col min="13553" max="13553" width="5.5" style="34" customWidth="1"/>
     <col min="13554" max="13555" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13556" max="13556" width="2.7109375" style="34" customWidth="1"/>
-    <col min="13557" max="13592" width="3.28515625" style="34" customWidth="1"/>
-    <col min="13593" max="13593" width="1.7109375" style="34" customWidth="1"/>
-    <col min="13594" max="13594" width="25.7109375" style="34" customWidth="1"/>
-    <col min="13595" max="13595" width="31.28515625" style="34" customWidth="1"/>
-    <col min="13596" max="13805" width="8.85546875" style="34"/>
-    <col min="13806" max="13806" width="1.42578125" style="34" customWidth="1"/>
-    <col min="13807" max="13807" width="1.28515625" style="34" customWidth="1"/>
+    <col min="13556" max="13556" width="2.6640625" style="34" customWidth="1"/>
+    <col min="13557" max="13592" width="3.33203125" style="34" customWidth="1"/>
+    <col min="13593" max="13593" width="1.6640625" style="34" customWidth="1"/>
+    <col min="13594" max="13594" width="25.6640625" style="34" customWidth="1"/>
+    <col min="13595" max="13595" width="31.33203125" style="34" customWidth="1"/>
+    <col min="13596" max="13805" width="8.83203125" style="34"/>
+    <col min="13806" max="13806" width="1.5" style="34" customWidth="1"/>
+    <col min="13807" max="13807" width="1.33203125" style="34" customWidth="1"/>
     <col min="13808" max="13808" width="42" style="34" customWidth="1"/>
-    <col min="13809" max="13809" width="5.42578125" style="34" customWidth="1"/>
+    <col min="13809" max="13809" width="5.5" style="34" customWidth="1"/>
     <col min="13810" max="13811" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13812" max="13812" width="2.7109375" style="34" customWidth="1"/>
-    <col min="13813" max="13848" width="3.28515625" style="34" customWidth="1"/>
-    <col min="13849" max="13849" width="1.7109375" style="34" customWidth="1"/>
-    <col min="13850" max="13850" width="25.7109375" style="34" customWidth="1"/>
-    <col min="13851" max="13851" width="31.28515625" style="34" customWidth="1"/>
-    <col min="13852" max="14061" width="8.85546875" style="34"/>
-    <col min="14062" max="14062" width="1.42578125" style="34" customWidth="1"/>
-    <col min="14063" max="14063" width="1.28515625" style="34" customWidth="1"/>
+    <col min="13812" max="13812" width="2.6640625" style="34" customWidth="1"/>
+    <col min="13813" max="13848" width="3.33203125" style="34" customWidth="1"/>
+    <col min="13849" max="13849" width="1.6640625" style="34" customWidth="1"/>
+    <col min="13850" max="13850" width="25.6640625" style="34" customWidth="1"/>
+    <col min="13851" max="13851" width="31.33203125" style="34" customWidth="1"/>
+    <col min="13852" max="14061" width="8.83203125" style="34"/>
+    <col min="14062" max="14062" width="1.5" style="34" customWidth="1"/>
+    <col min="14063" max="14063" width="1.33203125" style="34" customWidth="1"/>
     <col min="14064" max="14064" width="42" style="34" customWidth="1"/>
-    <col min="14065" max="14065" width="5.42578125" style="34" customWidth="1"/>
+    <col min="14065" max="14065" width="5.5" style="34" customWidth="1"/>
     <col min="14066" max="14067" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14068" max="14068" width="2.7109375" style="34" customWidth="1"/>
-    <col min="14069" max="14104" width="3.28515625" style="34" customWidth="1"/>
-    <col min="14105" max="14105" width="1.7109375" style="34" customWidth="1"/>
-    <col min="14106" max="14106" width="25.7109375" style="34" customWidth="1"/>
-    <col min="14107" max="14107" width="31.28515625" style="34" customWidth="1"/>
-    <col min="14108" max="14317" width="8.85546875" style="34"/>
-    <col min="14318" max="14318" width="1.42578125" style="34" customWidth="1"/>
-    <col min="14319" max="14319" width="1.28515625" style="34" customWidth="1"/>
+    <col min="14068" max="14068" width="2.6640625" style="34" customWidth="1"/>
+    <col min="14069" max="14104" width="3.33203125" style="34" customWidth="1"/>
+    <col min="14105" max="14105" width="1.6640625" style="34" customWidth="1"/>
+    <col min="14106" max="14106" width="25.6640625" style="34" customWidth="1"/>
+    <col min="14107" max="14107" width="31.33203125" style="34" customWidth="1"/>
+    <col min="14108" max="14317" width="8.83203125" style="34"/>
+    <col min="14318" max="14318" width="1.5" style="34" customWidth="1"/>
+    <col min="14319" max="14319" width="1.33203125" style="34" customWidth="1"/>
     <col min="14320" max="14320" width="42" style="34" customWidth="1"/>
-    <col min="14321" max="14321" width="5.42578125" style="34" customWidth="1"/>
+    <col min="14321" max="14321" width="5.5" style="34" customWidth="1"/>
     <col min="14322" max="14323" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14324" max="14324" width="2.7109375" style="34" customWidth="1"/>
-    <col min="14325" max="14360" width="3.28515625" style="34" customWidth="1"/>
-    <col min="14361" max="14361" width="1.7109375" style="34" customWidth="1"/>
-    <col min="14362" max="14362" width="25.7109375" style="34" customWidth="1"/>
-    <col min="14363" max="14363" width="31.28515625" style="34" customWidth="1"/>
-    <col min="14364" max="14573" width="8.85546875" style="34"/>
-    <col min="14574" max="14574" width="1.42578125" style="34" customWidth="1"/>
-    <col min="14575" max="14575" width="1.28515625" style="34" customWidth="1"/>
+    <col min="14324" max="14324" width="2.6640625" style="34" customWidth="1"/>
+    <col min="14325" max="14360" width="3.33203125" style="34" customWidth="1"/>
+    <col min="14361" max="14361" width="1.6640625" style="34" customWidth="1"/>
+    <col min="14362" max="14362" width="25.6640625" style="34" customWidth="1"/>
+    <col min="14363" max="14363" width="31.33203125" style="34" customWidth="1"/>
+    <col min="14364" max="14573" width="8.83203125" style="34"/>
+    <col min="14574" max="14574" width="1.5" style="34" customWidth="1"/>
+    <col min="14575" max="14575" width="1.33203125" style="34" customWidth="1"/>
     <col min="14576" max="14576" width="42" style="34" customWidth="1"/>
-    <col min="14577" max="14577" width="5.42578125" style="34" customWidth="1"/>
+    <col min="14577" max="14577" width="5.5" style="34" customWidth="1"/>
     <col min="14578" max="14579" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14580" max="14580" width="2.7109375" style="34" customWidth="1"/>
-    <col min="14581" max="14616" width="3.28515625" style="34" customWidth="1"/>
-    <col min="14617" max="14617" width="1.7109375" style="34" customWidth="1"/>
-    <col min="14618" max="14618" width="25.7109375" style="34" customWidth="1"/>
-    <col min="14619" max="14619" width="31.28515625" style="34" customWidth="1"/>
-    <col min="14620" max="14829" width="8.85546875" style="34"/>
-    <col min="14830" max="14830" width="1.42578125" style="34" customWidth="1"/>
-    <col min="14831" max="14831" width="1.28515625" style="34" customWidth="1"/>
+    <col min="14580" max="14580" width="2.6640625" style="34" customWidth="1"/>
+    <col min="14581" max="14616" width="3.33203125" style="34" customWidth="1"/>
+    <col min="14617" max="14617" width="1.6640625" style="34" customWidth="1"/>
+    <col min="14618" max="14618" width="25.6640625" style="34" customWidth="1"/>
+    <col min="14619" max="14619" width="31.33203125" style="34" customWidth="1"/>
+    <col min="14620" max="14829" width="8.83203125" style="34"/>
+    <col min="14830" max="14830" width="1.5" style="34" customWidth="1"/>
+    <col min="14831" max="14831" width="1.33203125" style="34" customWidth="1"/>
     <col min="14832" max="14832" width="42" style="34" customWidth="1"/>
-    <col min="14833" max="14833" width="5.42578125" style="34" customWidth="1"/>
+    <col min="14833" max="14833" width="5.5" style="34" customWidth="1"/>
     <col min="14834" max="14835" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14836" max="14836" width="2.7109375" style="34" customWidth="1"/>
-    <col min="14837" max="14872" width="3.28515625" style="34" customWidth="1"/>
-    <col min="14873" max="14873" width="1.7109375" style="34" customWidth="1"/>
-    <col min="14874" max="14874" width="25.7109375" style="34" customWidth="1"/>
-    <col min="14875" max="14875" width="31.28515625" style="34" customWidth="1"/>
-    <col min="14876" max="15085" width="8.85546875" style="34"/>
-    <col min="15086" max="15086" width="1.42578125" style="34" customWidth="1"/>
-    <col min="15087" max="15087" width="1.28515625" style="34" customWidth="1"/>
+    <col min="14836" max="14836" width="2.6640625" style="34" customWidth="1"/>
+    <col min="14837" max="14872" width="3.33203125" style="34" customWidth="1"/>
+    <col min="14873" max="14873" width="1.6640625" style="34" customWidth="1"/>
+    <col min="14874" max="14874" width="25.6640625" style="34" customWidth="1"/>
+    <col min="14875" max="14875" width="31.33203125" style="34" customWidth="1"/>
+    <col min="14876" max="15085" width="8.83203125" style="34"/>
+    <col min="15086" max="15086" width="1.5" style="34" customWidth="1"/>
+    <col min="15087" max="15087" width="1.33203125" style="34" customWidth="1"/>
     <col min="15088" max="15088" width="42" style="34" customWidth="1"/>
-    <col min="15089" max="15089" width="5.42578125" style="34" customWidth="1"/>
+    <col min="15089" max="15089" width="5.5" style="34" customWidth="1"/>
     <col min="15090" max="15091" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15092" max="15092" width="2.7109375" style="34" customWidth="1"/>
-    <col min="15093" max="15128" width="3.28515625" style="34" customWidth="1"/>
-    <col min="15129" max="15129" width="1.7109375" style="34" customWidth="1"/>
-    <col min="15130" max="15130" width="25.7109375" style="34" customWidth="1"/>
-    <col min="15131" max="15131" width="31.28515625" style="34" customWidth="1"/>
-    <col min="15132" max="15341" width="8.85546875" style="34"/>
-    <col min="15342" max="15342" width="1.42578125" style="34" customWidth="1"/>
-    <col min="15343" max="15343" width="1.28515625" style="34" customWidth="1"/>
+    <col min="15092" max="15092" width="2.6640625" style="34" customWidth="1"/>
+    <col min="15093" max="15128" width="3.33203125" style="34" customWidth="1"/>
+    <col min="15129" max="15129" width="1.6640625" style="34" customWidth="1"/>
+    <col min="15130" max="15130" width="25.6640625" style="34" customWidth="1"/>
+    <col min="15131" max="15131" width="31.33203125" style="34" customWidth="1"/>
+    <col min="15132" max="15341" width="8.83203125" style="34"/>
+    <col min="15342" max="15342" width="1.5" style="34" customWidth="1"/>
+    <col min="15343" max="15343" width="1.33203125" style="34" customWidth="1"/>
     <col min="15344" max="15344" width="42" style="34" customWidth="1"/>
-    <col min="15345" max="15345" width="5.42578125" style="34" customWidth="1"/>
+    <col min="15345" max="15345" width="5.5" style="34" customWidth="1"/>
     <col min="15346" max="15347" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15348" max="15348" width="2.7109375" style="34" customWidth="1"/>
-    <col min="15349" max="15384" width="3.28515625" style="34" customWidth="1"/>
-    <col min="15385" max="15385" width="1.7109375" style="34" customWidth="1"/>
-    <col min="15386" max="15386" width="25.7109375" style="34" customWidth="1"/>
-    <col min="15387" max="15387" width="31.28515625" style="34" customWidth="1"/>
-    <col min="15388" max="15597" width="8.85546875" style="34"/>
-    <col min="15598" max="15598" width="1.42578125" style="34" customWidth="1"/>
-    <col min="15599" max="15599" width="1.28515625" style="34" customWidth="1"/>
+    <col min="15348" max="15348" width="2.6640625" style="34" customWidth="1"/>
+    <col min="15349" max="15384" width="3.33203125" style="34" customWidth="1"/>
+    <col min="15385" max="15385" width="1.6640625" style="34" customWidth="1"/>
+    <col min="15386" max="15386" width="25.6640625" style="34" customWidth="1"/>
+    <col min="15387" max="15387" width="31.33203125" style="34" customWidth="1"/>
+    <col min="15388" max="15597" width="8.83203125" style="34"/>
+    <col min="15598" max="15598" width="1.5" style="34" customWidth="1"/>
+    <col min="15599" max="15599" width="1.33203125" style="34" customWidth="1"/>
     <col min="15600" max="15600" width="42" style="34" customWidth="1"/>
-    <col min="15601" max="15601" width="5.42578125" style="34" customWidth="1"/>
+    <col min="15601" max="15601" width="5.5" style="34" customWidth="1"/>
     <col min="15602" max="15603" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15604" max="15604" width="2.7109375" style="34" customWidth="1"/>
-    <col min="15605" max="15640" width="3.28515625" style="34" customWidth="1"/>
-    <col min="15641" max="15641" width="1.7109375" style="34" customWidth="1"/>
-    <col min="15642" max="15642" width="25.7109375" style="34" customWidth="1"/>
-    <col min="15643" max="15643" width="31.28515625" style="34" customWidth="1"/>
-    <col min="15644" max="15853" width="8.85546875" style="34"/>
-    <col min="15854" max="15854" width="1.42578125" style="34" customWidth="1"/>
-    <col min="15855" max="15855" width="1.28515625" style="34" customWidth="1"/>
+    <col min="15604" max="15604" width="2.6640625" style="34" customWidth="1"/>
+    <col min="15605" max="15640" width="3.33203125" style="34" customWidth="1"/>
+    <col min="15641" max="15641" width="1.6640625" style="34" customWidth="1"/>
+    <col min="15642" max="15642" width="25.6640625" style="34" customWidth="1"/>
+    <col min="15643" max="15643" width="31.33203125" style="34" customWidth="1"/>
+    <col min="15644" max="15853" width="8.83203125" style="34"/>
+    <col min="15854" max="15854" width="1.5" style="34" customWidth="1"/>
+    <col min="15855" max="15855" width="1.33203125" style="34" customWidth="1"/>
     <col min="15856" max="15856" width="42" style="34" customWidth="1"/>
-    <col min="15857" max="15857" width="5.42578125" style="34" customWidth="1"/>
+    <col min="15857" max="15857" width="5.5" style="34" customWidth="1"/>
     <col min="15858" max="15859" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15860" max="15860" width="2.7109375" style="34" customWidth="1"/>
-    <col min="15861" max="15896" width="3.28515625" style="34" customWidth="1"/>
-    <col min="15897" max="15897" width="1.7109375" style="34" customWidth="1"/>
-    <col min="15898" max="15898" width="25.7109375" style="34" customWidth="1"/>
-    <col min="15899" max="15899" width="31.28515625" style="34" customWidth="1"/>
-    <col min="15900" max="16109" width="8.85546875" style="34"/>
-    <col min="16110" max="16110" width="1.42578125" style="34" customWidth="1"/>
-    <col min="16111" max="16111" width="1.28515625" style="34" customWidth="1"/>
+    <col min="15860" max="15860" width="2.6640625" style="34" customWidth="1"/>
+    <col min="15861" max="15896" width="3.33203125" style="34" customWidth="1"/>
+    <col min="15897" max="15897" width="1.6640625" style="34" customWidth="1"/>
+    <col min="15898" max="15898" width="25.6640625" style="34" customWidth="1"/>
+    <col min="15899" max="15899" width="31.33203125" style="34" customWidth="1"/>
+    <col min="15900" max="16109" width="8.83203125" style="34"/>
+    <col min="16110" max="16110" width="1.5" style="34" customWidth="1"/>
+    <col min="16111" max="16111" width="1.33203125" style="34" customWidth="1"/>
     <col min="16112" max="16112" width="42" style="34" customWidth="1"/>
-    <col min="16113" max="16113" width="5.42578125" style="34" customWidth="1"/>
+    <col min="16113" max="16113" width="5.5" style="34" customWidth="1"/>
     <col min="16114" max="16115" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="16116" max="16116" width="2.7109375" style="34" customWidth="1"/>
-    <col min="16117" max="16152" width="3.28515625" style="34" customWidth="1"/>
-    <col min="16153" max="16153" width="1.7109375" style="34" customWidth="1"/>
-    <col min="16154" max="16154" width="25.7109375" style="34" customWidth="1"/>
-    <col min="16155" max="16155" width="31.28515625" style="34" customWidth="1"/>
-    <col min="16156" max="16384" width="8.85546875" style="34"/>
+    <col min="16116" max="16116" width="2.6640625" style="34" customWidth="1"/>
+    <col min="16117" max="16152" width="3.33203125" style="34" customWidth="1"/>
+    <col min="16153" max="16153" width="1.6640625" style="34" customWidth="1"/>
+    <col min="16154" max="16154" width="25.6640625" style="34" customWidth="1"/>
+    <col min="16155" max="16155" width="31.33203125" style="34" customWidth="1"/>
+    <col min="16156" max="16384" width="8.83203125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="63" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="140" t="s">
+    <row r="2" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
     </row>
-    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="75" t="s">
         <v>47</v>
       </c>
@@ -6911,7 +7037,7 @@
       </c>
       <c r="D5" s="37"/>
     </row>
-    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="77" t="s">
         <v>48</v>
       </c>
@@ -6920,16 +7046,16 @@
       </c>
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="79" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="37"/>
     </row>
-    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="81" t="s">
         <v>50</v>
       </c>
@@ -6938,23 +7064,23 @@
       </c>
       <c r="D8" s="37"/>
     </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="83" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" s="39"/>
     </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="66"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
     </row>
-    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -6982,737 +7108,737 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AH29"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView view="pageLayout" zoomScale="120" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" style="34" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="68.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="88.1640625" style="35" customWidth="1"/>
     <col min="4" max="4" width="8" style="36" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="36" customWidth="1"/>
-    <col min="6" max="24" width="3.28515625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="36" customWidth="1"/>
+    <col min="6" max="24" width="3.33203125" style="36" customWidth="1"/>
     <col min="25" max="25" width="10" style="36" customWidth="1"/>
-    <col min="26" max="34" width="8.85546875" style="36"/>
-    <col min="35" max="235" width="8.85546875" style="34"/>
-    <col min="236" max="236" width="1.42578125" style="34" customWidth="1"/>
-    <col min="237" max="237" width="1.28515625" style="34" customWidth="1"/>
+    <col min="26" max="34" width="8.83203125" style="36"/>
+    <col min="35" max="235" width="8.83203125" style="34"/>
+    <col min="236" max="236" width="1.5" style="34" customWidth="1"/>
+    <col min="237" max="237" width="1.33203125" style="34" customWidth="1"/>
     <col min="238" max="238" width="42" style="34" customWidth="1"/>
-    <col min="239" max="239" width="5.42578125" style="34" customWidth="1"/>
+    <col min="239" max="239" width="5.5" style="34" customWidth="1"/>
     <col min="240" max="241" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="242" max="242" width="2.7109375" style="34" customWidth="1"/>
-    <col min="243" max="278" width="3.28515625" style="34" customWidth="1"/>
-    <col min="279" max="279" width="1.7109375" style="34" customWidth="1"/>
-    <col min="280" max="280" width="25.7109375" style="34" customWidth="1"/>
-    <col min="281" max="281" width="31.28515625" style="34" customWidth="1"/>
-    <col min="282" max="491" width="8.85546875" style="34"/>
-    <col min="492" max="492" width="1.42578125" style="34" customWidth="1"/>
-    <col min="493" max="493" width="1.28515625" style="34" customWidth="1"/>
+    <col min="242" max="242" width="2.6640625" style="34" customWidth="1"/>
+    <col min="243" max="278" width="3.33203125" style="34" customWidth="1"/>
+    <col min="279" max="279" width="1.6640625" style="34" customWidth="1"/>
+    <col min="280" max="280" width="25.6640625" style="34" customWidth="1"/>
+    <col min="281" max="281" width="31.33203125" style="34" customWidth="1"/>
+    <col min="282" max="491" width="8.83203125" style="34"/>
+    <col min="492" max="492" width="1.5" style="34" customWidth="1"/>
+    <col min="493" max="493" width="1.33203125" style="34" customWidth="1"/>
     <col min="494" max="494" width="42" style="34" customWidth="1"/>
-    <col min="495" max="495" width="5.42578125" style="34" customWidth="1"/>
+    <col min="495" max="495" width="5.5" style="34" customWidth="1"/>
     <col min="496" max="497" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="498" max="498" width="2.7109375" style="34" customWidth="1"/>
-    <col min="499" max="534" width="3.28515625" style="34" customWidth="1"/>
-    <col min="535" max="535" width="1.7109375" style="34" customWidth="1"/>
-    <col min="536" max="536" width="25.7109375" style="34" customWidth="1"/>
-    <col min="537" max="537" width="31.28515625" style="34" customWidth="1"/>
-    <col min="538" max="747" width="8.85546875" style="34"/>
-    <col min="748" max="748" width="1.42578125" style="34" customWidth="1"/>
-    <col min="749" max="749" width="1.28515625" style="34" customWidth="1"/>
+    <col min="498" max="498" width="2.6640625" style="34" customWidth="1"/>
+    <col min="499" max="534" width="3.33203125" style="34" customWidth="1"/>
+    <col min="535" max="535" width="1.6640625" style="34" customWidth="1"/>
+    <col min="536" max="536" width="25.6640625" style="34" customWidth="1"/>
+    <col min="537" max="537" width="31.33203125" style="34" customWidth="1"/>
+    <col min="538" max="747" width="8.83203125" style="34"/>
+    <col min="748" max="748" width="1.5" style="34" customWidth="1"/>
+    <col min="749" max="749" width="1.33203125" style="34" customWidth="1"/>
     <col min="750" max="750" width="42" style="34" customWidth="1"/>
-    <col min="751" max="751" width="5.42578125" style="34" customWidth="1"/>
+    <col min="751" max="751" width="5.5" style="34" customWidth="1"/>
     <col min="752" max="753" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="754" max="754" width="2.7109375" style="34" customWidth="1"/>
-    <col min="755" max="790" width="3.28515625" style="34" customWidth="1"/>
-    <col min="791" max="791" width="1.7109375" style="34" customWidth="1"/>
-    <col min="792" max="792" width="25.7109375" style="34" customWidth="1"/>
-    <col min="793" max="793" width="31.28515625" style="34" customWidth="1"/>
-    <col min="794" max="1003" width="8.85546875" style="34"/>
-    <col min="1004" max="1004" width="1.42578125" style="34" customWidth="1"/>
-    <col min="1005" max="1005" width="1.28515625" style="34" customWidth="1"/>
+    <col min="754" max="754" width="2.6640625" style="34" customWidth="1"/>
+    <col min="755" max="790" width="3.33203125" style="34" customWidth="1"/>
+    <col min="791" max="791" width="1.6640625" style="34" customWidth="1"/>
+    <col min="792" max="792" width="25.6640625" style="34" customWidth="1"/>
+    <col min="793" max="793" width="31.33203125" style="34" customWidth="1"/>
+    <col min="794" max="1003" width="8.83203125" style="34"/>
+    <col min="1004" max="1004" width="1.5" style="34" customWidth="1"/>
+    <col min="1005" max="1005" width="1.33203125" style="34" customWidth="1"/>
     <col min="1006" max="1006" width="42" style="34" customWidth="1"/>
-    <col min="1007" max="1007" width="5.42578125" style="34" customWidth="1"/>
+    <col min="1007" max="1007" width="5.5" style="34" customWidth="1"/>
     <col min="1008" max="1009" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1010" max="1010" width="2.7109375" style="34" customWidth="1"/>
-    <col min="1011" max="1046" width="3.28515625" style="34" customWidth="1"/>
-    <col min="1047" max="1047" width="1.7109375" style="34" customWidth="1"/>
-    <col min="1048" max="1048" width="25.7109375" style="34" customWidth="1"/>
-    <col min="1049" max="1049" width="31.28515625" style="34" customWidth="1"/>
-    <col min="1050" max="1259" width="8.85546875" style="34"/>
-    <col min="1260" max="1260" width="1.42578125" style="34" customWidth="1"/>
-    <col min="1261" max="1261" width="1.28515625" style="34" customWidth="1"/>
+    <col min="1010" max="1010" width="2.6640625" style="34" customWidth="1"/>
+    <col min="1011" max="1046" width="3.33203125" style="34" customWidth="1"/>
+    <col min="1047" max="1047" width="1.6640625" style="34" customWidth="1"/>
+    <col min="1048" max="1048" width="25.6640625" style="34" customWidth="1"/>
+    <col min="1049" max="1049" width="31.33203125" style="34" customWidth="1"/>
+    <col min="1050" max="1259" width="8.83203125" style="34"/>
+    <col min="1260" max="1260" width="1.5" style="34" customWidth="1"/>
+    <col min="1261" max="1261" width="1.33203125" style="34" customWidth="1"/>
     <col min="1262" max="1262" width="42" style="34" customWidth="1"/>
-    <col min="1263" max="1263" width="5.42578125" style="34" customWidth="1"/>
+    <col min="1263" max="1263" width="5.5" style="34" customWidth="1"/>
     <col min="1264" max="1265" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1266" max="1266" width="2.7109375" style="34" customWidth="1"/>
-    <col min="1267" max="1302" width="3.28515625" style="34" customWidth="1"/>
-    <col min="1303" max="1303" width="1.7109375" style="34" customWidth="1"/>
-    <col min="1304" max="1304" width="25.7109375" style="34" customWidth="1"/>
-    <col min="1305" max="1305" width="31.28515625" style="34" customWidth="1"/>
-    <col min="1306" max="1515" width="8.85546875" style="34"/>
-    <col min="1516" max="1516" width="1.42578125" style="34" customWidth="1"/>
-    <col min="1517" max="1517" width="1.28515625" style="34" customWidth="1"/>
+    <col min="1266" max="1266" width="2.6640625" style="34" customWidth="1"/>
+    <col min="1267" max="1302" width="3.33203125" style="34" customWidth="1"/>
+    <col min="1303" max="1303" width="1.6640625" style="34" customWidth="1"/>
+    <col min="1304" max="1304" width="25.6640625" style="34" customWidth="1"/>
+    <col min="1305" max="1305" width="31.33203125" style="34" customWidth="1"/>
+    <col min="1306" max="1515" width="8.83203125" style="34"/>
+    <col min="1516" max="1516" width="1.5" style="34" customWidth="1"/>
+    <col min="1517" max="1517" width="1.33203125" style="34" customWidth="1"/>
     <col min="1518" max="1518" width="42" style="34" customWidth="1"/>
-    <col min="1519" max="1519" width="5.42578125" style="34" customWidth="1"/>
+    <col min="1519" max="1519" width="5.5" style="34" customWidth="1"/>
     <col min="1520" max="1521" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1522" max="1522" width="2.7109375" style="34" customWidth="1"/>
-    <col min="1523" max="1558" width="3.28515625" style="34" customWidth="1"/>
-    <col min="1559" max="1559" width="1.7109375" style="34" customWidth="1"/>
-    <col min="1560" max="1560" width="25.7109375" style="34" customWidth="1"/>
-    <col min="1561" max="1561" width="31.28515625" style="34" customWidth="1"/>
-    <col min="1562" max="1771" width="8.85546875" style="34"/>
-    <col min="1772" max="1772" width="1.42578125" style="34" customWidth="1"/>
-    <col min="1773" max="1773" width="1.28515625" style="34" customWidth="1"/>
+    <col min="1522" max="1522" width="2.6640625" style="34" customWidth="1"/>
+    <col min="1523" max="1558" width="3.33203125" style="34" customWidth="1"/>
+    <col min="1559" max="1559" width="1.6640625" style="34" customWidth="1"/>
+    <col min="1560" max="1560" width="25.6640625" style="34" customWidth="1"/>
+    <col min="1561" max="1561" width="31.33203125" style="34" customWidth="1"/>
+    <col min="1562" max="1771" width="8.83203125" style="34"/>
+    <col min="1772" max="1772" width="1.5" style="34" customWidth="1"/>
+    <col min="1773" max="1773" width="1.33203125" style="34" customWidth="1"/>
     <col min="1774" max="1774" width="42" style="34" customWidth="1"/>
-    <col min="1775" max="1775" width="5.42578125" style="34" customWidth="1"/>
+    <col min="1775" max="1775" width="5.5" style="34" customWidth="1"/>
     <col min="1776" max="1777" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="1778" max="1778" width="2.7109375" style="34" customWidth="1"/>
-    <col min="1779" max="1814" width="3.28515625" style="34" customWidth="1"/>
-    <col min="1815" max="1815" width="1.7109375" style="34" customWidth="1"/>
-    <col min="1816" max="1816" width="25.7109375" style="34" customWidth="1"/>
-    <col min="1817" max="1817" width="31.28515625" style="34" customWidth="1"/>
-    <col min="1818" max="2027" width="8.85546875" style="34"/>
-    <col min="2028" max="2028" width="1.42578125" style="34" customWidth="1"/>
-    <col min="2029" max="2029" width="1.28515625" style="34" customWidth="1"/>
+    <col min="1778" max="1778" width="2.6640625" style="34" customWidth="1"/>
+    <col min="1779" max="1814" width="3.33203125" style="34" customWidth="1"/>
+    <col min="1815" max="1815" width="1.6640625" style="34" customWidth="1"/>
+    <col min="1816" max="1816" width="25.6640625" style="34" customWidth="1"/>
+    <col min="1817" max="1817" width="31.33203125" style="34" customWidth="1"/>
+    <col min="1818" max="2027" width="8.83203125" style="34"/>
+    <col min="2028" max="2028" width="1.5" style="34" customWidth="1"/>
+    <col min="2029" max="2029" width="1.33203125" style="34" customWidth="1"/>
     <col min="2030" max="2030" width="42" style="34" customWidth="1"/>
-    <col min="2031" max="2031" width="5.42578125" style="34" customWidth="1"/>
+    <col min="2031" max="2031" width="5.5" style="34" customWidth="1"/>
     <col min="2032" max="2033" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2034" max="2034" width="2.7109375" style="34" customWidth="1"/>
-    <col min="2035" max="2070" width="3.28515625" style="34" customWidth="1"/>
-    <col min="2071" max="2071" width="1.7109375" style="34" customWidth="1"/>
-    <col min="2072" max="2072" width="25.7109375" style="34" customWidth="1"/>
-    <col min="2073" max="2073" width="31.28515625" style="34" customWidth="1"/>
-    <col min="2074" max="2283" width="8.85546875" style="34"/>
-    <col min="2284" max="2284" width="1.42578125" style="34" customWidth="1"/>
-    <col min="2285" max="2285" width="1.28515625" style="34" customWidth="1"/>
+    <col min="2034" max="2034" width="2.6640625" style="34" customWidth="1"/>
+    <col min="2035" max="2070" width="3.33203125" style="34" customWidth="1"/>
+    <col min="2071" max="2071" width="1.6640625" style="34" customWidth="1"/>
+    <col min="2072" max="2072" width="25.6640625" style="34" customWidth="1"/>
+    <col min="2073" max="2073" width="31.33203125" style="34" customWidth="1"/>
+    <col min="2074" max="2283" width="8.83203125" style="34"/>
+    <col min="2284" max="2284" width="1.5" style="34" customWidth="1"/>
+    <col min="2285" max="2285" width="1.33203125" style="34" customWidth="1"/>
     <col min="2286" max="2286" width="42" style="34" customWidth="1"/>
-    <col min="2287" max="2287" width="5.42578125" style="34" customWidth="1"/>
+    <col min="2287" max="2287" width="5.5" style="34" customWidth="1"/>
     <col min="2288" max="2289" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2290" max="2290" width="2.7109375" style="34" customWidth="1"/>
-    <col min="2291" max="2326" width="3.28515625" style="34" customWidth="1"/>
-    <col min="2327" max="2327" width="1.7109375" style="34" customWidth="1"/>
-    <col min="2328" max="2328" width="25.7109375" style="34" customWidth="1"/>
-    <col min="2329" max="2329" width="31.28515625" style="34" customWidth="1"/>
-    <col min="2330" max="2539" width="8.85546875" style="34"/>
-    <col min="2540" max="2540" width="1.42578125" style="34" customWidth="1"/>
-    <col min="2541" max="2541" width="1.28515625" style="34" customWidth="1"/>
+    <col min="2290" max="2290" width="2.6640625" style="34" customWidth="1"/>
+    <col min="2291" max="2326" width="3.33203125" style="34" customWidth="1"/>
+    <col min="2327" max="2327" width="1.6640625" style="34" customWidth="1"/>
+    <col min="2328" max="2328" width="25.6640625" style="34" customWidth="1"/>
+    <col min="2329" max="2329" width="31.33203125" style="34" customWidth="1"/>
+    <col min="2330" max="2539" width="8.83203125" style="34"/>
+    <col min="2540" max="2540" width="1.5" style="34" customWidth="1"/>
+    <col min="2541" max="2541" width="1.33203125" style="34" customWidth="1"/>
     <col min="2542" max="2542" width="42" style="34" customWidth="1"/>
-    <col min="2543" max="2543" width="5.42578125" style="34" customWidth="1"/>
+    <col min="2543" max="2543" width="5.5" style="34" customWidth="1"/>
     <col min="2544" max="2545" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2546" max="2546" width="2.7109375" style="34" customWidth="1"/>
-    <col min="2547" max="2582" width="3.28515625" style="34" customWidth="1"/>
-    <col min="2583" max="2583" width="1.7109375" style="34" customWidth="1"/>
-    <col min="2584" max="2584" width="25.7109375" style="34" customWidth="1"/>
-    <col min="2585" max="2585" width="31.28515625" style="34" customWidth="1"/>
-    <col min="2586" max="2795" width="8.85546875" style="34"/>
-    <col min="2796" max="2796" width="1.42578125" style="34" customWidth="1"/>
-    <col min="2797" max="2797" width="1.28515625" style="34" customWidth="1"/>
+    <col min="2546" max="2546" width="2.6640625" style="34" customWidth="1"/>
+    <col min="2547" max="2582" width="3.33203125" style="34" customWidth="1"/>
+    <col min="2583" max="2583" width="1.6640625" style="34" customWidth="1"/>
+    <col min="2584" max="2584" width="25.6640625" style="34" customWidth="1"/>
+    <col min="2585" max="2585" width="31.33203125" style="34" customWidth="1"/>
+    <col min="2586" max="2795" width="8.83203125" style="34"/>
+    <col min="2796" max="2796" width="1.5" style="34" customWidth="1"/>
+    <col min="2797" max="2797" width="1.33203125" style="34" customWidth="1"/>
     <col min="2798" max="2798" width="42" style="34" customWidth="1"/>
-    <col min="2799" max="2799" width="5.42578125" style="34" customWidth="1"/>
+    <col min="2799" max="2799" width="5.5" style="34" customWidth="1"/>
     <col min="2800" max="2801" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="2802" max="2802" width="2.7109375" style="34" customWidth="1"/>
-    <col min="2803" max="2838" width="3.28515625" style="34" customWidth="1"/>
-    <col min="2839" max="2839" width="1.7109375" style="34" customWidth="1"/>
-    <col min="2840" max="2840" width="25.7109375" style="34" customWidth="1"/>
-    <col min="2841" max="2841" width="31.28515625" style="34" customWidth="1"/>
-    <col min="2842" max="3051" width="8.85546875" style="34"/>
-    <col min="3052" max="3052" width="1.42578125" style="34" customWidth="1"/>
-    <col min="3053" max="3053" width="1.28515625" style="34" customWidth="1"/>
+    <col min="2802" max="2802" width="2.6640625" style="34" customWidth="1"/>
+    <col min="2803" max="2838" width="3.33203125" style="34" customWidth="1"/>
+    <col min="2839" max="2839" width="1.6640625" style="34" customWidth="1"/>
+    <col min="2840" max="2840" width="25.6640625" style="34" customWidth="1"/>
+    <col min="2841" max="2841" width="31.33203125" style="34" customWidth="1"/>
+    <col min="2842" max="3051" width="8.83203125" style="34"/>
+    <col min="3052" max="3052" width="1.5" style="34" customWidth="1"/>
+    <col min="3053" max="3053" width="1.33203125" style="34" customWidth="1"/>
     <col min="3054" max="3054" width="42" style="34" customWidth="1"/>
-    <col min="3055" max="3055" width="5.42578125" style="34" customWidth="1"/>
+    <col min="3055" max="3055" width="5.5" style="34" customWidth="1"/>
     <col min="3056" max="3057" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3058" max="3058" width="2.7109375" style="34" customWidth="1"/>
-    <col min="3059" max="3094" width="3.28515625" style="34" customWidth="1"/>
-    <col min="3095" max="3095" width="1.7109375" style="34" customWidth="1"/>
-    <col min="3096" max="3096" width="25.7109375" style="34" customWidth="1"/>
-    <col min="3097" max="3097" width="31.28515625" style="34" customWidth="1"/>
-    <col min="3098" max="3307" width="8.85546875" style="34"/>
-    <col min="3308" max="3308" width="1.42578125" style="34" customWidth="1"/>
-    <col min="3309" max="3309" width="1.28515625" style="34" customWidth="1"/>
+    <col min="3058" max="3058" width="2.6640625" style="34" customWidth="1"/>
+    <col min="3059" max="3094" width="3.33203125" style="34" customWidth="1"/>
+    <col min="3095" max="3095" width="1.6640625" style="34" customWidth="1"/>
+    <col min="3096" max="3096" width="25.6640625" style="34" customWidth="1"/>
+    <col min="3097" max="3097" width="31.33203125" style="34" customWidth="1"/>
+    <col min="3098" max="3307" width="8.83203125" style="34"/>
+    <col min="3308" max="3308" width="1.5" style="34" customWidth="1"/>
+    <col min="3309" max="3309" width="1.33203125" style="34" customWidth="1"/>
     <col min="3310" max="3310" width="42" style="34" customWidth="1"/>
-    <col min="3311" max="3311" width="5.42578125" style="34" customWidth="1"/>
+    <col min="3311" max="3311" width="5.5" style="34" customWidth="1"/>
     <col min="3312" max="3313" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3314" max="3314" width="2.7109375" style="34" customWidth="1"/>
-    <col min="3315" max="3350" width="3.28515625" style="34" customWidth="1"/>
-    <col min="3351" max="3351" width="1.7109375" style="34" customWidth="1"/>
-    <col min="3352" max="3352" width="25.7109375" style="34" customWidth="1"/>
-    <col min="3353" max="3353" width="31.28515625" style="34" customWidth="1"/>
-    <col min="3354" max="3563" width="8.85546875" style="34"/>
-    <col min="3564" max="3564" width="1.42578125" style="34" customWidth="1"/>
-    <col min="3565" max="3565" width="1.28515625" style="34" customWidth="1"/>
+    <col min="3314" max="3314" width="2.6640625" style="34" customWidth="1"/>
+    <col min="3315" max="3350" width="3.33203125" style="34" customWidth="1"/>
+    <col min="3351" max="3351" width="1.6640625" style="34" customWidth="1"/>
+    <col min="3352" max="3352" width="25.6640625" style="34" customWidth="1"/>
+    <col min="3353" max="3353" width="31.33203125" style="34" customWidth="1"/>
+    <col min="3354" max="3563" width="8.83203125" style="34"/>
+    <col min="3564" max="3564" width="1.5" style="34" customWidth="1"/>
+    <col min="3565" max="3565" width="1.33203125" style="34" customWidth="1"/>
     <col min="3566" max="3566" width="42" style="34" customWidth="1"/>
-    <col min="3567" max="3567" width="5.42578125" style="34" customWidth="1"/>
+    <col min="3567" max="3567" width="5.5" style="34" customWidth="1"/>
     <col min="3568" max="3569" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3570" max="3570" width="2.7109375" style="34" customWidth="1"/>
-    <col min="3571" max="3606" width="3.28515625" style="34" customWidth="1"/>
-    <col min="3607" max="3607" width="1.7109375" style="34" customWidth="1"/>
-    <col min="3608" max="3608" width="25.7109375" style="34" customWidth="1"/>
-    <col min="3609" max="3609" width="31.28515625" style="34" customWidth="1"/>
-    <col min="3610" max="3819" width="8.85546875" style="34"/>
-    <col min="3820" max="3820" width="1.42578125" style="34" customWidth="1"/>
-    <col min="3821" max="3821" width="1.28515625" style="34" customWidth="1"/>
+    <col min="3570" max="3570" width="2.6640625" style="34" customWidth="1"/>
+    <col min="3571" max="3606" width="3.33203125" style="34" customWidth="1"/>
+    <col min="3607" max="3607" width="1.6640625" style="34" customWidth="1"/>
+    <col min="3608" max="3608" width="25.6640625" style="34" customWidth="1"/>
+    <col min="3609" max="3609" width="31.33203125" style="34" customWidth="1"/>
+    <col min="3610" max="3819" width="8.83203125" style="34"/>
+    <col min="3820" max="3820" width="1.5" style="34" customWidth="1"/>
+    <col min="3821" max="3821" width="1.33203125" style="34" customWidth="1"/>
     <col min="3822" max="3822" width="42" style="34" customWidth="1"/>
-    <col min="3823" max="3823" width="5.42578125" style="34" customWidth="1"/>
+    <col min="3823" max="3823" width="5.5" style="34" customWidth="1"/>
     <col min="3824" max="3825" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="3826" max="3826" width="2.7109375" style="34" customWidth="1"/>
-    <col min="3827" max="3862" width="3.28515625" style="34" customWidth="1"/>
-    <col min="3863" max="3863" width="1.7109375" style="34" customWidth="1"/>
-    <col min="3864" max="3864" width="25.7109375" style="34" customWidth="1"/>
-    <col min="3865" max="3865" width="31.28515625" style="34" customWidth="1"/>
-    <col min="3866" max="4075" width="8.85546875" style="34"/>
-    <col min="4076" max="4076" width="1.42578125" style="34" customWidth="1"/>
-    <col min="4077" max="4077" width="1.28515625" style="34" customWidth="1"/>
+    <col min="3826" max="3826" width="2.6640625" style="34" customWidth="1"/>
+    <col min="3827" max="3862" width="3.33203125" style="34" customWidth="1"/>
+    <col min="3863" max="3863" width="1.6640625" style="34" customWidth="1"/>
+    <col min="3864" max="3864" width="25.6640625" style="34" customWidth="1"/>
+    <col min="3865" max="3865" width="31.33203125" style="34" customWidth="1"/>
+    <col min="3866" max="4075" width="8.83203125" style="34"/>
+    <col min="4076" max="4076" width="1.5" style="34" customWidth="1"/>
+    <col min="4077" max="4077" width="1.33203125" style="34" customWidth="1"/>
     <col min="4078" max="4078" width="42" style="34" customWidth="1"/>
-    <col min="4079" max="4079" width="5.42578125" style="34" customWidth="1"/>
+    <col min="4079" max="4079" width="5.5" style="34" customWidth="1"/>
     <col min="4080" max="4081" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4082" max="4082" width="2.7109375" style="34" customWidth="1"/>
-    <col min="4083" max="4118" width="3.28515625" style="34" customWidth="1"/>
-    <col min="4119" max="4119" width="1.7109375" style="34" customWidth="1"/>
-    <col min="4120" max="4120" width="25.7109375" style="34" customWidth="1"/>
-    <col min="4121" max="4121" width="31.28515625" style="34" customWidth="1"/>
-    <col min="4122" max="4331" width="8.85546875" style="34"/>
-    <col min="4332" max="4332" width="1.42578125" style="34" customWidth="1"/>
-    <col min="4333" max="4333" width="1.28515625" style="34" customWidth="1"/>
+    <col min="4082" max="4082" width="2.6640625" style="34" customWidth="1"/>
+    <col min="4083" max="4118" width="3.33203125" style="34" customWidth="1"/>
+    <col min="4119" max="4119" width="1.6640625" style="34" customWidth="1"/>
+    <col min="4120" max="4120" width="25.6640625" style="34" customWidth="1"/>
+    <col min="4121" max="4121" width="31.33203125" style="34" customWidth="1"/>
+    <col min="4122" max="4331" width="8.83203125" style="34"/>
+    <col min="4332" max="4332" width="1.5" style="34" customWidth="1"/>
+    <col min="4333" max="4333" width="1.33203125" style="34" customWidth="1"/>
     <col min="4334" max="4334" width="42" style="34" customWidth="1"/>
-    <col min="4335" max="4335" width="5.42578125" style="34" customWidth="1"/>
+    <col min="4335" max="4335" width="5.5" style="34" customWidth="1"/>
     <col min="4336" max="4337" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4338" max="4338" width="2.7109375" style="34" customWidth="1"/>
-    <col min="4339" max="4374" width="3.28515625" style="34" customWidth="1"/>
-    <col min="4375" max="4375" width="1.7109375" style="34" customWidth="1"/>
-    <col min="4376" max="4376" width="25.7109375" style="34" customWidth="1"/>
-    <col min="4377" max="4377" width="31.28515625" style="34" customWidth="1"/>
-    <col min="4378" max="4587" width="8.85546875" style="34"/>
-    <col min="4588" max="4588" width="1.42578125" style="34" customWidth="1"/>
-    <col min="4589" max="4589" width="1.28515625" style="34" customWidth="1"/>
+    <col min="4338" max="4338" width="2.6640625" style="34" customWidth="1"/>
+    <col min="4339" max="4374" width="3.33203125" style="34" customWidth="1"/>
+    <col min="4375" max="4375" width="1.6640625" style="34" customWidth="1"/>
+    <col min="4376" max="4376" width="25.6640625" style="34" customWidth="1"/>
+    <col min="4377" max="4377" width="31.33203125" style="34" customWidth="1"/>
+    <col min="4378" max="4587" width="8.83203125" style="34"/>
+    <col min="4588" max="4588" width="1.5" style="34" customWidth="1"/>
+    <col min="4589" max="4589" width="1.33203125" style="34" customWidth="1"/>
     <col min="4590" max="4590" width="42" style="34" customWidth="1"/>
-    <col min="4591" max="4591" width="5.42578125" style="34" customWidth="1"/>
+    <col min="4591" max="4591" width="5.5" style="34" customWidth="1"/>
     <col min="4592" max="4593" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4594" max="4594" width="2.7109375" style="34" customWidth="1"/>
-    <col min="4595" max="4630" width="3.28515625" style="34" customWidth="1"/>
-    <col min="4631" max="4631" width="1.7109375" style="34" customWidth="1"/>
-    <col min="4632" max="4632" width="25.7109375" style="34" customWidth="1"/>
-    <col min="4633" max="4633" width="31.28515625" style="34" customWidth="1"/>
-    <col min="4634" max="4843" width="8.85546875" style="34"/>
-    <col min="4844" max="4844" width="1.42578125" style="34" customWidth="1"/>
-    <col min="4845" max="4845" width="1.28515625" style="34" customWidth="1"/>
+    <col min="4594" max="4594" width="2.6640625" style="34" customWidth="1"/>
+    <col min="4595" max="4630" width="3.33203125" style="34" customWidth="1"/>
+    <col min="4631" max="4631" width="1.6640625" style="34" customWidth="1"/>
+    <col min="4632" max="4632" width="25.6640625" style="34" customWidth="1"/>
+    <col min="4633" max="4633" width="31.33203125" style="34" customWidth="1"/>
+    <col min="4634" max="4843" width="8.83203125" style="34"/>
+    <col min="4844" max="4844" width="1.5" style="34" customWidth="1"/>
+    <col min="4845" max="4845" width="1.33203125" style="34" customWidth="1"/>
     <col min="4846" max="4846" width="42" style="34" customWidth="1"/>
-    <col min="4847" max="4847" width="5.42578125" style="34" customWidth="1"/>
+    <col min="4847" max="4847" width="5.5" style="34" customWidth="1"/>
     <col min="4848" max="4849" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4850" max="4850" width="2.7109375" style="34" customWidth="1"/>
-    <col min="4851" max="4886" width="3.28515625" style="34" customWidth="1"/>
-    <col min="4887" max="4887" width="1.7109375" style="34" customWidth="1"/>
-    <col min="4888" max="4888" width="25.7109375" style="34" customWidth="1"/>
-    <col min="4889" max="4889" width="31.28515625" style="34" customWidth="1"/>
-    <col min="4890" max="5099" width="8.85546875" style="34"/>
-    <col min="5100" max="5100" width="1.42578125" style="34" customWidth="1"/>
-    <col min="5101" max="5101" width="1.28515625" style="34" customWidth="1"/>
+    <col min="4850" max="4850" width="2.6640625" style="34" customWidth="1"/>
+    <col min="4851" max="4886" width="3.33203125" style="34" customWidth="1"/>
+    <col min="4887" max="4887" width="1.6640625" style="34" customWidth="1"/>
+    <col min="4888" max="4888" width="25.6640625" style="34" customWidth="1"/>
+    <col min="4889" max="4889" width="31.33203125" style="34" customWidth="1"/>
+    <col min="4890" max="5099" width="8.83203125" style="34"/>
+    <col min="5100" max="5100" width="1.5" style="34" customWidth="1"/>
+    <col min="5101" max="5101" width="1.33203125" style="34" customWidth="1"/>
     <col min="5102" max="5102" width="42" style="34" customWidth="1"/>
-    <col min="5103" max="5103" width="5.42578125" style="34" customWidth="1"/>
+    <col min="5103" max="5103" width="5.5" style="34" customWidth="1"/>
     <col min="5104" max="5105" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5106" max="5106" width="2.7109375" style="34" customWidth="1"/>
-    <col min="5107" max="5142" width="3.28515625" style="34" customWidth="1"/>
-    <col min="5143" max="5143" width="1.7109375" style="34" customWidth="1"/>
-    <col min="5144" max="5144" width="25.7109375" style="34" customWidth="1"/>
-    <col min="5145" max="5145" width="31.28515625" style="34" customWidth="1"/>
-    <col min="5146" max="5355" width="8.85546875" style="34"/>
-    <col min="5356" max="5356" width="1.42578125" style="34" customWidth="1"/>
-    <col min="5357" max="5357" width="1.28515625" style="34" customWidth="1"/>
+    <col min="5106" max="5106" width="2.6640625" style="34" customWidth="1"/>
+    <col min="5107" max="5142" width="3.33203125" style="34" customWidth="1"/>
+    <col min="5143" max="5143" width="1.6640625" style="34" customWidth="1"/>
+    <col min="5144" max="5144" width="25.6640625" style="34" customWidth="1"/>
+    <col min="5145" max="5145" width="31.33203125" style="34" customWidth="1"/>
+    <col min="5146" max="5355" width="8.83203125" style="34"/>
+    <col min="5356" max="5356" width="1.5" style="34" customWidth="1"/>
+    <col min="5357" max="5357" width="1.33203125" style="34" customWidth="1"/>
     <col min="5358" max="5358" width="42" style="34" customWidth="1"/>
-    <col min="5359" max="5359" width="5.42578125" style="34" customWidth="1"/>
+    <col min="5359" max="5359" width="5.5" style="34" customWidth="1"/>
     <col min="5360" max="5361" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5362" max="5362" width="2.7109375" style="34" customWidth="1"/>
-    <col min="5363" max="5398" width="3.28515625" style="34" customWidth="1"/>
-    <col min="5399" max="5399" width="1.7109375" style="34" customWidth="1"/>
-    <col min="5400" max="5400" width="25.7109375" style="34" customWidth="1"/>
-    <col min="5401" max="5401" width="31.28515625" style="34" customWidth="1"/>
-    <col min="5402" max="5611" width="8.85546875" style="34"/>
-    <col min="5612" max="5612" width="1.42578125" style="34" customWidth="1"/>
-    <col min="5613" max="5613" width="1.28515625" style="34" customWidth="1"/>
+    <col min="5362" max="5362" width="2.6640625" style="34" customWidth="1"/>
+    <col min="5363" max="5398" width="3.33203125" style="34" customWidth="1"/>
+    <col min="5399" max="5399" width="1.6640625" style="34" customWidth="1"/>
+    <col min="5400" max="5400" width="25.6640625" style="34" customWidth="1"/>
+    <col min="5401" max="5401" width="31.33203125" style="34" customWidth="1"/>
+    <col min="5402" max="5611" width="8.83203125" style="34"/>
+    <col min="5612" max="5612" width="1.5" style="34" customWidth="1"/>
+    <col min="5613" max="5613" width="1.33203125" style="34" customWidth="1"/>
     <col min="5614" max="5614" width="42" style="34" customWidth="1"/>
-    <col min="5615" max="5615" width="5.42578125" style="34" customWidth="1"/>
+    <col min="5615" max="5615" width="5.5" style="34" customWidth="1"/>
     <col min="5616" max="5617" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5618" max="5618" width="2.7109375" style="34" customWidth="1"/>
-    <col min="5619" max="5654" width="3.28515625" style="34" customWidth="1"/>
-    <col min="5655" max="5655" width="1.7109375" style="34" customWidth="1"/>
-    <col min="5656" max="5656" width="25.7109375" style="34" customWidth="1"/>
-    <col min="5657" max="5657" width="31.28515625" style="34" customWidth="1"/>
-    <col min="5658" max="5867" width="8.85546875" style="34"/>
-    <col min="5868" max="5868" width="1.42578125" style="34" customWidth="1"/>
-    <col min="5869" max="5869" width="1.28515625" style="34" customWidth="1"/>
+    <col min="5618" max="5618" width="2.6640625" style="34" customWidth="1"/>
+    <col min="5619" max="5654" width="3.33203125" style="34" customWidth="1"/>
+    <col min="5655" max="5655" width="1.6640625" style="34" customWidth="1"/>
+    <col min="5656" max="5656" width="25.6640625" style="34" customWidth="1"/>
+    <col min="5657" max="5657" width="31.33203125" style="34" customWidth="1"/>
+    <col min="5658" max="5867" width="8.83203125" style="34"/>
+    <col min="5868" max="5868" width="1.5" style="34" customWidth="1"/>
+    <col min="5869" max="5869" width="1.33203125" style="34" customWidth="1"/>
     <col min="5870" max="5870" width="42" style="34" customWidth="1"/>
-    <col min="5871" max="5871" width="5.42578125" style="34" customWidth="1"/>
+    <col min="5871" max="5871" width="5.5" style="34" customWidth="1"/>
     <col min="5872" max="5873" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="5874" max="5874" width="2.7109375" style="34" customWidth="1"/>
-    <col min="5875" max="5910" width="3.28515625" style="34" customWidth="1"/>
-    <col min="5911" max="5911" width="1.7109375" style="34" customWidth="1"/>
-    <col min="5912" max="5912" width="25.7109375" style="34" customWidth="1"/>
-    <col min="5913" max="5913" width="31.28515625" style="34" customWidth="1"/>
-    <col min="5914" max="6123" width="8.85546875" style="34"/>
-    <col min="6124" max="6124" width="1.42578125" style="34" customWidth="1"/>
-    <col min="6125" max="6125" width="1.28515625" style="34" customWidth="1"/>
+    <col min="5874" max="5874" width="2.6640625" style="34" customWidth="1"/>
+    <col min="5875" max="5910" width="3.33203125" style="34" customWidth="1"/>
+    <col min="5911" max="5911" width="1.6640625" style="34" customWidth="1"/>
+    <col min="5912" max="5912" width="25.6640625" style="34" customWidth="1"/>
+    <col min="5913" max="5913" width="31.33203125" style="34" customWidth="1"/>
+    <col min="5914" max="6123" width="8.83203125" style="34"/>
+    <col min="6124" max="6124" width="1.5" style="34" customWidth="1"/>
+    <col min="6125" max="6125" width="1.33203125" style="34" customWidth="1"/>
     <col min="6126" max="6126" width="42" style="34" customWidth="1"/>
-    <col min="6127" max="6127" width="5.42578125" style="34" customWidth="1"/>
+    <col min="6127" max="6127" width="5.5" style="34" customWidth="1"/>
     <col min="6128" max="6129" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6130" max="6130" width="2.7109375" style="34" customWidth="1"/>
-    <col min="6131" max="6166" width="3.28515625" style="34" customWidth="1"/>
-    <col min="6167" max="6167" width="1.7109375" style="34" customWidth="1"/>
-    <col min="6168" max="6168" width="25.7109375" style="34" customWidth="1"/>
-    <col min="6169" max="6169" width="31.28515625" style="34" customWidth="1"/>
-    <col min="6170" max="6379" width="8.85546875" style="34"/>
-    <col min="6380" max="6380" width="1.42578125" style="34" customWidth="1"/>
-    <col min="6381" max="6381" width="1.28515625" style="34" customWidth="1"/>
+    <col min="6130" max="6130" width="2.6640625" style="34" customWidth="1"/>
+    <col min="6131" max="6166" width="3.33203125" style="34" customWidth="1"/>
+    <col min="6167" max="6167" width="1.6640625" style="34" customWidth="1"/>
+    <col min="6168" max="6168" width="25.6640625" style="34" customWidth="1"/>
+    <col min="6169" max="6169" width="31.33203125" style="34" customWidth="1"/>
+    <col min="6170" max="6379" width="8.83203125" style="34"/>
+    <col min="6380" max="6380" width="1.5" style="34" customWidth="1"/>
+    <col min="6381" max="6381" width="1.33203125" style="34" customWidth="1"/>
     <col min="6382" max="6382" width="42" style="34" customWidth="1"/>
-    <col min="6383" max="6383" width="5.42578125" style="34" customWidth="1"/>
+    <col min="6383" max="6383" width="5.5" style="34" customWidth="1"/>
     <col min="6384" max="6385" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6386" max="6386" width="2.7109375" style="34" customWidth="1"/>
-    <col min="6387" max="6422" width="3.28515625" style="34" customWidth="1"/>
-    <col min="6423" max="6423" width="1.7109375" style="34" customWidth="1"/>
-    <col min="6424" max="6424" width="25.7109375" style="34" customWidth="1"/>
-    <col min="6425" max="6425" width="31.28515625" style="34" customWidth="1"/>
-    <col min="6426" max="6635" width="8.85546875" style="34"/>
-    <col min="6636" max="6636" width="1.42578125" style="34" customWidth="1"/>
-    <col min="6637" max="6637" width="1.28515625" style="34" customWidth="1"/>
+    <col min="6386" max="6386" width="2.6640625" style="34" customWidth="1"/>
+    <col min="6387" max="6422" width="3.33203125" style="34" customWidth="1"/>
+    <col min="6423" max="6423" width="1.6640625" style="34" customWidth="1"/>
+    <col min="6424" max="6424" width="25.6640625" style="34" customWidth="1"/>
+    <col min="6425" max="6425" width="31.33203125" style="34" customWidth="1"/>
+    <col min="6426" max="6635" width="8.83203125" style="34"/>
+    <col min="6636" max="6636" width="1.5" style="34" customWidth="1"/>
+    <col min="6637" max="6637" width="1.33203125" style="34" customWidth="1"/>
     <col min="6638" max="6638" width="42" style="34" customWidth="1"/>
-    <col min="6639" max="6639" width="5.42578125" style="34" customWidth="1"/>
+    <col min="6639" max="6639" width="5.5" style="34" customWidth="1"/>
     <col min="6640" max="6641" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6642" max="6642" width="2.7109375" style="34" customWidth="1"/>
-    <col min="6643" max="6678" width="3.28515625" style="34" customWidth="1"/>
-    <col min="6679" max="6679" width="1.7109375" style="34" customWidth="1"/>
-    <col min="6680" max="6680" width="25.7109375" style="34" customWidth="1"/>
-    <col min="6681" max="6681" width="31.28515625" style="34" customWidth="1"/>
-    <col min="6682" max="6891" width="8.85546875" style="34"/>
-    <col min="6892" max="6892" width="1.42578125" style="34" customWidth="1"/>
-    <col min="6893" max="6893" width="1.28515625" style="34" customWidth="1"/>
+    <col min="6642" max="6642" width="2.6640625" style="34" customWidth="1"/>
+    <col min="6643" max="6678" width="3.33203125" style="34" customWidth="1"/>
+    <col min="6679" max="6679" width="1.6640625" style="34" customWidth="1"/>
+    <col min="6680" max="6680" width="25.6640625" style="34" customWidth="1"/>
+    <col min="6681" max="6681" width="31.33203125" style="34" customWidth="1"/>
+    <col min="6682" max="6891" width="8.83203125" style="34"/>
+    <col min="6892" max="6892" width="1.5" style="34" customWidth="1"/>
+    <col min="6893" max="6893" width="1.33203125" style="34" customWidth="1"/>
     <col min="6894" max="6894" width="42" style="34" customWidth="1"/>
-    <col min="6895" max="6895" width="5.42578125" style="34" customWidth="1"/>
+    <col min="6895" max="6895" width="5.5" style="34" customWidth="1"/>
     <col min="6896" max="6897" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="6898" max="6898" width="2.7109375" style="34" customWidth="1"/>
-    <col min="6899" max="6934" width="3.28515625" style="34" customWidth="1"/>
-    <col min="6935" max="6935" width="1.7109375" style="34" customWidth="1"/>
-    <col min="6936" max="6936" width="25.7109375" style="34" customWidth="1"/>
-    <col min="6937" max="6937" width="31.28515625" style="34" customWidth="1"/>
-    <col min="6938" max="7147" width="8.85546875" style="34"/>
-    <col min="7148" max="7148" width="1.42578125" style="34" customWidth="1"/>
-    <col min="7149" max="7149" width="1.28515625" style="34" customWidth="1"/>
+    <col min="6898" max="6898" width="2.6640625" style="34" customWidth="1"/>
+    <col min="6899" max="6934" width="3.33203125" style="34" customWidth="1"/>
+    <col min="6935" max="6935" width="1.6640625" style="34" customWidth="1"/>
+    <col min="6936" max="6936" width="25.6640625" style="34" customWidth="1"/>
+    <col min="6937" max="6937" width="31.33203125" style="34" customWidth="1"/>
+    <col min="6938" max="7147" width="8.83203125" style="34"/>
+    <col min="7148" max="7148" width="1.5" style="34" customWidth="1"/>
+    <col min="7149" max="7149" width="1.33203125" style="34" customWidth="1"/>
     <col min="7150" max="7150" width="42" style="34" customWidth="1"/>
-    <col min="7151" max="7151" width="5.42578125" style="34" customWidth="1"/>
+    <col min="7151" max="7151" width="5.5" style="34" customWidth="1"/>
     <col min="7152" max="7153" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7154" max="7154" width="2.7109375" style="34" customWidth="1"/>
-    <col min="7155" max="7190" width="3.28515625" style="34" customWidth="1"/>
-    <col min="7191" max="7191" width="1.7109375" style="34" customWidth="1"/>
-    <col min="7192" max="7192" width="25.7109375" style="34" customWidth="1"/>
-    <col min="7193" max="7193" width="31.28515625" style="34" customWidth="1"/>
-    <col min="7194" max="7403" width="8.85546875" style="34"/>
-    <col min="7404" max="7404" width="1.42578125" style="34" customWidth="1"/>
-    <col min="7405" max="7405" width="1.28515625" style="34" customWidth="1"/>
+    <col min="7154" max="7154" width="2.6640625" style="34" customWidth="1"/>
+    <col min="7155" max="7190" width="3.33203125" style="34" customWidth="1"/>
+    <col min="7191" max="7191" width="1.6640625" style="34" customWidth="1"/>
+    <col min="7192" max="7192" width="25.6640625" style="34" customWidth="1"/>
+    <col min="7193" max="7193" width="31.33203125" style="34" customWidth="1"/>
+    <col min="7194" max="7403" width="8.83203125" style="34"/>
+    <col min="7404" max="7404" width="1.5" style="34" customWidth="1"/>
+    <col min="7405" max="7405" width="1.33203125" style="34" customWidth="1"/>
     <col min="7406" max="7406" width="42" style="34" customWidth="1"/>
-    <col min="7407" max="7407" width="5.42578125" style="34" customWidth="1"/>
+    <col min="7407" max="7407" width="5.5" style="34" customWidth="1"/>
     <col min="7408" max="7409" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7410" max="7410" width="2.7109375" style="34" customWidth="1"/>
-    <col min="7411" max="7446" width="3.28515625" style="34" customWidth="1"/>
-    <col min="7447" max="7447" width="1.7109375" style="34" customWidth="1"/>
-    <col min="7448" max="7448" width="25.7109375" style="34" customWidth="1"/>
-    <col min="7449" max="7449" width="31.28515625" style="34" customWidth="1"/>
-    <col min="7450" max="7659" width="8.85546875" style="34"/>
-    <col min="7660" max="7660" width="1.42578125" style="34" customWidth="1"/>
-    <col min="7661" max="7661" width="1.28515625" style="34" customWidth="1"/>
+    <col min="7410" max="7410" width="2.6640625" style="34" customWidth="1"/>
+    <col min="7411" max="7446" width="3.33203125" style="34" customWidth="1"/>
+    <col min="7447" max="7447" width="1.6640625" style="34" customWidth="1"/>
+    <col min="7448" max="7448" width="25.6640625" style="34" customWidth="1"/>
+    <col min="7449" max="7449" width="31.33203125" style="34" customWidth="1"/>
+    <col min="7450" max="7659" width="8.83203125" style="34"/>
+    <col min="7660" max="7660" width="1.5" style="34" customWidth="1"/>
+    <col min="7661" max="7661" width="1.33203125" style="34" customWidth="1"/>
     <col min="7662" max="7662" width="42" style="34" customWidth="1"/>
-    <col min="7663" max="7663" width="5.42578125" style="34" customWidth="1"/>
+    <col min="7663" max="7663" width="5.5" style="34" customWidth="1"/>
     <col min="7664" max="7665" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7666" max="7666" width="2.7109375" style="34" customWidth="1"/>
-    <col min="7667" max="7702" width="3.28515625" style="34" customWidth="1"/>
-    <col min="7703" max="7703" width="1.7109375" style="34" customWidth="1"/>
-    <col min="7704" max="7704" width="25.7109375" style="34" customWidth="1"/>
-    <col min="7705" max="7705" width="31.28515625" style="34" customWidth="1"/>
-    <col min="7706" max="7915" width="8.85546875" style="34"/>
-    <col min="7916" max="7916" width="1.42578125" style="34" customWidth="1"/>
-    <col min="7917" max="7917" width="1.28515625" style="34" customWidth="1"/>
+    <col min="7666" max="7666" width="2.6640625" style="34" customWidth="1"/>
+    <col min="7667" max="7702" width="3.33203125" style="34" customWidth="1"/>
+    <col min="7703" max="7703" width="1.6640625" style="34" customWidth="1"/>
+    <col min="7704" max="7704" width="25.6640625" style="34" customWidth="1"/>
+    <col min="7705" max="7705" width="31.33203125" style="34" customWidth="1"/>
+    <col min="7706" max="7915" width="8.83203125" style="34"/>
+    <col min="7916" max="7916" width="1.5" style="34" customWidth="1"/>
+    <col min="7917" max="7917" width="1.33203125" style="34" customWidth="1"/>
     <col min="7918" max="7918" width="42" style="34" customWidth="1"/>
-    <col min="7919" max="7919" width="5.42578125" style="34" customWidth="1"/>
+    <col min="7919" max="7919" width="5.5" style="34" customWidth="1"/>
     <col min="7920" max="7921" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="7922" max="7922" width="2.7109375" style="34" customWidth="1"/>
-    <col min="7923" max="7958" width="3.28515625" style="34" customWidth="1"/>
-    <col min="7959" max="7959" width="1.7109375" style="34" customWidth="1"/>
-    <col min="7960" max="7960" width="25.7109375" style="34" customWidth="1"/>
-    <col min="7961" max="7961" width="31.28515625" style="34" customWidth="1"/>
-    <col min="7962" max="8171" width="8.85546875" style="34"/>
-    <col min="8172" max="8172" width="1.42578125" style="34" customWidth="1"/>
-    <col min="8173" max="8173" width="1.28515625" style="34" customWidth="1"/>
+    <col min="7922" max="7922" width="2.6640625" style="34" customWidth="1"/>
+    <col min="7923" max="7958" width="3.33203125" style="34" customWidth="1"/>
+    <col min="7959" max="7959" width="1.6640625" style="34" customWidth="1"/>
+    <col min="7960" max="7960" width="25.6640625" style="34" customWidth="1"/>
+    <col min="7961" max="7961" width="31.33203125" style="34" customWidth="1"/>
+    <col min="7962" max="8171" width="8.83203125" style="34"/>
+    <col min="8172" max="8172" width="1.5" style="34" customWidth="1"/>
+    <col min="8173" max="8173" width="1.33203125" style="34" customWidth="1"/>
     <col min="8174" max="8174" width="42" style="34" customWidth="1"/>
-    <col min="8175" max="8175" width="5.42578125" style="34" customWidth="1"/>
+    <col min="8175" max="8175" width="5.5" style="34" customWidth="1"/>
     <col min="8176" max="8177" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8178" max="8178" width="2.7109375" style="34" customWidth="1"/>
-    <col min="8179" max="8214" width="3.28515625" style="34" customWidth="1"/>
-    <col min="8215" max="8215" width="1.7109375" style="34" customWidth="1"/>
-    <col min="8216" max="8216" width="25.7109375" style="34" customWidth="1"/>
-    <col min="8217" max="8217" width="31.28515625" style="34" customWidth="1"/>
-    <col min="8218" max="8427" width="8.85546875" style="34"/>
-    <col min="8428" max="8428" width="1.42578125" style="34" customWidth="1"/>
-    <col min="8429" max="8429" width="1.28515625" style="34" customWidth="1"/>
+    <col min="8178" max="8178" width="2.6640625" style="34" customWidth="1"/>
+    <col min="8179" max="8214" width="3.33203125" style="34" customWidth="1"/>
+    <col min="8215" max="8215" width="1.6640625" style="34" customWidth="1"/>
+    <col min="8216" max="8216" width="25.6640625" style="34" customWidth="1"/>
+    <col min="8217" max="8217" width="31.33203125" style="34" customWidth="1"/>
+    <col min="8218" max="8427" width="8.83203125" style="34"/>
+    <col min="8428" max="8428" width="1.5" style="34" customWidth="1"/>
+    <col min="8429" max="8429" width="1.33203125" style="34" customWidth="1"/>
     <col min="8430" max="8430" width="42" style="34" customWidth="1"/>
-    <col min="8431" max="8431" width="5.42578125" style="34" customWidth="1"/>
+    <col min="8431" max="8431" width="5.5" style="34" customWidth="1"/>
     <col min="8432" max="8433" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8434" max="8434" width="2.7109375" style="34" customWidth="1"/>
-    <col min="8435" max="8470" width="3.28515625" style="34" customWidth="1"/>
-    <col min="8471" max="8471" width="1.7109375" style="34" customWidth="1"/>
-    <col min="8472" max="8472" width="25.7109375" style="34" customWidth="1"/>
-    <col min="8473" max="8473" width="31.28515625" style="34" customWidth="1"/>
-    <col min="8474" max="8683" width="8.85546875" style="34"/>
-    <col min="8684" max="8684" width="1.42578125" style="34" customWidth="1"/>
-    <col min="8685" max="8685" width="1.28515625" style="34" customWidth="1"/>
+    <col min="8434" max="8434" width="2.6640625" style="34" customWidth="1"/>
+    <col min="8435" max="8470" width="3.33203125" style="34" customWidth="1"/>
+    <col min="8471" max="8471" width="1.6640625" style="34" customWidth="1"/>
+    <col min="8472" max="8472" width="25.6640625" style="34" customWidth="1"/>
+    <col min="8473" max="8473" width="31.33203125" style="34" customWidth="1"/>
+    <col min="8474" max="8683" width="8.83203125" style="34"/>
+    <col min="8684" max="8684" width="1.5" style="34" customWidth="1"/>
+    <col min="8685" max="8685" width="1.33203125" style="34" customWidth="1"/>
     <col min="8686" max="8686" width="42" style="34" customWidth="1"/>
-    <col min="8687" max="8687" width="5.42578125" style="34" customWidth="1"/>
+    <col min="8687" max="8687" width="5.5" style="34" customWidth="1"/>
     <col min="8688" max="8689" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8690" max="8690" width="2.7109375" style="34" customWidth="1"/>
-    <col min="8691" max="8726" width="3.28515625" style="34" customWidth="1"/>
-    <col min="8727" max="8727" width="1.7109375" style="34" customWidth="1"/>
-    <col min="8728" max="8728" width="25.7109375" style="34" customWidth="1"/>
-    <col min="8729" max="8729" width="31.28515625" style="34" customWidth="1"/>
-    <col min="8730" max="8939" width="8.85546875" style="34"/>
-    <col min="8940" max="8940" width="1.42578125" style="34" customWidth="1"/>
-    <col min="8941" max="8941" width="1.28515625" style="34" customWidth="1"/>
+    <col min="8690" max="8690" width="2.6640625" style="34" customWidth="1"/>
+    <col min="8691" max="8726" width="3.33203125" style="34" customWidth="1"/>
+    <col min="8727" max="8727" width="1.6640625" style="34" customWidth="1"/>
+    <col min="8728" max="8728" width="25.6640625" style="34" customWidth="1"/>
+    <col min="8729" max="8729" width="31.33203125" style="34" customWidth="1"/>
+    <col min="8730" max="8939" width="8.83203125" style="34"/>
+    <col min="8940" max="8940" width="1.5" style="34" customWidth="1"/>
+    <col min="8941" max="8941" width="1.33203125" style="34" customWidth="1"/>
     <col min="8942" max="8942" width="42" style="34" customWidth="1"/>
-    <col min="8943" max="8943" width="5.42578125" style="34" customWidth="1"/>
+    <col min="8943" max="8943" width="5.5" style="34" customWidth="1"/>
     <col min="8944" max="8945" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="8946" max="8946" width="2.7109375" style="34" customWidth="1"/>
-    <col min="8947" max="8982" width="3.28515625" style="34" customWidth="1"/>
-    <col min="8983" max="8983" width="1.7109375" style="34" customWidth="1"/>
-    <col min="8984" max="8984" width="25.7109375" style="34" customWidth="1"/>
-    <col min="8985" max="8985" width="31.28515625" style="34" customWidth="1"/>
-    <col min="8986" max="9195" width="8.85546875" style="34"/>
-    <col min="9196" max="9196" width="1.42578125" style="34" customWidth="1"/>
-    <col min="9197" max="9197" width="1.28515625" style="34" customWidth="1"/>
+    <col min="8946" max="8946" width="2.6640625" style="34" customWidth="1"/>
+    <col min="8947" max="8982" width="3.33203125" style="34" customWidth="1"/>
+    <col min="8983" max="8983" width="1.6640625" style="34" customWidth="1"/>
+    <col min="8984" max="8984" width="25.6640625" style="34" customWidth="1"/>
+    <col min="8985" max="8985" width="31.33203125" style="34" customWidth="1"/>
+    <col min="8986" max="9195" width="8.83203125" style="34"/>
+    <col min="9196" max="9196" width="1.5" style="34" customWidth="1"/>
+    <col min="9197" max="9197" width="1.33203125" style="34" customWidth="1"/>
     <col min="9198" max="9198" width="42" style="34" customWidth="1"/>
-    <col min="9199" max="9199" width="5.42578125" style="34" customWidth="1"/>
+    <col min="9199" max="9199" width="5.5" style="34" customWidth="1"/>
     <col min="9200" max="9201" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9202" max="9202" width="2.7109375" style="34" customWidth="1"/>
-    <col min="9203" max="9238" width="3.28515625" style="34" customWidth="1"/>
-    <col min="9239" max="9239" width="1.7109375" style="34" customWidth="1"/>
-    <col min="9240" max="9240" width="25.7109375" style="34" customWidth="1"/>
-    <col min="9241" max="9241" width="31.28515625" style="34" customWidth="1"/>
-    <col min="9242" max="9451" width="8.85546875" style="34"/>
-    <col min="9452" max="9452" width="1.42578125" style="34" customWidth="1"/>
-    <col min="9453" max="9453" width="1.28515625" style="34" customWidth="1"/>
+    <col min="9202" max="9202" width="2.6640625" style="34" customWidth="1"/>
+    <col min="9203" max="9238" width="3.33203125" style="34" customWidth="1"/>
+    <col min="9239" max="9239" width="1.6640625" style="34" customWidth="1"/>
+    <col min="9240" max="9240" width="25.6640625" style="34" customWidth="1"/>
+    <col min="9241" max="9241" width="31.33203125" style="34" customWidth="1"/>
+    <col min="9242" max="9451" width="8.83203125" style="34"/>
+    <col min="9452" max="9452" width="1.5" style="34" customWidth="1"/>
+    <col min="9453" max="9453" width="1.33203125" style="34" customWidth="1"/>
     <col min="9454" max="9454" width="42" style="34" customWidth="1"/>
-    <col min="9455" max="9455" width="5.42578125" style="34" customWidth="1"/>
+    <col min="9455" max="9455" width="5.5" style="34" customWidth="1"/>
     <col min="9456" max="9457" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9458" max="9458" width="2.7109375" style="34" customWidth="1"/>
-    <col min="9459" max="9494" width="3.28515625" style="34" customWidth="1"/>
-    <col min="9495" max="9495" width="1.7109375" style="34" customWidth="1"/>
-    <col min="9496" max="9496" width="25.7109375" style="34" customWidth="1"/>
-    <col min="9497" max="9497" width="31.28515625" style="34" customWidth="1"/>
-    <col min="9498" max="9707" width="8.85546875" style="34"/>
-    <col min="9708" max="9708" width="1.42578125" style="34" customWidth="1"/>
-    <col min="9709" max="9709" width="1.28515625" style="34" customWidth="1"/>
+    <col min="9458" max="9458" width="2.6640625" style="34" customWidth="1"/>
+    <col min="9459" max="9494" width="3.33203125" style="34" customWidth="1"/>
+    <col min="9495" max="9495" width="1.6640625" style="34" customWidth="1"/>
+    <col min="9496" max="9496" width="25.6640625" style="34" customWidth="1"/>
+    <col min="9497" max="9497" width="31.33203125" style="34" customWidth="1"/>
+    <col min="9498" max="9707" width="8.83203125" style="34"/>
+    <col min="9708" max="9708" width="1.5" style="34" customWidth="1"/>
+    <col min="9709" max="9709" width="1.33203125" style="34" customWidth="1"/>
     <col min="9710" max="9710" width="42" style="34" customWidth="1"/>
-    <col min="9711" max="9711" width="5.42578125" style="34" customWidth="1"/>
+    <col min="9711" max="9711" width="5.5" style="34" customWidth="1"/>
     <col min="9712" max="9713" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9714" max="9714" width="2.7109375" style="34" customWidth="1"/>
-    <col min="9715" max="9750" width="3.28515625" style="34" customWidth="1"/>
-    <col min="9751" max="9751" width="1.7109375" style="34" customWidth="1"/>
-    <col min="9752" max="9752" width="25.7109375" style="34" customWidth="1"/>
-    <col min="9753" max="9753" width="31.28515625" style="34" customWidth="1"/>
-    <col min="9754" max="9963" width="8.85546875" style="34"/>
-    <col min="9964" max="9964" width="1.42578125" style="34" customWidth="1"/>
-    <col min="9965" max="9965" width="1.28515625" style="34" customWidth="1"/>
+    <col min="9714" max="9714" width="2.6640625" style="34" customWidth="1"/>
+    <col min="9715" max="9750" width="3.33203125" style="34" customWidth="1"/>
+    <col min="9751" max="9751" width="1.6640625" style="34" customWidth="1"/>
+    <col min="9752" max="9752" width="25.6640625" style="34" customWidth="1"/>
+    <col min="9753" max="9753" width="31.33203125" style="34" customWidth="1"/>
+    <col min="9754" max="9963" width="8.83203125" style="34"/>
+    <col min="9964" max="9964" width="1.5" style="34" customWidth="1"/>
+    <col min="9965" max="9965" width="1.33203125" style="34" customWidth="1"/>
     <col min="9966" max="9966" width="42" style="34" customWidth="1"/>
-    <col min="9967" max="9967" width="5.42578125" style="34" customWidth="1"/>
+    <col min="9967" max="9967" width="5.5" style="34" customWidth="1"/>
     <col min="9968" max="9969" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="9970" max="9970" width="2.7109375" style="34" customWidth="1"/>
-    <col min="9971" max="10006" width="3.28515625" style="34" customWidth="1"/>
-    <col min="10007" max="10007" width="1.7109375" style="34" customWidth="1"/>
-    <col min="10008" max="10008" width="25.7109375" style="34" customWidth="1"/>
-    <col min="10009" max="10009" width="31.28515625" style="34" customWidth="1"/>
-    <col min="10010" max="10219" width="8.85546875" style="34"/>
-    <col min="10220" max="10220" width="1.42578125" style="34" customWidth="1"/>
-    <col min="10221" max="10221" width="1.28515625" style="34" customWidth="1"/>
+    <col min="9970" max="9970" width="2.6640625" style="34" customWidth="1"/>
+    <col min="9971" max="10006" width="3.33203125" style="34" customWidth="1"/>
+    <col min="10007" max="10007" width="1.6640625" style="34" customWidth="1"/>
+    <col min="10008" max="10008" width="25.6640625" style="34" customWidth="1"/>
+    <col min="10009" max="10009" width="31.33203125" style="34" customWidth="1"/>
+    <col min="10010" max="10219" width="8.83203125" style="34"/>
+    <col min="10220" max="10220" width="1.5" style="34" customWidth="1"/>
+    <col min="10221" max="10221" width="1.33203125" style="34" customWidth="1"/>
     <col min="10222" max="10222" width="42" style="34" customWidth="1"/>
-    <col min="10223" max="10223" width="5.42578125" style="34" customWidth="1"/>
+    <col min="10223" max="10223" width="5.5" style="34" customWidth="1"/>
     <col min="10224" max="10225" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10226" max="10226" width="2.7109375" style="34" customWidth="1"/>
-    <col min="10227" max="10262" width="3.28515625" style="34" customWidth="1"/>
-    <col min="10263" max="10263" width="1.7109375" style="34" customWidth="1"/>
-    <col min="10264" max="10264" width="25.7109375" style="34" customWidth="1"/>
-    <col min="10265" max="10265" width="31.28515625" style="34" customWidth="1"/>
-    <col min="10266" max="10475" width="8.85546875" style="34"/>
-    <col min="10476" max="10476" width="1.42578125" style="34" customWidth="1"/>
-    <col min="10477" max="10477" width="1.28515625" style="34" customWidth="1"/>
+    <col min="10226" max="10226" width="2.6640625" style="34" customWidth="1"/>
+    <col min="10227" max="10262" width="3.33203125" style="34" customWidth="1"/>
+    <col min="10263" max="10263" width="1.6640625" style="34" customWidth="1"/>
+    <col min="10264" max="10264" width="25.6640625" style="34" customWidth="1"/>
+    <col min="10265" max="10265" width="31.33203125" style="34" customWidth="1"/>
+    <col min="10266" max="10475" width="8.83203125" style="34"/>
+    <col min="10476" max="10476" width="1.5" style="34" customWidth="1"/>
+    <col min="10477" max="10477" width="1.33203125" style="34" customWidth="1"/>
     <col min="10478" max="10478" width="42" style="34" customWidth="1"/>
-    <col min="10479" max="10479" width="5.42578125" style="34" customWidth="1"/>
+    <col min="10479" max="10479" width="5.5" style="34" customWidth="1"/>
     <col min="10480" max="10481" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10482" max="10482" width="2.7109375" style="34" customWidth="1"/>
-    <col min="10483" max="10518" width="3.28515625" style="34" customWidth="1"/>
-    <col min="10519" max="10519" width="1.7109375" style="34" customWidth="1"/>
-    <col min="10520" max="10520" width="25.7109375" style="34" customWidth="1"/>
-    <col min="10521" max="10521" width="31.28515625" style="34" customWidth="1"/>
-    <col min="10522" max="10731" width="8.85546875" style="34"/>
-    <col min="10732" max="10732" width="1.42578125" style="34" customWidth="1"/>
-    <col min="10733" max="10733" width="1.28515625" style="34" customWidth="1"/>
+    <col min="10482" max="10482" width="2.6640625" style="34" customWidth="1"/>
+    <col min="10483" max="10518" width="3.33203125" style="34" customWidth="1"/>
+    <col min="10519" max="10519" width="1.6640625" style="34" customWidth="1"/>
+    <col min="10520" max="10520" width="25.6640625" style="34" customWidth="1"/>
+    <col min="10521" max="10521" width="31.33203125" style="34" customWidth="1"/>
+    <col min="10522" max="10731" width="8.83203125" style="34"/>
+    <col min="10732" max="10732" width="1.5" style="34" customWidth="1"/>
+    <col min="10733" max="10733" width="1.33203125" style="34" customWidth="1"/>
     <col min="10734" max="10734" width="42" style="34" customWidth="1"/>
-    <col min="10735" max="10735" width="5.42578125" style="34" customWidth="1"/>
+    <col min="10735" max="10735" width="5.5" style="34" customWidth="1"/>
     <col min="10736" max="10737" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10738" max="10738" width="2.7109375" style="34" customWidth="1"/>
-    <col min="10739" max="10774" width="3.28515625" style="34" customWidth="1"/>
-    <col min="10775" max="10775" width="1.7109375" style="34" customWidth="1"/>
-    <col min="10776" max="10776" width="25.7109375" style="34" customWidth="1"/>
-    <col min="10777" max="10777" width="31.28515625" style="34" customWidth="1"/>
-    <col min="10778" max="10987" width="8.85546875" style="34"/>
-    <col min="10988" max="10988" width="1.42578125" style="34" customWidth="1"/>
-    <col min="10989" max="10989" width="1.28515625" style="34" customWidth="1"/>
+    <col min="10738" max="10738" width="2.6640625" style="34" customWidth="1"/>
+    <col min="10739" max="10774" width="3.33203125" style="34" customWidth="1"/>
+    <col min="10775" max="10775" width="1.6640625" style="34" customWidth="1"/>
+    <col min="10776" max="10776" width="25.6640625" style="34" customWidth="1"/>
+    <col min="10777" max="10777" width="31.33203125" style="34" customWidth="1"/>
+    <col min="10778" max="10987" width="8.83203125" style="34"/>
+    <col min="10988" max="10988" width="1.5" style="34" customWidth="1"/>
+    <col min="10989" max="10989" width="1.33203125" style="34" customWidth="1"/>
     <col min="10990" max="10990" width="42" style="34" customWidth="1"/>
-    <col min="10991" max="10991" width="5.42578125" style="34" customWidth="1"/>
+    <col min="10991" max="10991" width="5.5" style="34" customWidth="1"/>
     <col min="10992" max="10993" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="10994" max="10994" width="2.7109375" style="34" customWidth="1"/>
-    <col min="10995" max="11030" width="3.28515625" style="34" customWidth="1"/>
-    <col min="11031" max="11031" width="1.7109375" style="34" customWidth="1"/>
-    <col min="11032" max="11032" width="25.7109375" style="34" customWidth="1"/>
-    <col min="11033" max="11033" width="31.28515625" style="34" customWidth="1"/>
-    <col min="11034" max="11243" width="8.85546875" style="34"/>
-    <col min="11244" max="11244" width="1.42578125" style="34" customWidth="1"/>
-    <col min="11245" max="11245" width="1.28515625" style="34" customWidth="1"/>
+    <col min="10994" max="10994" width="2.6640625" style="34" customWidth="1"/>
+    <col min="10995" max="11030" width="3.33203125" style="34" customWidth="1"/>
+    <col min="11031" max="11031" width="1.6640625" style="34" customWidth="1"/>
+    <col min="11032" max="11032" width="25.6640625" style="34" customWidth="1"/>
+    <col min="11033" max="11033" width="31.33203125" style="34" customWidth="1"/>
+    <col min="11034" max="11243" width="8.83203125" style="34"/>
+    <col min="11244" max="11244" width="1.5" style="34" customWidth="1"/>
+    <col min="11245" max="11245" width="1.33203125" style="34" customWidth="1"/>
     <col min="11246" max="11246" width="42" style="34" customWidth="1"/>
-    <col min="11247" max="11247" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11247" max="11247" width="5.5" style="34" customWidth="1"/>
     <col min="11248" max="11249" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11250" max="11250" width="2.7109375" style="34" customWidth="1"/>
-    <col min="11251" max="11286" width="3.28515625" style="34" customWidth="1"/>
-    <col min="11287" max="11287" width="1.7109375" style="34" customWidth="1"/>
-    <col min="11288" max="11288" width="25.7109375" style="34" customWidth="1"/>
-    <col min="11289" max="11289" width="31.28515625" style="34" customWidth="1"/>
-    <col min="11290" max="11499" width="8.85546875" style="34"/>
-    <col min="11500" max="11500" width="1.42578125" style="34" customWidth="1"/>
-    <col min="11501" max="11501" width="1.28515625" style="34" customWidth="1"/>
+    <col min="11250" max="11250" width="2.6640625" style="34" customWidth="1"/>
+    <col min="11251" max="11286" width="3.33203125" style="34" customWidth="1"/>
+    <col min="11287" max="11287" width="1.6640625" style="34" customWidth="1"/>
+    <col min="11288" max="11288" width="25.6640625" style="34" customWidth="1"/>
+    <col min="11289" max="11289" width="31.33203125" style="34" customWidth="1"/>
+    <col min="11290" max="11499" width="8.83203125" style="34"/>
+    <col min="11500" max="11500" width="1.5" style="34" customWidth="1"/>
+    <col min="11501" max="11501" width="1.33203125" style="34" customWidth="1"/>
     <col min="11502" max="11502" width="42" style="34" customWidth="1"/>
-    <col min="11503" max="11503" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11503" max="11503" width="5.5" style="34" customWidth="1"/>
     <col min="11504" max="11505" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11506" max="11506" width="2.7109375" style="34" customWidth="1"/>
-    <col min="11507" max="11542" width="3.28515625" style="34" customWidth="1"/>
-    <col min="11543" max="11543" width="1.7109375" style="34" customWidth="1"/>
-    <col min="11544" max="11544" width="25.7109375" style="34" customWidth="1"/>
-    <col min="11545" max="11545" width="31.28515625" style="34" customWidth="1"/>
-    <col min="11546" max="11755" width="8.85546875" style="34"/>
-    <col min="11756" max="11756" width="1.42578125" style="34" customWidth="1"/>
-    <col min="11757" max="11757" width="1.28515625" style="34" customWidth="1"/>
+    <col min="11506" max="11506" width="2.6640625" style="34" customWidth="1"/>
+    <col min="11507" max="11542" width="3.33203125" style="34" customWidth="1"/>
+    <col min="11543" max="11543" width="1.6640625" style="34" customWidth="1"/>
+    <col min="11544" max="11544" width="25.6640625" style="34" customWidth="1"/>
+    <col min="11545" max="11545" width="31.33203125" style="34" customWidth="1"/>
+    <col min="11546" max="11755" width="8.83203125" style="34"/>
+    <col min="11756" max="11756" width="1.5" style="34" customWidth="1"/>
+    <col min="11757" max="11757" width="1.33203125" style="34" customWidth="1"/>
     <col min="11758" max="11758" width="42" style="34" customWidth="1"/>
-    <col min="11759" max="11759" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11759" max="11759" width="5.5" style="34" customWidth="1"/>
     <col min="11760" max="11761" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="11762" max="11762" width="2.7109375" style="34" customWidth="1"/>
-    <col min="11763" max="11798" width="3.28515625" style="34" customWidth="1"/>
-    <col min="11799" max="11799" width="1.7109375" style="34" customWidth="1"/>
-    <col min="11800" max="11800" width="25.7109375" style="34" customWidth="1"/>
-    <col min="11801" max="11801" width="31.28515625" style="34" customWidth="1"/>
-    <col min="11802" max="12011" width="8.85546875" style="34"/>
-    <col min="12012" max="12012" width="1.42578125" style="34" customWidth="1"/>
-    <col min="12013" max="12013" width="1.28515625" style="34" customWidth="1"/>
+    <col min="11762" max="11762" width="2.6640625" style="34" customWidth="1"/>
+    <col min="11763" max="11798" width="3.33203125" style="34" customWidth="1"/>
+    <col min="11799" max="11799" width="1.6640625" style="34" customWidth="1"/>
+    <col min="11800" max="11800" width="25.6640625" style="34" customWidth="1"/>
+    <col min="11801" max="11801" width="31.33203125" style="34" customWidth="1"/>
+    <col min="11802" max="12011" width="8.83203125" style="34"/>
+    <col min="12012" max="12012" width="1.5" style="34" customWidth="1"/>
+    <col min="12013" max="12013" width="1.33203125" style="34" customWidth="1"/>
     <col min="12014" max="12014" width="42" style="34" customWidth="1"/>
-    <col min="12015" max="12015" width="5.42578125" style="34" customWidth="1"/>
+    <col min="12015" max="12015" width="5.5" style="34" customWidth="1"/>
     <col min="12016" max="12017" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12018" max="12018" width="2.7109375" style="34" customWidth="1"/>
-    <col min="12019" max="12054" width="3.28515625" style="34" customWidth="1"/>
-    <col min="12055" max="12055" width="1.7109375" style="34" customWidth="1"/>
-    <col min="12056" max="12056" width="25.7109375" style="34" customWidth="1"/>
-    <col min="12057" max="12057" width="31.28515625" style="34" customWidth="1"/>
-    <col min="12058" max="12267" width="8.85546875" style="34"/>
-    <col min="12268" max="12268" width="1.42578125" style="34" customWidth="1"/>
-    <col min="12269" max="12269" width="1.28515625" style="34" customWidth="1"/>
+    <col min="12018" max="12018" width="2.6640625" style="34" customWidth="1"/>
+    <col min="12019" max="12054" width="3.33203125" style="34" customWidth="1"/>
+    <col min="12055" max="12055" width="1.6640625" style="34" customWidth="1"/>
+    <col min="12056" max="12056" width="25.6640625" style="34" customWidth="1"/>
+    <col min="12057" max="12057" width="31.33203125" style="34" customWidth="1"/>
+    <col min="12058" max="12267" width="8.83203125" style="34"/>
+    <col min="12268" max="12268" width="1.5" style="34" customWidth="1"/>
+    <col min="12269" max="12269" width="1.33203125" style="34" customWidth="1"/>
     <col min="12270" max="12270" width="42" style="34" customWidth="1"/>
-    <col min="12271" max="12271" width="5.42578125" style="34" customWidth="1"/>
+    <col min="12271" max="12271" width="5.5" style="34" customWidth="1"/>
     <col min="12272" max="12273" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12274" max="12274" width="2.7109375" style="34" customWidth="1"/>
-    <col min="12275" max="12310" width="3.28515625" style="34" customWidth="1"/>
-    <col min="12311" max="12311" width="1.7109375" style="34" customWidth="1"/>
-    <col min="12312" max="12312" width="25.7109375" style="34" customWidth="1"/>
-    <col min="12313" max="12313" width="31.28515625" style="34" customWidth="1"/>
-    <col min="12314" max="12523" width="8.85546875" style="34"/>
-    <col min="12524" max="12524" width="1.42578125" style="34" customWidth="1"/>
-    <col min="12525" max="12525" width="1.28515625" style="34" customWidth="1"/>
+    <col min="12274" max="12274" width="2.6640625" style="34" customWidth="1"/>
+    <col min="12275" max="12310" width="3.33203125" style="34" customWidth="1"/>
+    <col min="12311" max="12311" width="1.6640625" style="34" customWidth="1"/>
+    <col min="12312" max="12312" width="25.6640625" style="34" customWidth="1"/>
+    <col min="12313" max="12313" width="31.33203125" style="34" customWidth="1"/>
+    <col min="12314" max="12523" width="8.83203125" style="34"/>
+    <col min="12524" max="12524" width="1.5" style="34" customWidth="1"/>
+    <col min="12525" max="12525" width="1.33203125" style="34" customWidth="1"/>
     <col min="12526" max="12526" width="42" style="34" customWidth="1"/>
-    <col min="12527" max="12527" width="5.42578125" style="34" customWidth="1"/>
+    <col min="12527" max="12527" width="5.5" style="34" customWidth="1"/>
     <col min="12528" max="12529" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12530" max="12530" width="2.7109375" style="34" customWidth="1"/>
-    <col min="12531" max="12566" width="3.28515625" style="34" customWidth="1"/>
-    <col min="12567" max="12567" width="1.7109375" style="34" customWidth="1"/>
-    <col min="12568" max="12568" width="25.7109375" style="34" customWidth="1"/>
-    <col min="12569" max="12569" width="31.28515625" style="34" customWidth="1"/>
-    <col min="12570" max="12779" width="8.85546875" style="34"/>
-    <col min="12780" max="12780" width="1.42578125" style="34" customWidth="1"/>
-    <col min="12781" max="12781" width="1.28515625" style="34" customWidth="1"/>
+    <col min="12530" max="12530" width="2.6640625" style="34" customWidth="1"/>
+    <col min="12531" max="12566" width="3.33203125" style="34" customWidth="1"/>
+    <col min="12567" max="12567" width="1.6640625" style="34" customWidth="1"/>
+    <col min="12568" max="12568" width="25.6640625" style="34" customWidth="1"/>
+    <col min="12569" max="12569" width="31.33203125" style="34" customWidth="1"/>
+    <col min="12570" max="12779" width="8.83203125" style="34"/>
+    <col min="12780" max="12780" width="1.5" style="34" customWidth="1"/>
+    <col min="12781" max="12781" width="1.33203125" style="34" customWidth="1"/>
     <col min="12782" max="12782" width="42" style="34" customWidth="1"/>
-    <col min="12783" max="12783" width="5.42578125" style="34" customWidth="1"/>
+    <col min="12783" max="12783" width="5.5" style="34" customWidth="1"/>
     <col min="12784" max="12785" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="12786" max="12786" width="2.7109375" style="34" customWidth="1"/>
-    <col min="12787" max="12822" width="3.28515625" style="34" customWidth="1"/>
-    <col min="12823" max="12823" width="1.7109375" style="34" customWidth="1"/>
-    <col min="12824" max="12824" width="25.7109375" style="34" customWidth="1"/>
-    <col min="12825" max="12825" width="31.28515625" style="34" customWidth="1"/>
-    <col min="12826" max="13035" width="8.85546875" style="34"/>
-    <col min="13036" max="13036" width="1.42578125" style="34" customWidth="1"/>
-    <col min="13037" max="13037" width="1.28515625" style="34" customWidth="1"/>
+    <col min="12786" max="12786" width="2.6640625" style="34" customWidth="1"/>
+    <col min="12787" max="12822" width="3.33203125" style="34" customWidth="1"/>
+    <col min="12823" max="12823" width="1.6640625" style="34" customWidth="1"/>
+    <col min="12824" max="12824" width="25.6640625" style="34" customWidth="1"/>
+    <col min="12825" max="12825" width="31.33203125" style="34" customWidth="1"/>
+    <col min="12826" max="13035" width="8.83203125" style="34"/>
+    <col min="13036" max="13036" width="1.5" style="34" customWidth="1"/>
+    <col min="13037" max="13037" width="1.33203125" style="34" customWidth="1"/>
     <col min="13038" max="13038" width="42" style="34" customWidth="1"/>
-    <col min="13039" max="13039" width="5.42578125" style="34" customWidth="1"/>
+    <col min="13039" max="13039" width="5.5" style="34" customWidth="1"/>
     <col min="13040" max="13041" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13042" max="13042" width="2.7109375" style="34" customWidth="1"/>
-    <col min="13043" max="13078" width="3.28515625" style="34" customWidth="1"/>
-    <col min="13079" max="13079" width="1.7109375" style="34" customWidth="1"/>
-    <col min="13080" max="13080" width="25.7109375" style="34" customWidth="1"/>
-    <col min="13081" max="13081" width="31.28515625" style="34" customWidth="1"/>
-    <col min="13082" max="13291" width="8.85546875" style="34"/>
-    <col min="13292" max="13292" width="1.42578125" style="34" customWidth="1"/>
-    <col min="13293" max="13293" width="1.28515625" style="34" customWidth="1"/>
+    <col min="13042" max="13042" width="2.6640625" style="34" customWidth="1"/>
+    <col min="13043" max="13078" width="3.33203125" style="34" customWidth="1"/>
+    <col min="13079" max="13079" width="1.6640625" style="34" customWidth="1"/>
+    <col min="13080" max="13080" width="25.6640625" style="34" customWidth="1"/>
+    <col min="13081" max="13081" width="31.33203125" style="34" customWidth="1"/>
+    <col min="13082" max="13291" width="8.83203125" style="34"/>
+    <col min="13292" max="13292" width="1.5" style="34" customWidth="1"/>
+    <col min="13293" max="13293" width="1.33203125" style="34" customWidth="1"/>
     <col min="13294" max="13294" width="42" style="34" customWidth="1"/>
-    <col min="13295" max="13295" width="5.42578125" style="34" customWidth="1"/>
+    <col min="13295" max="13295" width="5.5" style="34" customWidth="1"/>
     <col min="13296" max="13297" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13298" max="13298" width="2.7109375" style="34" customWidth="1"/>
-    <col min="13299" max="13334" width="3.28515625" style="34" customWidth="1"/>
-    <col min="13335" max="13335" width="1.7109375" style="34" customWidth="1"/>
-    <col min="13336" max="13336" width="25.7109375" style="34" customWidth="1"/>
-    <col min="13337" max="13337" width="31.28515625" style="34" customWidth="1"/>
-    <col min="13338" max="13547" width="8.85546875" style="34"/>
-    <col min="13548" max="13548" width="1.42578125" style="34" customWidth="1"/>
-    <col min="13549" max="13549" width="1.28515625" style="34" customWidth="1"/>
+    <col min="13298" max="13298" width="2.6640625" style="34" customWidth="1"/>
+    <col min="13299" max="13334" width="3.33203125" style="34" customWidth="1"/>
+    <col min="13335" max="13335" width="1.6640625" style="34" customWidth="1"/>
+    <col min="13336" max="13336" width="25.6640625" style="34" customWidth="1"/>
+    <col min="13337" max="13337" width="31.33203125" style="34" customWidth="1"/>
+    <col min="13338" max="13547" width="8.83203125" style="34"/>
+    <col min="13548" max="13548" width="1.5" style="34" customWidth="1"/>
+    <col min="13549" max="13549" width="1.33203125" style="34" customWidth="1"/>
     <col min="13550" max="13550" width="42" style="34" customWidth="1"/>
-    <col min="13551" max="13551" width="5.42578125" style="34" customWidth="1"/>
+    <col min="13551" max="13551" width="5.5" style="34" customWidth="1"/>
     <col min="13552" max="13553" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13554" max="13554" width="2.7109375" style="34" customWidth="1"/>
-    <col min="13555" max="13590" width="3.28515625" style="34" customWidth="1"/>
-    <col min="13591" max="13591" width="1.7109375" style="34" customWidth="1"/>
-    <col min="13592" max="13592" width="25.7109375" style="34" customWidth="1"/>
-    <col min="13593" max="13593" width="31.28515625" style="34" customWidth="1"/>
-    <col min="13594" max="13803" width="8.85546875" style="34"/>
-    <col min="13804" max="13804" width="1.42578125" style="34" customWidth="1"/>
-    <col min="13805" max="13805" width="1.28515625" style="34" customWidth="1"/>
+    <col min="13554" max="13554" width="2.6640625" style="34" customWidth="1"/>
+    <col min="13555" max="13590" width="3.33203125" style="34" customWidth="1"/>
+    <col min="13591" max="13591" width="1.6640625" style="34" customWidth="1"/>
+    <col min="13592" max="13592" width="25.6640625" style="34" customWidth="1"/>
+    <col min="13593" max="13593" width="31.33203125" style="34" customWidth="1"/>
+    <col min="13594" max="13803" width="8.83203125" style="34"/>
+    <col min="13804" max="13804" width="1.5" style="34" customWidth="1"/>
+    <col min="13805" max="13805" width="1.33203125" style="34" customWidth="1"/>
     <col min="13806" max="13806" width="42" style="34" customWidth="1"/>
-    <col min="13807" max="13807" width="5.42578125" style="34" customWidth="1"/>
+    <col min="13807" max="13807" width="5.5" style="34" customWidth="1"/>
     <col min="13808" max="13809" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="13810" max="13810" width="2.7109375" style="34" customWidth="1"/>
-    <col min="13811" max="13846" width="3.28515625" style="34" customWidth="1"/>
-    <col min="13847" max="13847" width="1.7109375" style="34" customWidth="1"/>
-    <col min="13848" max="13848" width="25.7109375" style="34" customWidth="1"/>
-    <col min="13849" max="13849" width="31.28515625" style="34" customWidth="1"/>
-    <col min="13850" max="14059" width="8.85546875" style="34"/>
-    <col min="14060" max="14060" width="1.42578125" style="34" customWidth="1"/>
-    <col min="14061" max="14061" width="1.28515625" style="34" customWidth="1"/>
+    <col min="13810" max="13810" width="2.6640625" style="34" customWidth="1"/>
+    <col min="13811" max="13846" width="3.33203125" style="34" customWidth="1"/>
+    <col min="13847" max="13847" width="1.6640625" style="34" customWidth="1"/>
+    <col min="13848" max="13848" width="25.6640625" style="34" customWidth="1"/>
+    <col min="13849" max="13849" width="31.33203125" style="34" customWidth="1"/>
+    <col min="13850" max="14059" width="8.83203125" style="34"/>
+    <col min="14060" max="14060" width="1.5" style="34" customWidth="1"/>
+    <col min="14061" max="14061" width="1.33203125" style="34" customWidth="1"/>
     <col min="14062" max="14062" width="42" style="34" customWidth="1"/>
-    <col min="14063" max="14063" width="5.42578125" style="34" customWidth="1"/>
+    <col min="14063" max="14063" width="5.5" style="34" customWidth="1"/>
     <col min="14064" max="14065" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14066" max="14066" width="2.7109375" style="34" customWidth="1"/>
-    <col min="14067" max="14102" width="3.28515625" style="34" customWidth="1"/>
-    <col min="14103" max="14103" width="1.7109375" style="34" customWidth="1"/>
-    <col min="14104" max="14104" width="25.7109375" style="34" customWidth="1"/>
-    <col min="14105" max="14105" width="31.28515625" style="34" customWidth="1"/>
-    <col min="14106" max="14315" width="8.85546875" style="34"/>
-    <col min="14316" max="14316" width="1.42578125" style="34" customWidth="1"/>
-    <col min="14317" max="14317" width="1.28515625" style="34" customWidth="1"/>
+    <col min="14066" max="14066" width="2.6640625" style="34" customWidth="1"/>
+    <col min="14067" max="14102" width="3.33203125" style="34" customWidth="1"/>
+    <col min="14103" max="14103" width="1.6640625" style="34" customWidth="1"/>
+    <col min="14104" max="14104" width="25.6640625" style="34" customWidth="1"/>
+    <col min="14105" max="14105" width="31.33203125" style="34" customWidth="1"/>
+    <col min="14106" max="14315" width="8.83203125" style="34"/>
+    <col min="14316" max="14316" width="1.5" style="34" customWidth="1"/>
+    <col min="14317" max="14317" width="1.33203125" style="34" customWidth="1"/>
     <col min="14318" max="14318" width="42" style="34" customWidth="1"/>
-    <col min="14319" max="14319" width="5.42578125" style="34" customWidth="1"/>
+    <col min="14319" max="14319" width="5.5" style="34" customWidth="1"/>
     <col min="14320" max="14321" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14322" max="14322" width="2.7109375" style="34" customWidth="1"/>
-    <col min="14323" max="14358" width="3.28515625" style="34" customWidth="1"/>
-    <col min="14359" max="14359" width="1.7109375" style="34" customWidth="1"/>
-    <col min="14360" max="14360" width="25.7109375" style="34" customWidth="1"/>
-    <col min="14361" max="14361" width="31.28515625" style="34" customWidth="1"/>
-    <col min="14362" max="14571" width="8.85546875" style="34"/>
-    <col min="14572" max="14572" width="1.42578125" style="34" customWidth="1"/>
-    <col min="14573" max="14573" width="1.28515625" style="34" customWidth="1"/>
+    <col min="14322" max="14322" width="2.6640625" style="34" customWidth="1"/>
+    <col min="14323" max="14358" width="3.33203125" style="34" customWidth="1"/>
+    <col min="14359" max="14359" width="1.6640625" style="34" customWidth="1"/>
+    <col min="14360" max="14360" width="25.6640625" style="34" customWidth="1"/>
+    <col min="14361" max="14361" width="31.33203125" style="34" customWidth="1"/>
+    <col min="14362" max="14571" width="8.83203125" style="34"/>
+    <col min="14572" max="14572" width="1.5" style="34" customWidth="1"/>
+    <col min="14573" max="14573" width="1.33203125" style="34" customWidth="1"/>
     <col min="14574" max="14574" width="42" style="34" customWidth="1"/>
-    <col min="14575" max="14575" width="5.42578125" style="34" customWidth="1"/>
+    <col min="14575" max="14575" width="5.5" style="34" customWidth="1"/>
     <col min="14576" max="14577" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14578" max="14578" width="2.7109375" style="34" customWidth="1"/>
-    <col min="14579" max="14614" width="3.28515625" style="34" customWidth="1"/>
-    <col min="14615" max="14615" width="1.7109375" style="34" customWidth="1"/>
-    <col min="14616" max="14616" width="25.7109375" style="34" customWidth="1"/>
-    <col min="14617" max="14617" width="31.28515625" style="34" customWidth="1"/>
-    <col min="14618" max="14827" width="8.85546875" style="34"/>
-    <col min="14828" max="14828" width="1.42578125" style="34" customWidth="1"/>
-    <col min="14829" max="14829" width="1.28515625" style="34" customWidth="1"/>
+    <col min="14578" max="14578" width="2.6640625" style="34" customWidth="1"/>
+    <col min="14579" max="14614" width="3.33203125" style="34" customWidth="1"/>
+    <col min="14615" max="14615" width="1.6640625" style="34" customWidth="1"/>
+    <col min="14616" max="14616" width="25.6640625" style="34" customWidth="1"/>
+    <col min="14617" max="14617" width="31.33203125" style="34" customWidth="1"/>
+    <col min="14618" max="14827" width="8.83203125" style="34"/>
+    <col min="14828" max="14828" width="1.5" style="34" customWidth="1"/>
+    <col min="14829" max="14829" width="1.33203125" style="34" customWidth="1"/>
     <col min="14830" max="14830" width="42" style="34" customWidth="1"/>
-    <col min="14831" max="14831" width="5.42578125" style="34" customWidth="1"/>
+    <col min="14831" max="14831" width="5.5" style="34" customWidth="1"/>
     <col min="14832" max="14833" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="14834" max="14834" width="2.7109375" style="34" customWidth="1"/>
-    <col min="14835" max="14870" width="3.28515625" style="34" customWidth="1"/>
-    <col min="14871" max="14871" width="1.7109375" style="34" customWidth="1"/>
-    <col min="14872" max="14872" width="25.7109375" style="34" customWidth="1"/>
-    <col min="14873" max="14873" width="31.28515625" style="34" customWidth="1"/>
-    <col min="14874" max="15083" width="8.85546875" style="34"/>
-    <col min="15084" max="15084" width="1.42578125" style="34" customWidth="1"/>
-    <col min="15085" max="15085" width="1.28515625" style="34" customWidth="1"/>
+    <col min="14834" max="14834" width="2.6640625" style="34" customWidth="1"/>
+    <col min="14835" max="14870" width="3.33203125" style="34" customWidth="1"/>
+    <col min="14871" max="14871" width="1.6640625" style="34" customWidth="1"/>
+    <col min="14872" max="14872" width="25.6640625" style="34" customWidth="1"/>
+    <col min="14873" max="14873" width="31.33203125" style="34" customWidth="1"/>
+    <col min="14874" max="15083" width="8.83203125" style="34"/>
+    <col min="15084" max="15084" width="1.5" style="34" customWidth="1"/>
+    <col min="15085" max="15085" width="1.33203125" style="34" customWidth="1"/>
     <col min="15086" max="15086" width="42" style="34" customWidth="1"/>
-    <col min="15087" max="15087" width="5.42578125" style="34" customWidth="1"/>
+    <col min="15087" max="15087" width="5.5" style="34" customWidth="1"/>
     <col min="15088" max="15089" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15090" max="15090" width="2.7109375" style="34" customWidth="1"/>
-    <col min="15091" max="15126" width="3.28515625" style="34" customWidth="1"/>
-    <col min="15127" max="15127" width="1.7109375" style="34" customWidth="1"/>
-    <col min="15128" max="15128" width="25.7109375" style="34" customWidth="1"/>
-    <col min="15129" max="15129" width="31.28515625" style="34" customWidth="1"/>
-    <col min="15130" max="15339" width="8.85546875" style="34"/>
-    <col min="15340" max="15340" width="1.42578125" style="34" customWidth="1"/>
-    <col min="15341" max="15341" width="1.28515625" style="34" customWidth="1"/>
+    <col min="15090" max="15090" width="2.6640625" style="34" customWidth="1"/>
+    <col min="15091" max="15126" width="3.33203125" style="34" customWidth="1"/>
+    <col min="15127" max="15127" width="1.6640625" style="34" customWidth="1"/>
+    <col min="15128" max="15128" width="25.6640625" style="34" customWidth="1"/>
+    <col min="15129" max="15129" width="31.33203125" style="34" customWidth="1"/>
+    <col min="15130" max="15339" width="8.83203125" style="34"/>
+    <col min="15340" max="15340" width="1.5" style="34" customWidth="1"/>
+    <col min="15341" max="15341" width="1.33203125" style="34" customWidth="1"/>
     <col min="15342" max="15342" width="42" style="34" customWidth="1"/>
-    <col min="15343" max="15343" width="5.42578125" style="34" customWidth="1"/>
+    <col min="15343" max="15343" width="5.5" style="34" customWidth="1"/>
     <col min="15344" max="15345" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15346" max="15346" width="2.7109375" style="34" customWidth="1"/>
-    <col min="15347" max="15382" width="3.28515625" style="34" customWidth="1"/>
-    <col min="15383" max="15383" width="1.7109375" style="34" customWidth="1"/>
-    <col min="15384" max="15384" width="25.7109375" style="34" customWidth="1"/>
-    <col min="15385" max="15385" width="31.28515625" style="34" customWidth="1"/>
-    <col min="15386" max="15595" width="8.85546875" style="34"/>
-    <col min="15596" max="15596" width="1.42578125" style="34" customWidth="1"/>
-    <col min="15597" max="15597" width="1.28515625" style="34" customWidth="1"/>
+    <col min="15346" max="15346" width="2.6640625" style="34" customWidth="1"/>
+    <col min="15347" max="15382" width="3.33203125" style="34" customWidth="1"/>
+    <col min="15383" max="15383" width="1.6640625" style="34" customWidth="1"/>
+    <col min="15384" max="15384" width="25.6640625" style="34" customWidth="1"/>
+    <col min="15385" max="15385" width="31.33203125" style="34" customWidth="1"/>
+    <col min="15386" max="15595" width="8.83203125" style="34"/>
+    <col min="15596" max="15596" width="1.5" style="34" customWidth="1"/>
+    <col min="15597" max="15597" width="1.33203125" style="34" customWidth="1"/>
     <col min="15598" max="15598" width="42" style="34" customWidth="1"/>
-    <col min="15599" max="15599" width="5.42578125" style="34" customWidth="1"/>
+    <col min="15599" max="15599" width="5.5" style="34" customWidth="1"/>
     <col min="15600" max="15601" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15602" max="15602" width="2.7109375" style="34" customWidth="1"/>
-    <col min="15603" max="15638" width="3.28515625" style="34" customWidth="1"/>
-    <col min="15639" max="15639" width="1.7109375" style="34" customWidth="1"/>
-    <col min="15640" max="15640" width="25.7109375" style="34" customWidth="1"/>
-    <col min="15641" max="15641" width="31.28515625" style="34" customWidth="1"/>
-    <col min="15642" max="15851" width="8.85546875" style="34"/>
-    <col min="15852" max="15852" width="1.42578125" style="34" customWidth="1"/>
-    <col min="15853" max="15853" width="1.28515625" style="34" customWidth="1"/>
+    <col min="15602" max="15602" width="2.6640625" style="34" customWidth="1"/>
+    <col min="15603" max="15638" width="3.33203125" style="34" customWidth="1"/>
+    <col min="15639" max="15639" width="1.6640625" style="34" customWidth="1"/>
+    <col min="15640" max="15640" width="25.6640625" style="34" customWidth="1"/>
+    <col min="15641" max="15641" width="31.33203125" style="34" customWidth="1"/>
+    <col min="15642" max="15851" width="8.83203125" style="34"/>
+    <col min="15852" max="15852" width="1.5" style="34" customWidth="1"/>
+    <col min="15853" max="15853" width="1.33203125" style="34" customWidth="1"/>
     <col min="15854" max="15854" width="42" style="34" customWidth="1"/>
-    <col min="15855" max="15855" width="5.42578125" style="34" customWidth="1"/>
+    <col min="15855" max="15855" width="5.5" style="34" customWidth="1"/>
     <col min="15856" max="15857" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="15858" max="15858" width="2.7109375" style="34" customWidth="1"/>
-    <col min="15859" max="15894" width="3.28515625" style="34" customWidth="1"/>
-    <col min="15895" max="15895" width="1.7109375" style="34" customWidth="1"/>
-    <col min="15896" max="15896" width="25.7109375" style="34" customWidth="1"/>
-    <col min="15897" max="15897" width="31.28515625" style="34" customWidth="1"/>
-    <col min="15898" max="16107" width="8.85546875" style="34"/>
-    <col min="16108" max="16108" width="1.42578125" style="34" customWidth="1"/>
-    <col min="16109" max="16109" width="1.28515625" style="34" customWidth="1"/>
+    <col min="15858" max="15858" width="2.6640625" style="34" customWidth="1"/>
+    <col min="15859" max="15894" width="3.33203125" style="34" customWidth="1"/>
+    <col min="15895" max="15895" width="1.6640625" style="34" customWidth="1"/>
+    <col min="15896" max="15896" width="25.6640625" style="34" customWidth="1"/>
+    <col min="15897" max="15897" width="31.33203125" style="34" customWidth="1"/>
+    <col min="15898" max="16107" width="8.83203125" style="34"/>
+    <col min="16108" max="16108" width="1.5" style="34" customWidth="1"/>
+    <col min="16109" max="16109" width="1.33203125" style="34" customWidth="1"/>
     <col min="16110" max="16110" width="42" style="34" customWidth="1"/>
-    <col min="16111" max="16111" width="5.42578125" style="34" customWidth="1"/>
+    <col min="16111" max="16111" width="5.5" style="34" customWidth="1"/>
     <col min="16112" max="16113" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="16114" max="16114" width="2.7109375" style="34" customWidth="1"/>
-    <col min="16115" max="16150" width="3.28515625" style="34" customWidth="1"/>
-    <col min="16151" max="16151" width="1.7109375" style="34" customWidth="1"/>
-    <col min="16152" max="16152" width="25.7109375" style="34" customWidth="1"/>
-    <col min="16153" max="16153" width="31.28515625" style="34" customWidth="1"/>
-    <col min="16154" max="16384" width="8.85546875" style="34"/>
+    <col min="16114" max="16114" width="2.6640625" style="34" customWidth="1"/>
+    <col min="16115" max="16150" width="3.33203125" style="34" customWidth="1"/>
+    <col min="16151" max="16151" width="1.6640625" style="34" customWidth="1"/>
+    <col min="16152" max="16152" width="25.6640625" style="34" customWidth="1"/>
+    <col min="16153" max="16153" width="31.33203125" style="34" customWidth="1"/>
+    <col min="16154" max="16384" width="8.83203125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:34" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="63" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="2:34" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:34" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="34"/>
     </row>
-    <row r="3" spans="2:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="93" t="s">
+    <row r="3" spans="2:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="88" t="s">
         <v>59</v>
       </c>
       <c r="AD3" s="34"/>
@@ -7721,31 +7847,29 @@
       <c r="AG3" s="34"/>
       <c r="AH3" s="34"/>
     </row>
-    <row r="4" spans="2:34" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="84" t="s">
-        <v>51</v>
-      </c>
+    <row r="4" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="135"/>
       <c r="AD4" s="34"/>
       <c r="AE4" s="34"/>
       <c r="AF4" s="34"/>
       <c r="AG4" s="34"/>
       <c r="AH4" s="34"/>
     </row>
-    <row r="5" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="84" t="s">
-        <v>51</v>
+    <row r="5" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>50</v>
       </c>
       <c r="AD5" s="34"/>
       <c r="AE5" s="34"/>
@@ -7753,14 +7877,14 @@
       <c r="AG5" s="34"/>
       <c r="AH5" s="34"/>
     </row>
-    <row r="6" spans="2:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="69" t="s">
+    <row r="6" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="134" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="71" t="s">
         <v>50</v>
       </c>
       <c r="AD6" s="34"/>
@@ -7769,14 +7893,14 @@
       <c r="AG6" s="34"/>
       <c r="AH6" s="34"/>
     </row>
-    <row r="7" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="69" t="s">
+    <row r="7" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="134" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="71" t="s">
         <v>50</v>
       </c>
       <c r="AD7" s="34"/>
@@ -7785,14 +7909,14 @@
       <c r="AG7" s="34"/>
       <c r="AH7" s="34"/>
     </row>
-    <row r="8" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="69" t="s">
+    <row r="8" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="134" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="71" t="s">
         <v>50</v>
       </c>
       <c r="AD8" s="34"/>
@@ -7801,15 +7925,15 @@
       <c r="AG8" s="34"/>
       <c r="AH8" s="34"/>
     </row>
-    <row r="9" spans="2:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>50</v>
+    <row r="9" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="134" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="136" t="s">
+        <v>49</v>
       </c>
       <c r="AD9" s="34"/>
       <c r="AE9" s="34"/>
@@ -7817,126 +7941,135 @@
       <c r="AG9" s="34"/>
       <c r="AH9" s="34"/>
     </row>
-    <row r="10" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
+    <row r="10" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="133" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="134" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="135"/>
       <c r="AD10" s="34"/>
       <c r="AE10" s="34"/>
       <c r="AF10" s="34"/>
       <c r="AG10" s="34"/>
       <c r="AH10" s="34"/>
     </row>
-    <row r="11" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
+    <row r="11" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="133" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="135"/>
       <c r="AD11" s="34"/>
       <c r="AE11" s="34"/>
       <c r="AF11" s="34"/>
       <c r="AG11" s="34"/>
       <c r="AH11" s="34"/>
     </row>
-    <row r="12" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
+    <row r="12" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="133" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="135"/>
       <c r="AD12" s="34"/>
       <c r="AE12" s="34"/>
       <c r="AF12" s="34"/>
       <c r="AG12" s="34"/>
       <c r="AH12" s="34"/>
     </row>
-    <row r="13" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.15">
       <c r="AD13" s="34"/>
       <c r="AE13" s="34"/>
       <c r="AF13" s="34"/>
       <c r="AG13" s="34"/>
       <c r="AH13" s="34"/>
     </row>
-    <row r="14" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:34" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="20"/>
       <c r="C14" s="48"/>
       <c r="D14" s="49"/>
     </row>
-    <row r="15" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:34" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="49"/>
     </row>
-    <row r="16" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:34" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="49"/>
     </row>
-    <row r="17" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="49"/>
     </row>
-    <row r="18" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
       <c r="D19" s="49"/>
     </row>
-    <row r="20" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="49"/>
     </row>
-    <row r="21" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="49"/>
     </row>
-    <row r="22" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="49"/>
     </row>
-    <row r="23" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="49"/>
     </row>
-    <row r="24" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
       <c r="D24" s="49"/>
     </row>
-    <row r="25" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
       <c r="D25" s="49"/>
     </row>
-    <row r="26" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
       <c r="D26" s="49"/>
     </row>
-    <row r="27" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="48"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B28" s="48"/>
     </row>
-    <row r="29" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B29" s="48"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
-  <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
     <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.2&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>

--- a/Documents/External/Residual_Anomalies_CommLib_Android_JaiVis-20161118-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_CommLib_Android_JaiVis-20161118-01V01.xlsx
@@ -1116,7 +1116,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1303,6 +1303,28 @@
     <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1371,29 +1393,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -1584,13 +1583,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1612,6 +1604,13 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2437,7 +2436,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:F10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:F10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="B6:F10"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Version" dataDxfId="4"/>
@@ -2793,11 +2792,11 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2863,10 +2862,10 @@
       <c r="C12" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="95"/>
+      <c r="E12" s="105"/>
       <c r="F12" s="28" t="s">
         <v>16</v>
       </c>
@@ -2881,10 +2880,10 @@
       <c r="C13" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="96"/>
+      <c r="E13" s="106"/>
       <c r="F13" s="28" t="s">
         <v>17</v>
       </c>
@@ -2899,8 +2898,8 @@
       <c r="C14" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
       <c r="F14" s="28" t="s">
         <v>18</v>
       </c>
@@ -3028,11 +3027,11 @@
       <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="115"/>
     </row>
     <row r="7" spans="2:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
@@ -3041,11 +3040,11 @@
       <c r="C7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
     </row>
     <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31" t="s">
@@ -3097,27 +3096,27 @@
       <c r="D12" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="107" t="s">
+      <c r="E12" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="107"/>
+      <c r="F12" s="117"/>
     </row>
     <row r="13" spans="2:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="31"/>
       <c r="D13" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="97" t="s">
+      <c r="E13" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="98"/>
+      <c r="F13" s="108"/>
     </row>
     <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="32"/>
       <c r="C14" s="30"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="110"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
@@ -3130,8 +3129,8 @@
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="102"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="112"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
@@ -3310,19 +3309,19 @@
       <c r="N6" s="17"/>
     </row>
     <row r="7" spans="2:14" ht="28" x14ac:dyDescent="0.15">
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="126" t="s">
+      <c r="D7" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="94" t="s">
         <v>72</v>
       </c>
       <c r="G7" s="17"/>
@@ -3335,19 +3334,19 @@
       <c r="N7" s="17"/>
     </row>
     <row r="8" spans="2:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="128" t="s">
+      <c r="D8" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="129" t="s">
+      <c r="E8" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="129" t="s">
+      <c r="F8" s="97" t="s">
         <v>78</v>
       </c>
       <c r="G8" s="90"/>
@@ -3360,19 +3359,19 @@
       <c r="N8" s="17"/>
     </row>
     <row r="9" spans="2:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="128" t="s">
+      <c r="D9" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="129" t="s">
+      <c r="E9" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="129" t="s">
+      <c r="F9" s="97" t="s">
         <v>82</v>
       </c>
       <c r="G9" s="90"/>
@@ -3385,19 +3384,19 @@
       <c r="N9" s="17"/>
     </row>
     <row r="10" spans="2:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="130" t="s">
+      <c r="D10" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="131" t="s">
+      <c r="E10" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="131" t="s">
+      <c r="F10" s="99" t="s">
         <v>89</v>
       </c>
       <c r="G10" s="89"/>
@@ -6071,19 +6070,19 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:37" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
     </row>
     <row r="5" spans="2:37" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="45"/>
@@ -6102,29 +6101,29 @@
       <c r="B6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="118"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B7" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="121"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="131"/>
       <c r="M7" s="51"/>
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
@@ -6135,15 +6134,15 @@
       <c r="B8" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="124"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
       <c r="M8" s="51"/>
       <c r="N8" s="51"/>
       <c r="O8" s="51"/>
@@ -6154,15 +6153,15 @@
       <c r="B9" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="113"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="M9" s="51"/>
       <c r="N9" s="51"/>
       <c r="O9" s="51"/>
@@ -6187,15 +6186,15 @@
       <c r="B11" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="110"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="120"/>
     </row>
     <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="64"/>
@@ -6300,7 +6299,7 @@
   <dimension ref="B1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7017,11 +7016,11 @@
     </row>
     <row r="2" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="37"/>
@@ -7051,7 +7050,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="37"/>
     </row>
@@ -7060,7 +7059,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="37"/>
     </row>
@@ -7114,7 +7113,7 @@
   <dimension ref="B1:AH29"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="120" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7848,13 +7847,13 @@
       <c r="AH3" s="34"/>
     </row>
     <row r="4" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="103"/>
       <c r="AD4" s="34"/>
       <c r="AE4" s="34"/>
       <c r="AF4" s="34"/>
@@ -7862,10 +7861,10 @@
       <c r="AH4" s="34"/>
     </row>
     <row r="5" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="102" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="71" t="s">
@@ -7878,10 +7877,10 @@
       <c r="AH5" s="34"/>
     </row>
     <row r="6" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="102" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="71" t="s">
@@ -7894,10 +7893,10 @@
       <c r="AH6" s="34"/>
     </row>
     <row r="7" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="102" t="s">
         <v>97</v>
       </c>
       <c r="D7" s="71" t="s">
@@ -7910,10 +7909,10 @@
       <c r="AH7" s="34"/>
     </row>
     <row r="8" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="102" t="s">
         <v>99</v>
       </c>
       <c r="D8" s="71" t="s">
@@ -7926,14 +7925,14 @@
       <c r="AH8" s="34"/>
     </row>
     <row r="9" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="136" t="s">
-        <v>49</v>
+      <c r="D9" s="71" t="s">
+        <v>50</v>
       </c>
       <c r="AD9" s="34"/>
       <c r="AE9" s="34"/>
@@ -7942,13 +7941,13 @@
       <c r="AH9" s="34"/>
     </row>
     <row r="10" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="135"/>
+      <c r="D10" s="103"/>
       <c r="AD10" s="34"/>
       <c r="AE10" s="34"/>
       <c r="AF10" s="34"/>
@@ -7956,13 +7955,13 @@
       <c r="AH10" s="34"/>
     </row>
     <row r="11" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="135"/>
+      <c r="D11" s="103"/>
       <c r="AD11" s="34"/>
       <c r="AE11" s="34"/>
       <c r="AF11" s="34"/>
@@ -7970,13 +7969,13 @@
       <c r="AH11" s="34"/>
     </row>
     <row r="12" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="135"/>
+      <c r="D12" s="103"/>
       <c r="AD12" s="34"/>
       <c r="AE12" s="34"/>
       <c r="AF12" s="34"/>
@@ -8084,52 +8083,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <View_x0020_CRM xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_CRM>
-    <View_x0020_Qua xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Qua>
-    <Document_x0020_author xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
-      <UserInfo>
-        <DisplayName>Jacobs, Frans</DisplayName>
-        <AccountId>1</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Document_x0020_author>
-    <Document_x0020_type xmlns="5db227b6-3c56-4158-ad71-bd648583e357">Template</Document_x0020_type>
-    <View_x0020_Eng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_Eng>
-    <View_x0020_Production xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</View_x0020_Production>
-    <Relevant_x0020_to_x0020_ISO_x0020_13485 xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Relevant_x0020_to_x0020_ISO_x0020_13485>
-    <PInS_x0020_department xmlns="5db227b6-3c56-4158-ad71-bd648583e357">140 Software</PInS_x0020_department>
-    <Doc_x0020_nr. xmlns="5db227b6-3c56-4158-ad71-bd648583e357">BMS-REA-719</Doc_x0020_nr.>
-    <DLCPolicyLabelLock xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a" xsi:nil="true"/>
-    <Linked_x0020_to_x0020_PQRS xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</Linked_x0020_to_x0020_PQRS>
-    <Safety_x0020_relevant xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Safety_x0020_relevant>
-    <Approver xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
-      <UserInfo>
-        <DisplayName>Jacobs, Frans</DisplayName>
-        <AccountId>1</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Approver>
-    <Reviewers xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Reviewers>
-    <Process xmlns="5db227b6-3c56-4158-ad71-bd648583e357">04 Realisation</Process>
-    <View_x0020_PL xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_PL>
-    <View_x0020_Mng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Mng>
-    <DLCPolicyLabelClientValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">{_UIVersionString}
-{_ModerationStatus}</DLCPolicyLabelClientValue>
-    <DLCPolicyLabelValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">1.0
-Approved</DLCPolicyLabelValue>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="02 Departmental document" ma:contentTypeID="0x0101001E9AF57F6A6FB1498E6BAB1704371DB9020048B3E13A56EC2B4880B8E17388254DB6" ma:contentTypeVersion="42" ma:contentTypeDescription="A document under departmental control" ma:contentTypeScope="" ma:versionID="28e15f56482d8af7e67347cbef2a0996">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5db227b6-3c56-4158-ad71-bd648583e357" xmlns:ns3="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa83b77159cc0e9c22a0bfa7b50ba950" ns2:_="" ns3:_="">
     <xsd:import namespace="5db227b6-3c56-4158-ad71-bd648583e357"/>
@@ -8519,7 +8472,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <p:Policy xmlns:p="office.server.policy" id="" local="true">
   <p:Name>02 Departmental document</p:Name>
@@ -8541,7 +8494,7 @@
 </p:Policy>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8550,24 +8503,53 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1320B1-D764-4C81-9B48-5F60482C3805}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5db227b6-3c56-4158-ad71-bd648583e357"/>
-    <ds:schemaRef ds:uri="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <View_x0020_CRM xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_CRM>
+    <View_x0020_Qua xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Qua>
+    <Document_x0020_author xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
+      <UserInfo>
+        <DisplayName>Jacobs, Frans</DisplayName>
+        <AccountId>1</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Document_x0020_author>
+    <Document_x0020_type xmlns="5db227b6-3c56-4158-ad71-bd648583e357">Template</Document_x0020_type>
+    <View_x0020_Eng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_Eng>
+    <View_x0020_Production xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</View_x0020_Production>
+    <Relevant_x0020_to_x0020_ISO_x0020_13485 xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Relevant_x0020_to_x0020_ISO_x0020_13485>
+    <PInS_x0020_department xmlns="5db227b6-3c56-4158-ad71-bd648583e357">140 Software</PInS_x0020_department>
+    <Doc_x0020_nr. xmlns="5db227b6-3c56-4158-ad71-bd648583e357">BMS-REA-719</Doc_x0020_nr.>
+    <DLCPolicyLabelLock xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a" xsi:nil="true"/>
+    <Linked_x0020_to_x0020_PQRS xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</Linked_x0020_to_x0020_PQRS>
+    <Safety_x0020_relevant xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Safety_x0020_relevant>
+    <Approver xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
+      <UserInfo>
+        <DisplayName>Jacobs, Frans</DisplayName>
+        <AccountId>1</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Approver>
+    <Reviewers xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Reviewers>
+    <Process xmlns="5db227b6-3c56-4158-ad71-bd648583e357">04 Realisation</Process>
+    <View_x0020_PL xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_PL>
+    <View_x0020_Mng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Mng>
+    <DLCPolicyLabelClientValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">{_UIVersionString}
+{_ModerationStatus}</DLCPolicyLabelClientValue>
+    <DLCPolicyLabelValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">1.0
+Approved</DLCPolicyLabelValue>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3331877D-A973-4A26-8E19-E1DD744074D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8586,7 +8568,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E0ECFB5-0E65-4944-A2C3-A12752EA8F83}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="office.server.policy"/>
@@ -8594,10 +8576,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F20991C-9C75-4A23-AD56-83877EA734AB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1320B1-D764-4C81-9B48-5F60482C3805}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5db227b6-3c56-4158-ad71-bd648583e357"/>
+    <ds:schemaRef ds:uri="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>